--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Germany 2. Bundesliga</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['5', '35']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7491490</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45506.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.75</v>
+      </c>
+      <c r="R2">
+        <v>2.3</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>1.33</v>
+      </c>
+      <c r="U2">
+        <v>3.25</v>
+      </c>
+      <c r="V2">
+        <v>2.5</v>
+      </c>
+      <c r="W2">
+        <v>1.5</v>
+      </c>
+      <c r="X2">
+        <v>6.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.11</v>
+      </c>
+      <c r="Z2">
+        <v>2.15</v>
+      </c>
+      <c r="AA2">
+        <v>3.7</v>
+      </c>
+      <c r="AB2">
+        <v>2.88</v>
+      </c>
+      <c r="AC2">
+        <v>1.04</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>1.22</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>1.7</v>
+      </c>
+      <c r="AH2">
+        <v>2.07</v>
+      </c>
+      <c r="AI2">
+        <v>1.57</v>
+      </c>
+      <c r="AJ2">
+        <v>2.25</v>
+      </c>
+      <c r="AK2">
+        <v>1.36</v>
+      </c>
+      <c r="AL2">
+        <v>1.25</v>
+      </c>
+      <c r="AM2">
+        <v>1.66</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>7</v>
+      </c>
+      <c r="AW2">
+        <v>13</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>18</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
+        <v>1.69</v>
+      </c>
+      <c r="BE2">
+        <v>8.5</v>
+      </c>
+      <c r="BF2">
+        <v>2.45</v>
+      </c>
+      <c r="BG2">
+        <v>1.14</v>
+      </c>
+      <c r="BH2">
+        <v>5.2</v>
+      </c>
+      <c r="BI2">
+        <v>1.24</v>
+      </c>
+      <c r="BJ2">
+        <v>3.55</v>
+      </c>
+      <c r="BK2">
+        <v>1.55</v>
+      </c>
+      <c r="BL2">
+        <v>2.3</v>
+      </c>
+      <c r="BM2">
+        <v>1.92</v>
+      </c>
+      <c r="BN2">
+        <v>1.88</v>
+      </c>
+      <c r="BO2">
+        <v>2.3</v>
+      </c>
+      <c r="BP2">
+        <v>1.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,100 @@
     <t>Köln</t>
   </si>
   <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>Hannover 96</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Darmstadt 98</t>
+  </si>
+  <si>
+    <t>Greuther Fürth</t>
+  </si>
+  <si>
+    <t>Ulm</t>
+  </si>
+  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Eintracht Braunschweig</t>
+  </si>
+  <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
+    <t>Preußen Münster</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
+    <t>['45+2', '73', '79']</t>
+  </si>
+  <si>
+    <t>['11', '23']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['9', '25', '73', '82', '83']</t>
+  </si>
+  <si>
+    <t>['25', '50', '55']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
+  </si>
+  <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
+    <t>['42', '48']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['55', '86']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['77', '83']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +919,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -853,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1013,6 +1100,1654 @@
       </c>
       <c r="BP2">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7491492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45507.33333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3">
+        <v>2.6</v>
+      </c>
+      <c r="R3">
+        <v>2.3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>1.33</v>
+      </c>
+      <c r="U3">
+        <v>3.25</v>
+      </c>
+      <c r="V3">
+        <v>2.5</v>
+      </c>
+      <c r="W3">
+        <v>1.5</v>
+      </c>
+      <c r="X3">
+        <v>6.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.11</v>
+      </c>
+      <c r="Z3">
+        <v>1.81</v>
+      </c>
+      <c r="AA3">
+        <v>3.98</v>
+      </c>
+      <c r="AB3">
+        <v>4.04</v>
+      </c>
+      <c r="AC3">
+        <v>1.05</v>
+      </c>
+      <c r="AD3">
+        <v>9.5</v>
+      </c>
+      <c r="AE3">
+        <v>1.22</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>1.68</v>
+      </c>
+      <c r="AH3">
+        <v>2.11</v>
+      </c>
+      <c r="AI3">
+        <v>1.62</v>
+      </c>
+      <c r="AJ3">
+        <v>2.2</v>
+      </c>
+      <c r="AK3">
+        <v>1.28</v>
+      </c>
+      <c r="AL3">
+        <v>1.22</v>
+      </c>
+      <c r="AM3">
+        <v>1.83</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>6</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>6</v>
+      </c>
+      <c r="AX3">
+        <v>5</v>
+      </c>
+      <c r="AY3">
+        <v>12</v>
+      </c>
+      <c r="AZ3">
+        <v>11</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>10</v>
+      </c>
+      <c r="BD3">
+        <v>1.51</v>
+      </c>
+      <c r="BE3">
+        <v>9</v>
+      </c>
+      <c r="BF3">
+        <v>3.06</v>
+      </c>
+      <c r="BG3">
+        <v>1.12</v>
+      </c>
+      <c r="BH3">
+        <v>5.25</v>
+      </c>
+      <c r="BI3">
+        <v>1.23</v>
+      </c>
+      <c r="BJ3">
+        <v>3.65</v>
+      </c>
+      <c r="BK3">
+        <v>1.55</v>
+      </c>
+      <c r="BL3">
+        <v>2.3</v>
+      </c>
+      <c r="BM3">
+        <v>1.92</v>
+      </c>
+      <c r="BN3">
+        <v>1.88</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7491493</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45507.33333333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4">
+        <v>2.25</v>
+      </c>
+      <c r="R4">
+        <v>2.38</v>
+      </c>
+      <c r="S4">
+        <v>4.75</v>
+      </c>
+      <c r="T4">
+        <v>1.33</v>
+      </c>
+      <c r="U4">
+        <v>3.25</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>6.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.11</v>
+      </c>
+      <c r="Z4">
+        <v>1.72</v>
+      </c>
+      <c r="AA4">
+        <v>4.05</v>
+      </c>
+      <c r="AB4">
+        <v>4.49</v>
+      </c>
+      <c r="AC4">
+        <v>1.04</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>1.22</v>
+      </c>
+      <c r="AF4">
+        <v>4.2</v>
+      </c>
+      <c r="AG4">
+        <v>1.63</v>
+      </c>
+      <c r="AH4">
+        <v>2.19</v>
+      </c>
+      <c r="AI4">
+        <v>1.67</v>
+      </c>
+      <c r="AJ4">
+        <v>2.1</v>
+      </c>
+      <c r="AK4">
+        <v>1.15</v>
+      </c>
+      <c r="AL4">
+        <v>1.2</v>
+      </c>
+      <c r="AM4">
+        <v>2.15</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>6</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>6</v>
+      </c>
+      <c r="AY4">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
+        <v>10</v>
+      </c>
+      <c r="BA4">
+        <v>5</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
+        <v>1.51</v>
+      </c>
+      <c r="BE4">
+        <v>9</v>
+      </c>
+      <c r="BF4">
+        <v>3.06</v>
+      </c>
+      <c r="BG4">
+        <v>1.16</v>
+      </c>
+      <c r="BH4">
+        <v>4.5</v>
+      </c>
+      <c r="BI4">
+        <v>1.3</v>
+      </c>
+      <c r="BJ4">
+        <v>3.05</v>
+      </c>
+      <c r="BK4">
+        <v>1.6</v>
+      </c>
+      <c r="BL4">
+        <v>2.2</v>
+      </c>
+      <c r="BM4">
+        <v>1.98</v>
+      </c>
+      <c r="BN4">
+        <v>1.82</v>
+      </c>
+      <c r="BO4">
+        <v>2.3</v>
+      </c>
+      <c r="BP4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7491495</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45507.33333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5">
+        <v>2.6</v>
+      </c>
+      <c r="R5">
+        <v>2.4</v>
+      </c>
+      <c r="S5">
+        <v>3.6</v>
+      </c>
+      <c r="T5">
+        <v>1.29</v>
+      </c>
+      <c r="U5">
+        <v>3.5</v>
+      </c>
+      <c r="V5">
+        <v>2.25</v>
+      </c>
+      <c r="W5">
+        <v>1.57</v>
+      </c>
+      <c r="X5">
+        <v>5.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.14</v>
+      </c>
+      <c r="Z5">
+        <v>1.97</v>
+      </c>
+      <c r="AA5">
+        <v>3.92</v>
+      </c>
+      <c r="AB5">
+        <v>3.46</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>9.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.18</v>
+      </c>
+      <c r="AF5">
+        <v>4.75</v>
+      </c>
+      <c r="AG5">
+        <v>1.53</v>
+      </c>
+      <c r="AH5">
+        <v>2.4</v>
+      </c>
+      <c r="AI5">
+        <v>1.5</v>
+      </c>
+      <c r="AJ5">
+        <v>2.5</v>
+      </c>
+      <c r="AK5">
+        <v>1.33</v>
+      </c>
+      <c r="AL5">
+        <v>1.2</v>
+      </c>
+      <c r="AM5">
+        <v>1.75</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>9</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>8</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>1.85</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>2.28</v>
+      </c>
+      <c r="BG5">
+        <v>1.2</v>
+      </c>
+      <c r="BH5">
+        <v>3.95</v>
+      </c>
+      <c r="BI5">
+        <v>1.38</v>
+      </c>
+      <c r="BJ5">
+        <v>2.75</v>
+      </c>
+      <c r="BK5">
+        <v>1.65</v>
+      </c>
+      <c r="BL5">
+        <v>2.1</v>
+      </c>
+      <c r="BM5">
+        <v>2</v>
+      </c>
+      <c r="BN5">
+        <v>1.73</v>
+      </c>
+      <c r="BO5">
+        <v>2.5</v>
+      </c>
+      <c r="BP5">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7491497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45507.33333333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+      <c r="R6">
+        <v>2.38</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1.3</v>
+      </c>
+      <c r="U6">
+        <v>3.4</v>
+      </c>
+      <c r="V6">
+        <v>2.5</v>
+      </c>
+      <c r="W6">
+        <v>1.5</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>1.13</v>
+      </c>
+      <c r="Z6">
+        <v>1.95</v>
+      </c>
+      <c r="AA6">
+        <v>3.84</v>
+      </c>
+      <c r="AB6">
+        <v>3.59</v>
+      </c>
+      <c r="AC6">
+        <v>1.04</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>1.2</v>
+      </c>
+      <c r="AF6">
+        <v>4.2</v>
+      </c>
+      <c r="AG6">
+        <v>1.62</v>
+      </c>
+      <c r="AH6">
+        <v>2.21</v>
+      </c>
+      <c r="AI6">
+        <v>1.57</v>
+      </c>
+      <c r="AJ6">
+        <v>2.25</v>
+      </c>
+      <c r="AK6">
+        <v>1.3</v>
+      </c>
+      <c r="AL6">
+        <v>1.22</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>7</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>9</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>16</v>
+      </c>
+      <c r="AZ6">
+        <v>7</v>
+      </c>
+      <c r="BA6">
+        <v>11</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>12</v>
+      </c>
+      <c r="BD6">
+        <v>1.64</v>
+      </c>
+      <c r="BE6">
+        <v>8</v>
+      </c>
+      <c r="BF6">
+        <v>2.67</v>
+      </c>
+      <c r="BG6">
+        <v>1.24</v>
+      </c>
+      <c r="BH6">
+        <v>3.55</v>
+      </c>
+      <c r="BI6">
+        <v>1.5</v>
+      </c>
+      <c r="BJ6">
+        <v>2.4</v>
+      </c>
+      <c r="BK6">
+        <v>1.82</v>
+      </c>
+      <c r="BL6">
+        <v>1.98</v>
+      </c>
+      <c r="BM6">
+        <v>2.2</v>
+      </c>
+      <c r="BN6">
+        <v>1.6</v>
+      </c>
+      <c r="BO6">
+        <v>3</v>
+      </c>
+      <c r="BP6">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7491496</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45507.64583333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>2.38</v>
+      </c>
+      <c r="R7">
+        <v>2.25</v>
+      </c>
+      <c r="S7">
+        <v>4.75</v>
+      </c>
+      <c r="T7">
+        <v>1.36</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2.63</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>1.7</v>
+      </c>
+      <c r="AA7">
+        <v>3.6</v>
+      </c>
+      <c r="AB7">
+        <v>4.6</v>
+      </c>
+      <c r="AC7">
+        <v>1.05</v>
+      </c>
+      <c r="AD7">
+        <v>12.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.26</v>
+      </c>
+      <c r="AF7">
+        <v>3.95</v>
+      </c>
+      <c r="AG7">
+        <v>1.6</v>
+      </c>
+      <c r="AH7">
+        <v>2.1</v>
+      </c>
+      <c r="AI7">
+        <v>1.73</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>1.16</v>
+      </c>
+      <c r="AL7">
+        <v>1.2</v>
+      </c>
+      <c r="AM7">
+        <v>2.05</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>9</v>
+      </c>
+      <c r="AV7">
+        <v>7</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>13</v>
+      </c>
+      <c r="AZ7">
+        <v>12</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
+        <v>1.37</v>
+      </c>
+      <c r="BE7">
+        <v>9.5</v>
+      </c>
+      <c r="BF7">
+        <v>3.69</v>
+      </c>
+      <c r="BG7">
+        <v>1.18</v>
+      </c>
+      <c r="BH7">
+        <v>4.2</v>
+      </c>
+      <c r="BI7">
+        <v>1.35</v>
+      </c>
+      <c r="BJ7">
+        <v>2.88</v>
+      </c>
+      <c r="BK7">
+        <v>1.65</v>
+      </c>
+      <c r="BL7">
+        <v>2.1</v>
+      </c>
+      <c r="BM7">
+        <v>2</v>
+      </c>
+      <c r="BN7">
+        <v>1.73</v>
+      </c>
+      <c r="BO7">
+        <v>2.5</v>
+      </c>
+      <c r="BP7">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7491491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45508.35416666666</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>3.2</v>
+      </c>
+      <c r="R8">
+        <v>2.3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>1.33</v>
+      </c>
+      <c r="U8">
+        <v>3.25</v>
+      </c>
+      <c r="V8">
+        <v>2.5</v>
+      </c>
+      <c r="W8">
+        <v>1.5</v>
+      </c>
+      <c r="X8">
+        <v>6.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.11</v>
+      </c>
+      <c r="Z8">
+        <v>2.5</v>
+      </c>
+      <c r="AA8">
+        <v>3.4</v>
+      </c>
+      <c r="AB8">
+        <v>2.5</v>
+      </c>
+      <c r="AC8">
+        <v>1.05</v>
+      </c>
+      <c r="AD8">
+        <v>9.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.22</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>1.7</v>
+      </c>
+      <c r="AH8">
+        <v>2.07</v>
+      </c>
+      <c r="AI8">
+        <v>1.57</v>
+      </c>
+      <c r="AJ8">
+        <v>2.25</v>
+      </c>
+      <c r="AK8">
+        <v>1.55</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
+        <v>1.45</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>7</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
+      <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <v>10</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>6</v>
+      </c>
+      <c r="BC8">
+        <v>13</v>
+      </c>
+      <c r="BD8">
+        <v>1.91</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>2.2</v>
+      </c>
+      <c r="BG8">
+        <v>1.24</v>
+      </c>
+      <c r="BH8">
+        <v>3.55</v>
+      </c>
+      <c r="BI8">
+        <v>1.5</v>
+      </c>
+      <c r="BJ8">
+        <v>2.4</v>
+      </c>
+      <c r="BK8">
+        <v>1.82</v>
+      </c>
+      <c r="BL8">
+        <v>1.98</v>
+      </c>
+      <c r="BM8">
+        <v>2.2</v>
+      </c>
+      <c r="BN8">
+        <v>1.6</v>
+      </c>
+      <c r="BO8">
+        <v>3</v>
+      </c>
+      <c r="BP8">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7491494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45508.35416666666</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9">
+        <v>2.4</v>
+      </c>
+      <c r="R9">
+        <v>2.3</v>
+      </c>
+      <c r="S9">
+        <v>4.33</v>
+      </c>
+      <c r="T9">
+        <v>1.33</v>
+      </c>
+      <c r="U9">
+        <v>3.25</v>
+      </c>
+      <c r="V9">
+        <v>2.5</v>
+      </c>
+      <c r="W9">
+        <v>1.5</v>
+      </c>
+      <c r="X9">
+        <v>6.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.11</v>
+      </c>
+      <c r="Z9">
+        <v>1.8</v>
+      </c>
+      <c r="AA9">
+        <v>3.5</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>1.05</v>
+      </c>
+      <c r="AD9">
+        <v>9.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.22</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>1.7</v>
+      </c>
+      <c r="AH9">
+        <v>2.07</v>
+      </c>
+      <c r="AI9">
+        <v>1.62</v>
+      </c>
+      <c r="AJ9">
+        <v>2.2</v>
+      </c>
+      <c r="AK9">
+        <v>1.2</v>
+      </c>
+      <c r="AL9">
+        <v>1.2</v>
+      </c>
+      <c r="AM9">
+        <v>1.95</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AW9">
+        <v>10</v>
+      </c>
+      <c r="AX9">
+        <v>10</v>
+      </c>
+      <c r="AY9">
+        <v>20</v>
+      </c>
+      <c r="AZ9">
+        <v>15</v>
+      </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>11</v>
+      </c>
+      <c r="BD9">
+        <v>1.41</v>
+      </c>
+      <c r="BE9">
+        <v>9</v>
+      </c>
+      <c r="BF9">
+        <v>3.49</v>
+      </c>
+      <c r="BG9">
+        <v>1.18</v>
+      </c>
+      <c r="BH9">
+        <v>4.2</v>
+      </c>
+      <c r="BI9">
+        <v>1.35</v>
+      </c>
+      <c r="BJ9">
+        <v>2.88</v>
+      </c>
+      <c r="BK9">
+        <v>1.65</v>
+      </c>
+      <c r="BL9">
+        <v>2.1</v>
+      </c>
+      <c r="BM9">
+        <v>2</v>
+      </c>
+      <c r="BN9">
+        <v>1.73</v>
+      </c>
+      <c r="BO9">
+        <v>2.5</v>
+      </c>
+      <c r="BP9">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7491498</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45508.35416666666</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10">
+        <v>3.4</v>
+      </c>
+      <c r="R10">
+        <v>2.25</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>1.36</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2.63</v>
+      </c>
+      <c r="W10">
+        <v>1.44</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>1.1</v>
+      </c>
+      <c r="Z10">
+        <v>2.5</v>
+      </c>
+      <c r="AA10">
+        <v>3.4</v>
+      </c>
+      <c r="AB10">
+        <v>2.5</v>
+      </c>
+      <c r="AC10">
+        <v>1.05</v>
+      </c>
+      <c r="AD10">
+        <v>9.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.25</v>
+      </c>
+      <c r="AF10">
+        <v>3.75</v>
+      </c>
+      <c r="AG10">
+        <v>1.77</v>
+      </c>
+      <c r="AH10">
+        <v>1.97</v>
+      </c>
+      <c r="AI10">
+        <v>1.62</v>
+      </c>
+      <c r="AJ10">
+        <v>2.2</v>
+      </c>
+      <c r="AK10">
+        <v>1.57</v>
+      </c>
+      <c r="AL10">
+        <v>1.32</v>
+      </c>
+      <c r="AM10">
+        <v>1.37</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>10</v>
+      </c>
+      <c r="AZ10">
+        <v>12</v>
+      </c>
+      <c r="BA10">
+        <v>6</v>
+      </c>
+      <c r="BB10">
+        <v>7</v>
+      </c>
+      <c r="BC10">
+        <v>13</v>
+      </c>
+      <c r="BD10">
+        <v>2.05</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>1.95</v>
+      </c>
+      <c r="BG10">
+        <v>1.2</v>
+      </c>
+      <c r="BH10">
+        <v>3.95</v>
+      </c>
+      <c r="BI10">
+        <v>1.45</v>
+      </c>
+      <c r="BJ10">
+        <v>2.55</v>
+      </c>
+      <c r="BK10">
+        <v>1.73</v>
+      </c>
+      <c r="BL10">
+        <v>2</v>
+      </c>
+      <c r="BM10">
+        <v>2.1</v>
+      </c>
+      <c r="BN10">
+        <v>1.65</v>
+      </c>
+      <c r="BO10">
+        <v>2.75</v>
+      </c>
+      <c r="BP10">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,15 +253,18 @@
     <t>Ulm</t>
   </si>
   <si>
+    <t>Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
     <t>Nürnberg</t>
   </si>
   <si>
-    <t>Jahn Regensburg</t>
-  </si>
-  <si>
     <t>Paderborn</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>Preußen Münster</t>
   </si>
   <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -304,6 +304,12 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['45+1', '84']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
   </si>
   <si>
     <t>['77', '83']</t>
+  </si>
+  <si>
+    <t>['31', '38']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,7 +928,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -943,7 +952,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1125,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1149,7 +1158,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1331,7 +1340,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1537,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1561,7 +1570,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1743,7 +1752,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1949,7 +1958,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1973,7 +1982,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2155,7 +2164,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2179,7 +2188,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2361,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2385,7 +2394,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2567,7 +2576,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2591,7 +2600,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2748,6 +2757,418 @@
       </c>
       <c r="BP10">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7491507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45513.5625</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11">
+        <v>3.1</v>
+      </c>
+      <c r="R11">
+        <v>2.3</v>
+      </c>
+      <c r="S11">
+        <v>3.1</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>1.13</v>
+      </c>
+      <c r="Z11">
+        <v>2.52</v>
+      </c>
+      <c r="AA11">
+        <v>3.55</v>
+      </c>
+      <c r="AB11">
+        <v>2.62</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.22</v>
+      </c>
+      <c r="AF11">
+        <v>4.2</v>
+      </c>
+      <c r="AG11">
+        <v>1.61</v>
+      </c>
+      <c r="AH11">
+        <v>2.05</v>
+      </c>
+      <c r="AI11">
+        <v>1.53</v>
+      </c>
+      <c r="AJ11">
+        <v>2.38</v>
+      </c>
+      <c r="AK11">
+        <v>1.48</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.5</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>6</v>
+      </c>
+      <c r="AZ11">
+        <v>6</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>6.55</v>
+      </c>
+      <c r="BF11">
+        <v>2.27</v>
+      </c>
+      <c r="BG11">
+        <v>1.19</v>
+      </c>
+      <c r="BH11">
+        <v>3.98</v>
+      </c>
+      <c r="BI11">
+        <v>1.39</v>
+      </c>
+      <c r="BJ11">
+        <v>2.76</v>
+      </c>
+      <c r="BK11">
+        <v>1.69</v>
+      </c>
+      <c r="BL11">
+        <v>2.09</v>
+      </c>
+      <c r="BM11">
+        <v>2.12</v>
+      </c>
+      <c r="BN11">
+        <v>1.64</v>
+      </c>
+      <c r="BO11">
+        <v>2.78</v>
+      </c>
+      <c r="BP11">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7491504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45513.5625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12">
+        <v>2.65</v>
+      </c>
+      <c r="R12">
+        <v>2.25</v>
+      </c>
+      <c r="S12">
+        <v>3.5</v>
+      </c>
+      <c r="T12">
+        <v>1.32</v>
+      </c>
+      <c r="U12">
+        <v>3.15</v>
+      </c>
+      <c r="V12">
+        <v>2.45</v>
+      </c>
+      <c r="W12">
+        <v>1.49</v>
+      </c>
+      <c r="X12">
+        <v>5.45</v>
+      </c>
+      <c r="Y12">
+        <v>1.12</v>
+      </c>
+      <c r="Z12">
+        <v>1.93</v>
+      </c>
+      <c r="AA12">
+        <v>3.71</v>
+      </c>
+      <c r="AB12">
+        <v>3.64</v>
+      </c>
+      <c r="AC12">
+        <v>1.04</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>1.22</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>1.61</v>
+      </c>
+      <c r="AH12">
+        <v>2.05</v>
+      </c>
+      <c r="AI12">
+        <v>1.57</v>
+      </c>
+      <c r="AJ12">
+        <v>2.3</v>
+      </c>
+      <c r="AK12">
+        <v>1.36</v>
+      </c>
+      <c r="AL12">
+        <v>1.22</v>
+      </c>
+      <c r="AM12">
+        <v>1.7</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>8</v>
+      </c>
+      <c r="AV12">
+        <v>8</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>14</v>
+      </c>
+      <c r="AZ12">
+        <v>12</v>
+      </c>
+      <c r="BA12">
+        <v>8</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>13</v>
+      </c>
+      <c r="BD12">
+        <v>1.92</v>
+      </c>
+      <c r="BE12">
+        <v>6.6</v>
+      </c>
+      <c r="BF12">
+        <v>2.38</v>
+      </c>
+      <c r="BG12">
+        <v>1.17</v>
+      </c>
+      <c r="BH12">
+        <v>4.2</v>
+      </c>
+      <c r="BI12">
+        <v>1.35</v>
+      </c>
+      <c r="BJ12">
+        <v>2.84</v>
+      </c>
+      <c r="BK12">
+        <v>1.63</v>
+      </c>
+      <c r="BL12">
+        <v>2.14</v>
+      </c>
+      <c r="BM12">
+        <v>2.06</v>
+      </c>
+      <c r="BN12">
+        <v>1.71</v>
+      </c>
+      <c r="BO12">
+        <v>2.69</v>
+      </c>
+      <c r="BP12">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,24 +259,24 @@
     <t>Kaiserslautern</t>
   </si>
   <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
-    <t>Nürnberg</t>
-  </si>
-  <si>
     <t>Paderborn</t>
   </si>
   <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
     <t>Eintracht Braunschweig</t>
   </si>
   <si>
-    <t>Fortuna Düsseldorf</t>
-  </si>
-  <si>
     <t>Preußen Münster</t>
   </si>
   <si>
@@ -310,6 +310,21 @@
     <t>['45+1', '84']</t>
   </si>
   <si>
+    <t>['47', '56', '76']</t>
+  </si>
+  <si>
+    <t>['46', '62']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['53', '64', '83']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -332,6 +347,21 @@
   </si>
   <si>
     <t>['31', '38']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['21', '84']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['13', '55', '59']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +958,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -952,7 +982,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1134,7 +1164,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1158,7 +1188,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1546,7 +1576,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1570,7 +1600,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1752,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1958,7 +1988,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1982,7 +2012,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2164,7 +2194,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2188,7 +2218,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2394,7 +2424,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2600,7 +2630,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3012,7 +3042,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3169,6 +3199,1448 @@
       </c>
       <c r="BP12">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7491503</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45514.33333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>2.25</v>
+      </c>
+      <c r="S13">
+        <v>2.8</v>
+      </c>
+      <c r="T13">
+        <v>1.29</v>
+      </c>
+      <c r="U13">
+        <v>3.35</v>
+      </c>
+      <c r="V13">
+        <v>2.32</v>
+      </c>
+      <c r="W13">
+        <v>1.55</v>
+      </c>
+      <c r="X13">
+        <v>4.95</v>
+      </c>
+      <c r="Y13">
+        <v>1.14</v>
+      </c>
+      <c r="Z13">
+        <v>2.88</v>
+      </c>
+      <c r="AA13">
+        <v>3.6</v>
+      </c>
+      <c r="AB13">
+        <v>2.2</v>
+      </c>
+      <c r="AC13">
+        <v>1.04</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>1.18</v>
+      </c>
+      <c r="AF13">
+        <v>4.75</v>
+      </c>
+      <c r="AG13">
+        <v>1.57</v>
+      </c>
+      <c r="AH13">
+        <v>2.25</v>
+      </c>
+      <c r="AI13">
+        <v>1.47</v>
+      </c>
+      <c r="AJ13">
+        <v>2.55</v>
+      </c>
+      <c r="AK13">
+        <v>1.57</v>
+      </c>
+      <c r="AL13">
+        <v>1.22</v>
+      </c>
+      <c r="AM13">
+        <v>1.42</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>11</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>7</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
+      </c>
+      <c r="BD13">
+        <v>2.1</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>1.91</v>
+      </c>
+      <c r="BG13">
+        <v>1.14</v>
+      </c>
+      <c r="BH13">
+        <v>4.65</v>
+      </c>
+      <c r="BI13">
+        <v>1.29</v>
+      </c>
+      <c r="BJ13">
+        <v>3.14</v>
+      </c>
+      <c r="BK13">
+        <v>1.54</v>
+      </c>
+      <c r="BL13">
+        <v>2.32</v>
+      </c>
+      <c r="BM13">
+        <v>1.98</v>
+      </c>
+      <c r="BN13">
+        <v>1.82</v>
+      </c>
+      <c r="BO13">
+        <v>2.44</v>
+      </c>
+      <c r="BP13">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7491502</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45514.33333333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>2.25</v>
+      </c>
+      <c r="S14">
+        <v>2.6</v>
+      </c>
+      <c r="T14">
+        <v>1.36</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>2.63</v>
+      </c>
+      <c r="W14">
+        <v>1.44</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <v>1.1</v>
+      </c>
+      <c r="Z14">
+        <v>3.2</v>
+      </c>
+      <c r="AA14">
+        <v>3.75</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>1.01</v>
+      </c>
+      <c r="AD14">
+        <v>10.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.21</v>
+      </c>
+      <c r="AF14">
+        <v>3.75</v>
+      </c>
+      <c r="AG14">
+        <v>1.62</v>
+      </c>
+      <c r="AH14">
+        <v>2.2</v>
+      </c>
+      <c r="AI14">
+        <v>1.67</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.83</v>
+      </c>
+      <c r="AL14">
+        <v>1.28</v>
+      </c>
+      <c r="AM14">
+        <v>1.29</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>10</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>7</v>
+      </c>
+      <c r="AZ14">
+        <v>14</v>
+      </c>
+      <c r="BA14">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>13</v>
+      </c>
+      <c r="BC14">
+        <v>17</v>
+      </c>
+      <c r="BD14">
+        <v>2.39</v>
+      </c>
+      <c r="BE14">
+        <v>8.5</v>
+      </c>
+      <c r="BF14">
+        <v>1.82</v>
+      </c>
+      <c r="BG14">
+        <v>1.18</v>
+      </c>
+      <c r="BH14">
+        <v>4.2</v>
+      </c>
+      <c r="BI14">
+        <v>1.35</v>
+      </c>
+      <c r="BJ14">
+        <v>2.88</v>
+      </c>
+      <c r="BK14">
+        <v>1.65</v>
+      </c>
+      <c r="BL14">
+        <v>2.1</v>
+      </c>
+      <c r="BM14">
+        <v>2</v>
+      </c>
+      <c r="BN14">
+        <v>1.73</v>
+      </c>
+      <c r="BO14">
+        <v>2.5</v>
+      </c>
+      <c r="BP14">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7491499</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45514.33333333334</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15">
+        <v>2.35</v>
+      </c>
+      <c r="R15">
+        <v>2.3</v>
+      </c>
+      <c r="S15">
+        <v>3.85</v>
+      </c>
+      <c r="T15">
+        <v>1.28</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.2</v>
+      </c>
+      <c r="W15">
+        <v>1.6</v>
+      </c>
+      <c r="X15">
+        <v>4.85</v>
+      </c>
+      <c r="Y15">
+        <v>1.16</v>
+      </c>
+      <c r="Z15">
+        <v>1.91</v>
+      </c>
+      <c r="AA15">
+        <v>3.97</v>
+      </c>
+      <c r="AB15">
+        <v>3.66</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
+      <c r="AE15">
+        <v>1.18</v>
+      </c>
+      <c r="AF15">
+        <v>4.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.55</v>
+      </c>
+      <c r="AH15">
+        <v>2.45</v>
+      </c>
+      <c r="AI15">
+        <v>1.45</v>
+      </c>
+      <c r="AJ15">
+        <v>2.5</v>
+      </c>
+      <c r="AK15">
+        <v>1.25</v>
+      </c>
+      <c r="AL15">
+        <v>1.22</v>
+      </c>
+      <c r="AM15">
+        <v>1.85</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>12</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>18</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>11</v>
+      </c>
+      <c r="BD15">
+        <v>1.75</v>
+      </c>
+      <c r="BE15">
+        <v>8.5</v>
+      </c>
+      <c r="BF15">
+        <v>2.43</v>
+      </c>
+      <c r="BG15">
+        <v>1.13</v>
+      </c>
+      <c r="BH15">
+        <v>4.8</v>
+      </c>
+      <c r="BI15">
+        <v>1.28</v>
+      </c>
+      <c r="BJ15">
+        <v>3.2</v>
+      </c>
+      <c r="BK15">
+        <v>1.52</v>
+      </c>
+      <c r="BL15">
+        <v>2.36</v>
+      </c>
+      <c r="BM15">
+        <v>1.95</v>
+      </c>
+      <c r="BN15">
+        <v>1.85</v>
+      </c>
+      <c r="BO15">
+        <v>2.39</v>
+      </c>
+      <c r="BP15">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7491500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45514.64583333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16">
+        <v>2.25</v>
+      </c>
+      <c r="R16">
+        <v>2.55</v>
+      </c>
+      <c r="S16">
+        <v>3.6</v>
+      </c>
+      <c r="T16">
+        <v>1.21</v>
+      </c>
+      <c r="U16">
+        <v>3.95</v>
+      </c>
+      <c r="V16">
+        <v>1.99</v>
+      </c>
+      <c r="W16">
+        <v>1.74</v>
+      </c>
+      <c r="X16">
+        <v>4.15</v>
+      </c>
+      <c r="Y16">
+        <v>1.2</v>
+      </c>
+      <c r="Z16">
+        <v>1.63</v>
+      </c>
+      <c r="AA16">
+        <v>4.56</v>
+      </c>
+      <c r="AB16">
+        <v>4.32</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>1.11</v>
+      </c>
+      <c r="AF16">
+        <v>6.25</v>
+      </c>
+      <c r="AG16">
+        <v>1.36</v>
+      </c>
+      <c r="AH16">
+        <v>2.9</v>
+      </c>
+      <c r="AI16">
+        <v>1.38</v>
+      </c>
+      <c r="AJ16">
+        <v>2.9</v>
+      </c>
+      <c r="AK16">
+        <v>1.22</v>
+      </c>
+      <c r="AL16">
+        <v>1.17</v>
+      </c>
+      <c r="AM16">
+        <v>1.95</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>6</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>9</v>
+      </c>
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
+      <c r="BB16">
+        <v>11</v>
+      </c>
+      <c r="BC16">
+        <v>20</v>
+      </c>
+      <c r="BD16">
+        <v>1.41</v>
+      </c>
+      <c r="BE16">
+        <v>9.5</v>
+      </c>
+      <c r="BF16">
+        <v>3.35</v>
+      </c>
+      <c r="BG16">
+        <v>1.11</v>
+      </c>
+      <c r="BH16">
+        <v>5.2</v>
+      </c>
+      <c r="BI16">
+        <v>1.24</v>
+      </c>
+      <c r="BJ16">
+        <v>3.48</v>
+      </c>
+      <c r="BK16">
+        <v>1.46</v>
+      </c>
+      <c r="BL16">
+        <v>2.52</v>
+      </c>
+      <c r="BM16">
+        <v>1.92</v>
+      </c>
+      <c r="BN16">
+        <v>1.88</v>
+      </c>
+      <c r="BO16">
+        <v>2.25</v>
+      </c>
+      <c r="BP16">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7491501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45515.35416666666</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17">
+        <v>2.5</v>
+      </c>
+      <c r="R17">
+        <v>2.38</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1.3</v>
+      </c>
+      <c r="U17">
+        <v>3.4</v>
+      </c>
+      <c r="V17">
+        <v>2.38</v>
+      </c>
+      <c r="W17">
+        <v>1.53</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>1.13</v>
+      </c>
+      <c r="Z17">
+        <v>2.08</v>
+      </c>
+      <c r="AA17">
+        <v>3.65</v>
+      </c>
+      <c r="AB17">
+        <v>3.15</v>
+      </c>
+      <c r="AC17">
+        <v>1.04</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.16</v>
+      </c>
+      <c r="AF17">
+        <v>4.33</v>
+      </c>
+      <c r="AG17">
+        <v>1.6</v>
+      </c>
+      <c r="AH17">
+        <v>2.07</v>
+      </c>
+      <c r="AI17">
+        <v>1.57</v>
+      </c>
+      <c r="AJ17">
+        <v>2.25</v>
+      </c>
+      <c r="AK17">
+        <v>1.27</v>
+      </c>
+      <c r="AL17">
+        <v>1.26</v>
+      </c>
+      <c r="AM17">
+        <v>1.92</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>5</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>7</v>
+      </c>
+      <c r="BD17">
+        <v>1.55</v>
+      </c>
+      <c r="BE17">
+        <v>8.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.91</v>
+      </c>
+      <c r="BG17">
+        <v>1.2</v>
+      </c>
+      <c r="BH17">
+        <v>3.95</v>
+      </c>
+      <c r="BI17">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17">
+        <v>2.75</v>
+      </c>
+      <c r="BK17">
+        <v>1.65</v>
+      </c>
+      <c r="BL17">
+        <v>2.1</v>
+      </c>
+      <c r="BM17">
+        <v>2.05</v>
+      </c>
+      <c r="BN17">
+        <v>1.7</v>
+      </c>
+      <c r="BO17">
+        <v>2.55</v>
+      </c>
+      <c r="BP17">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7491505</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45515.35416666666</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18">
+        <v>3.25</v>
+      </c>
+      <c r="R18">
+        <v>2.1</v>
+      </c>
+      <c r="S18">
+        <v>3.25</v>
+      </c>
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>2.75</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>1.36</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>2.6</v>
+      </c>
+      <c r="AA18">
+        <v>3.2</v>
+      </c>
+      <c r="AB18">
+        <v>2.65</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>8.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.33</v>
+      </c>
+      <c r="AF18">
+        <v>3.2</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>1.79</v>
+      </c>
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>1.45</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.45</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
+      </c>
+      <c r="AZ18">
+        <v>5</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>3</v>
+      </c>
+      <c r="BD18">
+        <v>1.95</v>
+      </c>
+      <c r="BE18">
+        <v>8</v>
+      </c>
+      <c r="BF18">
+        <v>2.05</v>
+      </c>
+      <c r="BG18">
+        <v>1.18</v>
+      </c>
+      <c r="BH18">
+        <v>4.2</v>
+      </c>
+      <c r="BI18">
+        <v>1.35</v>
+      </c>
+      <c r="BJ18">
+        <v>2.88</v>
+      </c>
+      <c r="BK18">
+        <v>1.64</v>
+      </c>
+      <c r="BL18">
+        <v>2.2</v>
+      </c>
+      <c r="BM18">
+        <v>2.02</v>
+      </c>
+      <c r="BN18">
+        <v>1.76</v>
+      </c>
+      <c r="BO18">
+        <v>2.5</v>
+      </c>
+      <c r="BP18">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7491506</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45515.35416666666</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19">
+        <v>3.5</v>
+      </c>
+      <c r="R19">
+        <v>2.3</v>
+      </c>
+      <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>3.4</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>1.13</v>
+      </c>
+      <c r="Z19">
+        <v>3.1</v>
+      </c>
+      <c r="AA19">
+        <v>3.6</v>
+      </c>
+      <c r="AB19">
+        <v>2.14</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>10.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.17</v>
+      </c>
+      <c r="AF19">
+        <v>4.15</v>
+      </c>
+      <c r="AG19">
+        <v>1.71</v>
+      </c>
+      <c r="AH19">
+        <v>1.9</v>
+      </c>
+      <c r="AI19">
+        <v>1.57</v>
+      </c>
+      <c r="AJ19">
+        <v>2.25</v>
+      </c>
+      <c r="AK19">
+        <v>1.7</v>
+      </c>
+      <c r="AL19">
+        <v>1.28</v>
+      </c>
+      <c r="AM19">
+        <v>1.36</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>4</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>3</v>
+      </c>
+      <c r="BA19">
+        <v>5</v>
+      </c>
+      <c r="BB19">
+        <v>3</v>
+      </c>
+      <c r="BC19">
+        <v>8</v>
+      </c>
+      <c r="BD19">
+        <v>2.2</v>
+      </c>
+      <c r="BE19">
+        <v>8</v>
+      </c>
+      <c r="BF19">
+        <v>1.83</v>
+      </c>
+      <c r="BG19">
+        <v>1.17</v>
+      </c>
+      <c r="BH19">
+        <v>4.3</v>
+      </c>
+      <c r="BI19">
+        <v>1.33</v>
+      </c>
+      <c r="BJ19">
+        <v>2.95</v>
+      </c>
+      <c r="BK19">
+        <v>1.65</v>
+      </c>
+      <c r="BL19">
+        <v>2.1</v>
+      </c>
+      <c r="BM19">
+        <v>2</v>
+      </c>
+      <c r="BN19">
+        <v>1.72</v>
+      </c>
+      <c r="BO19">
+        <v>2.5</v>
+      </c>
+      <c r="BP19">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -4165,31 +4165,31 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BA17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD17">
         <v>1.55</v>
@@ -4371,31 +4371,31 @@
         <v>0</v>
       </c>
       <c r="AU18">
+        <v>9</v>
+      </c>
+      <c r="AV18">
+        <v>6</v>
+      </c>
+      <c r="AW18">
+        <v>9</v>
+      </c>
+      <c r="AX18">
         <v>3</v>
       </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
-        <v>4</v>
-      </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
       <c r="AY18">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AZ18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BD18">
         <v>1.95</v>
@@ -4577,31 +4577,31 @@
         <v>0</v>
       </c>
       <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
         <v>4</v>
       </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
       <c r="AX19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD19">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,12 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['18', '48', '75']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -362,6 +368,9 @@
   </si>
   <si>
     <t>['13', '55', '59']</t>
+  </si>
+  <si>
+    <t>['29', '60']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +991,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1188,7 +1197,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1600,7 +1609,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1887,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2012,7 +2021,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2218,7 +2227,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2424,7 +2433,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2630,7 +2639,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3042,7 +3051,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3248,7 +3257,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3454,7 +3463,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3866,7 +3875,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4072,7 +4081,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4278,7 +4287,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4641,6 +4650,418 @@
       </c>
       <c r="BP19">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7491510</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45527.5625</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20">
+        <v>2.25</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="U20">
+        <v>3.75</v>
+      </c>
+      <c r="V20">
+        <v>2.1</v>
+      </c>
+      <c r="W20">
+        <v>1.67</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>1.17</v>
+      </c>
+      <c r="Z20">
+        <v>1.77</v>
+      </c>
+      <c r="AA20">
+        <v>3.92</v>
+      </c>
+      <c r="AB20">
+        <v>4.18</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>22</v>
+      </c>
+      <c r="AE20">
+        <v>1.1</v>
+      </c>
+      <c r="AF20">
+        <v>5.3</v>
+      </c>
+      <c r="AG20">
+        <v>1.45</v>
+      </c>
+      <c r="AH20">
+        <v>2.63</v>
+      </c>
+      <c r="AI20">
+        <v>1.5</v>
+      </c>
+      <c r="AJ20">
+        <v>2.5</v>
+      </c>
+      <c r="AK20">
+        <v>1.22</v>
+      </c>
+      <c r="AL20">
+        <v>1.22</v>
+      </c>
+      <c r="AM20">
+        <v>2.17</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.6</v>
+      </c>
+      <c r="AS20">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT20">
+        <v>2.41</v>
+      </c>
+      <c r="AU20">
+        <v>8</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>5</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AY20">
+        <v>13</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>10</v>
+      </c>
+      <c r="BD20">
+        <v>1.33</v>
+      </c>
+      <c r="BE20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF20">
+        <v>4.55</v>
+      </c>
+      <c r="BG20">
+        <v>1.23</v>
+      </c>
+      <c r="BH20">
+        <v>3.9</v>
+      </c>
+      <c r="BI20">
+        <v>1.42</v>
+      </c>
+      <c r="BJ20">
+        <v>2.7</v>
+      </c>
+      <c r="BK20">
+        <v>1.7</v>
+      </c>
+      <c r="BL20">
+        <v>2.1</v>
+      </c>
+      <c r="BM20">
+        <v>2.1</v>
+      </c>
+      <c r="BN20">
+        <v>1.67</v>
+      </c>
+      <c r="BO20">
+        <v>2.75</v>
+      </c>
+      <c r="BP20">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7491511</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45527.5625</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
+        <v>3.1</v>
+      </c>
+      <c r="T21">
+        <v>1.29</v>
+      </c>
+      <c r="U21">
+        <v>3.5</v>
+      </c>
+      <c r="V21">
+        <v>2.38</v>
+      </c>
+      <c r="W21">
+        <v>1.53</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.14</v>
+      </c>
+      <c r="Z21">
+        <v>2.44</v>
+      </c>
+      <c r="AA21">
+        <v>3.72</v>
+      </c>
+      <c r="AB21">
+        <v>2.62</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>1.17</v>
+      </c>
+      <c r="AF21">
+        <v>4.75</v>
+      </c>
+      <c r="AG21">
+        <v>1.64</v>
+      </c>
+      <c r="AH21">
+        <v>2.13</v>
+      </c>
+      <c r="AI21">
+        <v>1.5</v>
+      </c>
+      <c r="AJ21">
+        <v>2.5</v>
+      </c>
+      <c r="AK21">
+        <v>1.47</v>
+      </c>
+      <c r="AL21">
+        <v>1.22</v>
+      </c>
+      <c r="AM21">
+        <v>1.55</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.5</v>
+      </c>
+      <c r="AS21">
+        <v>1.15</v>
+      </c>
+      <c r="AT21">
+        <v>2.65</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>9</v>
+      </c>
+      <c r="AY21">
+        <v>8</v>
+      </c>
+      <c r="AZ21">
+        <v>11</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>4</v>
+      </c>
+      <c r="BD21">
+        <v>1.89</v>
+      </c>
+      <c r="BE21">
+        <v>6.85</v>
+      </c>
+      <c r="BF21">
+        <v>2.39</v>
+      </c>
+      <c r="BG21">
+        <v>1.2</v>
+      </c>
+      <c r="BH21">
+        <v>4.2</v>
+      </c>
+      <c r="BI21">
+        <v>1.37</v>
+      </c>
+      <c r="BJ21">
+        <v>2.9</v>
+      </c>
+      <c r="BK21">
+        <v>1.62</v>
+      </c>
+      <c r="BL21">
+        <v>2.2</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.8</v>
+      </c>
+      <c r="BO21">
+        <v>2.55</v>
+      </c>
+      <c r="BP21">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['90', '90+6']</t>
+  </si>
+  <si>
+    <t>['26', '34', '58', '61', '88']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
   </si>
   <si>
     <t>['29', '60']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1000,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1197,7 +1206,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1609,7 +1618,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1687,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2021,7 +2030,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2227,7 +2236,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2433,7 +2442,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2511,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2639,7 +2648,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3051,7 +3060,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3257,7 +3266,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3463,7 +3472,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3875,7 +3884,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4081,7 +4090,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4287,7 +4296,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4571,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4699,7 +4708,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5062,6 +5071,830 @@
       </c>
       <c r="BP21">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7491516</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45528.33333333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22">
+        <v>3.1</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>2.85</v>
+      </c>
+      <c r="AA22">
+        <v>3.55</v>
+      </c>
+      <c r="AB22">
+        <v>2.4</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.18</v>
+      </c>
+      <c r="AF22">
+        <v>4.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.64</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>1.53</v>
+      </c>
+      <c r="AJ22">
+        <v>2.38</v>
+      </c>
+      <c r="AK22">
+        <v>1.53</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.47</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1.26</v>
+      </c>
+      <c r="AS22">
+        <v>1.42</v>
+      </c>
+      <c r="AT22">
+        <v>2.68</v>
+      </c>
+      <c r="AU22">
+        <v>7</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>8</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>15</v>
+      </c>
+      <c r="AZ22">
+        <v>8</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>6</v>
+      </c>
+      <c r="BD22">
+        <v>2.1</v>
+      </c>
+      <c r="BE22">
+        <v>8</v>
+      </c>
+      <c r="BF22">
+        <v>1.91</v>
+      </c>
+      <c r="BG22">
+        <v>1.18</v>
+      </c>
+      <c r="BH22">
+        <v>4.25</v>
+      </c>
+      <c r="BI22">
+        <v>1.34</v>
+      </c>
+      <c r="BJ22">
+        <v>2.95</v>
+      </c>
+      <c r="BK22">
+        <v>1.65</v>
+      </c>
+      <c r="BL22">
+        <v>2.1</v>
+      </c>
+      <c r="BM22">
+        <v>2</v>
+      </c>
+      <c r="BN22">
+        <v>1.73</v>
+      </c>
+      <c r="BO22">
+        <v>2.5</v>
+      </c>
+      <c r="BP22">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7491512</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45528.33333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23">
+        <v>2.88</v>
+      </c>
+      <c r="R23">
+        <v>2.4</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
+        <v>2.25</v>
+      </c>
+      <c r="W23">
+        <v>1.57</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.14</v>
+      </c>
+      <c r="Z23">
+        <v>2.4</v>
+      </c>
+      <c r="AA23">
+        <v>3.75</v>
+      </c>
+      <c r="AB23">
+        <v>2.7</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>18.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>4.33</v>
+      </c>
+      <c r="AG23">
+        <v>1.64</v>
+      </c>
+      <c r="AH23">
+        <v>2.13</v>
+      </c>
+      <c r="AI23">
+        <v>1.44</v>
+      </c>
+      <c r="AJ23">
+        <v>2.63</v>
+      </c>
+      <c r="AK23">
+        <v>1.47</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
+        <v>1.57</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>2.28</v>
+      </c>
+      <c r="AS23">
+        <v>1.21</v>
+      </c>
+      <c r="AT23">
+        <v>3.49</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>3</v>
+      </c>
+      <c r="AX23">
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <v>7</v>
+      </c>
+      <c r="AZ23">
+        <v>11</v>
+      </c>
+      <c r="BA23">
+        <v>7</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>1.75</v>
+      </c>
+      <c r="BE23">
+        <v>8</v>
+      </c>
+      <c r="BF23">
+        <v>2.42</v>
+      </c>
+      <c r="BG23">
+        <v>1.16</v>
+      </c>
+      <c r="BH23">
+        <v>4.25</v>
+      </c>
+      <c r="BI23">
+        <v>1.32</v>
+      </c>
+      <c r="BJ23">
+        <v>3.1</v>
+      </c>
+      <c r="BK23">
+        <v>1.6</v>
+      </c>
+      <c r="BL23">
+        <v>2.2</v>
+      </c>
+      <c r="BM23">
+        <v>2.03</v>
+      </c>
+      <c r="BN23">
+        <v>1.7</v>
+      </c>
+      <c r="BO23">
+        <v>2.65</v>
+      </c>
+      <c r="BP23">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7491513</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45528.33333333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24">
+        <v>2.2</v>
+      </c>
+      <c r="R24">
+        <v>2.5</v>
+      </c>
+      <c r="S24">
+        <v>4.5</v>
+      </c>
+      <c r="T24">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>3.75</v>
+      </c>
+      <c r="V24">
+        <v>2.2</v>
+      </c>
+      <c r="W24">
+        <v>1.62</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>1.17</v>
+      </c>
+      <c r="Z24">
+        <v>1.67</v>
+      </c>
+      <c r="AA24">
+        <v>3.95</v>
+      </c>
+      <c r="AB24">
+        <v>4.8</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>12</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.75</v>
+      </c>
+      <c r="AG24">
+        <v>1.61</v>
+      </c>
+      <c r="AH24">
+        <v>2.23</v>
+      </c>
+      <c r="AI24">
+        <v>1.53</v>
+      </c>
+      <c r="AJ24">
+        <v>2.38</v>
+      </c>
+      <c r="AK24">
+        <v>1.16</v>
+      </c>
+      <c r="AL24">
+        <v>1.18</v>
+      </c>
+      <c r="AM24">
+        <v>2.15</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1.29</v>
+      </c>
+      <c r="AS24">
+        <v>1.2</v>
+      </c>
+      <c r="AT24">
+        <v>2.49</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>9</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>10</v>
+      </c>
+      <c r="BD24">
+        <v>1.55</v>
+      </c>
+      <c r="BE24">
+        <v>8.5</v>
+      </c>
+      <c r="BF24">
+        <v>2.91</v>
+      </c>
+      <c r="BG24">
+        <v>1.22</v>
+      </c>
+      <c r="BH24">
+        <v>3.8</v>
+      </c>
+      <c r="BI24">
+        <v>1.3</v>
+      </c>
+      <c r="BJ24">
+        <v>3.1</v>
+      </c>
+      <c r="BK24">
+        <v>1.6</v>
+      </c>
+      <c r="BL24">
+        <v>2.2</v>
+      </c>
+      <c r="BM24">
+        <v>2</v>
+      </c>
+      <c r="BN24">
+        <v>1.8</v>
+      </c>
+      <c r="BO24">
+        <v>2.4</v>
+      </c>
+      <c r="BP24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7491508</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45528.64583333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2.5</v>
+      </c>
+      <c r="S25">
+        <v>5.5</v>
+      </c>
+      <c r="T25">
+        <v>1.29</v>
+      </c>
+      <c r="U25">
+        <v>3.5</v>
+      </c>
+      <c r="V25">
+        <v>2.25</v>
+      </c>
+      <c r="W25">
+        <v>1.57</v>
+      </c>
+      <c r="X25">
+        <v>5.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.14</v>
+      </c>
+      <c r="Z25">
+        <v>1.49</v>
+      </c>
+      <c r="AA25">
+        <v>4.57</v>
+      </c>
+      <c r="AB25">
+        <v>5.55</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>1.16</v>
+      </c>
+      <c r="AF25">
+        <v>4.75</v>
+      </c>
+      <c r="AG25">
+        <v>1.58</v>
+      </c>
+      <c r="AH25">
+        <v>2.18</v>
+      </c>
+      <c r="AI25">
+        <v>1.67</v>
+      </c>
+      <c r="AJ25">
+        <v>2.1</v>
+      </c>
+      <c r="AK25">
+        <v>1.09</v>
+      </c>
+      <c r="AL25">
+        <v>1.15</v>
+      </c>
+      <c r="AM25">
+        <v>2.55</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>2.21</v>
+      </c>
+      <c r="AS25">
+        <v>1.46</v>
+      </c>
+      <c r="AT25">
+        <v>3.67</v>
+      </c>
+      <c r="AU25">
+        <v>14</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>21</v>
+      </c>
+      <c r="AZ25">
+        <v>6</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>1.26</v>
+      </c>
+      <c r="BE25">
+        <v>10</v>
+      </c>
+      <c r="BF25">
+        <v>4.64</v>
+      </c>
+      <c r="BG25">
+        <v>1.18</v>
+      </c>
+      <c r="BH25">
+        <v>4.25</v>
+      </c>
+      <c r="BI25">
+        <v>1.34</v>
+      </c>
+      <c r="BJ25">
+        <v>2.95</v>
+      </c>
+      <c r="BK25">
+        <v>1.6</v>
+      </c>
+      <c r="BL25">
+        <v>2.17</v>
+      </c>
+      <c r="BM25">
+        <v>1.98</v>
+      </c>
+      <c r="BN25">
+        <v>1.72</v>
+      </c>
+      <c r="BO25">
+        <v>2.6</v>
+      </c>
+      <c r="BP25">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,15 @@
     <t>['26', '34', '58', '61', '88']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['39', '45+2']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['81', '82']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['8', '76']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1018,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1206,7 +1224,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1287,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1618,7 +1636,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2030,7 +2048,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2236,7 +2254,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2314,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2442,7 +2460,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2648,7 +2666,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3060,7 +3078,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3266,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3347,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3472,7 +3490,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3884,7 +3902,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4090,7 +4108,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4296,7 +4314,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4708,7 +4726,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5120,7 +5138,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5326,7 +5344,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5895,6 +5913,624 @@
       </c>
       <c r="BP25">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7491515</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45529.35416666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26">
+        <v>4.33</v>
+      </c>
+      <c r="R26">
+        <v>2.3</v>
+      </c>
+      <c r="S26">
+        <v>2.5</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>1.44</v>
+      </c>
+      <c r="X26">
+        <v>6.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.11</v>
+      </c>
+      <c r="Z26">
+        <v>3.75</v>
+      </c>
+      <c r="AA26">
+        <v>3.6</v>
+      </c>
+      <c r="AB26">
+        <v>1.9</v>
+      </c>
+      <c r="AC26">
+        <v>1.04</v>
+      </c>
+      <c r="AD26">
+        <v>10.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.21</v>
+      </c>
+      <c r="AF26">
+        <v>3.75</v>
+      </c>
+      <c r="AG26">
+        <v>1.75</v>
+      </c>
+      <c r="AH26">
+        <v>2.05</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.94</v>
+      </c>
+      <c r="AL26">
+        <v>1.27</v>
+      </c>
+      <c r="AM26">
+        <v>1.25</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>1.22</v>
+      </c>
+      <c r="AS26">
+        <v>1.22</v>
+      </c>
+      <c r="AT26">
+        <v>2.44</v>
+      </c>
+      <c r="AU26">
+        <v>9</v>
+      </c>
+      <c r="AV26">
+        <v>6</v>
+      </c>
+      <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>18</v>
+      </c>
+      <c r="AZ26">
+        <v>12</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>11</v>
+      </c>
+      <c r="BD26">
+        <v>2.33</v>
+      </c>
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26">
+        <v>1.82</v>
+      </c>
+      <c r="BG26">
+        <v>1.2</v>
+      </c>
+      <c r="BH26">
+        <v>4.2</v>
+      </c>
+      <c r="BI26">
+        <v>1.37</v>
+      </c>
+      <c r="BJ26">
+        <v>2.95</v>
+      </c>
+      <c r="BK26">
+        <v>1.65</v>
+      </c>
+      <c r="BL26">
+        <v>2.1</v>
+      </c>
+      <c r="BM26">
+        <v>2</v>
+      </c>
+      <c r="BN26">
+        <v>1.73</v>
+      </c>
+      <c r="BO26">
+        <v>2.5</v>
+      </c>
+      <c r="BP26">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7491509</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45529.35416666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27">
+        <v>2.75</v>
+      </c>
+      <c r="R27">
+        <v>2.3</v>
+      </c>
+      <c r="S27">
+        <v>3.5</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>3.4</v>
+      </c>
+      <c r="V27">
+        <v>2.5</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>1.13</v>
+      </c>
+      <c r="Z27">
+        <v>2.2</v>
+      </c>
+      <c r="AA27">
+        <v>3.6</v>
+      </c>
+      <c r="AB27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>11</v>
+      </c>
+      <c r="AE27">
+        <v>1.18</v>
+      </c>
+      <c r="AF27">
+        <v>4.33</v>
+      </c>
+      <c r="AG27">
+        <v>1.57</v>
+      </c>
+      <c r="AH27">
+        <v>2.3</v>
+      </c>
+      <c r="AI27">
+        <v>1.53</v>
+      </c>
+      <c r="AJ27">
+        <v>2.38</v>
+      </c>
+      <c r="AK27">
+        <v>1.38</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>1.65</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.43</v>
+      </c>
+      <c r="AS27">
+        <v>1.27</v>
+      </c>
+      <c r="AT27">
+        <v>2.7</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>16</v>
+      </c>
+      <c r="AZ27">
+        <v>5</v>
+      </c>
+      <c r="BA27">
+        <v>13</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>15</v>
+      </c>
+      <c r="BD27">
+        <v>1.75</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>2.42</v>
+      </c>
+      <c r="BG27">
+        <v>1.2</v>
+      </c>
+      <c r="BH27">
+        <v>3.95</v>
+      </c>
+      <c r="BI27">
+        <v>1.38</v>
+      </c>
+      <c r="BJ27">
+        <v>2.75</v>
+      </c>
+      <c r="BK27">
+        <v>1.66</v>
+      </c>
+      <c r="BL27">
+        <v>2.07</v>
+      </c>
+      <c r="BM27">
+        <v>2.08</v>
+      </c>
+      <c r="BN27">
+        <v>1.65</v>
+      </c>
+      <c r="BO27">
+        <v>2.7</v>
+      </c>
+      <c r="BP27">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7491514</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45529.35416666666</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>2.38</v>
+      </c>
+      <c r="S28">
+        <v>3.2</v>
+      </c>
+      <c r="T28">
+        <v>1.29</v>
+      </c>
+      <c r="U28">
+        <v>3.5</v>
+      </c>
+      <c r="V28">
+        <v>2.38</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>5.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.14</v>
+      </c>
+      <c r="Z28">
+        <v>2.5</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>2.55</v>
+      </c>
+      <c r="AC28">
+        <v>1.04</v>
+      </c>
+      <c r="AD28">
+        <v>18.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.14</v>
+      </c>
+      <c r="AF28">
+        <v>4.65</v>
+      </c>
+      <c r="AG28">
+        <v>1.55</v>
+      </c>
+      <c r="AH28">
+        <v>2.35</v>
+      </c>
+      <c r="AI28">
+        <v>1.5</v>
+      </c>
+      <c r="AJ28">
+        <v>2.5</v>
+      </c>
+      <c r="AK28">
+        <v>1.45</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>1.57</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.96</v>
+      </c>
+      <c r="AS28">
+        <v>1.57</v>
+      </c>
+      <c r="AT28">
+        <v>3.53</v>
+      </c>
+      <c r="AU28">
+        <v>9</v>
+      </c>
+      <c r="AV28">
+        <v>8</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>2</v>
+      </c>
+      <c r="AY28">
+        <v>13</v>
+      </c>
+      <c r="AZ28">
+        <v>10</v>
+      </c>
+      <c r="BA28">
+        <v>9</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>13</v>
+      </c>
+      <c r="BD28">
+        <v>1.91</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>2.2</v>
+      </c>
+      <c r="BG28">
+        <v>1.2</v>
+      </c>
+      <c r="BH28">
+        <v>3.95</v>
+      </c>
+      <c r="BI28">
+        <v>1.38</v>
+      </c>
+      <c r="BJ28">
+        <v>2.75</v>
+      </c>
+      <c r="BK28">
+        <v>1.7</v>
+      </c>
+      <c r="BL28">
+        <v>2.05</v>
+      </c>
+      <c r="BM28">
+        <v>2</v>
+      </c>
+      <c r="BN28">
+        <v>1.72</v>
+      </c>
+      <c r="BO28">
+        <v>2.55</v>
+      </c>
+      <c r="BP28">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['39', '45+2']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -398,6 +401,9 @@
   </si>
   <si>
     <t>['8', '76']</t>
+  </si>
+  <si>
+    <t>['4', '49', '77', '88']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1024,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1224,7 +1230,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1636,7 +1642,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2048,7 +2054,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2254,7 +2260,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2460,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2666,7 +2672,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3078,7 +3084,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3159,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3284,7 +3290,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3490,7 +3496,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3774,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3902,7 +3908,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4108,7 +4114,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4314,7 +4320,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4601,7 +4607,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4726,7 +4732,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5138,7 +5144,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5344,7 +5350,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5962,7 +5968,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6168,7 +6174,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6374,7 +6380,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6531,6 +6537,418 @@
       </c>
       <c r="BP28">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7491517</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29">
+        <v>2.65</v>
+      </c>
+      <c r="R29">
+        <v>2.15</v>
+      </c>
+      <c r="S29">
+        <v>3.6</v>
+      </c>
+      <c r="T29">
+        <v>1.36</v>
+      </c>
+      <c r="U29">
+        <v>2.9</v>
+      </c>
+      <c r="V29">
+        <v>2.62</v>
+      </c>
+      <c r="W29">
+        <v>1.42</v>
+      </c>
+      <c r="X29">
+        <v>6.45</v>
+      </c>
+      <c r="Y29">
+        <v>1.1</v>
+      </c>
+      <c r="Z29">
+        <v>2.1</v>
+      </c>
+      <c r="AA29">
+        <v>3.6</v>
+      </c>
+      <c r="AB29">
+        <v>3.35</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>9.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.25</v>
+      </c>
+      <c r="AF29">
+        <v>3.75</v>
+      </c>
+      <c r="AG29">
+        <v>1.8</v>
+      </c>
+      <c r="AH29">
+        <v>2</v>
+      </c>
+      <c r="AI29">
+        <v>1.62</v>
+      </c>
+      <c r="AJ29">
+        <v>2.1</v>
+      </c>
+      <c r="AK29">
+        <v>1.33</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>1.67</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.99</v>
+      </c>
+      <c r="AS29">
+        <v>1.01</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>7</v>
+      </c>
+      <c r="AY29">
+        <v>12</v>
+      </c>
+      <c r="AZ29">
+        <v>10</v>
+      </c>
+      <c r="BA29">
+        <v>8</v>
+      </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
+        <v>10</v>
+      </c>
+      <c r="BD29">
+        <v>1.91</v>
+      </c>
+      <c r="BE29">
+        <v>8.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.1</v>
+      </c>
+      <c r="BG29">
+        <v>1.2</v>
+      </c>
+      <c r="BH29">
+        <v>4.4</v>
+      </c>
+      <c r="BI29">
+        <v>1.35</v>
+      </c>
+      <c r="BJ29">
+        <v>3</v>
+      </c>
+      <c r="BK29">
+        <v>1.6</v>
+      </c>
+      <c r="BL29">
+        <v>2.2</v>
+      </c>
+      <c r="BM29">
+        <v>1.98</v>
+      </c>
+      <c r="BN29">
+        <v>1.82</v>
+      </c>
+      <c r="BO29">
+        <v>2.4</v>
+      </c>
+      <c r="BP29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7491525</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30">
+        <v>3.5</v>
+      </c>
+      <c r="R30">
+        <v>2.15</v>
+      </c>
+      <c r="S30">
+        <v>2.95</v>
+      </c>
+      <c r="T30">
+        <v>1.35</v>
+      </c>
+      <c r="U30">
+        <v>2.95</v>
+      </c>
+      <c r="V30">
+        <v>2.9</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>8</v>
+      </c>
+      <c r="Y30">
+        <v>1.07</v>
+      </c>
+      <c r="Z30">
+        <v>2.9</v>
+      </c>
+      <c r="AA30">
+        <v>3.45</v>
+      </c>
+      <c r="AB30">
+        <v>2.35</v>
+      </c>
+      <c r="AC30">
+        <v>1.06</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.29</v>
+      </c>
+      <c r="AF30">
+        <v>3.6</v>
+      </c>
+      <c r="AG30">
+        <v>1.77</v>
+      </c>
+      <c r="AH30">
+        <v>2.05</v>
+      </c>
+      <c r="AI30">
+        <v>1.73</v>
+      </c>
+      <c r="AJ30">
+        <v>2.04</v>
+      </c>
+      <c r="AK30">
+        <v>1.56</v>
+      </c>
+      <c r="AL30">
+        <v>1.3</v>
+      </c>
+      <c r="AM30">
+        <v>1.38</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>0.79</v>
+      </c>
+      <c r="AS30">
+        <v>1.54</v>
+      </c>
+      <c r="AT30">
+        <v>2.33</v>
+      </c>
+      <c r="AU30">
+        <v>7</v>
+      </c>
+      <c r="AV30">
+        <v>9</v>
+      </c>
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
+        <v>16</v>
+      </c>
+      <c r="BA30">
+        <v>7</v>
+      </c>
+      <c r="BB30">
+        <v>4</v>
+      </c>
+      <c r="BC30">
+        <v>11</v>
+      </c>
+      <c r="BD30">
+        <v>2.28</v>
+      </c>
+      <c r="BE30">
+        <v>8</v>
+      </c>
+      <c r="BF30">
+        <v>1.85</v>
+      </c>
+      <c r="BG30">
+        <v>1.2</v>
+      </c>
+      <c r="BH30">
+        <v>4.2</v>
+      </c>
+      <c r="BI30">
+        <v>1.37</v>
+      </c>
+      <c r="BJ30">
+        <v>2.9</v>
+      </c>
+      <c r="BK30">
+        <v>1.65</v>
+      </c>
+      <c r="BL30">
+        <v>2.1</v>
+      </c>
+      <c r="BM30">
+        <v>2</v>
+      </c>
+      <c r="BN30">
+        <v>1.73</v>
+      </c>
+      <c r="BO30">
+        <v>2.5</v>
+      </c>
+      <c r="BP30">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['6', '26', '45+1', '64']</t>
+  </si>
+  <si>
+    <t>['5', '20', '59', '90']</t>
+  </si>
+  <si>
+    <t>['32', '45', '68']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -404,6 +413,15 @@
   </si>
   <si>
     <t>['4', '49', '77', '88']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['24', '65', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['28', '51', '64', '79']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1042,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1230,7 +1248,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1642,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2054,7 +2072,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2260,7 +2278,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2466,7 +2484,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2672,7 +2690,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3084,7 +3102,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3162,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3290,7 +3308,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3368,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3496,7 +3514,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3574,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3908,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -3986,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4114,7 +4132,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4320,7 +4338,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4732,7 +4750,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5144,7 +5162,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5350,7 +5368,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5968,7 +5986,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6174,7 +6192,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6380,7 +6398,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6792,7 +6810,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -6949,6 +6967,830 @@
       </c>
       <c r="BP30">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7491518</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31">
+        <v>1.84</v>
+      </c>
+      <c r="R31">
+        <v>2.6</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>1.25</v>
+      </c>
+      <c r="U31">
+        <v>3.55</v>
+      </c>
+      <c r="V31">
+        <v>2.45</v>
+      </c>
+      <c r="W31">
+        <v>1.49</v>
+      </c>
+      <c r="X31">
+        <v>6.1</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>1.37</v>
+      </c>
+      <c r="AA31">
+        <v>5.25</v>
+      </c>
+      <c r="AB31">
+        <v>7.75</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>17</v>
+      </c>
+      <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>4.6</v>
+      </c>
+      <c r="AG31">
+        <v>1.68</v>
+      </c>
+      <c r="AH31">
+        <v>2.19</v>
+      </c>
+      <c r="AI31">
+        <v>1.93</v>
+      </c>
+      <c r="AJ31">
+        <v>1.83</v>
+      </c>
+      <c r="AK31">
+        <v>1.08</v>
+      </c>
+      <c r="AL31">
+        <v>1.16</v>
+      </c>
+      <c r="AM31">
+        <v>2.95</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.09</v>
+      </c>
+      <c r="AS31">
+        <v>1.58</v>
+      </c>
+      <c r="AT31">
+        <v>2.67</v>
+      </c>
+      <c r="AU31">
+        <v>8</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>9</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>14</v>
+      </c>
+      <c r="BA31">
+        <v>7</v>
+      </c>
+      <c r="BB31">
+        <v>10</v>
+      </c>
+      <c r="BC31">
+        <v>17</v>
+      </c>
+      <c r="BD31">
+        <v>1.3</v>
+      </c>
+      <c r="BE31">
+        <v>10</v>
+      </c>
+      <c r="BF31">
+        <v>4.14</v>
+      </c>
+      <c r="BG31">
+        <v>1.14</v>
+      </c>
+      <c r="BH31">
+        <v>5.5</v>
+      </c>
+      <c r="BI31">
+        <v>1.23</v>
+      </c>
+      <c r="BJ31">
+        <v>3.6</v>
+      </c>
+      <c r="BK31">
+        <v>1.43</v>
+      </c>
+      <c r="BL31">
+        <v>2.6</v>
+      </c>
+      <c r="BM31">
+        <v>1.73</v>
+      </c>
+      <c r="BN31">
+        <v>2</v>
+      </c>
+      <c r="BO31">
+        <v>2.1</v>
+      </c>
+      <c r="BP31">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7491521</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32">
+        <v>2.95</v>
+      </c>
+      <c r="R32">
+        <v>2.32</v>
+      </c>
+      <c r="S32">
+        <v>3.1</v>
+      </c>
+      <c r="T32">
+        <v>1.27</v>
+      </c>
+      <c r="U32">
+        <v>3.45</v>
+      </c>
+      <c r="V32">
+        <v>2.48</v>
+      </c>
+      <c r="W32">
+        <v>1.47</v>
+      </c>
+      <c r="X32">
+        <v>6.25</v>
+      </c>
+      <c r="Y32">
+        <v>1.1</v>
+      </c>
+      <c r="Z32">
+        <v>2.45</v>
+      </c>
+      <c r="AA32">
+        <v>3.6</v>
+      </c>
+      <c r="AB32">
+        <v>2.7</v>
+      </c>
+      <c r="AC32">
+        <v>1.03</v>
+      </c>
+      <c r="AD32">
+        <v>15</v>
+      </c>
+      <c r="AE32">
+        <v>1.2</v>
+      </c>
+      <c r="AF32">
+        <v>4.6</v>
+      </c>
+      <c r="AG32">
+        <v>1.68</v>
+      </c>
+      <c r="AH32">
+        <v>2.19</v>
+      </c>
+      <c r="AI32">
+        <v>1.56</v>
+      </c>
+      <c r="AJ32">
+        <v>2.35</v>
+      </c>
+      <c r="AK32">
+        <v>1.45</v>
+      </c>
+      <c r="AL32">
+        <v>1.27</v>
+      </c>
+      <c r="AM32">
+        <v>1.54</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS32">
+        <v>1.71</v>
+      </c>
+      <c r="AT32">
+        <v>2.65</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>6</v>
+      </c>
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
+        <v>11</v>
+      </c>
+      <c r="BA32">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>11</v>
+      </c>
+      <c r="BC32">
+        <v>19</v>
+      </c>
+      <c r="BD32">
+        <v>1.91</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>2.1</v>
+      </c>
+      <c r="BG32">
+        <v>1.19</v>
+      </c>
+      <c r="BH32">
+        <v>4.4</v>
+      </c>
+      <c r="BI32">
+        <v>1.33</v>
+      </c>
+      <c r="BJ32">
+        <v>3.15</v>
+      </c>
+      <c r="BK32">
+        <v>1.65</v>
+      </c>
+      <c r="BL32">
+        <v>2.1</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.73</v>
+      </c>
+      <c r="BO32">
+        <v>2.5</v>
+      </c>
+      <c r="BP32">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7491522</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33">
+        <v>3.1</v>
+      </c>
+      <c r="R33">
+        <v>2.25</v>
+      </c>
+      <c r="S33">
+        <v>2.85</v>
+      </c>
+      <c r="T33">
+        <v>1.28</v>
+      </c>
+      <c r="U33">
+        <v>3.35</v>
+      </c>
+      <c r="V33">
+        <v>2.25</v>
+      </c>
+      <c r="W33">
+        <v>1.57</v>
+      </c>
+      <c r="X33">
+        <v>5.05</v>
+      </c>
+      <c r="Y33">
+        <v>1.15</v>
+      </c>
+      <c r="Z33">
+        <v>2.7</v>
+      </c>
+      <c r="AA33">
+        <v>3.75</v>
+      </c>
+      <c r="AB33">
+        <v>2.37</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>13</v>
+      </c>
+      <c r="AE33">
+        <v>1.11</v>
+      </c>
+      <c r="AF33">
+        <v>5.5</v>
+      </c>
+      <c r="AG33">
+        <v>1.5</v>
+      </c>
+      <c r="AH33">
+        <v>2.4</v>
+      </c>
+      <c r="AI33">
+        <v>1.44</v>
+      </c>
+      <c r="AJ33">
+        <v>2.7</v>
+      </c>
+      <c r="AK33">
+        <v>1.55</v>
+      </c>
+      <c r="AL33">
+        <v>1.22</v>
+      </c>
+      <c r="AM33">
+        <v>1.45</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>1.09</v>
+      </c>
+      <c r="AS33">
+        <v>1.1</v>
+      </c>
+      <c r="AT33">
+        <v>2.19</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
+        <v>4</v>
+      </c>
+      <c r="AY33">
+        <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>12</v>
+      </c>
+      <c r="BA33">
+        <v>3</v>
+      </c>
+      <c r="BB33">
+        <v>9</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>1.95</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>2.1</v>
+      </c>
+      <c r="BG33">
+        <v>1.15</v>
+      </c>
+      <c r="BH33">
+        <v>5.05</v>
+      </c>
+      <c r="BI33">
+        <v>1.3</v>
+      </c>
+      <c r="BJ33">
+        <v>3.52</v>
+      </c>
+      <c r="BK33">
+        <v>1.55</v>
+      </c>
+      <c r="BL33">
+        <v>2.3</v>
+      </c>
+      <c r="BM33">
+        <v>1.9</v>
+      </c>
+      <c r="BN33">
+        <v>1.9</v>
+      </c>
+      <c r="BO33">
+        <v>2.3</v>
+      </c>
+      <c r="BP33">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7491523</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>2.75</v>
+      </c>
+      <c r="R34">
+        <v>2.25</v>
+      </c>
+      <c r="S34">
+        <v>3.2</v>
+      </c>
+      <c r="T34">
+        <v>1.28</v>
+      </c>
+      <c r="U34">
+        <v>3.3</v>
+      </c>
+      <c r="V34">
+        <v>2.3</v>
+      </c>
+      <c r="W34">
+        <v>1.55</v>
+      </c>
+      <c r="X34">
+        <v>5.2</v>
+      </c>
+      <c r="Y34">
+        <v>1.14</v>
+      </c>
+      <c r="Z34">
+        <v>2.25</v>
+      </c>
+      <c r="AA34">
+        <v>3.6</v>
+      </c>
+      <c r="AB34">
+        <v>2.8</v>
+      </c>
+      <c r="AC34">
+        <v>1.03</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.18</v>
+      </c>
+      <c r="AF34">
+        <v>4.75</v>
+      </c>
+      <c r="AG34">
+        <v>1.57</v>
+      </c>
+      <c r="AH34">
+        <v>2.25</v>
+      </c>
+      <c r="AI34">
+        <v>1.48</v>
+      </c>
+      <c r="AJ34">
+        <v>2.45</v>
+      </c>
+      <c r="AK34">
+        <v>1.42</v>
+      </c>
+      <c r="AL34">
+        <v>1.22</v>
+      </c>
+      <c r="AM34">
+        <v>1.62</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>1.8</v>
+      </c>
+      <c r="AS34">
+        <v>1.46</v>
+      </c>
+      <c r="AT34">
+        <v>3.26</v>
+      </c>
+      <c r="AU34">
+        <v>11</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>18</v>
+      </c>
+      <c r="AZ34">
+        <v>9</v>
+      </c>
+      <c r="BA34">
+        <v>11</v>
+      </c>
+      <c r="BB34">
+        <v>7</v>
+      </c>
+      <c r="BC34">
+        <v>18</v>
+      </c>
+      <c r="BD34">
+        <v>1.69</v>
+      </c>
+      <c r="BE34">
+        <v>8.5</v>
+      </c>
+      <c r="BF34">
+        <v>2.53</v>
+      </c>
+      <c r="BG34">
+        <v>1.15</v>
+      </c>
+      <c r="BH34">
+        <v>4.95</v>
+      </c>
+      <c r="BI34">
+        <v>1.28</v>
+      </c>
+      <c r="BJ34">
+        <v>3.25</v>
+      </c>
+      <c r="BK34">
+        <v>1.5</v>
+      </c>
+      <c r="BL34">
+        <v>2.35</v>
+      </c>
+      <c r="BM34">
+        <v>1.92</v>
+      </c>
+      <c r="BN34">
+        <v>1.88</v>
+      </c>
+      <c r="BO34">
+        <v>2.35</v>
+      </c>
+      <c r="BP34">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['32', '45', '68']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -422,6 +428,12 @@
   </si>
   <si>
     <t>['28', '51', '64', '79']</t>
+  </si>
+  <si>
+    <t>['25', '45+1', '46']</t>
+  </si>
+  <si>
+    <t>['73', '87']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1054,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1248,7 +1260,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1660,7 +1672,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2072,7 +2084,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2278,7 +2290,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2484,7 +2496,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2690,7 +2702,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2977,7 +2989,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3102,7 +3114,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3308,7 +3320,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3514,7 +3526,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3595,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3801,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3926,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4132,7 +4144,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4210,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4338,7 +4350,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4750,7 +4762,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5162,7 +5174,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5368,7 +5380,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5986,7 +5998,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6192,7 +6204,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6398,7 +6410,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6810,7 +6822,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7016,7 +7028,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7428,7 +7440,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7634,7 +7646,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7791,6 +7803,624 @@
       </c>
       <c r="BP34">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7491519</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35">
+        <v>2.1</v>
+      </c>
+      <c r="R35">
+        <v>2.38</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>1.27</v>
+      </c>
+      <c r="U35">
+        <v>3.35</v>
+      </c>
+      <c r="V35">
+        <v>2.5</v>
+      </c>
+      <c r="W35">
+        <v>1.46</v>
+      </c>
+      <c r="X35">
+        <v>6.25</v>
+      </c>
+      <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>1.58</v>
+      </c>
+      <c r="AA35">
+        <v>3.95</v>
+      </c>
+      <c r="AB35">
+        <v>5.25</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>12</v>
+      </c>
+      <c r="AE35">
+        <v>1.18</v>
+      </c>
+      <c r="AF35">
+        <v>4.4</v>
+      </c>
+      <c r="AG35">
+        <v>1.71</v>
+      </c>
+      <c r="AH35">
+        <v>2.15</v>
+      </c>
+      <c r="AI35">
+        <v>1.72</v>
+      </c>
+      <c r="AJ35">
+        <v>2.06</v>
+      </c>
+      <c r="AK35">
+        <v>1.14</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>2.32</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.49</v>
+      </c>
+      <c r="AS35">
+        <v>1.1</v>
+      </c>
+      <c r="AT35">
+        <v>2.59</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>10</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
+        <v>6</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.45</v>
+      </c>
+      <c r="BE35">
+        <v>9</v>
+      </c>
+      <c r="BF35">
+        <v>3.32</v>
+      </c>
+      <c r="BG35">
+        <v>1.2</v>
+      </c>
+      <c r="BH35">
+        <v>4</v>
+      </c>
+      <c r="BI35">
+        <v>1.38</v>
+      </c>
+      <c r="BJ35">
+        <v>2.8</v>
+      </c>
+      <c r="BK35">
+        <v>1.73</v>
+      </c>
+      <c r="BL35">
+        <v>2</v>
+      </c>
+      <c r="BM35">
+        <v>2.07</v>
+      </c>
+      <c r="BN35">
+        <v>1.65</v>
+      </c>
+      <c r="BO35">
+        <v>2.7</v>
+      </c>
+      <c r="BP35">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7491520</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36">
+        <v>3.25</v>
+      </c>
+      <c r="R36">
+        <v>2.45</v>
+      </c>
+      <c r="S36">
+        <v>2.7</v>
+      </c>
+      <c r="T36">
+        <v>1.22</v>
+      </c>
+      <c r="U36">
+        <v>3.8</v>
+      </c>
+      <c r="V36">
+        <v>2.28</v>
+      </c>
+      <c r="W36">
+        <v>1.56</v>
+      </c>
+      <c r="X36">
+        <v>5.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.13</v>
+      </c>
+      <c r="Z36">
+        <v>2.8</v>
+      </c>
+      <c r="AA36">
+        <v>3.8</v>
+      </c>
+      <c r="AB36">
+        <v>2.2</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.13</v>
+      </c>
+      <c r="AF36">
+        <v>5.2</v>
+      </c>
+      <c r="AG36">
+        <v>1.48</v>
+      </c>
+      <c r="AH36">
+        <v>2.54</v>
+      </c>
+      <c r="AI36">
+        <v>1.48</v>
+      </c>
+      <c r="AJ36">
+        <v>2.55</v>
+      </c>
+      <c r="AK36">
+        <v>1.63</v>
+      </c>
+      <c r="AL36">
+        <v>1.24</v>
+      </c>
+      <c r="AM36">
+        <v>1.41</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1.5</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>1.71</v>
+      </c>
+      <c r="AS36">
+        <v>2.13</v>
+      </c>
+      <c r="AT36">
+        <v>3.84</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
+        <v>6</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>9</v>
+      </c>
+      <c r="BD36">
+        <v>2.32</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>1.82</v>
+      </c>
+      <c r="BG36">
+        <v>1.15</v>
+      </c>
+      <c r="BH36">
+        <v>5.05</v>
+      </c>
+      <c r="BI36">
+        <v>1.3</v>
+      </c>
+      <c r="BJ36">
+        <v>3.52</v>
+      </c>
+      <c r="BK36">
+        <v>1.49</v>
+      </c>
+      <c r="BL36">
+        <v>2.52</v>
+      </c>
+      <c r="BM36">
+        <v>1.9</v>
+      </c>
+      <c r="BN36">
+        <v>1.9</v>
+      </c>
+      <c r="BO36">
+        <v>2.42</v>
+      </c>
+      <c r="BP36">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7491524</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q37">
+        <v>3.91</v>
+      </c>
+      <c r="R37">
+        <v>2.55</v>
+      </c>
+      <c r="S37">
+        <v>2.45</v>
+      </c>
+      <c r="T37">
+        <v>1.28</v>
+      </c>
+      <c r="U37">
+        <v>3.4</v>
+      </c>
+      <c r="V37">
+        <v>2.26</v>
+      </c>
+      <c r="W37">
+        <v>1.64</v>
+      </c>
+      <c r="X37">
+        <v>4.95</v>
+      </c>
+      <c r="Y37">
+        <v>1.14</v>
+      </c>
+      <c r="Z37">
+        <v>3.4</v>
+      </c>
+      <c r="AA37">
+        <v>3.85</v>
+      </c>
+      <c r="AB37">
+        <v>1.92</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>10</v>
+      </c>
+      <c r="AE37">
+        <v>1.17</v>
+      </c>
+      <c r="AF37">
+        <v>5</v>
+      </c>
+      <c r="AG37">
+        <v>1.5</v>
+      </c>
+      <c r="AH37">
+        <v>2.48</v>
+      </c>
+      <c r="AI37">
+        <v>1.47</v>
+      </c>
+      <c r="AJ37">
+        <v>2.55</v>
+      </c>
+      <c r="AK37">
+        <v>1.8</v>
+      </c>
+      <c r="AL37">
+        <v>1.22</v>
+      </c>
+      <c r="AM37">
+        <v>1.3</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>2.14</v>
+      </c>
+      <c r="AS37">
+        <v>0.95</v>
+      </c>
+      <c r="AT37">
+        <v>3.09</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>6</v>
+      </c>
+      <c r="AZ37">
+        <v>8</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
+        <v>7</v>
+      </c>
+      <c r="BD37">
+        <v>2.41</v>
+      </c>
+      <c r="BE37">
+        <v>8.5</v>
+      </c>
+      <c r="BF37">
+        <v>1.75</v>
+      </c>
+      <c r="BG37">
+        <v>1.17</v>
+      </c>
+      <c r="BH37">
+        <v>4.75</v>
+      </c>
+      <c r="BI37">
+        <v>1.3</v>
+      </c>
+      <c r="BJ37">
+        <v>3.1</v>
+      </c>
+      <c r="BK37">
+        <v>1.54</v>
+      </c>
+      <c r="BL37">
+        <v>2.3</v>
+      </c>
+      <c r="BM37">
+        <v>2</v>
+      </c>
+      <c r="BN37">
+        <v>1.8</v>
+      </c>
+      <c r="BO37">
+        <v>2.43</v>
+      </c>
+      <c r="BP37">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -7945,7 +7945,7 @@
         <v>2.59</v>
       </c>
       <c r="AU35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV35">
         <v>4</v>
@@ -7954,13 +7954,13 @@
         <v>10</v>
       </c>
       <c r="AX35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8151,22 +8151,22 @@
         <v>3.84</v>
       </c>
       <c r="AU36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8357,22 +8357,22 @@
         <v>3.09</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW37">
         <v>6</v>
       </c>
       <c r="AX37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -262,12 +262,12 @@
     <t>Nürnberg</t>
   </si>
   <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
     <t>Elversberg</t>
   </si>
   <si>
-    <t>Fortuna Düsseldorf</t>
-  </si>
-  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
@@ -325,27 +325,27 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['18', '48', '75']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['90', '90+6']</t>
   </si>
   <si>
     <t>['26', '34', '58', '61', '88']</t>
   </si>
   <si>
+    <t>['39', '45+2']</t>
+  </si>
+  <si>
     <t>['42']</t>
   </si>
   <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['39', '45+2']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>['32', '45', '68']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -409,15 +409,15 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['8', '76']</t>
+  </si>
+  <si>
     <t>['81', '82']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['8', '76']</t>
-  </si>
-  <si>
     <t>['4', '49', '77', '88']</t>
   </si>
   <si>
@@ -430,10 +430,10 @@
     <t>['28', '51', '64', '79']</t>
   </si>
   <si>
+    <t>['73', '87']</t>
+  </si>
+  <si>
     <t>['25', '45+1', '46']</t>
-  </si>
-  <si>
-    <t>['73', '87']</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1854,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491502</v>
+        <v>7491499</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3502,100 +3502,100 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="R14">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S14">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T14">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V14">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X14">
-        <v>7</v>
+        <v>4.85</v>
       </c>
       <c r="Y14">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z14">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="AA14">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>3.66</v>
       </c>
       <c r="AC14">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD14">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE14">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF14">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AG14">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AH14">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AI14">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AJ14">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AK14">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="AL14">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM14">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3619,70 +3619,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX14">
         <v>4</v>
       </c>
       <c r="AY14">
+        <v>18</v>
+      </c>
+      <c r="AZ14">
         <v>7</v>
       </c>
-      <c r="AZ14">
-        <v>14</v>
-      </c>
       <c r="BA14">
+        <v>7</v>
+      </c>
+      <c r="BB14">
         <v>4</v>
       </c>
-      <c r="BB14">
-        <v>13</v>
-      </c>
       <c r="BC14">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BD14">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="BE14">
         <v>8.5</v>
       </c>
       <c r="BF14">
-        <v>1.82</v>
+        <v>2.43</v>
       </c>
       <c r="BG14">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH14">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BI14">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BJ14">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK14">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BL14">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="BM14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN14">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO14">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BP14">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3690,7 +3690,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7491499</v>
+        <v>7491502</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3708,100 +3708,100 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q15">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S15">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="T15">
+        <v>1.36</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2.63</v>
+      </c>
+      <c r="W15">
+        <v>1.44</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
+        <v>3.2</v>
+      </c>
+      <c r="AA15">
+        <v>3.75</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>1.01</v>
+      </c>
+      <c r="AD15">
+        <v>10.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.21</v>
+      </c>
+      <c r="AF15">
+        <v>3.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.62</v>
+      </c>
+      <c r="AH15">
+        <v>2.2</v>
+      </c>
+      <c r="AI15">
+        <v>1.67</v>
+      </c>
+      <c r="AJ15">
+        <v>2.1</v>
+      </c>
+      <c r="AK15">
+        <v>1.83</v>
+      </c>
+      <c r="AL15">
         <v>1.28</v>
       </c>
-      <c r="U15">
-        <v>3.4</v>
-      </c>
-      <c r="V15">
-        <v>2.2</v>
-      </c>
-      <c r="W15">
-        <v>1.6</v>
-      </c>
-      <c r="X15">
-        <v>4.85</v>
-      </c>
-      <c r="Y15">
-        <v>1.16</v>
-      </c>
-      <c r="Z15">
-        <v>1.91</v>
-      </c>
-      <c r="AA15">
-        <v>3.97</v>
-      </c>
-      <c r="AB15">
-        <v>3.66</v>
-      </c>
-      <c r="AC15">
-        <v>1.03</v>
-      </c>
-      <c r="AD15">
-        <v>11</v>
-      </c>
-      <c r="AE15">
-        <v>1.18</v>
-      </c>
-      <c r="AF15">
-        <v>4.75</v>
-      </c>
-      <c r="AG15">
-        <v>1.55</v>
-      </c>
-      <c r="AH15">
-        <v>2.45</v>
-      </c>
-      <c r="AI15">
-        <v>1.45</v>
-      </c>
-      <c r="AJ15">
-        <v>2.5</v>
-      </c>
-      <c r="AK15">
-        <v>1.25</v>
-      </c>
-      <c r="AL15">
-        <v>1.22</v>
-      </c>
       <c r="AM15">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3825,70 +3825,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW15">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AX15">
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BC15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BD15">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2.43</v>
+        <v>1.82</v>
       </c>
       <c r="BG15">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH15">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI15">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ15">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK15">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BL15">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="BM15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN15">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO15">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BP15">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4720,7 +4720,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7491510</v>
+        <v>7491511</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4735,88 +4735,88 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T20">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V20">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W20">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y20">
+        <v>1.14</v>
+      </c>
+      <c r="Z20">
+        <v>2.44</v>
+      </c>
+      <c r="AA20">
+        <v>3.72</v>
+      </c>
+      <c r="AB20">
+        <v>2.62</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
         <v>1.17</v>
       </c>
-      <c r="Z20">
-        <v>1.77</v>
-      </c>
-      <c r="AA20">
-        <v>3.92</v>
-      </c>
-      <c r="AB20">
-        <v>4.18</v>
-      </c>
-      <c r="AC20">
-        <v>1.02</v>
-      </c>
-      <c r="AD20">
-        <v>22</v>
-      </c>
-      <c r="AE20">
-        <v>1.1</v>
-      </c>
       <c r="AF20">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="AG20">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AH20">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="AI20">
         <v>1.5</v>
@@ -4825,100 +4825,100 @@
         <v>2.5</v>
       </c>
       <c r="AK20">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AL20">
         <v>1.22</v>
       </c>
       <c r="AM20">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AN20">
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP20">
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>0.8100000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>9</v>
+      </c>
+      <c r="AY20">
         <v>8</v>
       </c>
-      <c r="AV20">
+      <c r="AZ20">
+        <v>11</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
         <v>4</v>
       </c>
-      <c r="AW20">
-        <v>5</v>
-      </c>
-      <c r="AX20">
-        <v>5</v>
-      </c>
-      <c r="AY20">
-        <v>13</v>
-      </c>
-      <c r="AZ20">
-        <v>9</v>
-      </c>
-      <c r="BA20">
-        <v>7</v>
-      </c>
-      <c r="BB20">
-        <v>3</v>
-      </c>
-      <c r="BC20">
-        <v>10</v>
-      </c>
       <c r="BD20">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="BE20">
-        <v>8.199999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="BF20">
-        <v>4.55</v>
+        <v>2.39</v>
       </c>
       <c r="BG20">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH20">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI20">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ20">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK20">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL20">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN20">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BO20">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BP20">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -4926,7 +4926,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491511</v>
+        <v>7491510</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4941,88 +4941,88 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S21">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W21">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z21">
-        <v>2.44</v>
+        <v>1.77</v>
       </c>
       <c r="AA21">
-        <v>3.72</v>
+        <v>3.92</v>
       </c>
       <c r="AB21">
-        <v>2.62</v>
+        <v>4.18</v>
       </c>
       <c r="AC21">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD21">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE21">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AF21">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="AG21">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AH21">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="AI21">
         <v>1.5</v>
@@ -5031,100 +5031,100 @@
         <v>2.5</v>
       </c>
       <c r="AK21">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AL21">
         <v>1.22</v>
       </c>
       <c r="AM21">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AS21">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT21">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
         <v>4</v>
       </c>
-      <c r="AV21">
-        <v>2</v>
-      </c>
       <c r="AW21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>13</v>
+      </c>
+      <c r="AZ21">
         <v>9</v>
       </c>
-      <c r="AY21">
-        <v>8</v>
-      </c>
-      <c r="AZ21">
-        <v>11</v>
-      </c>
       <c r="BA21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB21">
         <v>3</v>
       </c>
       <c r="BC21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD21">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="BE21">
-        <v>6.85</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF21">
-        <v>2.39</v>
+        <v>4.55</v>
       </c>
       <c r="BG21">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH21">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI21">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ21">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BK21">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL21">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BO21">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP21">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5132,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491516</v>
+        <v>7491512</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5147,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5162,175 +5162,175 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>2.4</v>
+      </c>
+      <c r="S22">
         <v>3.1</v>
       </c>
-      <c r="R22">
-        <v>2.3</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y22">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z22">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="AA22">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AB22">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC22">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AE22">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF22">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG22">
         <v>1.64</v>
       </c>
       <c r="AH22">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AI22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ22">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AK22">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AL22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM22">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>2.28</v>
       </c>
       <c r="AS22">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.68</v>
+        <v>3.49</v>
       </c>
       <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>6</v>
+      </c>
+      <c r="AY22">
         <v>7</v>
       </c>
-      <c r="AV22">
-        <v>6</v>
-      </c>
-      <c r="AW22">
-        <v>8</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
-      </c>
-      <c r="AY22">
-        <v>15</v>
-      </c>
       <c r="AZ22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD22">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE22">
         <v>8</v>
       </c>
       <c r="BF22">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="BG22">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH22">
         <v>4.25</v>
       </c>
       <c r="BI22">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ22">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK22">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BL22">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM22">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BN22">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BO22">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BP22">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5338,7 +5338,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491512</v>
+        <v>7491513</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5353,10 +5353,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5368,154 +5368,154 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="Q23">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T23">
+        <v>1.25</v>
+      </c>
+      <c r="U23">
+        <v>3.75</v>
+      </c>
+      <c r="V23">
+        <v>2.2</v>
+      </c>
+      <c r="W23">
+        <v>1.62</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>1.17</v>
+      </c>
+      <c r="Z23">
+        <v>1.67</v>
+      </c>
+      <c r="AA23">
+        <v>3.95</v>
+      </c>
+      <c r="AB23">
+        <v>4.8</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>12</v>
+      </c>
+      <c r="AE23">
+        <v>1.18</v>
+      </c>
+      <c r="AF23">
+        <v>4.75</v>
+      </c>
+      <c r="AG23">
+        <v>1.61</v>
+      </c>
+      <c r="AH23">
+        <v>2.23</v>
+      </c>
+      <c r="AI23">
+        <v>1.53</v>
+      </c>
+      <c r="AJ23">
+        <v>2.38</v>
+      </c>
+      <c r="AK23">
+        <v>1.16</v>
+      </c>
+      <c r="AL23">
+        <v>1.18</v>
+      </c>
+      <c r="AM23">
+        <v>2.15</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>1.29</v>
       </c>
-      <c r="U23">
-        <v>3.5</v>
-      </c>
-      <c r="V23">
-        <v>2.25</v>
-      </c>
-      <c r="W23">
-        <v>1.57</v>
-      </c>
-      <c r="X23">
-        <v>5.5</v>
-      </c>
-      <c r="Y23">
-        <v>1.14</v>
-      </c>
-      <c r="Z23">
-        <v>2.4</v>
-      </c>
-      <c r="AA23">
-        <v>3.75</v>
-      </c>
-      <c r="AB23">
-        <v>2.7</v>
-      </c>
-      <c r="AC23">
-        <v>1.03</v>
-      </c>
-      <c r="AD23">
-        <v>18.5</v>
-      </c>
-      <c r="AE23">
+      <c r="AS23">
         <v>1.2</v>
       </c>
-      <c r="AF23">
-        <v>4.33</v>
-      </c>
-      <c r="AG23">
-        <v>1.64</v>
-      </c>
-      <c r="AH23">
-        <v>2.13</v>
-      </c>
-      <c r="AI23">
-        <v>1.44</v>
-      </c>
-      <c r="AJ23">
-        <v>2.63</v>
-      </c>
-      <c r="AK23">
-        <v>1.47</v>
-      </c>
-      <c r="AL23">
-        <v>1.2</v>
-      </c>
-      <c r="AM23">
-        <v>1.57</v>
-      </c>
-      <c r="AN23">
-        <v>3</v>
-      </c>
-      <c r="AO23">
-        <v>3</v>
-      </c>
-      <c r="AP23">
-        <v>2</v>
-      </c>
-      <c r="AQ23">
-        <v>2</v>
-      </c>
-      <c r="AR23">
-        <v>2.28</v>
-      </c>
-      <c r="AS23">
-        <v>1.21</v>
-      </c>
       <c r="AT23">
-        <v>3.49</v>
+        <v>2.49</v>
       </c>
       <c r="AU23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD23">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="BE23">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF23">
-        <v>2.42</v>
+        <v>2.91</v>
       </c>
       <c r="BG23">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH23">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="BI23">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BJ23">
         <v>3.1</v>
@@ -5527,16 +5527,16 @@
         <v>2.2</v>
       </c>
       <c r="BM23">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BN23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO23">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BP23">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5544,7 +5544,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491513</v>
+        <v>7491516</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5559,10 +5559,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5574,73 +5574,73 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="Q24">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
         <v>2.5</v>
       </c>
-      <c r="S24">
-        <v>4.5</v>
-      </c>
-      <c r="T24">
-        <v>1.25</v>
-      </c>
-      <c r="U24">
-        <v>3.75</v>
-      </c>
-      <c r="V24">
-        <v>2.2</v>
-      </c>
       <c r="W24">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y24">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z24">
-        <v>1.67</v>
+        <v>2.85</v>
       </c>
       <c r="AA24">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="AB24">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC24">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE24">
         <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AG24">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AH24">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AI24">
         <v>1.53</v>
@@ -5649,100 +5649,100 @@
         <v>2.38</v>
       </c>
       <c r="AK24">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.47</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>1.26</v>
+      </c>
+      <c r="AS24">
+        <v>1.42</v>
+      </c>
+      <c r="AT24">
+        <v>2.68</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>15</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>2.1</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>1.91</v>
+      </c>
+      <c r="BG24">
         <v>1.18</v>
       </c>
-      <c r="AM24">
-        <v>2.15</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1.5</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>1.29</v>
-      </c>
-      <c r="AS24">
-        <v>1.2</v>
-      </c>
-      <c r="AT24">
-        <v>2.49</v>
-      </c>
-      <c r="AU24">
-        <v>3</v>
-      </c>
-      <c r="AV24">
-        <v>3</v>
-      </c>
-      <c r="AW24">
-        <v>6</v>
-      </c>
-      <c r="AX24">
-        <v>7</v>
-      </c>
-      <c r="AY24">
-        <v>9</v>
-      </c>
-      <c r="AZ24">
-        <v>10</v>
-      </c>
-      <c r="BA24">
-        <v>8</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24">
-        <v>10</v>
-      </c>
-      <c r="BD24">
-        <v>1.55</v>
-      </c>
-      <c r="BE24">
-        <v>8.5</v>
-      </c>
-      <c r="BF24">
-        <v>2.91</v>
-      </c>
-      <c r="BG24">
-        <v>1.22</v>
-      </c>
       <c r="BH24">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="BI24">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ24">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BK24">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BL24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM24">
         <v>2</v>
       </c>
       <c r="BN24">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO24">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BP24">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5956,7 +5956,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7491515</v>
+        <v>7491514</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5971,28 +5971,28 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
         <v>107</v>
@@ -6001,160 +6001,160 @@
         <v>131</v>
       </c>
       <c r="Q26">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R26">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S26">
+        <v>3.2</v>
+      </c>
+      <c r="T26">
+        <v>1.29</v>
+      </c>
+      <c r="U26">
+        <v>3.5</v>
+      </c>
+      <c r="V26">
+        <v>2.38</v>
+      </c>
+      <c r="W26">
+        <v>1.53</v>
+      </c>
+      <c r="X26">
+        <v>5.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.14</v>
+      </c>
+      <c r="Z26">
         <v>2.5</v>
-      </c>
-      <c r="T26">
-        <v>1.33</v>
-      </c>
-      <c r="U26">
-        <v>3.25</v>
-      </c>
-      <c r="V26">
-        <v>2.63</v>
-      </c>
-      <c r="W26">
-        <v>1.44</v>
-      </c>
-      <c r="X26">
-        <v>6.5</v>
-      </c>
-      <c r="Y26">
-        <v>1.11</v>
-      </c>
-      <c r="Z26">
-        <v>3.75</v>
       </c>
       <c r="AA26">
         <v>3.6</v>
       </c>
       <c r="AB26">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="AC26">
         <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE26">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AF26">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="AG26">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AH26">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AI26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AJ26">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AK26">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="AL26">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM26">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
-        <v>1.22</v>
+        <v>1.96</v>
       </c>
       <c r="AS26">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AT26">
-        <v>2.44</v>
+        <v>3.53</v>
       </c>
       <c r="AU26">
         <v>9</v>
       </c>
       <c r="AV26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>13</v>
+      </c>
+      <c r="AZ26">
+        <v>10</v>
+      </c>
+      <c r="BA26">
         <v>9</v>
       </c>
-      <c r="AX26">
-        <v>6</v>
-      </c>
-      <c r="AY26">
-        <v>18</v>
-      </c>
-      <c r="AZ26">
-        <v>12</v>
-      </c>
-      <c r="BA26">
-        <v>6</v>
-      </c>
       <c r="BB26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD26">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="BG26">
         <v>1.2</v>
       </c>
       <c r="BH26">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BI26">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BJ26">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BK26">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BL26">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BM26">
         <v>2</v>
       </c>
       <c r="BN26">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BO26">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BP26">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6162,7 +6162,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7491509</v>
+        <v>7491515</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6177,10 +6177,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6195,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>108</v>
@@ -6207,160 +6207,160 @@
         <v>132</v>
       </c>
       <c r="Q27">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R27">
         <v>2.3</v>
       </c>
       <c r="S27">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V27">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z27">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="AA27">
         <v>3.6</v>
       </c>
       <c r="AB27">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="AC27">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD27">
+        <v>10.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.21</v>
+      </c>
+      <c r="AF27">
+        <v>3.75</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>2.05</v>
+      </c>
+      <c r="AI27">
+        <v>1.67</v>
+      </c>
+      <c r="AJ27">
+        <v>2.1</v>
+      </c>
+      <c r="AK27">
+        <v>1.94</v>
+      </c>
+      <c r="AL27">
+        <v>1.27</v>
+      </c>
+      <c r="AM27">
+        <v>1.25</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.22</v>
+      </c>
+      <c r="AS27">
+        <v>1.22</v>
+      </c>
+      <c r="AT27">
+        <v>2.44</v>
+      </c>
+      <c r="AU27">
+        <v>9</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>9</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>18</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>5</v>
+      </c>
+      <c r="BC27">
         <v>11</v>
       </c>
-      <c r="AE27">
-        <v>1.18</v>
-      </c>
-      <c r="AF27">
-        <v>4.33</v>
-      </c>
-      <c r="AG27">
-        <v>1.57</v>
-      </c>
-      <c r="AH27">
-        <v>2.3</v>
-      </c>
-      <c r="AI27">
-        <v>1.53</v>
-      </c>
-      <c r="AJ27">
-        <v>2.38</v>
-      </c>
-      <c r="AK27">
-        <v>1.38</v>
-      </c>
-      <c r="AL27">
-        <v>1.22</v>
-      </c>
-      <c r="AM27">
-        <v>1.65</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0.5</v>
-      </c>
-      <c r="AQ27">
-        <v>0.5</v>
-      </c>
-      <c r="AR27">
-        <v>1.43</v>
-      </c>
-      <c r="AS27">
-        <v>1.27</v>
-      </c>
-      <c r="AT27">
-        <v>2.7</v>
-      </c>
-      <c r="AU27">
-        <v>8</v>
-      </c>
-      <c r="AV27">
-        <v>5</v>
-      </c>
-      <c r="AW27">
-        <v>8</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>16</v>
-      </c>
-      <c r="AZ27">
-        <v>5</v>
-      </c>
-      <c r="BA27">
-        <v>13</v>
-      </c>
-      <c r="BB27">
-        <v>2</v>
-      </c>
-      <c r="BC27">
-        <v>15</v>
-      </c>
       <c r="BD27">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="BE27">
         <v>8</v>
       </c>
       <c r="BF27">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BG27">
         <v>1.2</v>
       </c>
       <c r="BH27">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BI27">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BJ27">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BK27">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BL27">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="BM27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BN27">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BO27">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BP27">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6368,7 +6368,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7491514</v>
+        <v>7491509</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6383,28 +6383,28 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
         <v>109</v>
@@ -6413,130 +6413,130 @@
         <v>133</v>
       </c>
       <c r="Q28">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S28">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V28">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W28">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z28">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA28">
         <v>3.6</v>
       </c>
       <c r="AB28">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD28">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE28">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF28">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="AG28">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AH28">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AI28">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AJ28">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AK28">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AL28">
         <v>1.22</v>
       </c>
       <c r="AM28">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
       </c>
       <c r="AR28">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="AS28">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="AT28">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="AU28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
         <v>8</v>
       </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
       <c r="AX28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY28">
+        <v>16</v>
+      </c>
+      <c r="AZ28">
+        <v>5</v>
+      </c>
+      <c r="BA28">
         <v>13</v>
       </c>
-      <c r="AZ28">
-        <v>10</v>
-      </c>
-      <c r="BA28">
-        <v>9</v>
-      </c>
       <c r="BB28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD28">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BE28">
         <v>8</v>
       </c>
       <c r="BF28">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BG28">
         <v>1.2</v>
@@ -6551,22 +6551,22 @@
         <v>2.75</v>
       </c>
       <c r="BK28">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BL28">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="BM28">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN28">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="BO28">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BP28">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6589,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>72</v>
@@ -7207,7 +7207,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
@@ -7810,7 +7810,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7491519</v>
+        <v>7491524</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7825,124 +7825,124 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="Q35">
-        <v>2.1</v>
+        <v>3.91</v>
       </c>
       <c r="R35">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="S35">
+        <v>2.45</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
+        <v>3.4</v>
+      </c>
+      <c r="V35">
+        <v>2.26</v>
+      </c>
+      <c r="W35">
+        <v>1.64</v>
+      </c>
+      <c r="X35">
+        <v>4.95</v>
+      </c>
+      <c r="Y35">
+        <v>1.14</v>
+      </c>
+      <c r="Z35">
+        <v>3.4</v>
+      </c>
+      <c r="AA35">
+        <v>3.85</v>
+      </c>
+      <c r="AB35">
+        <v>1.92</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>1.17</v>
+      </c>
+      <c r="AF35">
         <v>5</v>
       </c>
-      <c r="T35">
-        <v>1.27</v>
-      </c>
-      <c r="U35">
-        <v>3.35</v>
-      </c>
-      <c r="V35">
-        <v>2.5</v>
-      </c>
-      <c r="W35">
-        <v>1.46</v>
-      </c>
-      <c r="X35">
-        <v>6.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.1</v>
-      </c>
-      <c r="Z35">
-        <v>1.58</v>
-      </c>
-      <c r="AA35">
-        <v>3.95</v>
-      </c>
-      <c r="AB35">
-        <v>5.25</v>
-      </c>
-      <c r="AC35">
-        <v>1.01</v>
-      </c>
-      <c r="AD35">
-        <v>12</v>
-      </c>
-      <c r="AE35">
-        <v>1.18</v>
-      </c>
-      <c r="AF35">
-        <v>4.4</v>
-      </c>
       <c r="AG35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AH35">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="AI35">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AJ35">
-        <v>2.06</v>
+        <v>2.55</v>
       </c>
       <c r="AK35">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL35">
         <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR35">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AT35">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="AU35">
         <v>2</v>
@@ -7951,64 +7951,64 @@
         <v>4</v>
       </c>
       <c r="AW35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
         <v>12</v>
       </c>
-      <c r="AZ35">
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>6</v>
+      </c>
+      <c r="BC35">
         <v>7</v>
       </c>
-      <c r="BA35">
-        <v>4</v>
-      </c>
-      <c r="BB35">
-        <v>4</v>
-      </c>
-      <c r="BC35">
-        <v>8</v>
-      </c>
       <c r="BD35">
-        <v>1.45</v>
+        <v>2.41</v>
       </c>
       <c r="BE35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF35">
-        <v>3.32</v>
+        <v>1.75</v>
       </c>
       <c r="BG35">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BI35">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ35">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK35">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="BL35">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM35">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN35">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BO35">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP35">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8055,10 +8055,10 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8222,7 +8222,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7491524</v>
+        <v>7491519</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8237,124 +8237,124 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="Q37">
-        <v>3.91</v>
+        <v>2.1</v>
       </c>
       <c r="R37">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="S37">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U37">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V37">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="W37">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X37">
-        <v>4.95</v>
+        <v>6.25</v>
       </c>
       <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>1.58</v>
+      </c>
+      <c r="AA37">
+        <v>3.95</v>
+      </c>
+      <c r="AB37">
+        <v>5.25</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>1.18</v>
+      </c>
+      <c r="AF37">
+        <v>4.4</v>
+      </c>
+      <c r="AG37">
+        <v>1.71</v>
+      </c>
+      <c r="AH37">
+        <v>2.15</v>
+      </c>
+      <c r="AI37">
+        <v>1.72</v>
+      </c>
+      <c r="AJ37">
+        <v>2.06</v>
+      </c>
+      <c r="AK37">
         <v>1.14</v>
-      </c>
-      <c r="Z37">
-        <v>3.4</v>
-      </c>
-      <c r="AA37">
-        <v>3.85</v>
-      </c>
-      <c r="AB37">
-        <v>1.92</v>
-      </c>
-      <c r="AC37">
-        <v>1.04</v>
-      </c>
-      <c r="AD37">
-        <v>10</v>
-      </c>
-      <c r="AE37">
-        <v>1.17</v>
-      </c>
-      <c r="AF37">
-        <v>5</v>
-      </c>
-      <c r="AG37">
-        <v>1.5</v>
-      </c>
-      <c r="AH37">
-        <v>2.48</v>
-      </c>
-      <c r="AI37">
-        <v>1.47</v>
-      </c>
-      <c r="AJ37">
-        <v>2.55</v>
-      </c>
-      <c r="AK37">
-        <v>1.8</v>
       </c>
       <c r="AL37">
         <v>1.22</v>
       </c>
       <c r="AM37">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="AS37">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8363,64 +8363,64 @@
         <v>4</v>
       </c>
       <c r="AW37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
         <v>8</v>
       </c>
-      <c r="AY37">
-        <v>8</v>
-      </c>
-      <c r="AZ37">
-        <v>12</v>
-      </c>
-      <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BB37">
-        <v>6</v>
-      </c>
-      <c r="BC37">
-        <v>7</v>
-      </c>
       <c r="BD37">
-        <v>2.41</v>
+        <v>1.45</v>
       </c>
       <c r="BE37">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF37">
-        <v>1.75</v>
+        <v>3.32</v>
       </c>
       <c r="BG37">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH37">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BI37">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ37">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK37">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="BL37">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM37">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN37">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BO37">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP37">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,12 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['45+3', '73']</t>
+  </si>
+  <si>
+    <t>['19', '78', '90+1']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
   </si>
   <si>
     <t>['25', '45+1', '46']</t>
+  </si>
+  <si>
+    <t>['37', '46', '85']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1063,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1260,7 +1269,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1672,7 +1681,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1753,7 +1762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2084,7 +2093,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2290,7 +2299,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2496,7 +2505,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2702,7 +2711,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3114,7 +3123,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3320,7 +3329,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3401,7 +3410,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3732,7 +3741,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3938,7 +3947,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4144,7 +4153,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4350,7 +4359,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4634,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4968,7 +4977,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5174,7 +5183,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5255,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>2.28</v>
@@ -5586,7 +5595,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5664,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -5998,7 +6007,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6079,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.96</v>
@@ -6204,7 +6213,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6410,7 +6419,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6822,7 +6831,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7028,7 +7037,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7440,7 +7449,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7646,7 +7655,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7852,7 +7861,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8058,7 +8067,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8421,6 +8430,418 @@
       </c>
       <c r="BP37">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7491529</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45548.5625</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38">
+        <v>2.3</v>
+      </c>
+      <c r="R38">
+        <v>2.6</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.22</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>2.1</v>
+      </c>
+      <c r="W38">
+        <v>1.67</v>
+      </c>
+      <c r="X38">
+        <v>4.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.18</v>
+      </c>
+      <c r="Z38">
+        <v>1.95</v>
+      </c>
+      <c r="AA38">
+        <v>3.9</v>
+      </c>
+      <c r="AB38">
+        <v>3.5</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>17</v>
+      </c>
+      <c r="AE38">
+        <v>1.1</v>
+      </c>
+      <c r="AF38">
+        <v>5.5</v>
+      </c>
+      <c r="AG38">
+        <v>1.44</v>
+      </c>
+      <c r="AH38">
+        <v>2.67</v>
+      </c>
+      <c r="AI38">
+        <v>1.44</v>
+      </c>
+      <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.2</v>
+      </c>
+      <c r="AL38">
+        <v>1.18</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>0.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.65</v>
+      </c>
+      <c r="AS38">
+        <v>1.51</v>
+      </c>
+      <c r="AT38">
+        <v>3.16</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>14</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>7</v>
+      </c>
+      <c r="BD38">
+        <v>1.69</v>
+      </c>
+      <c r="BE38">
+        <v>8.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.62</v>
+      </c>
+      <c r="BG38">
+        <v>1.17</v>
+      </c>
+      <c r="BH38">
+        <v>4.25</v>
+      </c>
+      <c r="BI38">
+        <v>1.34</v>
+      </c>
+      <c r="BJ38">
+        <v>2.95</v>
+      </c>
+      <c r="BK38">
+        <v>1.65</v>
+      </c>
+      <c r="BL38">
+        <v>2.1</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.72</v>
+      </c>
+      <c r="BO38">
+        <v>2.5</v>
+      </c>
+      <c r="BP38">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7491534</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45548.5625</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q39">
+        <v>3.5</v>
+      </c>
+      <c r="R39">
+        <v>2.4</v>
+      </c>
+      <c r="S39">
+        <v>2.63</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.14</v>
+      </c>
+      <c r="Z39">
+        <v>3.2</v>
+      </c>
+      <c r="AA39">
+        <v>3.8</v>
+      </c>
+      <c r="AB39">
+        <v>2.1</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>13</v>
+      </c>
+      <c r="AE39">
+        <v>1.13</v>
+      </c>
+      <c r="AF39">
+        <v>5.2</v>
+      </c>
+      <c r="AG39">
+        <v>1.56</v>
+      </c>
+      <c r="AH39">
+        <v>2.33</v>
+      </c>
+      <c r="AI39">
+        <v>1.5</v>
+      </c>
+      <c r="AJ39">
+        <v>2.5</v>
+      </c>
+      <c r="AK39">
+        <v>1.72</v>
+      </c>
+      <c r="AL39">
+        <v>1.2</v>
+      </c>
+      <c r="AM39">
+        <v>1.36</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>0.67</v>
+      </c>
+      <c r="AQ39">
+        <v>1.67</v>
+      </c>
+      <c r="AR39">
+        <v>1.52</v>
+      </c>
+      <c r="AS39">
+        <v>1.27</v>
+      </c>
+      <c r="AT39">
+        <v>2.79</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>10</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>7</v>
+      </c>
+      <c r="AZ39">
+        <v>16</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>2.1</v>
+      </c>
+      <c r="BE39">
+        <v>8</v>
+      </c>
+      <c r="BF39">
+        <v>1.91</v>
+      </c>
+      <c r="BG39">
+        <v>1.18</v>
+      </c>
+      <c r="BH39">
+        <v>4.2</v>
+      </c>
+      <c r="BI39">
+        <v>1.35</v>
+      </c>
+      <c r="BJ39">
+        <v>2.9</v>
+      </c>
+      <c r="BK39">
+        <v>1.65</v>
+      </c>
+      <c r="BL39">
+        <v>2.1</v>
+      </c>
+      <c r="BM39">
+        <v>2</v>
+      </c>
+      <c r="BN39">
+        <v>1.72</v>
+      </c>
+      <c r="BO39">
+        <v>2.5</v>
+      </c>
+      <c r="BP39">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,18 @@
     <t>['19', '78', '90+1']</t>
   </si>
   <si>
+    <t>['6', '73', '90+5']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['1', '14', '76', '89', '90+3']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -443,6 +455,18 @@
   </si>
   <si>
     <t>['37', '46', '85']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['64', '90+9']</t>
+  </si>
+  <si>
+    <t>['66', '83']</t>
+  </si>
+  <si>
+    <t>['13', '66']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1141,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1269,7 +1293,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1350,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1681,7 +1705,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1759,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -1968,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2093,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2174,7 +2198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2299,7 +2323,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2377,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2505,7 +2529,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2583,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2711,7 +2735,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2792,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3123,7 +3147,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3329,7 +3353,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3741,7 +3765,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3947,7 +3971,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4025,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4153,7 +4177,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4359,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4977,7 +5001,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5058,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>1.6</v>
@@ -5183,7 +5207,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5261,7 +5285,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>1.67</v>
@@ -5467,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5595,7 +5619,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5676,7 +5700,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.26</v>
@@ -5879,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6007,7 +6031,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6213,7 +6237,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6419,7 +6443,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6497,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6831,7 +6855,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7037,7 +7061,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7115,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7449,7 +7473,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7655,7 +7679,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7861,7 +7885,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8067,7 +8091,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8685,7 +8709,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8841,6 +8865,1448 @@
         <v>2.5</v>
       </c>
       <c r="BP39">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7491530</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45549.33333333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q40">
+        <v>2.5</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>3.25</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.11</v>
+      </c>
+      <c r="Z40">
+        <v>1.9</v>
+      </c>
+      <c r="AA40">
+        <v>3.9</v>
+      </c>
+      <c r="AB40">
+        <v>3.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>1.22</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.1</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.22</v>
+      </c>
+      <c r="AL40">
+        <v>1.2</v>
+      </c>
+      <c r="AM40">
+        <v>1.85</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>1.31</v>
+      </c>
+      <c r="AS40">
+        <v>1.28</v>
+      </c>
+      <c r="AT40">
+        <v>2.59</v>
+      </c>
+      <c r="AU40">
+        <v>10</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>18</v>
+      </c>
+      <c r="AZ40">
+        <v>9</v>
+      </c>
+      <c r="BA40">
+        <v>10</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>13</v>
+      </c>
+      <c r="BD40">
+        <v>1.75</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>2.44</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>3.95</v>
+      </c>
+      <c r="BI40">
+        <v>1.45</v>
+      </c>
+      <c r="BJ40">
+        <v>2.55</v>
+      </c>
+      <c r="BK40">
+        <v>1.73</v>
+      </c>
+      <c r="BL40">
+        <v>2</v>
+      </c>
+      <c r="BM40">
+        <v>2.1</v>
+      </c>
+      <c r="BN40">
+        <v>1.65</v>
+      </c>
+      <c r="BO40">
+        <v>2.7</v>
+      </c>
+      <c r="BP40">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7491527</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45549.33333333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41">
+        <v>2.3</v>
+      </c>
+      <c r="R41">
+        <v>2.38</v>
+      </c>
+      <c r="S41">
+        <v>4.5</v>
+      </c>
+      <c r="T41">
+        <v>1.3</v>
+      </c>
+      <c r="U41">
+        <v>3.4</v>
+      </c>
+      <c r="V41">
+        <v>2.5</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>1.13</v>
+      </c>
+      <c r="Z41">
+        <v>1.77</v>
+      </c>
+      <c r="AA41">
+        <v>3.95</v>
+      </c>
+      <c r="AB41">
+        <v>4.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>10</v>
+      </c>
+      <c r="AE41">
+        <v>1.2</v>
+      </c>
+      <c r="AF41">
+        <v>4.2</v>
+      </c>
+      <c r="AG41">
+        <v>1.62</v>
+      </c>
+      <c r="AH41">
+        <v>2.15</v>
+      </c>
+      <c r="AI41">
+        <v>1.67</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.18</v>
+      </c>
+      <c r="AL41">
+        <v>1.2</v>
+      </c>
+      <c r="AM41">
+        <v>2</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0.67</v>
+      </c>
+      <c r="AQ41">
+        <v>0.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.72</v>
+      </c>
+      <c r="AS41">
+        <v>1.15</v>
+      </c>
+      <c r="AT41">
+        <v>2.87</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>10</v>
+      </c>
+      <c r="BC41">
+        <v>12</v>
+      </c>
+      <c r="BD41">
+        <v>1.45</v>
+      </c>
+      <c r="BE41">
+        <v>9</v>
+      </c>
+      <c r="BF41">
+        <v>3.32</v>
+      </c>
+      <c r="BG41">
+        <v>1.23</v>
+      </c>
+      <c r="BH41">
+        <v>3.6</v>
+      </c>
+      <c r="BI41">
+        <v>1.5</v>
+      </c>
+      <c r="BJ41">
+        <v>2.4</v>
+      </c>
+      <c r="BK41">
+        <v>1.8</v>
+      </c>
+      <c r="BL41">
+        <v>2</v>
+      </c>
+      <c r="BM41">
+        <v>2.2</v>
+      </c>
+      <c r="BN41">
+        <v>1.6</v>
+      </c>
+      <c r="BO41">
+        <v>2.95</v>
+      </c>
+      <c r="BP41">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7491533</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45549.33333333334</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q42">
+        <v>2.88</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>3.5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.3</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>2.95</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <v>1.25</v>
+      </c>
+      <c r="AF42">
+        <v>3.75</v>
+      </c>
+      <c r="AG42">
+        <v>1.7</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1.67</v>
+      </c>
+      <c r="AJ42">
+        <v>2.1</v>
+      </c>
+      <c r="AK42">
+        <v>1.38</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.6</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0.5</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.64</v>
+      </c>
+      <c r="AS42">
+        <v>1.03</v>
+      </c>
+      <c r="AT42">
+        <v>2.67</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>10</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>10</v>
+      </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>1.75</v>
+      </c>
+      <c r="BE42">
+        <v>8.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.43</v>
+      </c>
+      <c r="BG42">
+        <v>1.17</v>
+      </c>
+      <c r="BH42">
+        <v>4.8</v>
+      </c>
+      <c r="BI42">
+        <v>1.28</v>
+      </c>
+      <c r="BJ42">
+        <v>3.3</v>
+      </c>
+      <c r="BK42">
+        <v>1.55</v>
+      </c>
+      <c r="BL42">
+        <v>2.3</v>
+      </c>
+      <c r="BM42">
+        <v>1.88</v>
+      </c>
+      <c r="BN42">
+        <v>1.92</v>
+      </c>
+      <c r="BO42">
+        <v>2.3</v>
+      </c>
+      <c r="BP42">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7491526</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45549.64583333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43">
+        <v>1.95</v>
+      </c>
+      <c r="R43">
+        <v>2.63</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.22</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <v>2.1</v>
+      </c>
+      <c r="W43">
+        <v>1.67</v>
+      </c>
+      <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.18</v>
+      </c>
+      <c r="Z43">
+        <v>1.45</v>
+      </c>
+      <c r="AA43">
+        <v>4.75</v>
+      </c>
+      <c r="AB43">
+        <v>5.5</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>17</v>
+      </c>
+      <c r="AE43">
+        <v>1.14</v>
+      </c>
+      <c r="AF43">
+        <v>5.5</v>
+      </c>
+      <c r="AG43">
+        <v>1.42</v>
+      </c>
+      <c r="AH43">
+        <v>2.74</v>
+      </c>
+      <c r="AI43">
+        <v>1.57</v>
+      </c>
+      <c r="AJ43">
+        <v>2.25</v>
+      </c>
+      <c r="AK43">
+        <v>1.09</v>
+      </c>
+      <c r="AL43">
+        <v>1.14</v>
+      </c>
+      <c r="AM43">
+        <v>2.65</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>2.41</v>
+      </c>
+      <c r="AS43">
+        <v>1.34</v>
+      </c>
+      <c r="AT43">
+        <v>3.75</v>
+      </c>
+      <c r="AU43">
+        <v>14</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>21</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>10</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>12</v>
+      </c>
+      <c r="BD43">
+        <v>1.26</v>
+      </c>
+      <c r="BE43">
+        <v>11</v>
+      </c>
+      <c r="BF43">
+        <v>4.61</v>
+      </c>
+      <c r="BG43">
+        <v>1.17</v>
+      </c>
+      <c r="BH43">
+        <v>4.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.28</v>
+      </c>
+      <c r="BJ43">
+        <v>3.3</v>
+      </c>
+      <c r="BK43">
+        <v>1.55</v>
+      </c>
+      <c r="BL43">
+        <v>2.3</v>
+      </c>
+      <c r="BM43">
+        <v>1.88</v>
+      </c>
+      <c r="BN43">
+        <v>1.92</v>
+      </c>
+      <c r="BO43">
+        <v>2.3</v>
+      </c>
+      <c r="BP43">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7491528</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45550.35416666666</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q44">
+        <v>1.8</v>
+      </c>
+      <c r="R44">
+        <v>2.63</v>
+      </c>
+      <c r="S44">
+        <v>7.5</v>
+      </c>
+      <c r="T44">
+        <v>1.25</v>
+      </c>
+      <c r="U44">
+        <v>3.75</v>
+      </c>
+      <c r="V44">
+        <v>2.25</v>
+      </c>
+      <c r="W44">
+        <v>1.57</v>
+      </c>
+      <c r="X44">
+        <v>5.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.14</v>
+      </c>
+      <c r="Z44">
+        <v>1.33</v>
+      </c>
+      <c r="AA44">
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <v>7.8</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>13</v>
+      </c>
+      <c r="AE44">
+        <v>1.13</v>
+      </c>
+      <c r="AF44">
+        <v>4.75</v>
+      </c>
+      <c r="AG44">
+        <v>1.53</v>
+      </c>
+      <c r="AH44">
+        <v>2.35</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.83</v>
+      </c>
+      <c r="AK44">
+        <v>1.03</v>
+      </c>
+      <c r="AL44">
+        <v>1.11</v>
+      </c>
+      <c r="AM44">
+        <v>3.25</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>2.33</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.28</v>
+      </c>
+      <c r="AS44">
+        <v>1.12</v>
+      </c>
+      <c r="AT44">
+        <v>2.4</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>3</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>2</v>
+      </c>
+      <c r="BC44">
+        <v>5</v>
+      </c>
+      <c r="BD44">
+        <v>1.23</v>
+      </c>
+      <c r="BE44">
+        <v>11</v>
+      </c>
+      <c r="BF44">
+        <v>5.1</v>
+      </c>
+      <c r="BG44">
+        <v>1.14</v>
+      </c>
+      <c r="BH44">
+        <v>5.5</v>
+      </c>
+      <c r="BI44">
+        <v>1.24</v>
+      </c>
+      <c r="BJ44">
+        <v>3.6</v>
+      </c>
+      <c r="BK44">
+        <v>1.47</v>
+      </c>
+      <c r="BL44">
+        <v>2.5</v>
+      </c>
+      <c r="BM44">
+        <v>1.72</v>
+      </c>
+      <c r="BN44">
+        <v>2</v>
+      </c>
+      <c r="BO44">
+        <v>2.1</v>
+      </c>
+      <c r="BP44">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7491531</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45550.35416666666</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q45">
+        <v>2.3</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>1.25</v>
+      </c>
+      <c r="U45">
+        <v>3.75</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>1.62</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.17</v>
+      </c>
+      <c r="Z45">
+        <v>1.9</v>
+      </c>
+      <c r="AA45">
+        <v>3.8</v>
+      </c>
+      <c r="AB45">
+        <v>3.45</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>13</v>
+      </c>
+      <c r="AE45">
+        <v>1.17</v>
+      </c>
+      <c r="AF45">
+        <v>5</v>
+      </c>
+      <c r="AG45">
+        <v>1.6</v>
+      </c>
+      <c r="AH45">
+        <v>2.2</v>
+      </c>
+      <c r="AI45">
+        <v>1.5</v>
+      </c>
+      <c r="AJ45">
+        <v>2.5</v>
+      </c>
+      <c r="AK45">
+        <v>1.2</v>
+      </c>
+      <c r="AL45">
+        <v>1.18</v>
+      </c>
+      <c r="AM45">
+        <v>1.95</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.67</v>
+      </c>
+      <c r="AQ45">
+        <v>0.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.68</v>
+      </c>
+      <c r="AS45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT45">
+        <v>2.62</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>4</v>
+      </c>
+      <c r="AX45">
+        <v>7</v>
+      </c>
+      <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>14</v>
+      </c>
+      <c r="BA45">
+        <v>8</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>14</v>
+      </c>
+      <c r="BD45">
+        <v>1.37</v>
+      </c>
+      <c r="BE45">
+        <v>9.5</v>
+      </c>
+      <c r="BF45">
+        <v>3.82</v>
+      </c>
+      <c r="BG45">
+        <v>1.22</v>
+      </c>
+      <c r="BH45">
+        <v>3.75</v>
+      </c>
+      <c r="BI45">
+        <v>1.45</v>
+      </c>
+      <c r="BJ45">
+        <v>2.55</v>
+      </c>
+      <c r="BK45">
+        <v>1.73</v>
+      </c>
+      <c r="BL45">
+        <v>2</v>
+      </c>
+      <c r="BM45">
+        <v>2.1</v>
+      </c>
+      <c r="BN45">
+        <v>1.65</v>
+      </c>
+      <c r="BO45">
+        <v>2.88</v>
+      </c>
+      <c r="BP45">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7491532</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45550.35416666666</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q46">
+        <v>3.1</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>3.1</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>2.6</v>
+      </c>
+      <c r="AA46">
+        <v>3.6</v>
+      </c>
+      <c r="AB46">
+        <v>2.4</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.2</v>
+      </c>
+      <c r="AF46">
+        <v>4.2</v>
+      </c>
+      <c r="AG46">
+        <v>1.65</v>
+      </c>
+      <c r="AH46">
+        <v>2.1</v>
+      </c>
+      <c r="AI46">
+        <v>1.53</v>
+      </c>
+      <c r="AJ46">
+        <v>2.38</v>
+      </c>
+      <c r="AK46">
+        <v>1.52</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>1.5</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>1.24</v>
+      </c>
+      <c r="AS46">
+        <v>1.32</v>
+      </c>
+      <c r="AT46">
+        <v>2.56</v>
+      </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>4</v>
+      </c>
+      <c r="AZ46">
+        <v>2</v>
+      </c>
+      <c r="BA46">
+        <v>3</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>4</v>
+      </c>
+      <c r="BD46">
+        <v>2.05</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>1.95</v>
+      </c>
+      <c r="BG46">
+        <v>1.17</v>
+      </c>
+      <c r="BH46">
+        <v>4.25</v>
+      </c>
+      <c r="BI46">
+        <v>1.34</v>
+      </c>
+      <c r="BJ46">
+        <v>2.95</v>
+      </c>
+      <c r="BK46">
+        <v>1.65</v>
+      </c>
+      <c r="BL46">
+        <v>2.1</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.72</v>
+      </c>
+      <c r="BO46">
+        <v>2.5</v>
+      </c>
+      <c r="BP46">
         <v>1.47</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -9832,31 +9832,31 @@
         <v>2.4</v>
       </c>
       <c r="AU44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
         <v>4</v>
       </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>7</v>
-      </c>
-      <c r="AZ44">
-        <v>3</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BB44">
-        <v>2</v>
-      </c>
       <c r="BC44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD44">
         <v>1.23</v>
@@ -10044,13 +10044,13 @@
         <v>7</v>
       </c>
       <c r="AW45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX45">
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ45">
         <v>14</v>
@@ -10244,31 +10244,31 @@
         <v>2.56</v>
       </c>
       <c r="AU46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX46">
         <v>2</v>
       </c>
       <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
         <v>4</v>
       </c>
-      <c r="AZ46">
-        <v>2</v>
-      </c>
-      <c r="BA46">
-        <v>3</v>
-      </c>
-      <c r="BB46">
-        <v>1</v>
-      </c>
       <c r="BC46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD46">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,18 @@
     <t>['1', '14', '76', '89', '90+3']</t>
   </si>
   <si>
+    <t>['9', '77']</t>
+  </si>
+  <si>
+    <t>['14', '34', '39']</t>
+  </si>
+  <si>
+    <t>['25', '90+5']</t>
+  </si>
+  <si>
+    <t>['33', '60']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -467,6 +479,18 @@
   </si>
   <si>
     <t>['13', '66']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['45+5', '56', '75', '87', '90+7']</t>
+  </si>
+  <si>
+    <t>['21', '61']</t>
+  </si>
+  <si>
+    <t>['37', '90']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1111,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1293,7 +1317,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1705,7 +1729,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2117,7 +2141,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2195,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.33</v>
@@ -2323,7 +2347,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2529,7 +2553,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2735,7 +2759,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3147,7 +3171,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3228,7 +3252,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3353,7 +3377,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3431,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.33</v>
@@ -3637,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3765,7 +3789,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3846,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3971,7 +3995,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4052,7 +4076,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4177,7 +4201,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4255,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4383,7 +4407,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4461,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -4670,7 +4694,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5001,7 +5025,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5207,7 +5231,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5619,7 +5643,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6031,7 +6055,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6237,7 +6261,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6443,7 +6467,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6727,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -6855,7 +6879,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -6936,7 +6960,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7061,7 +7085,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7348,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -7473,7 +7497,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7551,7 +7575,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>3</v>
@@ -7679,7 +7703,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7760,7 +7784,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -7885,7 +7909,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -7963,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8091,7 +8115,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8169,10 +8193,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8375,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8709,7 +8733,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8915,7 +8939,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9121,7 +9145,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9327,7 +9351,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9533,7 +9557,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10151,7 +10175,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10308,6 +10332,1036 @@
       </c>
       <c r="BP46">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7491536</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45555.5625</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q47">
+        <v>2.64</v>
+      </c>
+      <c r="R47">
+        <v>2.33</v>
+      </c>
+      <c r="S47">
+        <v>3.5</v>
+      </c>
+      <c r="T47">
+        <v>1.29</v>
+      </c>
+      <c r="U47">
+        <v>3.42</v>
+      </c>
+      <c r="V47">
+        <v>2.34</v>
+      </c>
+      <c r="W47">
+        <v>1.56</v>
+      </c>
+      <c r="X47">
+        <v>5.4</v>
+      </c>
+      <c r="Y47">
+        <v>1.13</v>
+      </c>
+      <c r="Z47">
+        <v>2.2</v>
+      </c>
+      <c r="AA47">
+        <v>3.55</v>
+      </c>
+      <c r="AB47">
+        <v>3.15</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>13</v>
+      </c>
+      <c r="AE47">
+        <v>1.16</v>
+      </c>
+      <c r="AF47">
+        <v>4.4</v>
+      </c>
+      <c r="AG47">
+        <v>1.64</v>
+      </c>
+      <c r="AH47">
+        <v>2.28</v>
+      </c>
+      <c r="AI47">
+        <v>1.52</v>
+      </c>
+      <c r="AJ47">
+        <v>2.43</v>
+      </c>
+      <c r="AK47">
+        <v>1.38</v>
+      </c>
+      <c r="AL47">
+        <v>1.27</v>
+      </c>
+      <c r="AM47">
+        <v>1.69</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>2.33</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.4</v>
+      </c>
+      <c r="AS47">
+        <v>1.09</v>
+      </c>
+      <c r="AT47">
+        <v>2.49</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>11</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>17</v>
+      </c>
+      <c r="BA47">
+        <v>5</v>
+      </c>
+      <c r="BB47">
+        <v>11</v>
+      </c>
+      <c r="BC47">
+        <v>16</v>
+      </c>
+      <c r="BD47">
+        <v>1.69</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.53</v>
+      </c>
+      <c r="BG47">
+        <v>1.13</v>
+      </c>
+      <c r="BH47">
+        <v>4.3</v>
+      </c>
+      <c r="BI47">
+        <v>1.28</v>
+      </c>
+      <c r="BJ47">
+        <v>2.94</v>
+      </c>
+      <c r="BK47">
+        <v>1.56</v>
+      </c>
+      <c r="BL47">
+        <v>2.21</v>
+      </c>
+      <c r="BM47">
+        <v>2</v>
+      </c>
+      <c r="BN47">
+        <v>1.8</v>
+      </c>
+      <c r="BO47">
+        <v>2.51</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7491537</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45555.5625</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q48">
+        <v>2.2</v>
+      </c>
+      <c r="R48">
+        <v>2.3</v>
+      </c>
+      <c r="S48">
+        <v>4.33</v>
+      </c>
+      <c r="T48">
+        <v>1.28</v>
+      </c>
+      <c r="U48">
+        <v>3.48</v>
+      </c>
+      <c r="V48">
+        <v>2.3</v>
+      </c>
+      <c r="W48">
+        <v>1.58</v>
+      </c>
+      <c r="X48">
+        <v>5.25</v>
+      </c>
+      <c r="Y48">
+        <v>1.14</v>
+      </c>
+      <c r="Z48">
+        <v>1.69</v>
+      </c>
+      <c r="AA48">
+        <v>4.1</v>
+      </c>
+      <c r="AB48">
+        <v>4.65</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.15</v>
+      </c>
+      <c r="AF48">
+        <v>4.55</v>
+      </c>
+      <c r="AG48">
+        <v>1.58</v>
+      </c>
+      <c r="AH48">
+        <v>2.4</v>
+      </c>
+      <c r="AI48">
+        <v>1.53</v>
+      </c>
+      <c r="AJ48">
+        <v>2.3</v>
+      </c>
+      <c r="AK48">
+        <v>1.22</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2.05</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.7</v>
+      </c>
+      <c r="AS48">
+        <v>1.59</v>
+      </c>
+      <c r="AT48">
+        <v>3.29</v>
+      </c>
+      <c r="AU48">
+        <v>8</v>
+      </c>
+      <c r="AV48">
+        <v>10</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>6</v>
+      </c>
+      <c r="BD48">
+        <v>1.55</v>
+      </c>
+      <c r="BE48">
+        <v>8.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.91</v>
+      </c>
+      <c r="BG48">
+        <v>1.13</v>
+      </c>
+      <c r="BH48">
+        <v>4.3</v>
+      </c>
+      <c r="BI48">
+        <v>1.28</v>
+      </c>
+      <c r="BJ48">
+        <v>2.94</v>
+      </c>
+      <c r="BK48">
+        <v>1.56</v>
+      </c>
+      <c r="BL48">
+        <v>2.21</v>
+      </c>
+      <c r="BM48">
+        <v>2</v>
+      </c>
+      <c r="BN48">
+        <v>1.8</v>
+      </c>
+      <c r="BO48">
+        <v>2.51</v>
+      </c>
+      <c r="BP48">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7491535</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45556.33333333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q49">
+        <v>3.2</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>2.8</v>
+      </c>
+      <c r="T49">
+        <v>1.29</v>
+      </c>
+      <c r="U49">
+        <v>3.3</v>
+      </c>
+      <c r="V49">
+        <v>2.38</v>
+      </c>
+      <c r="W49">
+        <v>1.53</v>
+      </c>
+      <c r="X49">
+        <v>5.25</v>
+      </c>
+      <c r="Y49">
+        <v>1.12</v>
+      </c>
+      <c r="Z49">
+        <v>999.99</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>999.99</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.18</v>
+      </c>
+      <c r="AF49">
+        <v>4.33</v>
+      </c>
+      <c r="AG49">
+        <v>1.55</v>
+      </c>
+      <c r="AH49">
+        <v>2.3</v>
+      </c>
+      <c r="AI49">
+        <v>1.5</v>
+      </c>
+      <c r="AJ49">
+        <v>2.4</v>
+      </c>
+      <c r="AK49">
+        <v>1.55</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.45</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.67</v>
+      </c>
+      <c r="AQ49">
+        <v>1.67</v>
+      </c>
+      <c r="AR49">
+        <v>1.77</v>
+      </c>
+      <c r="AS49">
+        <v>1.69</v>
+      </c>
+      <c r="AT49">
+        <v>3.46</v>
+      </c>
+      <c r="AU49">
+        <v>2</v>
+      </c>
+      <c r="AV49">
+        <v>7</v>
+      </c>
+      <c r="AW49">
+        <v>2</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>4</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>2.28</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>1.82</v>
+      </c>
+      <c r="BG49">
+        <v>1.17</v>
+      </c>
+      <c r="BH49">
+        <v>4.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.28</v>
+      </c>
+      <c r="BJ49">
+        <v>3.25</v>
+      </c>
+      <c r="BK49">
+        <v>1.55</v>
+      </c>
+      <c r="BL49">
+        <v>2.3</v>
+      </c>
+      <c r="BM49">
+        <v>1.85</v>
+      </c>
+      <c r="BN49">
+        <v>1.95</v>
+      </c>
+      <c r="BO49">
+        <v>2.3</v>
+      </c>
+      <c r="BP49">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7491539</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45556.33333333334</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q50">
+        <v>3.1</v>
+      </c>
+      <c r="R50">
+        <v>2.3</v>
+      </c>
+      <c r="S50">
+        <v>2.88</v>
+      </c>
+      <c r="T50">
+        <v>1.27</v>
+      </c>
+      <c r="U50">
+        <v>3.55</v>
+      </c>
+      <c r="V50">
+        <v>2.2</v>
+      </c>
+      <c r="W50">
+        <v>1.53</v>
+      </c>
+      <c r="X50">
+        <v>5.15</v>
+      </c>
+      <c r="Y50">
+        <v>1.14</v>
+      </c>
+      <c r="Z50">
+        <v>999.99</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>999.99</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.13</v>
+      </c>
+      <c r="AF50">
+        <v>5.2</v>
+      </c>
+      <c r="AG50">
+        <v>1.58</v>
+      </c>
+      <c r="AH50">
+        <v>2.38</v>
+      </c>
+      <c r="AI50">
+        <v>1.47</v>
+      </c>
+      <c r="AJ50">
+        <v>2.63</v>
+      </c>
+      <c r="AK50">
+        <v>1.63</v>
+      </c>
+      <c r="AL50">
+        <v>1.27</v>
+      </c>
+      <c r="AM50">
+        <v>1.43</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>0.97</v>
+      </c>
+      <c r="AS50">
+        <v>1.47</v>
+      </c>
+      <c r="AT50">
+        <v>2.44</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>3</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <v>4</v>
+      </c>
+      <c r="BD50">
+        <v>2.1</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.91</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>5.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.23</v>
+      </c>
+      <c r="BJ50">
+        <v>3.6</v>
+      </c>
+      <c r="BK50">
+        <v>1.43</v>
+      </c>
+      <c r="BL50">
+        <v>2.6</v>
+      </c>
+      <c r="BM50">
+        <v>1.73</v>
+      </c>
+      <c r="BN50">
+        <v>2</v>
+      </c>
+      <c r="BO50">
+        <v>2.1</v>
+      </c>
+      <c r="BP50">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7491542</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45556.33333333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q51">
+        <v>2.93</v>
+      </c>
+      <c r="R51">
+        <v>2.29</v>
+      </c>
+      <c r="S51">
+        <v>2.9</v>
+      </c>
+      <c r="T51">
+        <v>1.32</v>
+      </c>
+      <c r="U51">
+        <v>3.1</v>
+      </c>
+      <c r="V51">
+        <v>2.29</v>
+      </c>
+      <c r="W51">
+        <v>1.48</v>
+      </c>
+      <c r="X51">
+        <v>5</v>
+      </c>
+      <c r="Y51">
+        <v>1.13</v>
+      </c>
+      <c r="Z51">
+        <v>999.99</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>999.99</v>
+      </c>
+      <c r="AC51">
+        <v>1.03</v>
+      </c>
+      <c r="AD51">
+        <v>17.25</v>
+      </c>
+      <c r="AE51">
+        <v>1.16</v>
+      </c>
+      <c r="AF51">
+        <v>4.3</v>
+      </c>
+      <c r="AG51">
+        <v>1.57</v>
+      </c>
+      <c r="AH51">
+        <v>2.25</v>
+      </c>
+      <c r="AI51">
+        <v>1.5</v>
+      </c>
+      <c r="AJ51">
+        <v>2.4</v>
+      </c>
+      <c r="AK51">
+        <v>1.53</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.51</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.47</v>
+      </c>
+      <c r="AS51">
+        <v>1.72</v>
+      </c>
+      <c r="AT51">
+        <v>3.19</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>5</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>5</v>
+      </c>
+      <c r="BD51">
+        <v>2.28</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>1.85</v>
+      </c>
+      <c r="BG51">
+        <v>1.27</v>
+      </c>
+      <c r="BH51">
+        <v>3.35</v>
+      </c>
+      <c r="BI51">
+        <v>1.55</v>
+      </c>
+      <c r="BJ51">
+        <v>2.3</v>
+      </c>
+      <c r="BK51">
+        <v>1.95</v>
+      </c>
+      <c r="BL51">
+        <v>1.85</v>
+      </c>
+      <c r="BM51">
+        <v>2.3</v>
+      </c>
+      <c r="BN51">
+        <v>1.55</v>
+      </c>
+      <c r="BO51">
+        <v>3.2</v>
+      </c>
+      <c r="BP51">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,9 @@
     <t>['33', '60']</t>
   </si>
   <si>
+    <t>['32', '50']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -491,6 +494,9 @@
   </si>
   <si>
     <t>['37', '90']</t>
+  </si>
+  <si>
+    <t>['58', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1117,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1192,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1317,7 +1323,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1729,7 +1735,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2141,7 +2147,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2347,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2553,7 +2559,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2759,7 +2765,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3171,7 +3177,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3249,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3377,7 +3383,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3789,7 +3795,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3995,7 +4001,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4201,7 +4207,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4407,7 +4413,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4900,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.5</v>
@@ -5025,7 +5031,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5231,7 +5237,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5643,7 +5649,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6055,7 +6061,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6261,7 +6267,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6467,7 +6473,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6879,7 +6885,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7085,7 +7091,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7497,7 +7503,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7703,7 +7709,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7781,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34">
         <v>2.33</v>
@@ -7909,7 +7915,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8115,7 +8121,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8733,7 +8739,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8939,7 +8945,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9145,7 +9151,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9351,7 +9357,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9557,7 +9563,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10175,7 +10181,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10381,7 +10387,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10587,7 +10593,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10793,7 +10799,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -10886,31 +10892,31 @@
         <v>3.46</v>
       </c>
       <c r="AU49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV49">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AW49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY49">
+        <v>9</v>
+      </c>
+      <c r="AZ49">
+        <v>23</v>
+      </c>
+      <c r="BA49">
         <v>4</v>
       </c>
-      <c r="AZ49">
-        <v>10</v>
-      </c>
-      <c r="BA49">
-        <v>1</v>
-      </c>
       <c r="BB49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD49">
         <v>2.28</v>
@@ -10999,7 +11005,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11092,31 +11098,31 @@
         <v>2.44</v>
       </c>
       <c r="AU50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
+        <v>19</v>
+      </c>
+      <c r="BA50">
+        <v>8</v>
+      </c>
+      <c r="BB50">
         <v>4</v>
       </c>
-      <c r="AY50">
-        <v>3</v>
-      </c>
-      <c r="AZ50">
-        <v>9</v>
-      </c>
-      <c r="BA50">
-        <v>3</v>
-      </c>
-      <c r="BB50">
-        <v>1</v>
-      </c>
       <c r="BC50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD50">
         <v>2.1</v>
@@ -11298,31 +11304,31 @@
         <v>3.19</v>
       </c>
       <c r="AU51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV51">
         <v>2</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY51">
+        <v>17</v>
+      </c>
+      <c r="AZ51">
         <v>8</v>
       </c>
-      <c r="AZ51">
-        <v>5</v>
-      </c>
       <c r="BA51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD51">
         <v>2.28</v>
@@ -11362,6 +11368,212 @@
       </c>
       <c r="BP51">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7491540</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45556.64583333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q52">
+        <v>3.25</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>2.7</v>
+      </c>
+      <c r="T52">
+        <v>1.28</v>
+      </c>
+      <c r="U52">
+        <v>3.3</v>
+      </c>
+      <c r="V52">
+        <v>2.15</v>
+      </c>
+      <c r="W52">
+        <v>1.62</v>
+      </c>
+      <c r="X52">
+        <v>4.4</v>
+      </c>
+      <c r="Y52">
+        <v>1.16</v>
+      </c>
+      <c r="Z52">
+        <v>2.9</v>
+      </c>
+      <c r="AA52">
+        <v>3.75</v>
+      </c>
+      <c r="AB52">
+        <v>2.15</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>13</v>
+      </c>
+      <c r="AE52">
+        <v>1.17</v>
+      </c>
+      <c r="AF52">
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <v>1.44</v>
+      </c>
+      <c r="AH52">
+        <v>2.6</v>
+      </c>
+      <c r="AI52">
+        <v>1.42</v>
+      </c>
+      <c r="AJ52">
+        <v>2.62</v>
+      </c>
+      <c r="AK52">
+        <v>1.67</v>
+      </c>
+      <c r="AL52">
+        <v>1.27</v>
+      </c>
+      <c r="AM52">
+        <v>1.35</v>
+      </c>
+      <c r="AN52">
+        <v>0.5</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>0.67</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.99</v>
+      </c>
+      <c r="AS52">
+        <v>1.17</v>
+      </c>
+      <c r="AT52">
+        <v>3.16</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>9</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>6</v>
+      </c>
+      <c r="AY52">
+        <v>10</v>
+      </c>
+      <c r="AZ52">
+        <v>15</v>
+      </c>
+      <c r="BA52">
+        <v>3</v>
+      </c>
+      <c r="BB52">
+        <v>10</v>
+      </c>
+      <c r="BC52">
+        <v>13</v>
+      </c>
+      <c r="BD52">
+        <v>2.1</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>1.91</v>
+      </c>
+      <c r="BG52">
+        <v>1.18</v>
+      </c>
+      <c r="BH52">
+        <v>4.5</v>
+      </c>
+      <c r="BI52">
+        <v>1.28</v>
+      </c>
+      <c r="BJ52">
+        <v>3.25</v>
+      </c>
+      <c r="BK52">
+        <v>1.55</v>
+      </c>
+      <c r="BL52">
+        <v>2.3</v>
+      </c>
+      <c r="BM52">
+        <v>1.95</v>
+      </c>
+      <c r="BN52">
+        <v>1.85</v>
+      </c>
+      <c r="BO52">
+        <v>2.3</v>
+      </c>
+      <c r="BP52">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,13 +388,19 @@
     <t>['14', '34', '39']</t>
   </si>
   <si>
+    <t>['32', '50']</t>
+  </si>
+  <si>
     <t>['25', '90+5']</t>
   </si>
   <si>
     <t>['33', '60']</t>
   </si>
   <si>
-    <t>['32', '50']</t>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['5', '78']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -490,13 +496,22 @@
     <t>['45+5', '56', '75', '87', '90+7']</t>
   </si>
   <si>
+    <t>['58', '90+5']</t>
+  </si>
+  <si>
     <t>['21', '61']</t>
   </si>
   <si>
     <t>['37', '90']</t>
   </si>
   <si>
-    <t>['58', '90+5']</t>
+    <t>['28', '60', '77']</t>
+  </si>
+  <si>
+    <t>['24', '30']</t>
+  </si>
+  <si>
+    <t>['29', '60', '71']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1132,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1323,7 +1338,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1735,7 +1750,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2147,7 +2162,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2353,7 +2368,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2559,7 +2574,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2640,7 +2655,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2765,7 +2780,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3049,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3177,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3383,7 +3398,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3670,7 +3685,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3795,7 +3810,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3873,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4001,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4207,7 +4222,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4413,7 +4428,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5031,7 +5046,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5237,7 +5252,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5649,7 +5664,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6061,7 +6076,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6267,7 +6282,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6473,7 +6488,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6885,7 +6900,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -6963,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7091,7 +7106,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7172,7 +7187,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7375,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7503,7 +7518,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7709,7 +7724,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7915,7 +7930,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -7996,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>2.14</v>
@@ -8121,7 +8136,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8408,7 +8423,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8739,7 +8754,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8945,7 +8960,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9151,7 +9166,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9357,7 +9372,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9563,7 +9578,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10181,7 +10196,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10387,7 +10402,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10593,7 +10608,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10757,7 +10772,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7491535</v>
+        <v>7491540</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10766,25 +10781,25 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45556.33333333334</v>
+        <v>45555.875</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -10799,139 +10814,139 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R49">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S49">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T49">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U49">
         <v>3.3</v>
       </c>
       <c r="V49">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="W49">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X49">
-        <v>5.25</v>
+        <v>4.4</v>
       </c>
       <c r="Y49">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z49">
-        <v>999.99</v>
+        <v>2.9</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AB49">
-        <v>999.99</v>
+        <v>2.15</v>
       </c>
       <c r="AC49">
         <v>1.01</v>
       </c>
       <c r="AD49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE49">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF49">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG49">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AH49">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AI49">
+        <v>1.42</v>
+      </c>
+      <c r="AJ49">
+        <v>2.62</v>
+      </c>
+      <c r="AK49">
+        <v>1.67</v>
+      </c>
+      <c r="AL49">
+        <v>1.27</v>
+      </c>
+      <c r="AM49">
+        <v>1.35</v>
+      </c>
+      <c r="AN49">
+        <v>0.5</v>
+      </c>
+      <c r="AO49">
         <v>1.5</v>
       </c>
-      <c r="AJ49">
-        <v>2.4</v>
-      </c>
-      <c r="AK49">
-        <v>1.55</v>
-      </c>
-      <c r="AL49">
-        <v>1.3</v>
-      </c>
-      <c r="AM49">
-        <v>1.45</v>
-      </c>
-      <c r="AN49">
-        <v>2</v>
-      </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="AS49">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="AT49">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="AU49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AW49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ49">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BA49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD49">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BE49">
         <v>8.5</v>
       </c>
       <c r="BF49">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="BG49">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH49">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="BI49">
         <v>1.28</v>
@@ -10946,10 +10961,10 @@
         <v>2.3</v>
       </c>
       <c r="BM49">
+        <v>1.95</v>
+      </c>
+      <c r="BN49">
         <v>1.85</v>
-      </c>
-      <c r="BN49">
-        <v>1.95</v>
       </c>
       <c r="BO49">
         <v>2.3</v>
@@ -10963,7 +10978,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7491539</v>
+        <v>7491535</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10978,190 +10993,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>2</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q50">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R50">
         <v>2.3</v>
       </c>
       <c r="S50">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="T50">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U50">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="V50">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W50">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X50">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="Y50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z50">
-        <v>999.99</v>
+        <v>3</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB50">
-        <v>999.99</v>
+        <v>2.15</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE50">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AF50">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG50">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AH50">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AI50">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AJ50">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AK50">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AL50">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM50">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO50">
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
-        <v>0.97</v>
+        <v>1.77</v>
       </c>
       <c r="AS50">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AT50">
-        <v>2.44</v>
+        <v>3.46</v>
       </c>
       <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>15</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>23</v>
+      </c>
+      <c r="BA50">
         <v>4</v>
       </c>
-      <c r="AV50">
-        <v>12</v>
-      </c>
-      <c r="AW50">
-        <v>3</v>
-      </c>
-      <c r="AX50">
-        <v>7</v>
-      </c>
-      <c r="AY50">
-        <v>7</v>
-      </c>
-      <c r="AZ50">
-        <v>19</v>
-      </c>
-      <c r="BA50">
+      <c r="BB50">
         <v>8</v>
-      </c>
-      <c r="BB50">
-        <v>4</v>
       </c>
       <c r="BC50">
         <v>12</v>
       </c>
       <c r="BD50">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BE50">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF50">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="BG50">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH50">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="BI50">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BJ50">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="BK50">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BL50">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BM50">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BN50">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BO50">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BP50">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11169,7 +11184,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7491542</v>
+        <v>7491539</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11184,107 +11199,107 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="Q51">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="R51">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="S51">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="T51">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="U51">
-        <v>3.1</v>
+        <v>3.64</v>
       </c>
       <c r="V51">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="W51">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
-        <v>999.99</v>
+        <v>3.05</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AB51">
-        <v>999.99</v>
+        <v>2.14</v>
       </c>
       <c r="AC51">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>17.25</v>
+        <v>13</v>
       </c>
       <c r="AE51">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AF51">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AG51">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AH51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AI51">
+        <v>1.44</v>
+      </c>
+      <c r="AJ51">
+        <v>2.5</v>
+      </c>
+      <c r="AK51">
+        <v>1.71</v>
+      </c>
+      <c r="AL51">
+        <v>1.26</v>
+      </c>
+      <c r="AM51">
+        <v>1.38</v>
+      </c>
+      <c r="AN51">
         <v>1.5</v>
       </c>
-      <c r="AJ51">
-        <v>2.4</v>
-      </c>
-      <c r="AK51">
-        <v>1.53</v>
-      </c>
-      <c r="AL51">
-        <v>1.28</v>
-      </c>
-      <c r="AM51">
-        <v>1.51</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
       <c r="AO51">
         <v>2</v>
       </c>
@@ -11292,82 +11307,82 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR51">
+        <v>0.97</v>
+      </c>
+      <c r="AS51">
         <v>1.47</v>
       </c>
-      <c r="AS51">
+      <c r="AT51">
+        <v>2.44</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>12</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>7</v>
+      </c>
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>19</v>
+      </c>
+      <c r="BA51">
+        <v>8</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>2.24</v>
+      </c>
+      <c r="BE51">
+        <v>9</v>
+      </c>
+      <c r="BF51">
+        <v>1.93</v>
+      </c>
+      <c r="BG51">
+        <v>1.14</v>
+      </c>
+      <c r="BH51">
+        <v>5.5</v>
+      </c>
+      <c r="BI51">
+        <v>1.26</v>
+      </c>
+      <c r="BJ51">
+        <v>3.6</v>
+      </c>
+      <c r="BK51">
+        <v>1.44</v>
+      </c>
+      <c r="BL51">
+        <v>2.65</v>
+      </c>
+      <c r="BM51">
         <v>1.72</v>
       </c>
-      <c r="AT51">
-        <v>3.19</v>
-      </c>
-      <c r="AU51">
-        <v>10</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>7</v>
-      </c>
-      <c r="AX51">
-        <v>6</v>
-      </c>
-      <c r="AY51">
-        <v>17</v>
-      </c>
-      <c r="AZ51">
-        <v>8</v>
-      </c>
-      <c r="BA51">
-        <v>9</v>
-      </c>
-      <c r="BB51">
-        <v>1</v>
-      </c>
-      <c r="BC51">
-        <v>10</v>
-      </c>
-      <c r="BD51">
-        <v>2.28</v>
-      </c>
-      <c r="BE51">
-        <v>8</v>
-      </c>
-      <c r="BF51">
-        <v>1.85</v>
-      </c>
-      <c r="BG51">
-        <v>1.27</v>
-      </c>
-      <c r="BH51">
-        <v>3.35</v>
-      </c>
-      <c r="BI51">
-        <v>1.55</v>
-      </c>
-      <c r="BJ51">
-        <v>2.3</v>
-      </c>
-      <c r="BK51">
-        <v>1.95</v>
-      </c>
-      <c r="BL51">
-        <v>1.85</v>
-      </c>
-      <c r="BM51">
-        <v>2.3</v>
-      </c>
       <c r="BN51">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="BO51">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="BP51">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11375,7 +11390,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7491540</v>
+        <v>7491542</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11384,16 +11399,16 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45556.64583333334</v>
+        <v>45556.33333333334</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -11408,171 +11423,789 @@
         <v>2</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="Q52">
-        <v>3.25</v>
+        <v>2.73</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>2.46</v>
       </c>
       <c r="S52">
-        <v>2.7</v>
+        <v>3.69</v>
       </c>
       <c r="T52">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V52">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="W52">
+        <v>1.6</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>2.13</v>
+      </c>
+      <c r="AA52">
+        <v>3.78</v>
+      </c>
+      <c r="AB52">
+        <v>3.12</v>
+      </c>
+      <c r="AC52">
+        <v>1.03</v>
+      </c>
+      <c r="AD52">
+        <v>17.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.14</v>
+      </c>
+      <c r="AF52">
+        <v>4.25</v>
+      </c>
+      <c r="AG52">
         <v>1.62</v>
       </c>
-      <c r="X52">
-        <v>4.4</v>
-      </c>
-      <c r="Y52">
-        <v>1.16</v>
-      </c>
-      <c r="Z52">
-        <v>2.9</v>
-      </c>
-      <c r="AA52">
-        <v>3.75</v>
-      </c>
-      <c r="AB52">
-        <v>2.15</v>
-      </c>
-      <c r="AC52">
-        <v>1.01</v>
-      </c>
-      <c r="AD52">
-        <v>13</v>
-      </c>
-      <c r="AE52">
-        <v>1.17</v>
-      </c>
-      <c r="AF52">
-        <v>5</v>
-      </c>
-      <c r="AG52">
-        <v>1.44</v>
-      </c>
       <c r="AH52">
-        <v>2.6</v>
+        <v>2.31</v>
       </c>
       <c r="AI52">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AJ52">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="AK52">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AL52">
         <v>1.27</v>
       </c>
       <c r="AM52">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
       </c>
       <c r="AR52">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.72</v>
       </c>
       <c r="AT52">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX52">
         <v>6</v>
       </c>
       <c r="AY52">
+        <v>17</v>
+      </c>
+      <c r="AZ52">
+        <v>8</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+      <c r="BC52">
         <v>10</v>
       </c>
-      <c r="AZ52">
-        <v>15</v>
-      </c>
-      <c r="BA52">
-        <v>3</v>
-      </c>
-      <c r="BB52">
-        <v>10</v>
-      </c>
-      <c r="BC52">
-        <v>13</v>
-      </c>
       <c r="BD52">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BE52">
         <v>8.5</v>
       </c>
       <c r="BF52">
+        <v>1.87</v>
+      </c>
+      <c r="BG52">
+        <v>1.32</v>
+      </c>
+      <c r="BH52">
+        <v>3.2</v>
+      </c>
+      <c r="BI52">
+        <v>1.55</v>
+      </c>
+      <c r="BJ52">
+        <v>2.3</v>
+      </c>
+      <c r="BK52">
+        <v>1.92</v>
+      </c>
+      <c r="BL52">
+        <v>1.82</v>
+      </c>
+      <c r="BM52">
+        <v>2.45</v>
+      </c>
+      <c r="BN52">
+        <v>1.5</v>
+      </c>
+      <c r="BO52">
+        <v>3.25</v>
+      </c>
+      <c r="BP52">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7491538</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q53">
+        <v>2.5</v>
+      </c>
+      <c r="R53">
+        <v>2.3</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.33</v>
+      </c>
+      <c r="U53">
+        <v>3.25</v>
+      </c>
+      <c r="V53">
+        <v>2.63</v>
+      </c>
+      <c r="W53">
+        <v>1.44</v>
+      </c>
+      <c r="X53">
+        <v>6.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.11</v>
+      </c>
+      <c r="Z53">
+        <v>1.95</v>
+      </c>
+      <c r="AA53">
+        <v>3.9</v>
+      </c>
+      <c r="AB53">
+        <v>3.4</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>9.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.25</v>
+      </c>
+      <c r="AF53">
+        <v>3.9</v>
+      </c>
+      <c r="AG53">
+        <v>1.63</v>
+      </c>
+      <c r="AH53">
+        <v>2.29</v>
+      </c>
+      <c r="AI53">
+        <v>1.67</v>
+      </c>
+      <c r="AJ53">
+        <v>2.1</v>
+      </c>
+      <c r="AK53">
+        <v>1.25</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.85</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.25</v>
+      </c>
+      <c r="AS53">
+        <v>1.06</v>
+      </c>
+      <c r="AT53">
+        <v>2.31</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>9</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>11</v>
+      </c>
+      <c r="BA53">
+        <v>9</v>
+      </c>
+      <c r="BB53">
+        <v>8</v>
+      </c>
+      <c r="BC53">
+        <v>17</v>
+      </c>
+      <c r="BD53">
+        <v>1.82</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>2.33</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.95</v>
+      </c>
+      <c r="BI53">
+        <v>1.45</v>
+      </c>
+      <c r="BJ53">
+        <v>2.55</v>
+      </c>
+      <c r="BK53">
+        <v>1.73</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2.1</v>
+      </c>
+      <c r="BN53">
+        <v>1.65</v>
+      </c>
+      <c r="BO53">
+        <v>2.7</v>
+      </c>
+      <c r="BP53">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7491541</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q54">
+        <v>3.2</v>
+      </c>
+      <c r="R54">
+        <v>2.4</v>
+      </c>
+      <c r="S54">
+        <v>2.88</v>
+      </c>
+      <c r="T54">
+        <v>1.29</v>
+      </c>
+      <c r="U54">
+        <v>3.5</v>
+      </c>
+      <c r="V54">
+        <v>2.25</v>
+      </c>
+      <c r="W54">
+        <v>1.57</v>
+      </c>
+      <c r="X54">
+        <v>5.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.14</v>
+      </c>
+      <c r="Z54">
+        <v>2.7</v>
+      </c>
+      <c r="AA54">
+        <v>3.5</v>
+      </c>
+      <c r="AB54">
+        <v>2.45</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>13</v>
+      </c>
+      <c r="AE54">
+        <v>1.18</v>
+      </c>
+      <c r="AF54">
+        <v>4.75</v>
+      </c>
+      <c r="AG54">
+        <v>1.52</v>
+      </c>
+      <c r="AH54">
+        <v>2.43</v>
+      </c>
+      <c r="AI54">
+        <v>1.44</v>
+      </c>
+      <c r="AJ54">
+        <v>2.63</v>
+      </c>
+      <c r="AK54">
+        <v>1.57</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.42</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1.67</v>
+      </c>
+      <c r="AR54">
+        <v>1.87</v>
+      </c>
+      <c r="AS54">
+        <v>1.16</v>
+      </c>
+      <c r="AT54">
+        <v>3.03</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>4</v>
+      </c>
+      <c r="AZ54">
+        <v>3</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>7</v>
+      </c>
+      <c r="BD54">
+        <v>1.95</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.1</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>1.6</v>
+      </c>
+      <c r="BL54">
+        <v>2.2</v>
+      </c>
+      <c r="BM54">
+        <v>2</v>
+      </c>
+      <c r="BN54">
+        <v>1.8</v>
+      </c>
+      <c r="BO54">
+        <v>2.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7491543</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.4</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2.63</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>2.35</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>2.85</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>9.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.25</v>
+      </c>
+      <c r="AF55">
+        <v>3.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.78</v>
+      </c>
+      <c r="AH55">
+        <v>2.05</v>
+      </c>
+      <c r="AI55">
+        <v>1.67</v>
+      </c>
+      <c r="AJ55">
+        <v>2.1</v>
+      </c>
+      <c r="AK55">
+        <v>1.42</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.55</v>
+      </c>
+      <c r="AN55">
+        <v>1.5</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1.32</v>
+      </c>
+      <c r="AS55">
+        <v>1.55</v>
+      </c>
+      <c r="AT55">
+        <v>2.87</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>11</v>
+      </c>
+      <c r="BD55">
         <v>1.91</v>
       </c>
-      <c r="BG52">
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.1</v>
+      </c>
+      <c r="BG55">
         <v>1.18</v>
       </c>
-      <c r="BH52">
-        <v>4.5</v>
-      </c>
-      <c r="BI52">
+      <c r="BH55">
+        <v>4.7</v>
+      </c>
+      <c r="BI55">
         <v>1.28</v>
       </c>
-      <c r="BJ52">
+      <c r="BJ55">
         <v>3.25</v>
       </c>
-      <c r="BK52">
+      <c r="BK55">
         <v>1.55</v>
       </c>
-      <c r="BL52">
+      <c r="BL55">
         <v>2.3</v>
       </c>
-      <c r="BM52">
-        <v>1.95</v>
-      </c>
-      <c r="BN52">
-        <v>1.85</v>
-      </c>
-      <c r="BO52">
+      <c r="BM55">
+        <v>1.9</v>
+      </c>
+      <c r="BN55">
+        <v>1.9</v>
+      </c>
+      <c r="BO55">
         <v>2.3</v>
       </c>
-      <c r="BP52">
+      <c r="BP55">
         <v>1.55</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -11337,13 +11337,13 @@
         <v>19</v>
       </c>
       <c r="BA51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB51">
         <v>4</v>
       </c>
       <c r="BC51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD51">
         <v>2.24</v>
@@ -11543,13 +11543,13 @@
         <v>8</v>
       </c>
       <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+      <c r="BC52">
         <v>9</v>
-      </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-      <c r="BC52">
-        <v>10</v>
       </c>
       <c r="BD52">
         <v>2.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,12 @@
     <t>['5', '78']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['14', '39', '84']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -427,9 +433,6 @@
     <t>['31', '38']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['21', '84']</t>
   </si>
   <si>
@@ -512,6 +515,12 @@
   </si>
   <si>
     <t>['29', '60', '71']</t>
+  </si>
+  <si>
+    <t>['43', '90+1']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1141,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1338,7 +1347,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1750,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2162,7 +2171,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2243,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2368,7 +2377,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2574,7 +2583,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2652,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2780,7 +2789,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2858,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3192,7 +3201,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3398,7 +3407,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3810,7 +3819,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4016,7 +4025,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4222,7 +4231,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4428,7 +4437,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5046,7 +5055,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5252,7 +5261,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5330,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.67</v>
@@ -5664,7 +5673,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6076,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6282,7 +6291,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6360,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6488,7 +6497,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6900,7 +6909,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7106,7 +7115,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7518,7 +7527,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7724,7 +7733,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7930,7 +7939,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8136,7 +8145,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8754,7 +8763,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8960,7 +8969,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9166,7 +9175,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9247,7 +9256,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>1.72</v>
@@ -9372,7 +9381,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9450,7 +9459,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9578,7 +9587,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10068,7 +10077,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10196,7 +10205,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10402,7 +10411,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10608,7 +10617,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10814,7 +10823,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11020,7 +11029,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>3.5</v>
@@ -11226,7 +11235,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11638,7 +11647,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11844,7 +11853,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12050,7 +12059,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12207,6 +12216,418 @@
       </c>
       <c r="BP55">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7491548</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45562.5625</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56">
+        <v>3.4</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>2.65</v>
+      </c>
+      <c r="T56">
+        <v>1.3</v>
+      </c>
+      <c r="U56">
+        <v>3.2</v>
+      </c>
+      <c r="V56">
+        <v>2.38</v>
+      </c>
+      <c r="W56">
+        <v>1.53</v>
+      </c>
+      <c r="X56">
+        <v>5.45</v>
+      </c>
+      <c r="Y56">
+        <v>1.13</v>
+      </c>
+      <c r="Z56">
+        <v>3.03</v>
+      </c>
+      <c r="AA56">
+        <v>3.68</v>
+      </c>
+      <c r="AB56">
+        <v>2.22</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.59</v>
+      </c>
+      <c r="AH56">
+        <v>2.27</v>
+      </c>
+      <c r="AI56">
+        <v>1.47</v>
+      </c>
+      <c r="AJ56">
+        <v>2.45</v>
+      </c>
+      <c r="AK56">
+        <v>1.65</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.35</v>
+      </c>
+      <c r="AN56">
+        <v>1.67</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>1.25</v>
+      </c>
+      <c r="AQ56">
+        <v>3</v>
+      </c>
+      <c r="AR56">
+        <v>1.49</v>
+      </c>
+      <c r="AS56">
+        <v>1.29</v>
+      </c>
+      <c r="AT56">
+        <v>2.78</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
+        <v>7</v>
+      </c>
+      <c r="AY56">
+        <v>10</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>6</v>
+      </c>
+      <c r="BD56">
+        <v>1.81</v>
+      </c>
+      <c r="BE56">
+        <v>7</v>
+      </c>
+      <c r="BF56">
+        <v>2.43</v>
+      </c>
+      <c r="BG56">
+        <v>1.25</v>
+      </c>
+      <c r="BH56">
+        <v>3.5</v>
+      </c>
+      <c r="BI56">
+        <v>1.47</v>
+      </c>
+      <c r="BJ56">
+        <v>2.48</v>
+      </c>
+      <c r="BK56">
+        <v>1.8</v>
+      </c>
+      <c r="BL56">
+        <v>2</v>
+      </c>
+      <c r="BM56">
+        <v>2.3</v>
+      </c>
+      <c r="BN56">
+        <v>1.53</v>
+      </c>
+      <c r="BO56">
+        <v>3.05</v>
+      </c>
+      <c r="BP56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7491550</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45562.5625</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q57">
+        <v>3.07</v>
+      </c>
+      <c r="R57">
+        <v>2.26</v>
+      </c>
+      <c r="S57">
+        <v>3.5</v>
+      </c>
+      <c r="T57">
+        <v>1.37</v>
+      </c>
+      <c r="U57">
+        <v>3.11</v>
+      </c>
+      <c r="V57">
+        <v>2.84</v>
+      </c>
+      <c r="W57">
+        <v>1.43</v>
+      </c>
+      <c r="X57">
+        <v>6.85</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.55</v>
+      </c>
+      <c r="AB57">
+        <v>2.98</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.6</v>
+      </c>
+      <c r="AG57">
+        <v>1.83</v>
+      </c>
+      <c r="AH57">
+        <v>1.91</v>
+      </c>
+      <c r="AI57">
+        <v>1.62</v>
+      </c>
+      <c r="AJ57">
+        <v>2.1</v>
+      </c>
+      <c r="AK57">
+        <v>1.43</v>
+      </c>
+      <c r="AL57">
+        <v>1.31</v>
+      </c>
+      <c r="AM57">
+        <v>1.56</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0.33</v>
+      </c>
+      <c r="AP57">
+        <v>0.75</v>
+      </c>
+      <c r="AQ57">
+        <v>0.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.5</v>
+      </c>
+      <c r="AS57">
+        <v>1.25</v>
+      </c>
+      <c r="AT57">
+        <v>2.75</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>6</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>5</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>1.74</v>
+      </c>
+      <c r="BE57">
+        <v>7</v>
+      </c>
+      <c r="BF57">
+        <v>2.6</v>
+      </c>
+      <c r="BG57">
+        <v>1.27</v>
+      </c>
+      <c r="BH57">
+        <v>3.35</v>
+      </c>
+      <c r="BI57">
+        <v>1.49</v>
+      </c>
+      <c r="BJ57">
+        <v>2.4</v>
+      </c>
+      <c r="BK57">
+        <v>1.85</v>
+      </c>
+      <c r="BL57">
+        <v>1.95</v>
+      </c>
+      <c r="BM57">
+        <v>2.38</v>
+      </c>
+      <c r="BN57">
+        <v>1.5</v>
+      </c>
+      <c r="BO57">
+        <v>3.2</v>
+      </c>
+      <c r="BP57">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,21 @@
     <t>['14', '39', '84']</t>
   </si>
   <si>
+    <t>['54', '67']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['79', '80']</t>
+  </si>
+  <si>
+    <t>['3', '7', '15', '45+2']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -521,6 +536,21 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['46', '60']</t>
+  </si>
+  <si>
+    <t>['22', '48']</t>
+  </si>
+  <si>
+    <t>['67', '74']</t>
+  </si>
+  <si>
+    <t>['19', '27', '52', '55']</t>
+  </si>
+  <si>
+    <t>['3', '30', '53', '65']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1171,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1347,7 +1377,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1428,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1759,7 +1789,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1837,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2046,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2171,7 +2201,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2377,7 +2407,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2455,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2583,7 +2613,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2789,7 +2819,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2870,7 +2900,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3201,7 +3231,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3488,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3694,7 +3724,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3819,7 +3849,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4025,7 +4055,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4103,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4231,7 +4261,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4437,7 +4467,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4721,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>0.33</v>
@@ -5055,7 +5085,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5136,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.6</v>
@@ -5261,7 +5291,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5342,7 +5372,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>2.28</v>
@@ -5545,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5673,7 +5703,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5751,10 +5781,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.26</v>
@@ -6085,7 +6115,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6166,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.96</v>
@@ -6291,7 +6321,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6497,7 +6527,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6575,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6909,7 +6939,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7115,7 +7145,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7193,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7527,7 +7557,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7733,7 +7763,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7939,7 +7969,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8020,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>2.14</v>
@@ -8145,7 +8175,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8638,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8763,7 +8793,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8841,10 +8871,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.52</v>
@@ -8969,7 +8999,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9050,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9175,7 +9205,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9253,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>0.25</v>
@@ -9381,7 +9411,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9462,7 +9492,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9587,7 +9617,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9871,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10080,7 +10110,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10205,7 +10235,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10283,7 +10313,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ46">
         <v>3</v>
@@ -10411,7 +10441,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10617,7 +10647,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10823,7 +10853,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11029,7 +11059,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>3.5</v>
@@ -11235,7 +11265,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11647,7 +11677,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11853,7 +11883,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11934,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12059,7 +12089,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12265,7 +12295,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12471,7 +12501,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12628,6 +12658,1448 @@
       </c>
       <c r="BP57">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7491546</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45563.33333333334</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q58">
+        <v>2.2</v>
+      </c>
+      <c r="R58">
+        <v>2.4</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.25</v>
+      </c>
+      <c r="U58">
+        <v>3.6</v>
+      </c>
+      <c r="V58">
+        <v>2.1</v>
+      </c>
+      <c r="W58">
+        <v>1.65</v>
+      </c>
+      <c r="X58">
+        <v>4.55</v>
+      </c>
+      <c r="Y58">
+        <v>1.18</v>
+      </c>
+      <c r="Z58">
+        <v>1.76</v>
+      </c>
+      <c r="AA58">
+        <v>4.2</v>
+      </c>
+      <c r="AB58">
+        <v>4.05</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>17</v>
+      </c>
+      <c r="AE58">
+        <v>1.14</v>
+      </c>
+      <c r="AF58">
+        <v>5.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.48</v>
+      </c>
+      <c r="AH58">
+        <v>2.54</v>
+      </c>
+      <c r="AI58">
+        <v>1.42</v>
+      </c>
+      <c r="AJ58">
+        <v>2.6</v>
+      </c>
+      <c r="AK58">
+        <v>1.22</v>
+      </c>
+      <c r="AL58">
+        <v>1.18</v>
+      </c>
+      <c r="AM58">
+        <v>2</v>
+      </c>
+      <c r="AN58">
+        <v>2.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.67</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.49</v>
+      </c>
+      <c r="AS58">
+        <v>1.52</v>
+      </c>
+      <c r="AT58">
+        <v>3.01</v>
+      </c>
+      <c r="AU58">
+        <v>10</v>
+      </c>
+      <c r="AV58">
+        <v>7</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>11</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>1.52</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>3.1</v>
+      </c>
+      <c r="BG58">
+        <v>1.13</v>
+      </c>
+      <c r="BH58">
+        <v>5.5</v>
+      </c>
+      <c r="BI58">
+        <v>1.27</v>
+      </c>
+      <c r="BJ58">
+        <v>3.35</v>
+      </c>
+      <c r="BK58">
+        <v>1.48</v>
+      </c>
+      <c r="BL58">
+        <v>2.45</v>
+      </c>
+      <c r="BM58">
+        <v>1.8</v>
+      </c>
+      <c r="BN58">
+        <v>2</v>
+      </c>
+      <c r="BO58">
+        <v>2.28</v>
+      </c>
+      <c r="BP58">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7491545</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45563.33333333334</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q59">
+        <v>2.65</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>3.35</v>
+      </c>
+      <c r="T59">
+        <v>1.28</v>
+      </c>
+      <c r="U59">
+        <v>3.3</v>
+      </c>
+      <c r="V59">
+        <v>2.25</v>
+      </c>
+      <c r="W59">
+        <v>1.57</v>
+      </c>
+      <c r="X59">
+        <v>5.3</v>
+      </c>
+      <c r="Y59">
+        <v>1.14</v>
+      </c>
+      <c r="Z59">
+        <v>2.25</v>
+      </c>
+      <c r="AA59">
+        <v>3.8</v>
+      </c>
+      <c r="AB59">
+        <v>2.88</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>13</v>
+      </c>
+      <c r="AE59">
+        <v>1.14</v>
+      </c>
+      <c r="AF59">
+        <v>5</v>
+      </c>
+      <c r="AG59">
+        <v>1.56</v>
+      </c>
+      <c r="AH59">
+        <v>2.29</v>
+      </c>
+      <c r="AI59">
+        <v>1.45</v>
+      </c>
+      <c r="AJ59">
+        <v>2.5</v>
+      </c>
+      <c r="AK59">
+        <v>1.36</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>1.65</v>
+      </c>
+      <c r="AN59">
+        <v>0.67</v>
+      </c>
+      <c r="AO59">
+        <v>3</v>
+      </c>
+      <c r="AP59">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>1.59</v>
+      </c>
+      <c r="AS59">
+        <v>1.28</v>
+      </c>
+      <c r="AT59">
+        <v>2.87</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
+        <v>12</v>
+      </c>
+      <c r="AZ59">
+        <v>6</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.72</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.6</v>
+      </c>
+      <c r="BG59">
+        <v>1.1</v>
+      </c>
+      <c r="BH59">
+        <v>4.75</v>
+      </c>
+      <c r="BI59">
+        <v>1.28</v>
+      </c>
+      <c r="BJ59">
+        <v>3.25</v>
+      </c>
+      <c r="BK59">
+        <v>1.5</v>
+      </c>
+      <c r="BL59">
+        <v>2.35</v>
+      </c>
+      <c r="BM59">
+        <v>1.88</v>
+      </c>
+      <c r="BN59">
+        <v>1.92</v>
+      </c>
+      <c r="BO59">
+        <v>2.35</v>
+      </c>
+      <c r="BP59">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7491552</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45563.33333333334</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q60">
+        <v>3.5</v>
+      </c>
+      <c r="R60">
+        <v>2.15</v>
+      </c>
+      <c r="S60">
+        <v>2.7</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>2.95</v>
+      </c>
+      <c r="V60">
+        <v>2.55</v>
+      </c>
+      <c r="W60">
+        <v>1.45</v>
+      </c>
+      <c r="X60">
+        <v>6.2</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>3.26</v>
+      </c>
+      <c r="AA60">
+        <v>3.64</v>
+      </c>
+      <c r="AB60">
+        <v>2.11</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>9.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.8</v>
+      </c>
+      <c r="AG60">
+        <v>1.71</v>
+      </c>
+      <c r="AH60">
+        <v>2.02</v>
+      </c>
+      <c r="AI60">
+        <v>1.6</v>
+      </c>
+      <c r="AJ60">
+        <v>2.15</v>
+      </c>
+      <c r="AK60">
+        <v>1.67</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.33</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.27</v>
+      </c>
+      <c r="AS60">
+        <v>1.25</v>
+      </c>
+      <c r="AT60">
+        <v>2.52</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>6</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>2.43</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.81</v>
+      </c>
+      <c r="BG60">
+        <v>1.22</v>
+      </c>
+      <c r="BH60">
+        <v>3.75</v>
+      </c>
+      <c r="BI60">
+        <v>1.41</v>
+      </c>
+      <c r="BJ60">
+        <v>2.65</v>
+      </c>
+      <c r="BK60">
+        <v>1.71</v>
+      </c>
+      <c r="BL60">
+        <v>2</v>
+      </c>
+      <c r="BM60">
+        <v>2.16</v>
+      </c>
+      <c r="BN60">
+        <v>1.6</v>
+      </c>
+      <c r="BO60">
+        <v>2.85</v>
+      </c>
+      <c r="BP60">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7491551</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45563.64583333334</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q61">
+        <v>3.2</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>2.75</v>
+      </c>
+      <c r="T61">
+        <v>1.26</v>
+      </c>
+      <c r="U61">
+        <v>3.64</v>
+      </c>
+      <c r="V61">
+        <v>2.24</v>
+      </c>
+      <c r="W61">
+        <v>1.61</v>
+      </c>
+      <c r="X61">
+        <v>5</v>
+      </c>
+      <c r="Y61">
+        <v>1.15</v>
+      </c>
+      <c r="Z61">
+        <v>2.95</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>2.16</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.11</v>
+      </c>
+      <c r="AF61">
+        <v>4.6</v>
+      </c>
+      <c r="AG61">
+        <v>1.55</v>
+      </c>
+      <c r="AH61">
+        <v>2.3</v>
+      </c>
+      <c r="AI61">
+        <v>1.44</v>
+      </c>
+      <c r="AJ61">
+        <v>2.5</v>
+      </c>
+      <c r="AK61">
+        <v>1.62</v>
+      </c>
+      <c r="AL61">
+        <v>1.27</v>
+      </c>
+      <c r="AM61">
+        <v>1.4</v>
+      </c>
+      <c r="AN61">
+        <v>0.67</v>
+      </c>
+      <c r="AO61">
+        <v>0.33</v>
+      </c>
+      <c r="AP61">
+        <v>0.5</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.4</v>
+      </c>
+      <c r="AS61">
+        <v>1.36</v>
+      </c>
+      <c r="AT61">
+        <v>2.76</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>10</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>14</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>2.1</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>1.95</v>
+      </c>
+      <c r="BG61">
+        <v>1.23</v>
+      </c>
+      <c r="BH61">
+        <v>3.28</v>
+      </c>
+      <c r="BI61">
+        <v>1.48</v>
+      </c>
+      <c r="BJ61">
+        <v>2.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.9</v>
+      </c>
+      <c r="BL61">
+        <v>1.9</v>
+      </c>
+      <c r="BM61">
+        <v>2.38</v>
+      </c>
+      <c r="BN61">
+        <v>1.49</v>
+      </c>
+      <c r="BO61">
+        <v>3.08</v>
+      </c>
+      <c r="BP61">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7491547</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45564.35416666666</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q62">
+        <v>2.1</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.4</v>
+      </c>
+      <c r="V62">
+        <v>2.38</v>
+      </c>
+      <c r="W62">
+        <v>1.53</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1.13</v>
+      </c>
+      <c r="Z62">
+        <v>1.6</v>
+      </c>
+      <c r="AA62">
+        <v>3.75</v>
+      </c>
+      <c r="AB62">
+        <v>4.33</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>17</v>
+      </c>
+      <c r="AE62">
+        <v>1.18</v>
+      </c>
+      <c r="AF62">
+        <v>4.5</v>
+      </c>
+      <c r="AG62">
+        <v>1.6</v>
+      </c>
+      <c r="AH62">
+        <v>2.15</v>
+      </c>
+      <c r="AI62">
+        <v>1.67</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.12</v>
+      </c>
+      <c r="AL62">
+        <v>1.17</v>
+      </c>
+      <c r="AM62">
+        <v>2.3</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>3</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.64</v>
+      </c>
+      <c r="AS62">
+        <v>1.25</v>
+      </c>
+      <c r="AT62">
+        <v>2.89</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>9</v>
+      </c>
+      <c r="BA62">
+        <v>7</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.41</v>
+      </c>
+      <c r="BE62">
+        <v>9.5</v>
+      </c>
+      <c r="BF62">
+        <v>3.56</v>
+      </c>
+      <c r="BG62">
+        <v>1.15</v>
+      </c>
+      <c r="BH62">
+        <v>4.75</v>
+      </c>
+      <c r="BI62">
+        <v>1.29</v>
+      </c>
+      <c r="BJ62">
+        <v>3.3</v>
+      </c>
+      <c r="BK62">
+        <v>1.47</v>
+      </c>
+      <c r="BL62">
+        <v>2.56</v>
+      </c>
+      <c r="BM62">
+        <v>1.92</v>
+      </c>
+      <c r="BN62">
+        <v>1.88</v>
+      </c>
+      <c r="BO62">
+        <v>2.23</v>
+      </c>
+      <c r="BP62">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7491544</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45564.35416666666</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+      <c r="O63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q63">
+        <v>2.1</v>
+      </c>
+      <c r="R63">
+        <v>2.63</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.22</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>1.73</v>
+      </c>
+      <c r="X63">
+        <v>4.33</v>
+      </c>
+      <c r="Y63">
+        <v>1.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.7</v>
+      </c>
+      <c r="AA63">
+        <v>3.9</v>
+      </c>
+      <c r="AB63">
+        <v>3.6</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>17</v>
+      </c>
+      <c r="AE63">
+        <v>1.07</v>
+      </c>
+      <c r="AF63">
+        <v>5.55</v>
+      </c>
+      <c r="AG63">
+        <v>1.4</v>
+      </c>
+      <c r="AH63">
+        <v>2.75</v>
+      </c>
+      <c r="AI63">
+        <v>1.44</v>
+      </c>
+      <c r="AJ63">
+        <v>2.63</v>
+      </c>
+      <c r="AK63">
+        <v>1.16</v>
+      </c>
+      <c r="AL63">
+        <v>1.16</v>
+      </c>
+      <c r="AM63">
+        <v>2.2</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1.67</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1.5</v>
+      </c>
+      <c r="AR63">
+        <v>2.51</v>
+      </c>
+      <c r="AS63">
+        <v>0.96</v>
+      </c>
+      <c r="AT63">
+        <v>3.47</v>
+      </c>
+      <c r="AU63">
+        <v>2</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>7</v>
+      </c>
+      <c r="AZ63">
+        <v>5</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>8</v>
+      </c>
+      <c r="BC63">
+        <v>11</v>
+      </c>
+      <c r="BD63">
+        <v>1.45</v>
+      </c>
+      <c r="BE63">
+        <v>9</v>
+      </c>
+      <c r="BF63">
+        <v>3.32</v>
+      </c>
+      <c r="BG63">
+        <v>1.16</v>
+      </c>
+      <c r="BH63">
+        <v>4.85</v>
+      </c>
+      <c r="BI63">
+        <v>1.31</v>
+      </c>
+      <c r="BJ63">
+        <v>3.3</v>
+      </c>
+      <c r="BK63">
+        <v>1.54</v>
+      </c>
+      <c r="BL63">
+        <v>2.38</v>
+      </c>
+      <c r="BM63">
+        <v>1.92</v>
+      </c>
+      <c r="BN63">
+        <v>1.88</v>
+      </c>
+      <c r="BO63">
+        <v>2.45</v>
+      </c>
+      <c r="BP63">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7491549</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45564.35416666666</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q64">
+        <v>2.3</v>
+      </c>
+      <c r="R64">
+        <v>2.6</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.22</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>2.1</v>
+      </c>
+      <c r="W64">
+        <v>1.67</v>
+      </c>
+      <c r="X64">
+        <v>4.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.18</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.8</v>
+      </c>
+      <c r="AB64">
+        <v>3.6</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>17</v>
+      </c>
+      <c r="AE64">
+        <v>1.08</v>
+      </c>
+      <c r="AF64">
+        <v>5.25</v>
+      </c>
+      <c r="AG64">
+        <v>1.4</v>
+      </c>
+      <c r="AH64">
+        <v>2.75</v>
+      </c>
+      <c r="AI64">
+        <v>1.44</v>
+      </c>
+      <c r="AJ64">
+        <v>2.63</v>
+      </c>
+      <c r="AK64">
+        <v>1.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.18</v>
+      </c>
+      <c r="AM64">
+        <v>2</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0.67</v>
+      </c>
+      <c r="AP64">
+        <v>0.75</v>
+      </c>
+      <c r="AQ64">
+        <v>1.25</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>1.19</v>
+      </c>
+      <c r="AT64">
+        <v>2.55</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>10</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>14</v>
+      </c>
+      <c r="BD64">
+        <v>1.64</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.76</v>
+      </c>
+      <c r="BG64">
+        <v>1.2</v>
+      </c>
+      <c r="BH64">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>1.33</v>
+      </c>
+      <c r="BJ64">
+        <v>3</v>
+      </c>
+      <c r="BK64">
+        <v>1.5</v>
+      </c>
+      <c r="BL64">
+        <v>2.47</v>
+      </c>
+      <c r="BM64">
+        <v>2</v>
+      </c>
+      <c r="BN64">
+        <v>1.73</v>
+      </c>
+      <c r="BO64">
+        <v>2.25</v>
+      </c>
+      <c r="BP64">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -12262,7 +12262,7 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45562.5625</v>
+        <v>45561.875</v>
       </c>
       <c r="F56">
         <v>7</v>
@@ -12388,22 +12388,22 @@
         <v>2.78</v>
       </c>
       <c r="AU56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>9</v>
+      </c>
+      <c r="AZ56">
         <v>8</v>
-      </c>
-      <c r="AX56">
-        <v>7</v>
-      </c>
-      <c r="AY56">
-        <v>10</v>
-      </c>
-      <c r="AZ56">
-        <v>11</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12674,7 +12674,7 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45563.33333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F58">
         <v>7</v>
@@ -12800,22 +12800,22 @@
         <v>3.01</v>
       </c>
       <c r="AU58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
         <v>7</v>
-      </c>
-      <c r="AW58">
-        <v>6</v>
-      </c>
-      <c r="AX58">
-        <v>4</v>
-      </c>
-      <c r="AY58">
-        <v>16</v>
-      </c>
-      <c r="AZ58">
-        <v>11</v>
       </c>
       <c r="BA58">
         <v>7</v>
@@ -12880,7 +12880,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45563.33333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -13006,19 +13006,19 @@
         <v>2.87</v>
       </c>
       <c r="AU59">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV59">
         <v>3</v>
       </c>
       <c r="AW59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX59">
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ59">
         <v>6</v>
@@ -13498,7 +13498,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45564.35416666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13624,22 +13624,22 @@
         <v>2.89</v>
       </c>
       <c r="AU62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
         <v>5</v>
-      </c>
-      <c r="AW62">
-        <v>6</v>
       </c>
       <c r="AX62">
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -13704,7 +13704,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45564.35416666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F63">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -12468,7 +12468,7 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45562.5625</v>
+        <v>45561.875</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -12594,22 +12594,22 @@
         <v>2.75</v>
       </c>
       <c r="AU57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX57">
         <v>4</v>
       </c>
       <c r="AY57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7491552</v>
+        <v>7491551</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13086,16 +13086,16 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45563.33333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13107,175 +13107,175 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="Q60">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R60">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S60">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="U60">
+        <v>3.64</v>
+      </c>
+      <c r="V60">
+        <v>2.24</v>
+      </c>
+      <c r="W60">
+        <v>1.61</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>1.15</v>
+      </c>
+      <c r="Z60">
         <v>2.95</v>
       </c>
-      <c r="V60">
-        <v>2.55</v>
-      </c>
-      <c r="W60">
-        <v>1.45</v>
-      </c>
-      <c r="X60">
-        <v>6.2</v>
-      </c>
-      <c r="Y60">
-        <v>1.1</v>
-      </c>
-      <c r="Z60">
-        <v>3.26</v>
-      </c>
       <c r="AA60">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="AB60">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AC60">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD60">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AF60">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AG60">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AH60">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="AI60">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AJ60">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="AK60">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AL60">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM60">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT60">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AU60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW60">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY60">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB60">
         <v>4</v>
       </c>
       <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>2.1</v>
+      </c>
+      <c r="BE60">
         <v>8</v>
       </c>
-      <c r="BD60">
-        <v>2.43</v>
-      </c>
-      <c r="BE60">
-        <v>7.5</v>
-      </c>
       <c r="BF60">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="BG60">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH60">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="BI60">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BJ60">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BK60">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="BL60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BM60">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="BN60">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO60">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="BP60">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13283,7 +13283,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7491551</v>
+        <v>7491552</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13292,16 +13292,16 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45563.64583333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -13313,175 +13313,175 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="Q61">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R61">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T61">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="U61">
+        <v>2.95</v>
+      </c>
+      <c r="V61">
+        <v>2.55</v>
+      </c>
+      <c r="W61">
+        <v>1.45</v>
+      </c>
+      <c r="X61">
+        <v>6.2</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>3.26</v>
+      </c>
+      <c r="AA61">
         <v>3.64</v>
       </c>
-      <c r="V61">
-        <v>2.24</v>
-      </c>
-      <c r="W61">
-        <v>1.61</v>
-      </c>
-      <c r="X61">
-        <v>5</v>
-      </c>
-      <c r="Y61">
-        <v>1.15</v>
-      </c>
-      <c r="Z61">
-        <v>2.95</v>
-      </c>
-      <c r="AA61">
-        <v>3.7</v>
-      </c>
       <c r="AB61">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AC61">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE61">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AF61">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG61">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AH61">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AI61">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AJ61">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AK61">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.33</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
         <v>1.27</v>
       </c>
-      <c r="AM61">
-        <v>1.4</v>
-      </c>
-      <c r="AN61">
-        <v>0.67</v>
-      </c>
-      <c r="AO61">
-        <v>0.33</v>
-      </c>
-      <c r="AP61">
-        <v>0.5</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AR61">
-        <v>1.4</v>
-      </c>
       <c r="AS61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV61">
         <v>5</v>
       </c>
       <c r="AW61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY61">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AZ61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB61">
         <v>4</v>
       </c>
       <c r="BC61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD61">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BE61">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF61">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="BG61">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH61">
-        <v>3.28</v>
+        <v>3.75</v>
       </c>
       <c r="BI61">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BJ61">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK61">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="BL61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BM61">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="BN61">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BO61">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="BP61">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13910,7 +13910,7 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45564.35416666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -14036,10 +14036,10 @@
         <v>2.55</v>
       </c>
       <c r="AU64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW64">
         <v>4</v>
@@ -14048,10 +14048,10 @@
         <v>0</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -388,15 +388,15 @@
     <t>['14', '34', '39']</t>
   </si>
   <si>
+    <t>['25', '90+5']</t>
+  </si>
+  <si>
+    <t>['33', '60']</t>
+  </si>
+  <si>
     <t>['32', '50']</t>
   </si>
   <si>
-    <t>['25', '90+5']</t>
-  </si>
-  <si>
-    <t>['33', '60']</t>
-  </si>
-  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>['79', '80']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['3', '7', '15', '45+2']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -514,15 +514,15 @@
     <t>['45+5', '56', '75', '87', '90+7']</t>
   </si>
   <si>
+    <t>['21', '61']</t>
+  </si>
+  <si>
+    <t>['37', '90']</t>
+  </si>
+  <si>
     <t>['58', '90+5']</t>
   </si>
   <si>
-    <t>['21', '61']</t>
-  </si>
-  <si>
-    <t>['37', '90']</t>
-  </si>
-  <si>
     <t>['28', '60', '77']</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>['67', '74']</t>
   </si>
   <si>
+    <t>['3', '30', '53', '65']</t>
+  </si>
+  <si>
     <t>['19', '27', '52', '55']</t>
-  </si>
-  <si>
-    <t>['3', '30', '53', '65']</t>
   </si>
 </sst>
 </file>
@@ -1276,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1482,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -1688,10 +1688,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -1894,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -2100,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7">
         <v>12</v>
@@ -2512,10 +2512,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -2718,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="AY9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ9">
         <v>15</v>
@@ -2924,10 +2924,10 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3130,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="AY11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3336,10 +3336,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA12">
         <v>8</v>
@@ -3542,10 +3542,10 @@
         <v>11</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -3748,10 +3748,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA14">
         <v>7</v>
@@ -3954,10 +3954,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4160,10 +4160,10 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -4366,10 +4366,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4572,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA18">
         <v>10</v>
@@ -4778,10 +4778,10 @@
         <v>7</v>
       </c>
       <c r="AY19">
+        <v>15</v>
+      </c>
+      <c r="AZ19">
         <v>10</v>
-      </c>
-      <c r="AZ19">
-        <v>9</v>
       </c>
       <c r="BA19">
         <v>7</v>
@@ -4984,7 +4984,7 @@
         <v>9</v>
       </c>
       <c r="AY20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ20">
         <v>11</v>
@@ -5193,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA21">
         <v>7</v>
@@ -5396,10 +5396,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -5602,10 +5602,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>8</v>
@@ -5808,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24">
         <v>4</v>
@@ -6014,10 +6014,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA25">
         <v>8</v>
@@ -6220,10 +6220,10 @@
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA26">
         <v>9</v>
@@ -6426,10 +6426,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -6632,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA28">
         <v>13</v>
@@ -6838,10 +6838,10 @@
         <v>7</v>
       </c>
       <c r="AY29">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -7044,10 +7044,10 @@
         <v>7</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA30">
         <v>7</v>
@@ -7250,10 +7250,10 @@
         <v>9</v>
       </c>
       <c r="AY31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA31">
         <v>7</v>
@@ -7456,10 +7456,10 @@
         <v>5</v>
       </c>
       <c r="AY32">
+        <v>18</v>
+      </c>
+      <c r="AZ32">
         <v>13</v>
-      </c>
-      <c r="AZ32">
-        <v>11</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -7662,10 +7662,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA33">
         <v>3</v>
@@ -7868,10 +7868,10 @@
         <v>2</v>
       </c>
       <c r="AY34">
+        <v>27</v>
+      </c>
+      <c r="AZ34">
         <v>18</v>
-      </c>
-      <c r="AZ34">
-        <v>9</v>
       </c>
       <c r="BA34">
         <v>11</v>
@@ -8074,10 +8074,10 @@
         <v>8</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA35">
         <v>1</v>
@@ -8280,10 +8280,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8486,10 +8486,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -8692,10 +8692,10 @@
         <v>6</v>
       </c>
       <c r="AY38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8898,10 +8898,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ39">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9104,10 +9104,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ40">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>10</v>
@@ -9310,10 +9310,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA41">
         <v>2</v>
@@ -9516,10 +9516,10 @@
         <v>1</v>
       </c>
       <c r="AY42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA42">
         <v>2</v>
@@ -9722,10 +9722,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>10</v>
@@ -9928,10 +9928,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA44">
         <v>5</v>
@@ -10134,10 +10134,10 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA45">
         <v>8</v>
@@ -10340,10 +10340,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ46">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA46">
         <v>6</v>
@@ -10546,10 +10546,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA47">
         <v>5</v>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
         <v>11</v>
@@ -10811,7 +10811,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7491540</v>
+        <v>7491535</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10820,25 +10820,25 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45555.875</v>
+        <v>45556.33333333334</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -10856,37 +10856,37 @@
         <v>166</v>
       </c>
       <c r="Q49">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R49">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S49">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="T49">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U49">
         <v>3.3</v>
       </c>
       <c r="V49">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W49">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X49">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="Y49">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="Z49">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AA49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB49">
         <v>2.15</v>
@@ -10895,121 +10895,121 @@
         <v>1.01</v>
       </c>
       <c r="AD49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE49">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF49">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AG49">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AH49">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AI49">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AJ49">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="AK49">
         <v>1.67</v>
       </c>
       <c r="AL49">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM49">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AN49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.67</v>
+      </c>
+      <c r="AQ49">
+        <v>1.67</v>
+      </c>
+      <c r="AR49">
+        <v>1.77</v>
+      </c>
+      <c r="AS49">
+        <v>1.69</v>
+      </c>
+      <c r="AT49">
+        <v>3.46</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>15</v>
+      </c>
+      <c r="AW49">
+        <v>3</v>
+      </c>
+      <c r="AX49">
+        <v>8</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
+        <v>24</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>8</v>
+      </c>
+      <c r="BC49">
+        <v>12</v>
+      </c>
+      <c r="BD49">
+        <v>2.38</v>
+      </c>
+      <c r="BE49">
+        <v>9.5</v>
+      </c>
+      <c r="BF49">
+        <v>1.84</v>
+      </c>
+      <c r="BG49">
+        <v>1.17</v>
+      </c>
+      <c r="BH49">
+        <v>4.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.3</v>
+      </c>
+      <c r="BJ49">
+        <v>3.35</v>
+      </c>
+      <c r="BK49">
         <v>1.5</v>
       </c>
-      <c r="AP49">
-        <v>0.67</v>
-      </c>
-      <c r="AQ49">
-        <v>1.33</v>
-      </c>
-      <c r="AR49">
-        <v>1.99</v>
-      </c>
-      <c r="AS49">
-        <v>1.17</v>
-      </c>
-      <c r="AT49">
-        <v>3.16</v>
-      </c>
-      <c r="AU49">
-        <v>2</v>
-      </c>
-      <c r="AV49">
-        <v>8</v>
-      </c>
-      <c r="AW49">
-        <v>5</v>
-      </c>
-      <c r="AX49">
-        <v>4</v>
-      </c>
-      <c r="AY49">
-        <v>7</v>
-      </c>
-      <c r="AZ49">
-        <v>12</v>
-      </c>
-      <c r="BA49">
-        <v>3</v>
-      </c>
-      <c r="BB49">
-        <v>10</v>
-      </c>
-      <c r="BC49">
-        <v>13</v>
-      </c>
-      <c r="BD49">
-        <v>2.1</v>
-      </c>
-      <c r="BE49">
-        <v>8.5</v>
-      </c>
-      <c r="BF49">
-        <v>1.91</v>
-      </c>
-      <c r="BG49">
-        <v>1.18</v>
-      </c>
-      <c r="BH49">
-        <v>4.5</v>
-      </c>
-      <c r="BI49">
-        <v>1.28</v>
-      </c>
-      <c r="BJ49">
-        <v>3.25</v>
-      </c>
-      <c r="BK49">
-        <v>1.55</v>
-      </c>
       <c r="BL49">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="BM49">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BN49">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BO49">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BP49">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11017,7 +11017,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7491535</v>
+        <v>7491539</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11032,190 +11032,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>2</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P50" t="s">
         <v>167</v>
       </c>
       <c r="Q50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R50">
         <v>2.3</v>
       </c>
       <c r="S50">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T50">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="U50">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="V50">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="W50">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="X50">
         <v>5</v>
       </c>
       <c r="Y50">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AA50">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AB50">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE50">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AF50">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AH50">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ50">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK50">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AL50">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM50">
         <v>1.38</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
         <v>2</v>
       </c>
       <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>0.97</v>
+      </c>
+      <c r="AS50">
+        <v>1.47</v>
+      </c>
+      <c r="AT50">
+        <v>2.44</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>12</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
+        <v>21</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>2.24</v>
+      </c>
+      <c r="BE50">
+        <v>9</v>
+      </c>
+      <c r="BF50">
+        <v>1.93</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>5.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.26</v>
+      </c>
+      <c r="BJ50">
+        <v>3.6</v>
+      </c>
+      <c r="BK50">
+        <v>1.44</v>
+      </c>
+      <c r="BL50">
+        <v>2.65</v>
+      </c>
+      <c r="BM50">
+        <v>1.72</v>
+      </c>
+      <c r="BN50">
+        <v>2.05</v>
+      </c>
+      <c r="BO50">
+        <v>2.15</v>
+      </c>
+      <c r="BP50">
         <v>1.67</v>
-      </c>
-      <c r="AQ50">
-        <v>1.67</v>
-      </c>
-      <c r="AR50">
-        <v>1.77</v>
-      </c>
-      <c r="AS50">
-        <v>1.69</v>
-      </c>
-      <c r="AT50">
-        <v>3.46</v>
-      </c>
-      <c r="AU50">
-        <v>6</v>
-      </c>
-      <c r="AV50">
-        <v>15</v>
-      </c>
-      <c r="AW50">
-        <v>3</v>
-      </c>
-      <c r="AX50">
-        <v>8</v>
-      </c>
-      <c r="AY50">
-        <v>9</v>
-      </c>
-      <c r="AZ50">
-        <v>23</v>
-      </c>
-      <c r="BA50">
-        <v>4</v>
-      </c>
-      <c r="BB50">
-        <v>8</v>
-      </c>
-      <c r="BC50">
-        <v>12</v>
-      </c>
-      <c r="BD50">
-        <v>2.38</v>
-      </c>
-      <c r="BE50">
-        <v>9.5</v>
-      </c>
-      <c r="BF50">
-        <v>1.84</v>
-      </c>
-      <c r="BG50">
-        <v>1.17</v>
-      </c>
-      <c r="BH50">
-        <v>4.9</v>
-      </c>
-      <c r="BI50">
-        <v>1.3</v>
-      </c>
-      <c r="BJ50">
-        <v>3.35</v>
-      </c>
-      <c r="BK50">
-        <v>1.5</v>
-      </c>
-      <c r="BL50">
-        <v>2.45</v>
-      </c>
-      <c r="BM50">
-        <v>1.82</v>
-      </c>
-      <c r="BN50">
-        <v>1.92</v>
-      </c>
-      <c r="BO50">
-        <v>2.25</v>
-      </c>
-      <c r="BP50">
-        <v>1.57</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11223,7 +11223,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7491539</v>
+        <v>7491542</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11238,190 +11238,190 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
         <v>92</v>
       </c>
-      <c r="P51" t="s">
-        <v>168</v>
-      </c>
       <c r="Q51">
+        <v>2.73</v>
+      </c>
+      <c r="R51">
+        <v>2.46</v>
+      </c>
+      <c r="S51">
+        <v>3.69</v>
+      </c>
+      <c r="T51">
+        <v>1.27</v>
+      </c>
+      <c r="U51">
         <v>3.4</v>
       </c>
-      <c r="R51">
-        <v>2.3</v>
-      </c>
-      <c r="S51">
-        <v>2.63</v>
-      </c>
-      <c r="T51">
-        <v>1.26</v>
-      </c>
-      <c r="U51">
-        <v>3.64</v>
-      </c>
       <c r="V51">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="W51">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="Z51">
-        <v>3.05</v>
+        <v>2.13</v>
       </c>
       <c r="AA51">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AB51">
-        <v>2.14</v>
+        <v>3.12</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD51">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE51">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF51">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AG51">
+        <v>1.62</v>
+      </c>
+      <c r="AH51">
+        <v>2.31</v>
+      </c>
+      <c r="AI51">
         <v>1.5</v>
       </c>
-      <c r="AH51">
+      <c r="AJ51">
         <v>2.4</v>
       </c>
-      <c r="AI51">
-        <v>1.44</v>
-      </c>
-      <c r="AJ51">
-        <v>2.5</v>
-      </c>
       <c r="AK51">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AL51">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AM51">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.47</v>
+      </c>
+      <c r="AS51">
+        <v>1.72</v>
+      </c>
+      <c r="AT51">
+        <v>3.19</v>
+      </c>
+      <c r="AU51">
+        <v>10</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>7</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>20</v>
+      </c>
+      <c r="AZ51">
+        <v>11</v>
+      </c>
+      <c r="BA51">
+        <v>8</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>9</v>
+      </c>
+      <c r="BD51">
+        <v>2.4</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>1.87</v>
+      </c>
+      <c r="BG51">
+        <v>1.32</v>
+      </c>
+      <c r="BH51">
+        <v>3.2</v>
+      </c>
+      <c r="BI51">
+        <v>1.55</v>
+      </c>
+      <c r="BJ51">
+        <v>2.3</v>
+      </c>
+      <c r="BK51">
+        <v>1.92</v>
+      </c>
+      <c r="BL51">
+        <v>1.82</v>
+      </c>
+      <c r="BM51">
+        <v>2.45</v>
+      </c>
+      <c r="BN51">
         <v>1.5</v>
       </c>
-      <c r="AO51">
-        <v>2</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51">
-        <v>2.33</v>
-      </c>
-      <c r="AR51">
-        <v>0.97</v>
-      </c>
-      <c r="AS51">
-        <v>1.47</v>
-      </c>
-      <c r="AT51">
-        <v>2.44</v>
-      </c>
-      <c r="AU51">
-        <v>4</v>
-      </c>
-      <c r="AV51">
-        <v>12</v>
-      </c>
-      <c r="AW51">
-        <v>3</v>
-      </c>
-      <c r="AX51">
-        <v>7</v>
-      </c>
-      <c r="AY51">
-        <v>7</v>
-      </c>
-      <c r="AZ51">
-        <v>19</v>
-      </c>
-      <c r="BA51">
-        <v>7</v>
-      </c>
-      <c r="BB51">
-        <v>4</v>
-      </c>
-      <c r="BC51">
-        <v>11</v>
-      </c>
-      <c r="BD51">
-        <v>2.24</v>
-      </c>
-      <c r="BE51">
-        <v>9</v>
-      </c>
-      <c r="BF51">
-        <v>1.93</v>
-      </c>
-      <c r="BG51">
-        <v>1.14</v>
-      </c>
-      <c r="BH51">
-        <v>5.5</v>
-      </c>
-      <c r="BI51">
-        <v>1.26</v>
-      </c>
-      <c r="BJ51">
-        <v>3.6</v>
-      </c>
-      <c r="BK51">
-        <v>1.44</v>
-      </c>
-      <c r="BL51">
-        <v>2.65</v>
-      </c>
-      <c r="BM51">
-        <v>1.72</v>
-      </c>
-      <c r="BN51">
-        <v>2.05</v>
-      </c>
       <c r="BO51">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="BP51">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11429,7 +11429,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7491542</v>
+        <v>7491540</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11438,16 +11438,16 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45556.33333333334</v>
+        <v>45556.64583333334</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -11462,172 +11462,172 @@
         <v>2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O52" t="s">
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="Q52">
-        <v>2.73</v>
+        <v>3.25</v>
       </c>
       <c r="R52">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="S52">
-        <v>3.69</v>
+        <v>2.7</v>
       </c>
       <c r="T52">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U52">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V52">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="W52">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X52">
+        <v>4.4</v>
+      </c>
+      <c r="Y52">
+        <v>1.16</v>
+      </c>
+      <c r="Z52">
+        <v>2.9</v>
+      </c>
+      <c r="AA52">
+        <v>3.75</v>
+      </c>
+      <c r="AB52">
+        <v>2.15</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>13</v>
+      </c>
+      <c r="AE52">
+        <v>1.17</v>
+      </c>
+      <c r="AF52">
         <v>5</v>
       </c>
-      <c r="Y52">
-        <v>1.13</v>
-      </c>
-      <c r="Z52">
-        <v>2.13</v>
-      </c>
-      <c r="AA52">
-        <v>3.78</v>
-      </c>
-      <c r="AB52">
-        <v>3.12</v>
-      </c>
-      <c r="AC52">
-        <v>1.03</v>
-      </c>
-      <c r="AD52">
-        <v>17.5</v>
-      </c>
-      <c r="AE52">
-        <v>1.14</v>
-      </c>
-      <c r="AF52">
-        <v>4.25</v>
-      </c>
       <c r="AG52">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AH52">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="AI52">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AJ52">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="AK52">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AL52">
         <v>1.27</v>
       </c>
       <c r="AM52">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
       </c>
       <c r="AR52">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="AS52">
-        <v>1.72</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX52">
         <v>6</v>
       </c>
       <c r="AY52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ52">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BA52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD52">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BE52">
         <v>8.5</v>
       </c>
       <c r="BF52">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="BG52">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="BH52">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI52">
+        <v>1.28</v>
+      </c>
+      <c r="BJ52">
+        <v>3.25</v>
+      </c>
+      <c r="BK52">
         <v>1.55</v>
       </c>
-      <c r="BJ52">
+      <c r="BL52">
         <v>2.3</v>
       </c>
-      <c r="BK52">
-        <v>1.92</v>
-      </c>
-      <c r="BL52">
-        <v>1.82</v>
-      </c>
       <c r="BM52">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BN52">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BO52">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="BP52">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11644,7 +11644,7 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45556.875</v>
+        <v>45557.35416666666</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -11773,19 +11773,19 @@
         <v>5</v>
       </c>
       <c r="AV53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW53">
         <v>7</v>
       </c>
       <c r="AX53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ53">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA53">
         <v>9</v>
@@ -11850,7 +11850,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45556.875</v>
+        <v>45557.35416666666</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -11976,22 +11976,22 @@
         <v>3.03</v>
       </c>
       <c r="AU54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX54">
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12056,7 +12056,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45556.875</v>
+        <v>45557.35416666666</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -12182,22 +12182,22 @@
         <v>2.87</v>
       </c>
       <c r="AU55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AZ55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>7</v>
@@ -12262,7 +12262,7 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45561.875</v>
+        <v>45562.5625</v>
       </c>
       <c r="F56">
         <v>7</v>
@@ -12388,22 +12388,22 @@
         <v>2.78</v>
       </c>
       <c r="AU56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY56">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ56">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12468,7 +12468,7 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45561.875</v>
+        <v>45562.5625</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -12594,22 +12594,22 @@
         <v>2.75</v>
       </c>
       <c r="AU57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX57">
         <v>4</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -12674,7 +12674,7 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45562.875</v>
+        <v>45563.33333333334</v>
       </c>
       <c r="F58">
         <v>7</v>
@@ -12800,22 +12800,22 @@
         <v>3.01</v>
       </c>
       <c r="AU58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY58">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ58">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA58">
         <v>7</v>
@@ -12880,7 +12880,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45562.875</v>
+        <v>45563.33333333334</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -13006,22 +13006,22 @@
         <v>2.87</v>
       </c>
       <c r="AU59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV59">
         <v>3</v>
       </c>
       <c r="AW59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX59">
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA59">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7491551</v>
+        <v>7491552</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13086,16 +13086,16 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45562.875</v>
+        <v>45563.33333333334</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13107,175 +13107,175 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="Q60">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R60">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T60">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="U60">
+        <v>2.95</v>
+      </c>
+      <c r="V60">
+        <v>2.55</v>
+      </c>
+      <c r="W60">
+        <v>1.45</v>
+      </c>
+      <c r="X60">
+        <v>6.2</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>3.26</v>
+      </c>
+      <c r="AA60">
         <v>3.64</v>
       </c>
-      <c r="V60">
-        <v>2.24</v>
-      </c>
-      <c r="W60">
-        <v>1.61</v>
-      </c>
-      <c r="X60">
-        <v>5</v>
-      </c>
-      <c r="Y60">
-        <v>1.15</v>
-      </c>
-      <c r="Z60">
-        <v>2.95</v>
-      </c>
-      <c r="AA60">
-        <v>3.7</v>
-      </c>
       <c r="AB60">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AC60">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE60">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AF60">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG60">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AH60">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AI60">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AJ60">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AK60">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AL60">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AM60">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AN60">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
         <v>4</v>
       </c>
-      <c r="AV60">
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
         <v>4</v>
-      </c>
-      <c r="AW60">
-        <v>9</v>
-      </c>
-      <c r="AX60">
-        <v>3</v>
-      </c>
-      <c r="AY60">
-        <v>13</v>
-      </c>
-      <c r="AZ60">
-        <v>7</v>
-      </c>
-      <c r="BA60">
-        <v>7</v>
       </c>
       <c r="BB60">
         <v>4</v>
       </c>
       <c r="BC60">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD60">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BE60">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF60">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="BG60">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH60">
-        <v>3.28</v>
+        <v>3.75</v>
       </c>
       <c r="BI60">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BJ60">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK60">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="BL60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BM60">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="BN60">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BO60">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="BP60">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13283,7 +13283,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7491552</v>
+        <v>7491551</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13292,16 +13292,16 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45562.875</v>
+        <v>45563.64583333334</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -13313,175 +13313,175 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="Q61">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R61">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S61">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T61">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="U61">
+        <v>3.64</v>
+      </c>
+      <c r="V61">
+        <v>2.24</v>
+      </c>
+      <c r="W61">
+        <v>1.61</v>
+      </c>
+      <c r="X61">
+        <v>5</v>
+      </c>
+      <c r="Y61">
+        <v>1.15</v>
+      </c>
+      <c r="Z61">
         <v>2.95</v>
       </c>
-      <c r="V61">
-        <v>2.55</v>
-      </c>
-      <c r="W61">
-        <v>1.45</v>
-      </c>
-      <c r="X61">
-        <v>6.2</v>
-      </c>
-      <c r="Y61">
-        <v>1.1</v>
-      </c>
-      <c r="Z61">
-        <v>3.26</v>
-      </c>
       <c r="AA61">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="AB61">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AC61">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD61">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AF61">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AG61">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AH61">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="AI61">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AJ61">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="AK61">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AL61">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM61">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT61">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AU61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV61">
         <v>5</v>
       </c>
       <c r="AW61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY61">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AZ61">
+        <v>14</v>
+      </c>
+      <c r="BA61">
         <v>7</v>
-      </c>
-      <c r="BA61">
-        <v>4</v>
       </c>
       <c r="BB61">
         <v>4</v>
       </c>
       <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>2.1</v>
+      </c>
+      <c r="BE61">
         <v>8</v>
       </c>
-      <c r="BD61">
-        <v>2.43</v>
-      </c>
-      <c r="BE61">
-        <v>7.5</v>
-      </c>
       <c r="BF61">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="BG61">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH61">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="BI61">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BJ61">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BK61">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="BL61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BM61">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="BN61">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO61">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="BP61">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13498,7 +13498,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45563.875</v>
+        <v>45564.35416666666</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13624,22 +13624,22 @@
         <v>2.89</v>
       </c>
       <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
         <v>5</v>
       </c>
-      <c r="AV62">
-        <v>4</v>
-      </c>
       <c r="AW62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX62">
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -13695,7 +13695,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7491544</v>
+        <v>7491549</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13704,34 +13704,34 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45563.875</v>
+        <v>45564.35416666666</v>
       </c>
       <c r="F63">
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>4</v>
       </c>
       <c r="N63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O63" t="s">
         <v>134</v>
@@ -13740,13 +13740,13 @@
         <v>177</v>
       </c>
       <c r="Q63">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R63">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="S63">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T63">
         <v>1.22</v>
@@ -13755,22 +13755,22 @@
         <v>4</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X63">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y63">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Z63">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA63">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB63">
         <v>3.6</v>
@@ -13782,10 +13782,10 @@
         <v>17</v>
       </c>
       <c r="AE63">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AF63">
-        <v>5.55</v>
+        <v>5.25</v>
       </c>
       <c r="AG63">
         <v>1.4</v>
@@ -13800,100 +13800,100 @@
         <v>2.63</v>
       </c>
       <c r="AK63">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AL63">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AM63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AN63">
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
+        <v>1.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.36</v>
+      </c>
+      <c r="AS63">
+        <v>1.19</v>
+      </c>
+      <c r="AT63">
+        <v>2.55</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>10</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>13</v>
+      </c>
+      <c r="AZ63">
+        <v>13</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>7</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>1.64</v>
+      </c>
+      <c r="BE63">
+        <v>8.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.76</v>
+      </c>
+      <c r="BG63">
+        <v>1.2</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>1.33</v>
+      </c>
+      <c r="BJ63">
+        <v>3</v>
+      </c>
+      <c r="BK63">
         <v>1.5</v>
       </c>
-      <c r="AR63">
-        <v>2.51</v>
-      </c>
-      <c r="AS63">
-        <v>0.96</v>
-      </c>
-      <c r="AT63">
-        <v>3.47</v>
-      </c>
-      <c r="AU63">
-        <v>2</v>
-      </c>
-      <c r="AV63">
-        <v>4</v>
-      </c>
-      <c r="AW63">
-        <v>5</v>
-      </c>
-      <c r="AX63">
-        <v>1</v>
-      </c>
-      <c r="AY63">
-        <v>7</v>
-      </c>
-      <c r="AZ63">
-        <v>5</v>
-      </c>
-      <c r="BA63">
-        <v>3</v>
-      </c>
-      <c r="BB63">
-        <v>8</v>
-      </c>
-      <c r="BC63">
-        <v>11</v>
-      </c>
-      <c r="BD63">
-        <v>1.45</v>
-      </c>
-      <c r="BE63">
-        <v>9</v>
-      </c>
-      <c r="BF63">
-        <v>3.32</v>
-      </c>
-      <c r="BG63">
-        <v>1.16</v>
-      </c>
-      <c r="BH63">
-        <v>4.85</v>
-      </c>
-      <c r="BI63">
-        <v>1.31</v>
-      </c>
-      <c r="BJ63">
-        <v>3.3</v>
-      </c>
-      <c r="BK63">
-        <v>1.54</v>
-      </c>
       <c r="BL63">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="BM63">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN63">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BO63">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="BP63">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13901,7 +13901,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7491549</v>
+        <v>7491544</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13910,34 +13910,34 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45563.875</v>
+        <v>45564.36111111111</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64">
         <v>4</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O64" t="s">
         <v>135</v>
@@ -13946,13 +13946,13 @@
         <v>178</v>
       </c>
       <c r="Q64">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R64">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="S64">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T64">
         <v>1.22</v>
@@ -13961,22 +13961,22 @@
         <v>4</v>
       </c>
       <c r="V64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X64">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y64">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Z64">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA64">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AB64">
         <v>3.6</v>
@@ -13988,10 +13988,10 @@
         <v>17</v>
       </c>
       <c r="AE64">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AF64">
-        <v>5.25</v>
+        <v>5.55</v>
       </c>
       <c r="AG64">
         <v>1.4</v>
@@ -14006,100 +14006,100 @@
         <v>2.63</v>
       </c>
       <c r="AK64">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AL64">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AM64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN64">
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>2.51</v>
       </c>
       <c r="AS64">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AT64">
-        <v>2.55</v>
+        <v>3.61</v>
       </c>
       <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
         <v>5</v>
       </c>
-      <c r="AV64">
-        <v>6</v>
-      </c>
-      <c r="AW64">
-        <v>4</v>
-      </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
       <c r="AY64">
+        <v>19</v>
+      </c>
+      <c r="AZ64">
+        <v>22</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>8</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>1.45</v>
+      </c>
+      <c r="BE64">
         <v>9</v>
       </c>
-      <c r="AZ64">
-        <v>6</v>
-      </c>
-      <c r="BA64">
-        <v>7</v>
-      </c>
-      <c r="BB64">
-        <v>7</v>
-      </c>
-      <c r="BC64">
-        <v>14</v>
-      </c>
-      <c r="BD64">
-        <v>1.64</v>
-      </c>
-      <c r="BE64">
-        <v>8.5</v>
-      </c>
       <c r="BF64">
-        <v>2.76</v>
+        <v>3.32</v>
       </c>
       <c r="BG64">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH64">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="BI64">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BJ64">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BK64">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BL64">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="BM64">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN64">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BO64">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="BP64">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,12 @@
     <t>['3', '7', '15', '45+2']</t>
   </si>
   <si>
+    <t>['11', '28', '77']</t>
+  </si>
+  <si>
+    <t>['14', '65', '81']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -551,6 +557,9 @@
   </si>
   <si>
     <t>['19', '27', '52', '55']</t>
+  </si>
+  <si>
+    <t>['15', '54', '74']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1180,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1377,7 +1386,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1455,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1789,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2201,7 +2210,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2407,7 +2416,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2613,7 +2622,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2819,7 +2828,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3231,7 +3240,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3849,7 +3858,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4055,7 +4064,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4261,7 +4270,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4339,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4467,7 +4476,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5085,7 +5094,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5163,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5291,7 +5300,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5703,7 +5712,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6115,7 +6124,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6321,7 +6330,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6527,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6939,7 +6948,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7145,7 +7154,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7557,7 +7566,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7763,7 +7772,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7969,7 +7978,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8175,7 +8184,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8459,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8665,7 +8674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8793,7 +8802,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8999,7 +9008,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9205,7 +9214,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9411,7 +9420,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9617,7 +9626,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10235,7 +10244,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10441,7 +10450,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10519,7 +10528,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10647,7 +10656,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10853,7 +10862,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11059,7 +11068,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11471,7 +11480,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11677,7 +11686,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11883,7 +11892,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12089,7 +12098,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12295,7 +12304,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12501,7 +12510,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12707,7 +12716,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12913,7 +12922,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13325,7 +13334,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13737,7 +13746,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13943,7 +13952,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14100,6 +14109,418 @@
       </c>
       <c r="BP64">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7491555</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45569.5625</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>136</v>
+      </c>
+      <c r="P65" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q65">
+        <v>2.2</v>
+      </c>
+      <c r="R65">
+        <v>2.35</v>
+      </c>
+      <c r="S65">
+        <v>4.2</v>
+      </c>
+      <c r="T65">
+        <v>1.25</v>
+      </c>
+      <c r="U65">
+        <v>3.5</v>
+      </c>
+      <c r="V65">
+        <v>2.15</v>
+      </c>
+      <c r="W65">
+        <v>1.62</v>
+      </c>
+      <c r="X65">
+        <v>4.75</v>
+      </c>
+      <c r="Y65">
+        <v>1.17</v>
+      </c>
+      <c r="Z65">
+        <v>1.79</v>
+      </c>
+      <c r="AA65">
+        <v>4.3</v>
+      </c>
+      <c r="AB65">
+        <v>3.9</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>13</v>
+      </c>
+      <c r="AE65">
+        <v>1.17</v>
+      </c>
+      <c r="AF65">
+        <v>5</v>
+      </c>
+      <c r="AG65">
+        <v>1.4</v>
+      </c>
+      <c r="AH65">
+        <v>2.82</v>
+      </c>
+      <c r="AI65">
+        <v>1.45</v>
+      </c>
+      <c r="AJ65">
+        <v>2.5</v>
+      </c>
+      <c r="AK65">
+        <v>1.22</v>
+      </c>
+      <c r="AL65">
+        <v>1.2</v>
+      </c>
+      <c r="AM65">
+        <v>2.05</v>
+      </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>2.5</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.63</v>
+      </c>
+      <c r="AS65">
+        <v>1.62</v>
+      </c>
+      <c r="AT65">
+        <v>3.25</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>9</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>10</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>20</v>
+      </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
+        <v>6</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.55</v>
+      </c>
+      <c r="BE65">
+        <v>8.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.91</v>
+      </c>
+      <c r="BG65">
+        <v>1.13</v>
+      </c>
+      <c r="BH65">
+        <v>4.25</v>
+      </c>
+      <c r="BI65">
+        <v>1.3</v>
+      </c>
+      <c r="BJ65">
+        <v>3.1</v>
+      </c>
+      <c r="BK65">
+        <v>1.54</v>
+      </c>
+      <c r="BL65">
+        <v>2.3</v>
+      </c>
+      <c r="BM65">
+        <v>2</v>
+      </c>
+      <c r="BN65">
+        <v>1.8</v>
+      </c>
+      <c r="BO65">
+        <v>2.43</v>
+      </c>
+      <c r="BP65">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7491556</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45569.5625</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>137</v>
+      </c>
+      <c r="P66" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q66">
+        <v>1.85</v>
+      </c>
+      <c r="R66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
+        <v>5.5</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.55</v>
+      </c>
+      <c r="V66">
+        <v>2.2</v>
+      </c>
+      <c r="W66">
+        <v>1.6</v>
+      </c>
+      <c r="X66">
+        <v>4.95</v>
+      </c>
+      <c r="Y66">
+        <v>1.16</v>
+      </c>
+      <c r="Z66">
+        <v>1.46</v>
+      </c>
+      <c r="AA66">
+        <v>5</v>
+      </c>
+      <c r="AB66">
+        <v>6</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>17</v>
+      </c>
+      <c r="AE66">
+        <v>1.15</v>
+      </c>
+      <c r="AF66">
+        <v>5.25</v>
+      </c>
+      <c r="AG66">
+        <v>1.48</v>
+      </c>
+      <c r="AH66">
+        <v>2.54</v>
+      </c>
+      <c r="AI66">
+        <v>1.67</v>
+      </c>
+      <c r="AJ66">
+        <v>2.05</v>
+      </c>
+      <c r="AK66">
+        <v>1.11</v>
+      </c>
+      <c r="AL66">
+        <v>1.13</v>
+      </c>
+      <c r="AM66">
+        <v>2.8</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>2.5</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>1.43</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>2.43</v>
+      </c>
+      <c r="AU66">
+        <v>10</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>8</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>23</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>9</v>
+      </c>
+      <c r="BB66">
+        <v>6</v>
+      </c>
+      <c r="BC66">
+        <v>15</v>
+      </c>
+      <c r="BD66">
+        <v>1.3</v>
+      </c>
+      <c r="BE66">
+        <v>10</v>
+      </c>
+      <c r="BF66">
+        <v>4.42</v>
+      </c>
+      <c r="BG66">
+        <v>1.12</v>
+      </c>
+      <c r="BH66">
+        <v>4.45</v>
+      </c>
+      <c r="BI66">
+        <v>1.29</v>
+      </c>
+      <c r="BJ66">
+        <v>3.25</v>
+      </c>
+      <c r="BK66">
+        <v>1.5</v>
+      </c>
+      <c r="BL66">
+        <v>2.35</v>
+      </c>
+      <c r="BM66">
+        <v>1.95</v>
+      </c>
+      <c r="BN66">
+        <v>1.85</v>
+      </c>
+      <c r="BO66">
+        <v>2.35</v>
+      </c>
+      <c r="BP66">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,21 @@
     <t>['14', '65', '81']</t>
   </si>
   <si>
+    <t>['8', '47']</t>
+  </si>
+  <si>
+    <t>['8', '52', '78']</t>
+  </si>
+  <si>
+    <t>['24', '33']</t>
+  </si>
+  <si>
+    <t>['15', '18']</t>
+  </si>
+  <si>
+    <t>['20', '90+3']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -560,6 +575,18 @@
   </si>
   <si>
     <t>['15', '54', '74']</t>
+  </si>
+  <si>
+    <t>['16', '43']</t>
+  </si>
+  <si>
+    <t>['9', '72']</t>
+  </si>
+  <si>
+    <t>['42', '75']</t>
+  </si>
+  <si>
+    <t>['8', '83', '90']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1207,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1258,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1386,7 +1413,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1798,7 +1825,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2210,7 +2237,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2416,7 +2443,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2622,7 +2649,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2703,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2828,7 +2855,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2909,7 +2936,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3115,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3240,7 +3267,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3321,7 +3348,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3524,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3730,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3858,7 +3885,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3936,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4064,7 +4091,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4145,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4270,7 +4297,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4476,7 +4503,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4554,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -4763,7 +4790,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4969,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>1.5</v>
@@ -5094,7 +5121,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5300,7 +5327,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5712,7 +5739,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5793,7 +5820,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.26</v>
@@ -5996,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6124,7 +6151,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6330,7 +6357,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6536,7 +6563,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6820,10 +6847,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -6948,7 +6975,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7029,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7154,7 +7181,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7235,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7438,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7566,7 +7593,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7644,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>3</v>
@@ -7772,7 +7799,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7853,7 +7880,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -7978,7 +8005,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8056,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8184,7 +8211,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8471,7 +8498,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8802,7 +8829,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9008,7 +9035,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9089,7 +9116,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9214,7 +9241,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9420,7 +9447,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9626,7 +9653,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9704,7 +9731,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -10244,7 +10271,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10450,7 +10477,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10531,7 +10558,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10656,7 +10683,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10862,7 +10889,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10940,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11068,7 +11095,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11146,10 +11173,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11352,10 +11379,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11480,7 +11507,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11561,7 +11588,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -11686,7 +11713,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11764,10 +11791,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11892,7 +11919,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12098,7 +12125,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12179,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12304,7 +12331,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12510,7 +12537,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12716,7 +12743,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12922,7 +12949,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13209,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13334,7 +13361,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13746,7 +13773,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13952,7 +13979,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14030,7 +14057,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14158,7 +14185,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14251,22 +14278,22 @@
         <v>3.25</v>
       </c>
       <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>8</v>
+      </c>
+      <c r="AY65">
         <v>6</v>
       </c>
-      <c r="AV65">
-        <v>9</v>
-      </c>
-      <c r="AW65">
-        <v>5</v>
-      </c>
-      <c r="AX65">
-        <v>10</v>
-      </c>
-      <c r="AY65">
-        <v>14</v>
-      </c>
       <c r="AZ65">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA65">
         <v>3</v>
@@ -14457,22 +14484,22 @@
         <v>2.43</v>
       </c>
       <c r="AU66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW66">
         <v>8</v>
       </c>
       <c r="AX66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY66">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ66">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA66">
         <v>9</v>
@@ -14521,6 +14548,1448 @@
       </c>
       <c r="BP66">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7491553</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45570.33333333334</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q67">
+        <v>1.7</v>
+      </c>
+      <c r="R67">
+        <v>2.7</v>
+      </c>
+      <c r="S67">
+        <v>6.25</v>
+      </c>
+      <c r="T67">
+        <v>1.22</v>
+      </c>
+      <c r="U67">
+        <v>3.75</v>
+      </c>
+      <c r="V67">
+        <v>2.1</v>
+      </c>
+      <c r="W67">
+        <v>1.65</v>
+      </c>
+      <c r="X67">
+        <v>4.6</v>
+      </c>
+      <c r="Y67">
+        <v>1.18</v>
+      </c>
+      <c r="Z67">
+        <v>1.29</v>
+      </c>
+      <c r="AA67">
+        <v>5.5</v>
+      </c>
+      <c r="AB67">
+        <v>8.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.13</v>
+      </c>
+      <c r="AF67">
+        <v>5.75</v>
+      </c>
+      <c r="AG67">
+        <v>1.54</v>
+      </c>
+      <c r="AH67">
+        <v>2.31</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.07</v>
+      </c>
+      <c r="AL67">
+        <v>1.1</v>
+      </c>
+      <c r="AM67">
+        <v>3.3</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.4</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>2.27</v>
+      </c>
+      <c r="AS67">
+        <v>1.24</v>
+      </c>
+      <c r="AT67">
+        <v>3.51</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>1.18</v>
+      </c>
+      <c r="BE67">
+        <v>11</v>
+      </c>
+      <c r="BF67">
+        <v>6.16</v>
+      </c>
+      <c r="BG67">
+        <v>1.18</v>
+      </c>
+      <c r="BH67">
+        <v>4.45</v>
+      </c>
+      <c r="BI67">
+        <v>1.3</v>
+      </c>
+      <c r="BJ67">
+        <v>3.1</v>
+      </c>
+      <c r="BK67">
+        <v>1.54</v>
+      </c>
+      <c r="BL67">
+        <v>2.3</v>
+      </c>
+      <c r="BM67">
+        <v>2</v>
+      </c>
+      <c r="BN67">
+        <v>1.8</v>
+      </c>
+      <c r="BO67">
+        <v>2.43</v>
+      </c>
+      <c r="BP67">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7491558</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45570.33333333334</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>115</v>
+      </c>
+      <c r="P68" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q68">
+        <v>2.85</v>
+      </c>
+      <c r="R68">
+        <v>2.25</v>
+      </c>
+      <c r="S68">
+        <v>3.1</v>
+      </c>
+      <c r="T68">
+        <v>1.28</v>
+      </c>
+      <c r="U68">
+        <v>3.3</v>
+      </c>
+      <c r="V68">
+        <v>2.25</v>
+      </c>
+      <c r="W68">
+        <v>1.57</v>
+      </c>
+      <c r="X68">
+        <v>5.15</v>
+      </c>
+      <c r="Y68">
+        <v>1.14</v>
+      </c>
+      <c r="Z68">
+        <v>2.38</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>2.6</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>1.18</v>
+      </c>
+      <c r="AF68">
+        <v>4.75</v>
+      </c>
+      <c r="AG68">
+        <v>1.54</v>
+      </c>
+      <c r="AH68">
+        <v>2.31</v>
+      </c>
+      <c r="AI68">
+        <v>1.44</v>
+      </c>
+      <c r="AJ68">
+        <v>2.55</v>
+      </c>
+      <c r="AK68">
+        <v>1.42</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>1.57</v>
+      </c>
+      <c r="AN68">
+        <v>1.33</v>
+      </c>
+      <c r="AO68">
+        <v>1.75</v>
+      </c>
+      <c r="AP68">
+        <v>1.75</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.33</v>
+      </c>
+      <c r="AS68">
+        <v>1.27</v>
+      </c>
+      <c r="AT68">
+        <v>2.6</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>12</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>16</v>
+      </c>
+      <c r="BA68">
+        <v>6</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>2.1</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>1.91</v>
+      </c>
+      <c r="BG68">
+        <v>1.18</v>
+      </c>
+      <c r="BH68">
+        <v>4.25</v>
+      </c>
+      <c r="BI68">
+        <v>1.34</v>
+      </c>
+      <c r="BJ68">
+        <v>2.95</v>
+      </c>
+      <c r="BK68">
+        <v>1.6</v>
+      </c>
+      <c r="BL68">
+        <v>2.17</v>
+      </c>
+      <c r="BM68">
+        <v>1.98</v>
+      </c>
+      <c r="BN68">
+        <v>1.72</v>
+      </c>
+      <c r="BO68">
+        <v>2.6</v>
+      </c>
+      <c r="BP68">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7491559</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45570.33333333334</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q69">
+        <v>2.9</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>3.1</v>
+      </c>
+      <c r="T69">
+        <v>1.3</v>
+      </c>
+      <c r="U69">
+        <v>3.2</v>
+      </c>
+      <c r="V69">
+        <v>2.35</v>
+      </c>
+      <c r="W69">
+        <v>1.53</v>
+      </c>
+      <c r="X69">
+        <v>5.55</v>
+      </c>
+      <c r="Y69">
+        <v>1.13</v>
+      </c>
+      <c r="Z69">
+        <v>2.38</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
+        <v>2.6</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.2</v>
+      </c>
+      <c r="AF69">
+        <v>4.33</v>
+      </c>
+      <c r="AG69">
+        <v>1.63</v>
+      </c>
+      <c r="AH69">
+        <v>2.28</v>
+      </c>
+      <c r="AI69">
+        <v>1.48</v>
+      </c>
+      <c r="AJ69">
+        <v>2.4</v>
+      </c>
+      <c r="AK69">
+        <v>1.45</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.55</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>0.75</v>
+      </c>
+      <c r="AR69">
+        <v>0.99</v>
+      </c>
+      <c r="AS69">
+        <v>1.46</v>
+      </c>
+      <c r="AT69">
+        <v>2.45</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>11</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>2.1</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>1.91</v>
+      </c>
+      <c r="BG69">
+        <v>1.09</v>
+      </c>
+      <c r="BH69">
+        <v>5.05</v>
+      </c>
+      <c r="BI69">
+        <v>1.27</v>
+      </c>
+      <c r="BJ69">
+        <v>3.35</v>
+      </c>
+      <c r="BK69">
+        <v>1.48</v>
+      </c>
+      <c r="BL69">
+        <v>2.45</v>
+      </c>
+      <c r="BM69">
+        <v>1.8</v>
+      </c>
+      <c r="BN69">
+        <v>2</v>
+      </c>
+      <c r="BO69">
+        <v>2.28</v>
+      </c>
+      <c r="BP69">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7491557</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45570.64583333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q70">
+        <v>2.75</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>3.2</v>
+      </c>
+      <c r="T70">
+        <v>1.25</v>
+      </c>
+      <c r="U70">
+        <v>3.45</v>
+      </c>
+      <c r="V70">
+        <v>2.15</v>
+      </c>
+      <c r="W70">
+        <v>1.62</v>
+      </c>
+      <c r="X70">
+        <v>4.8</v>
+      </c>
+      <c r="Y70">
+        <v>1.16</v>
+      </c>
+      <c r="Z70">
+        <v>2.18</v>
+      </c>
+      <c r="AA70">
+        <v>3.83</v>
+      </c>
+      <c r="AB70">
+        <v>2.93</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>13</v>
+      </c>
+      <c r="AE70">
+        <v>1.17</v>
+      </c>
+      <c r="AF70">
+        <v>5</v>
+      </c>
+      <c r="AG70">
+        <v>1.5</v>
+      </c>
+      <c r="AH70">
+        <v>2.4</v>
+      </c>
+      <c r="AI70">
+        <v>1.42</v>
+      </c>
+      <c r="AJ70">
+        <v>2.62</v>
+      </c>
+      <c r="AK70">
+        <v>1.42</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>1.62</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>2.33</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.66</v>
+      </c>
+      <c r="AS70">
+        <v>1.76</v>
+      </c>
+      <c r="AT70">
+        <v>3.42</v>
+      </c>
+      <c r="AU70">
+        <v>4</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>16</v>
+      </c>
+      <c r="AZ70">
+        <v>17</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
+      <c r="BC70">
+        <v>8</v>
+      </c>
+      <c r="BD70">
+        <v>1.69</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>2.62</v>
+      </c>
+      <c r="BG70">
+        <v>1.1</v>
+      </c>
+      <c r="BH70">
+        <v>4.8</v>
+      </c>
+      <c r="BI70">
+        <v>1.28</v>
+      </c>
+      <c r="BJ70">
+        <v>3.25</v>
+      </c>
+      <c r="BK70">
+        <v>1.5</v>
+      </c>
+      <c r="BL70">
+        <v>2.35</v>
+      </c>
+      <c r="BM70">
+        <v>1.85</v>
+      </c>
+      <c r="BN70">
+        <v>1.95</v>
+      </c>
+      <c r="BO70">
+        <v>2.35</v>
+      </c>
+      <c r="BP70">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7491560</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45571.35416666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>141</v>
+      </c>
+      <c r="P71" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q71">
+        <v>2.5</v>
+      </c>
+      <c r="R71">
+        <v>2.4</v>
+      </c>
+      <c r="S71">
+        <v>3.6</v>
+      </c>
+      <c r="T71">
+        <v>1.25</v>
+      </c>
+      <c r="U71">
+        <v>3.75</v>
+      </c>
+      <c r="V71">
+        <v>2.2</v>
+      </c>
+      <c r="W71">
+        <v>1.62</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>1.17</v>
+      </c>
+      <c r="Z71">
+        <v>1.91</v>
+      </c>
+      <c r="AA71">
+        <v>3.8</v>
+      </c>
+      <c r="AB71">
+        <v>3.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+      <c r="AE71">
+        <v>1.11</v>
+      </c>
+      <c r="AF71">
+        <v>5.5</v>
+      </c>
+      <c r="AG71">
+        <v>1.5</v>
+      </c>
+      <c r="AH71">
+        <v>2.4</v>
+      </c>
+      <c r="AI71">
+        <v>1.5</v>
+      </c>
+      <c r="AJ71">
+        <v>2.5</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>1.8</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.33</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1.25</v>
+      </c>
+      <c r="AR71">
+        <v>1.7</v>
+      </c>
+      <c r="AS71">
+        <v>1.48</v>
+      </c>
+      <c r="AT71">
+        <v>3.18</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>1</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>4</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.82</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.39</v>
+      </c>
+      <c r="BG71">
+        <v>1.18</v>
+      </c>
+      <c r="BH71">
+        <v>4.25</v>
+      </c>
+      <c r="BI71">
+        <v>1.34</v>
+      </c>
+      <c r="BJ71">
+        <v>2.95</v>
+      </c>
+      <c r="BK71">
+        <v>1.6</v>
+      </c>
+      <c r="BL71">
+        <v>2.17</v>
+      </c>
+      <c r="BM71">
+        <v>1.98</v>
+      </c>
+      <c r="BN71">
+        <v>1.72</v>
+      </c>
+      <c r="BO71">
+        <v>2.6</v>
+      </c>
+      <c r="BP71">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7491561</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45571.35416666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>2.88</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>2.88</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>2.3</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.19</v>
+      </c>
+      <c r="AF72">
+        <v>3.66</v>
+      </c>
+      <c r="AG72">
+        <v>1.73</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72">
+        <v>2.2</v>
+      </c>
+      <c r="AK72">
+        <v>1.63</v>
+      </c>
+      <c r="AL72">
+        <v>1.29</v>
+      </c>
+      <c r="AM72">
+        <v>1.4</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.25</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
+        <v>1.5</v>
+      </c>
+      <c r="AT72">
+        <v>3.16</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>1</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>8</v>
+      </c>
+      <c r="AZ72">
+        <v>6</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
+        <v>2.1</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>1.91</v>
+      </c>
+      <c r="BG72">
+        <v>1.18</v>
+      </c>
+      <c r="BH72">
+        <v>4.25</v>
+      </c>
+      <c r="BI72">
+        <v>1.34</v>
+      </c>
+      <c r="BJ72">
+        <v>2.95</v>
+      </c>
+      <c r="BK72">
+        <v>1.6</v>
+      </c>
+      <c r="BL72">
+        <v>2.17</v>
+      </c>
+      <c r="BM72">
+        <v>1.98</v>
+      </c>
+      <c r="BN72">
+        <v>1.72</v>
+      </c>
+      <c r="BO72">
+        <v>2.6</v>
+      </c>
+      <c r="BP72">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7491554</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45571.35416666666</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>2.38</v>
+      </c>
+      <c r="S73">
+        <v>3.1</v>
+      </c>
+      <c r="T73">
+        <v>1.3</v>
+      </c>
+      <c r="U73">
+        <v>3.4</v>
+      </c>
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>1.13</v>
+      </c>
+      <c r="Z73">
+        <v>2.45</v>
+      </c>
+      <c r="AA73">
+        <v>3.5</v>
+      </c>
+      <c r="AB73">
+        <v>2.63</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.33</v>
+      </c>
+      <c r="AG73">
+        <v>1.6</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>1.5</v>
+      </c>
+      <c r="AJ73">
+        <v>2.5</v>
+      </c>
+      <c r="AK73">
+        <v>1.48</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.56</v>
+      </c>
+      <c r="AN73">
+        <v>1.67</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.75</v>
+      </c>
+      <c r="AR73">
+        <v>1.59</v>
+      </c>
+      <c r="AS73">
+        <v>1.43</v>
+      </c>
+      <c r="AT73">
+        <v>3.02</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>16</v>
+      </c>
+      <c r="AX73">
+        <v>13</v>
+      </c>
+      <c r="AY73">
+        <v>26</v>
+      </c>
+      <c r="AZ73">
+        <v>19</v>
+      </c>
+      <c r="BA73">
+        <v>10</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>13</v>
+      </c>
+      <c r="BD73">
+        <v>2</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>2</v>
+      </c>
+      <c r="BG73">
+        <v>1.08</v>
+      </c>
+      <c r="BH73">
+        <v>5.15</v>
+      </c>
+      <c r="BI73">
+        <v>1.3</v>
+      </c>
+      <c r="BJ73">
+        <v>3.1</v>
+      </c>
+      <c r="BK73">
+        <v>1.54</v>
+      </c>
+      <c r="BL73">
+        <v>2.3</v>
+      </c>
+      <c r="BM73">
+        <v>1.98</v>
+      </c>
+      <c r="BN73">
+        <v>1.82</v>
+      </c>
+      <c r="BO73">
+        <v>2.43</v>
+      </c>
+      <c r="BP73">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -430,15 +430,15 @@
     <t>['14', '65', '81']</t>
   </si>
   <si>
+    <t>['24', '33']</t>
+  </si>
+  <si>
     <t>['8', '47']</t>
   </si>
   <si>
     <t>['8', '52', '78']</t>
   </si>
   <si>
-    <t>['24', '33']</t>
-  </si>
-  <si>
     <t>['15', '18']</t>
   </si>
   <si>
@@ -577,10 +577,10 @@
     <t>['15', '54', '74']</t>
   </si>
   <si>
+    <t>['9', '72']</t>
+  </si>
+  <si>
     <t>['16', '43']</t>
-  </si>
-  <si>
-    <t>['9', '72']</t>
   </si>
   <si>
     <t>['42', '75']</t>
@@ -14278,22 +14278,22 @@
         <v>3.25</v>
       </c>
       <c r="AU65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA65">
         <v>3</v>
@@ -14484,22 +14484,22 @@
         <v>2.43</v>
       </c>
       <c r="AU66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW66">
         <v>8</v>
       </c>
       <c r="AX66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY66">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA66">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7491553</v>
+        <v>7491557</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14564,196 +14564,196 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45570.33333333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F67">
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="Q67">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="R67">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="S67">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="T67">
+        <v>1.25</v>
+      </c>
+      <c r="U67">
+        <v>3.45</v>
+      </c>
+      <c r="V67">
+        <v>2.15</v>
+      </c>
+      <c r="W67">
+        <v>1.62</v>
+      </c>
+      <c r="X67">
+        <v>4.8</v>
+      </c>
+      <c r="Y67">
+        <v>1.16</v>
+      </c>
+      <c r="Z67">
+        <v>2.18</v>
+      </c>
+      <c r="AA67">
+        <v>3.83</v>
+      </c>
+      <c r="AB67">
+        <v>2.93</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>13</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>5</v>
+      </c>
+      <c r="AG67">
+        <v>1.5</v>
+      </c>
+      <c r="AH67">
+        <v>2.4</v>
+      </c>
+      <c r="AI67">
+        <v>1.42</v>
+      </c>
+      <c r="AJ67">
+        <v>2.62</v>
+      </c>
+      <c r="AK67">
+        <v>1.42</v>
+      </c>
+      <c r="AL67">
         <v>1.22</v>
       </c>
-      <c r="U67">
-        <v>3.75</v>
-      </c>
-      <c r="V67">
-        <v>2.1</v>
-      </c>
-      <c r="W67">
-        <v>1.65</v>
-      </c>
-      <c r="X67">
-        <v>4.6</v>
-      </c>
-      <c r="Y67">
-        <v>1.18</v>
-      </c>
-      <c r="Z67">
-        <v>1.29</v>
-      </c>
-      <c r="AA67">
-        <v>5.5</v>
-      </c>
-      <c r="AB67">
-        <v>8.5</v>
-      </c>
-      <c r="AC67">
-        <v>1.03</v>
-      </c>
-      <c r="AD67">
-        <v>11</v>
-      </c>
-      <c r="AE67">
-        <v>1.13</v>
-      </c>
-      <c r="AF67">
-        <v>5.75</v>
-      </c>
-      <c r="AG67">
-        <v>1.54</v>
-      </c>
-      <c r="AH67">
-        <v>2.31</v>
-      </c>
-      <c r="AI67">
-        <v>1.73</v>
-      </c>
-      <c r="AJ67">
-        <v>1.95</v>
-      </c>
-      <c r="AK67">
-        <v>1.07</v>
-      </c>
-      <c r="AL67">
-        <v>1.1</v>
-      </c>
       <c r="AM67">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="AN67">
         <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR67">
-        <v>2.27</v>
+        <v>1.66</v>
       </c>
       <c r="AS67">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="AT67">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="AU67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW67">
         <v>6</v>
       </c>
       <c r="AX67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY67">
+        <v>8</v>
+      </c>
+      <c r="AZ67">
         <v>9</v>
       </c>
-      <c r="AZ67">
-        <v>3</v>
-      </c>
       <c r="BA67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC67">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD67">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="BE67">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF67">
-        <v>6.16</v>
+        <v>2.62</v>
       </c>
       <c r="BG67">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="BH67">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="BI67">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BJ67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="BK67">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BL67">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="BM67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BN67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BO67">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BP67">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14761,7 +14761,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7491558</v>
+        <v>7491553</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14776,82 +14776,82 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s">
         <v>92</v>
       </c>
       <c r="Q68">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="R68">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="S68">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="T68">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U68">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="V68">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W68">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X68">
-        <v>5.15</v>
+        <v>4.6</v>
       </c>
       <c r="Y68">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z68">
-        <v>2.38</v>
+        <v>1.29</v>
       </c>
       <c r="AA68">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB68">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="AC68">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE68">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AF68">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AG68">
         <v>1.54</v>
@@ -14860,106 +14860,106 @@
         <v>2.31</v>
       </c>
       <c r="AI68">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AJ68">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="AK68">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="AL68">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AM68">
-        <v>1.57</v>
+        <v>3.3</v>
       </c>
       <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>1.33</v>
       </c>
-      <c r="AO68">
-        <v>1.75</v>
-      </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR68">
-        <v>1.33</v>
+        <v>2.27</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT68">
-        <v>2.6</v>
+        <v>3.51</v>
       </c>
       <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
         <v>4</v>
       </c>
-      <c r="AV68">
+      <c r="AY68">
+        <v>22</v>
+      </c>
+      <c r="AZ68">
         <v>4</v>
       </c>
-      <c r="AW68">
-        <v>6</v>
-      </c>
-      <c r="AX68">
-        <v>12</v>
-      </c>
-      <c r="AY68">
-        <v>10</v>
-      </c>
-      <c r="AZ68">
-        <v>16</v>
-      </c>
       <c r="BA68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC68">
         <v>11</v>
       </c>
       <c r="BD68">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="BE68">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF68">
-        <v>1.91</v>
+        <v>6.16</v>
       </c>
       <c r="BG68">
         <v>1.18</v>
       </c>
       <c r="BH68">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="BI68">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BJ68">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK68">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="BL68">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BM68">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN68">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BO68">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="BP68">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14967,7 +14967,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7491559</v>
+        <v>7491558</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14979,70 +14979,70 @@
         <v>45570.33333333334</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="Q69">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S69">
         <v>3.1</v>
       </c>
       <c r="T69">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U69">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="V69">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="W69">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X69">
-        <v>5.55</v>
+        <v>5.15</v>
       </c>
       <c r="Y69">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z69">
         <v>2.38</v>
       </c>
       <c r="AA69">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB69">
         <v>2.6</v>
@@ -15054,118 +15054,118 @@
         <v>10</v>
       </c>
       <c r="AE69">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF69">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AG69">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AH69">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AI69">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AJ69">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AK69">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AL69">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
         <v>4</v>
       </c>
-      <c r="AV69">
-        <v>3</v>
-      </c>
       <c r="AW69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX69">
+        <v>11</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
+        <v>18</v>
+      </c>
+      <c r="BA69">
         <v>6</v>
       </c>
-      <c r="AY69">
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
         <v>11</v>
-      </c>
-      <c r="AZ69">
-        <v>9</v>
-      </c>
-      <c r="BA69">
-        <v>7</v>
-      </c>
-      <c r="BB69">
-        <v>3</v>
-      </c>
-      <c r="BC69">
-        <v>10</v>
       </c>
       <c r="BD69">
         <v>2.1</v>
       </c>
       <c r="BE69">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF69">
         <v>1.91</v>
       </c>
       <c r="BG69">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH69">
-        <v>5.05</v>
+        <v>4.25</v>
       </c>
       <c r="BI69">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BJ69">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="BK69">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="BL69">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BM69">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="BN69">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="BO69">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="BP69">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15173,7 +15173,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7491557</v>
+        <v>7491559</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15182,34 +15182,34 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45570.64583333334</v>
+        <v>45570.33333333334</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O70" t="s">
         <v>140</v>
@@ -15218,160 +15218,160 @@
         <v>188</v>
       </c>
       <c r="Q70">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
         <v>3.2</v>
       </c>
-      <c r="T70">
-        <v>1.25</v>
-      </c>
-      <c r="U70">
-        <v>3.45</v>
-      </c>
       <c r="V70">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="W70">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X70">
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="Y70">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="Z70">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="AA70">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="AB70">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AC70">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD70">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE70">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF70">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AG70">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AH70">
+        <v>2.28</v>
+      </c>
+      <c r="AI70">
+        <v>1.48</v>
+      </c>
+      <c r="AJ70">
         <v>2.4</v>
       </c>
-      <c r="AI70">
-        <v>1.42</v>
-      </c>
-      <c r="AJ70">
-        <v>2.62</v>
-      </c>
       <c r="AK70">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AL70">
         <v>1.22</v>
       </c>
       <c r="AM70">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AN70">
         <v>1</v>
       </c>
       <c r="AO70">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
-        <v>1.66</v>
+        <v>0.99</v>
       </c>
       <c r="AS70">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AT70">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX70">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ70">
         <v>17</v>
       </c>
       <c r="BA70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD70">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE70">
         <v>8.5</v>
       </c>
       <c r="BF70">
-        <v>2.62</v>
+        <v>1.91</v>
       </c>
       <c r="BG70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="BH70">
-        <v>4.8</v>
+        <v>5.05</v>
       </c>
       <c r="BI70">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ70">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BK70">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BL70">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="BM70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BN70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BO70">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="BP70">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15388,7 +15388,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45571.35416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -15514,31 +15514,31 @@
         <v>3.18</v>
       </c>
       <c r="AU71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD71">
         <v>1.82</v>
@@ -15594,7 +15594,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45571.35416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -15720,31 +15720,31 @@
         <v>3.16</v>
       </c>
       <c r="AU72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX72">
+        <v>10</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
         <v>6</v>
       </c>
-      <c r="AY72">
+      <c r="BB72">
         <v>8</v>
       </c>
-      <c r="AZ72">
-        <v>6</v>
-      </c>
-      <c r="BA72">
-        <v>3</v>
-      </c>
-      <c r="BB72">
-        <v>4</v>
-      </c>
       <c r="BC72">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD72">
         <v>2.1</v>
@@ -15800,7 +15800,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45571.35416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -15926,22 +15926,22 @@
         <v>3.02</v>
       </c>
       <c r="AU73">
+        <v>12</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
         <v>8</v>
       </c>
-      <c r="AV73">
-        <v>5</v>
-      </c>
-      <c r="AW73">
-        <v>16</v>
-      </c>
       <c r="AX73">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY73">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ73">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA73">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -430,15 +430,15 @@
     <t>['14', '65', '81']</t>
   </si>
   <si>
+    <t>['8', '47']</t>
+  </si>
+  <si>
+    <t>['8', '52', '78']</t>
+  </si>
+  <si>
     <t>['24', '33']</t>
   </si>
   <si>
-    <t>['8', '47']</t>
-  </si>
-  <si>
-    <t>['8', '52', '78']</t>
-  </si>
-  <si>
     <t>['15', '18']</t>
   </si>
   <si>
@@ -577,10 +577,10 @@
     <t>['15', '54', '74']</t>
   </si>
   <si>
+    <t>['16', '43']</t>
+  </si>
+  <si>
     <t>['9', '72']</t>
-  </si>
-  <si>
-    <t>['16', '43']</t>
   </si>
   <si>
     <t>['42', '75']</t>
@@ -14555,7 +14555,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7491557</v>
+        <v>7491553</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14564,196 +14564,196 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45569.875</v>
+        <v>45570.33333333334</v>
       </c>
       <c r="F67">
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>2</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="Q67">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="R67">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="S67">
-        <v>3.2</v>
+        <v>6.25</v>
       </c>
       <c r="T67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U67">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="V67">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W67">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X67">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y67">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Z67">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="AA67">
-        <v>3.83</v>
+        <v>5.5</v>
       </c>
       <c r="AB67">
-        <v>2.93</v>
+        <v>8.5</v>
       </c>
       <c r="AC67">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE67">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AF67">
+        <v>5.75</v>
+      </c>
+      <c r="AG67">
+        <v>1.54</v>
+      </c>
+      <c r="AH67">
+        <v>2.31</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.07</v>
+      </c>
+      <c r="AL67">
+        <v>1.1</v>
+      </c>
+      <c r="AM67">
+        <v>3.3</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.4</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>2.27</v>
+      </c>
+      <c r="AS67">
+        <v>1.24</v>
+      </c>
+      <c r="AT67">
+        <v>3.51</v>
+      </c>
+      <c r="AU67">
         <v>5</v>
       </c>
-      <c r="AG67">
-        <v>1.5</v>
-      </c>
-      <c r="AH67">
-        <v>2.4</v>
-      </c>
-      <c r="AI67">
-        <v>1.42</v>
-      </c>
-      <c r="AJ67">
-        <v>2.62</v>
-      </c>
-      <c r="AK67">
-        <v>1.42</v>
-      </c>
-      <c r="AL67">
-        <v>1.22</v>
-      </c>
-      <c r="AM67">
-        <v>1.62</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
-      <c r="AO67">
-        <v>2.33</v>
-      </c>
-      <c r="AP67">
-        <v>1</v>
-      </c>
-      <c r="AQ67">
-        <v>2</v>
-      </c>
-      <c r="AR67">
-        <v>1.66</v>
-      </c>
-      <c r="AS67">
-        <v>1.76</v>
-      </c>
-      <c r="AT67">
-        <v>3.42</v>
-      </c>
-      <c r="AU67">
-        <v>2</v>
-      </c>
       <c r="AV67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX67">
         <v>4</v>
       </c>
       <c r="AY67">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AZ67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC67">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD67">
-        <v>1.69</v>
+        <v>1.18</v>
       </c>
       <c r="BE67">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="BF67">
-        <v>2.62</v>
+        <v>6.16</v>
       </c>
       <c r="BG67">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="BH67">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="BI67">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BJ67">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="BK67">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BL67">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="BM67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BN67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BO67">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BP67">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14761,7 +14761,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7491553</v>
+        <v>7491558</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14776,82 +14776,82 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="P68" t="s">
         <v>92</v>
       </c>
       <c r="Q68">
-        <v>1.7</v>
+        <v>2.85</v>
       </c>
       <c r="R68">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="S68">
-        <v>6.25</v>
+        <v>3.1</v>
       </c>
       <c r="T68">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="U68">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="V68">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W68">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X68">
-        <v>4.6</v>
+        <v>5.15</v>
       </c>
       <c r="Y68">
+        <v>1.14</v>
+      </c>
+      <c r="Z68">
+        <v>2.38</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>2.6</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
         <v>1.18</v>
       </c>
-      <c r="Z68">
-        <v>1.29</v>
-      </c>
-      <c r="AA68">
-        <v>5.5</v>
-      </c>
-      <c r="AB68">
-        <v>8.5</v>
-      </c>
-      <c r="AC68">
-        <v>1.03</v>
-      </c>
-      <c r="AD68">
-        <v>11</v>
-      </c>
-      <c r="AE68">
-        <v>1.13</v>
-      </c>
       <c r="AF68">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="AG68">
         <v>1.54</v>
@@ -14860,106 +14860,106 @@
         <v>2.31</v>
       </c>
       <c r="AI68">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AJ68">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AK68">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="AL68">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO68">
+        <v>1.75</v>
+      </c>
+      <c r="AP68">
+        <v>1.75</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
         <v>1.33</v>
       </c>
-      <c r="AP68">
-        <v>1.4</v>
-      </c>
-      <c r="AQ68">
-        <v>1</v>
-      </c>
-      <c r="AR68">
-        <v>2.27</v>
-      </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>3.51</v>
+        <v>2.6</v>
       </c>
       <c r="AU68">
         <v>5</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX68">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY68">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AZ68">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="BA68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC68">
         <v>11</v>
       </c>
       <c r="BD68">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="BE68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF68">
-        <v>6.16</v>
+        <v>1.91</v>
       </c>
       <c r="BG68">
         <v>1.18</v>
       </c>
       <c r="BH68">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="BI68">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ68">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BK68">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BL68">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BM68">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN68">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BO68">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="BP68">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14967,7 +14967,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7491558</v>
+        <v>7491559</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14979,70 +14979,70 @@
         <v>45570.33333333334</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="Q69">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R69">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S69">
         <v>3.1</v>
       </c>
       <c r="T69">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U69">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="V69">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="W69">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X69">
-        <v>5.15</v>
+        <v>5.55</v>
       </c>
       <c r="Y69">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z69">
         <v>2.38</v>
       </c>
       <c r="AA69">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB69">
         <v>2.6</v>
@@ -15054,118 +15054,118 @@
         <v>10</v>
       </c>
       <c r="AE69">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF69">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG69">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AH69">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AI69">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AJ69">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AK69">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AL69">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM69">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT69">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW69">
         <v>6</v>
       </c>
       <c r="AX69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD69">
         <v>2.1</v>
       </c>
       <c r="BE69">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF69">
         <v>1.91</v>
       </c>
       <c r="BG69">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH69">
-        <v>4.25</v>
+        <v>5.05</v>
       </c>
       <c r="BI69">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BJ69">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BK69">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="BL69">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BM69">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BN69">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="BO69">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="BP69">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15173,7 +15173,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7491559</v>
+        <v>7491557</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15182,34 +15182,34 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45570.33333333334</v>
+        <v>45570.64583333334</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O70" t="s">
         <v>140</v>
@@ -15218,160 +15218,160 @@
         <v>188</v>
       </c>
       <c r="Q70">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T70">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U70">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="V70">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="W70">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X70">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="Y70">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="Z70">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="AA70">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="AB70">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AC70">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE70">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF70">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG70">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AH70">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="AI70">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AJ70">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="AK70">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AL70">
         <v>1.22</v>
       </c>
       <c r="AM70">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AN70">
         <v>1</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AR70">
-        <v>0.99</v>
+        <v>1.66</v>
       </c>
       <c r="AS70">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="AT70">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="AU70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW70">
         <v>6</v>
       </c>
       <c r="AX70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY70">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AZ70">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BA70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD70">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE70">
         <v>8.5</v>
       </c>
       <c r="BF70">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="BG70">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="BH70">
-        <v>5.05</v>
+        <v>4.8</v>
       </c>
       <c r="BI70">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BJ70">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="BK70">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BL70">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="BM70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BN70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BO70">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="BP70">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15388,7 +15388,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45570.875</v>
+        <v>45571.35416666666</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -15594,7 +15594,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45570.875</v>
+        <v>45571.35416666666</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -15800,7 +15800,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45570.875</v>
+        <v>45571.35416666666</v>
       </c>
       <c r="F73">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,12 +262,12 @@
     <t>Nürnberg</t>
   </si>
   <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
     <t>Fortuna Düsseldorf</t>
   </si>
   <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
@@ -325,27 +325,27 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['18', '48', '75']</t>
+  </si>
+  <si>
     <t>['49']</t>
   </si>
   <si>
-    <t>['18', '48', '75']</t>
-  </si>
-  <si>
     <t>['90', '90+6']</t>
   </si>
   <si>
     <t>['26', '34', '58', '61', '88']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['39', '45+2']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -358,27 +358,27 @@
     <t>['32', '45', '68']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['19', '78', '90+1']</t>
   </si>
   <si>
     <t>['45+3', '73']</t>
   </si>
   <si>
-    <t>['19', '78', '90+1']</t>
-  </si>
-  <si>
     <t>['6', '73', '90+5']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['1', '14', '76', '89', '90+3']</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>['32', '50']</t>
   </si>
   <si>
+    <t>['5', '78']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
-    <t>['5', '78']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -445,6 +445,12 @@
     <t>['20', '90+3']</t>
   </si>
   <si>
+    <t>['11', '40', '54', '65', '90+4']</t>
+  </si>
+  <si>
+    <t>['52', '72', '83']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -487,15 +493,15 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['81', '82']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['8', '76']</t>
   </si>
   <si>
-    <t>['81', '82']</t>
-  </si>
-  <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['4', '49', '77', '88']</t>
   </si>
   <si>
@@ -508,12 +514,12 @@
     <t>['28', '51', '64', '79']</t>
   </si>
   <si>
+    <t>['25', '45+1', '46']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
-    <t>['25', '45+1', '46']</t>
-  </si>
-  <si>
     <t>['37', '46', '85']</t>
   </si>
   <si>
@@ -544,12 +550,12 @@
     <t>['58', '90+5']</t>
   </si>
   <si>
+    <t>['24', '30']</t>
+  </si>
+  <si>
     <t>['28', '60', '77']</t>
   </si>
   <si>
-    <t>['24', '30']</t>
-  </si>
-  <si>
     <t>['29', '60', '71']</t>
   </si>
   <si>
@@ -559,12 +565,12 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['22', '48']</t>
+  </si>
+  <si>
     <t>['46', '60']</t>
   </si>
   <si>
-    <t>['22', '48']</t>
-  </si>
-  <si>
     <t>['67', '74']</t>
   </si>
   <si>
@@ -583,10 +589,13 @@
     <t>['9', '72']</t>
   </si>
   <si>
+    <t>['8', '83', '90']</t>
+  </si>
+  <si>
     <t>['42', '75']</t>
   </si>
   <si>
-    <t>['8', '83', '90']</t>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1216,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1413,7 +1422,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1825,7 +1834,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1903,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2007,7 +2016,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2237,7 +2246,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2318,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2419,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2443,7 +2452,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2521,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2649,7 +2658,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2855,7 +2864,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3267,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3637,7 +3646,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491499</v>
+        <v>7491502</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3655,113 +3664,113 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="Q14">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S14">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="T14">
+        <v>1.36</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>2.63</v>
+      </c>
+      <c r="W14">
+        <v>1.44</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <v>1.1</v>
+      </c>
+      <c r="Z14">
+        <v>3.2</v>
+      </c>
+      <c r="AA14">
+        <v>3.75</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>1.01</v>
+      </c>
+      <c r="AD14">
+        <v>10.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.21</v>
+      </c>
+      <c r="AF14">
+        <v>3.75</v>
+      </c>
+      <c r="AG14">
+        <v>1.62</v>
+      </c>
+      <c r="AH14">
+        <v>2.2</v>
+      </c>
+      <c r="AI14">
+        <v>1.67</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.83</v>
+      </c>
+      <c r="AL14">
         <v>1.28</v>
       </c>
-      <c r="U14">
-        <v>3.4</v>
-      </c>
-      <c r="V14">
-        <v>2.2</v>
-      </c>
-      <c r="W14">
-        <v>1.6</v>
-      </c>
-      <c r="X14">
-        <v>4.85</v>
-      </c>
-      <c r="Y14">
-        <v>1.16</v>
-      </c>
-      <c r="Z14">
-        <v>1.91</v>
-      </c>
-      <c r="AA14">
-        <v>3.97</v>
-      </c>
-      <c r="AB14">
-        <v>3.66</v>
-      </c>
-      <c r="AC14">
-        <v>1.03</v>
-      </c>
-      <c r="AD14">
-        <v>11</v>
-      </c>
-      <c r="AE14">
-        <v>1.18</v>
-      </c>
-      <c r="AF14">
-        <v>4.75</v>
-      </c>
-      <c r="AG14">
-        <v>1.55</v>
-      </c>
-      <c r="AH14">
-        <v>2.45</v>
-      </c>
-      <c r="AI14">
-        <v>1.45</v>
-      </c>
-      <c r="AJ14">
-        <v>2.5</v>
-      </c>
-      <c r="AK14">
+      <c r="AM14">
+        <v>1.29</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1.75</v>
+      </c>
+      <c r="AQ14">
         <v>1.25</v>
       </c>
-      <c r="AL14">
-        <v>1.22</v>
-      </c>
-      <c r="AM14">
-        <v>1.85</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1.25</v>
-      </c>
-      <c r="AQ14">
-        <v>1.5</v>
-      </c>
       <c r="AR14">
         <v>0</v>
       </c>
@@ -3772,70 +3781,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV14">
+        <v>10</v>
+      </c>
+      <c r="AW14">
         <v>3</v>
-      </c>
-      <c r="AW14">
-        <v>12</v>
       </c>
       <c r="AX14">
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="BA14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BC14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BD14">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="BE14">
         <v>8.5</v>
       </c>
       <c r="BF14">
-        <v>2.43</v>
+        <v>1.82</v>
       </c>
       <c r="BG14">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH14">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI14">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ14">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK14">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BL14">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="BM14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN14">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO14">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BP14">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3843,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7491502</v>
+        <v>7491499</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3861,187 +3870,187 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="R15">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T15">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.2</v>
+      </c>
+      <c r="W15">
+        <v>1.6</v>
+      </c>
+      <c r="X15">
+        <v>4.85</v>
+      </c>
+      <c r="Y15">
+        <v>1.16</v>
+      </c>
+      <c r="Z15">
+        <v>1.91</v>
+      </c>
+      <c r="AA15">
+        <v>3.97</v>
+      </c>
+      <c r="AB15">
+        <v>3.66</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
+      <c r="AE15">
+        <v>1.18</v>
+      </c>
+      <c r="AF15">
+        <v>4.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.55</v>
+      </c>
+      <c r="AH15">
+        <v>2.45</v>
+      </c>
+      <c r="AI15">
+        <v>1.45</v>
+      </c>
+      <c r="AJ15">
+        <v>2.5</v>
+      </c>
+      <c r="AK15">
+        <v>1.25</v>
+      </c>
+      <c r="AL15">
+        <v>1.22</v>
+      </c>
+      <c r="AM15">
+        <v>1.85</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1.25</v>
+      </c>
+      <c r="AQ15">
+        <v>1.5</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
         <v>3</v>
       </c>
-      <c r="V15">
-        <v>2.63</v>
-      </c>
-      <c r="W15">
-        <v>1.44</v>
-      </c>
-      <c r="X15">
-        <v>7</v>
-      </c>
-      <c r="Y15">
-        <v>1.1</v>
-      </c>
-      <c r="Z15">
-        <v>3.2</v>
-      </c>
-      <c r="AA15">
-        <v>3.75</v>
-      </c>
-      <c r="AB15">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>1.01</v>
-      </c>
-      <c r="AD15">
-        <v>10.5</v>
-      </c>
-      <c r="AE15">
-        <v>1.21</v>
-      </c>
-      <c r="AF15">
-        <v>3.75</v>
-      </c>
-      <c r="AG15">
-        <v>1.62</v>
-      </c>
-      <c r="AH15">
-        <v>2.2</v>
-      </c>
-      <c r="AI15">
-        <v>1.67</v>
-      </c>
-      <c r="AJ15">
-        <v>2.1</v>
-      </c>
-      <c r="AK15">
-        <v>1.83</v>
-      </c>
-      <c r="AL15">
-        <v>1.28</v>
-      </c>
-      <c r="AM15">
-        <v>1.29</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>1.75</v>
-      </c>
-      <c r="AQ15">
-        <v>1.67</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>4</v>
-      </c>
-      <c r="AV15">
-        <v>10</v>
-      </c>
       <c r="AW15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX15">
         <v>4</v>
       </c>
       <c r="AY15">
+        <v>21</v>
+      </c>
+      <c r="AZ15">
         <v>10</v>
       </c>
-      <c r="AZ15">
-        <v>23</v>
-      </c>
       <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
         <v>4</v>
       </c>
-      <c r="BB15">
-        <v>13</v>
-      </c>
       <c r="BC15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BD15">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>1.82</v>
+        <v>2.43</v>
       </c>
       <c r="BG15">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH15">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BI15">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BJ15">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK15">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BL15">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="BM15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN15">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO15">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BP15">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4091,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4297,7 +4306,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4503,7 +4512,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4873,7 +4882,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7491511</v>
+        <v>7491510</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4888,88 +4897,88 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O20" t="s">
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R20">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V20">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W20">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X20">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z20">
-        <v>2.44</v>
+        <v>1.77</v>
       </c>
       <c r="AA20">
-        <v>3.72</v>
+        <v>3.92</v>
       </c>
       <c r="AB20">
-        <v>2.62</v>
+        <v>4.18</v>
       </c>
       <c r="AC20">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD20">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE20">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AF20">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="AG20">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AH20">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="AI20">
         <v>1.5</v>
@@ -4978,100 +4987,100 @@
         <v>2.5</v>
       </c>
       <c r="AK20">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AL20">
         <v>1.22</v>
       </c>
       <c r="AM20">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AN20">
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AS20">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT20">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="AU20">
+        <v>8</v>
+      </c>
+      <c r="AV20">
         <v>4</v>
       </c>
-      <c r="AV20">
-        <v>2</v>
-      </c>
       <c r="AW20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB20">
         <v>3</v>
       </c>
       <c r="BC20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD20">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="BE20">
-        <v>6.85</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF20">
-        <v>2.39</v>
+        <v>4.55</v>
       </c>
       <c r="BG20">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH20">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI20">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ20">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BK20">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL20">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN20">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BO20">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP20">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5079,7 +5088,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491510</v>
+        <v>7491511</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5094,88 +5103,88 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T21">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V21">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W21">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
+        <v>1.14</v>
+      </c>
+      <c r="Z21">
+        <v>2.44</v>
+      </c>
+      <c r="AA21">
+        <v>3.72</v>
+      </c>
+      <c r="AB21">
+        <v>2.62</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
         <v>1.17</v>
       </c>
-      <c r="Z21">
-        <v>1.77</v>
-      </c>
-      <c r="AA21">
-        <v>3.92</v>
-      </c>
-      <c r="AB21">
-        <v>4.18</v>
-      </c>
-      <c r="AC21">
-        <v>1.02</v>
-      </c>
-      <c r="AD21">
-        <v>22</v>
-      </c>
-      <c r="AE21">
-        <v>1.1</v>
-      </c>
       <c r="AF21">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="AG21">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AH21">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="AI21">
         <v>1.5</v>
@@ -5184,100 +5193,100 @@
         <v>2.5</v>
       </c>
       <c r="AK21">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AL21">
         <v>1.22</v>
       </c>
       <c r="AM21">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS21">
-        <v>0.8100000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AT21">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="AU21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
         <v>4</v>
       </c>
-      <c r="AW21">
-        <v>5</v>
-      </c>
       <c r="AX21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB21">
         <v>3</v>
       </c>
       <c r="BC21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD21">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="BE21">
-        <v>8.199999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="BF21">
-        <v>4.55</v>
+        <v>2.39</v>
       </c>
       <c r="BG21">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH21">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI21">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ21">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK21">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL21">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BO21">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BP21">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5285,7 +5294,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491512</v>
+        <v>7491516</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5300,10 +5309,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5315,175 +5324,175 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q22">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>2.85</v>
+      </c>
+      <c r="AA22">
+        <v>3.55</v>
+      </c>
+      <c r="AB22">
         <v>2.4</v>
       </c>
-      <c r="S22">
-        <v>3.1</v>
-      </c>
-      <c r="T22">
-        <v>1.29</v>
-      </c>
-      <c r="U22">
-        <v>3.5</v>
-      </c>
-      <c r="V22">
-        <v>2.25</v>
-      </c>
-      <c r="W22">
-        <v>1.57</v>
-      </c>
-      <c r="X22">
-        <v>5.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.14</v>
-      </c>
-      <c r="Z22">
-        <v>2.4</v>
-      </c>
-      <c r="AA22">
-        <v>3.75</v>
-      </c>
-      <c r="AB22">
-        <v>2.7</v>
-      </c>
       <c r="AC22">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD22">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AE22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF22">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AG22">
         <v>1.64</v>
       </c>
       <c r="AH22">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AI22">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AJ22">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AK22">
+        <v>1.53</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
         <v>1.47</v>
       </c>
-      <c r="AL22">
-        <v>1.2</v>
-      </c>
-      <c r="AM22">
-        <v>1.57</v>
-      </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AT22">
-        <v>3.49</v>
+        <v>2.68</v>
       </c>
       <c r="AU22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY22">
         <v>16</v>
       </c>
       <c r="AZ22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD22">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE22">
         <v>8</v>
       </c>
       <c r="BF22">
-        <v>2.42</v>
+        <v>1.91</v>
       </c>
       <c r="BG22">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH22">
         <v>4.25</v>
       </c>
       <c r="BI22">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BJ22">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BK22">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BL22">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM22">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BN22">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BO22">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BP22">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5491,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491513</v>
+        <v>7491512</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5506,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5521,154 +5530,154 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="Q23">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="R23">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S23">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
+        <v>2.25</v>
+      </c>
+      <c r="W23">
+        <v>1.57</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.14</v>
+      </c>
+      <c r="Z23">
+        <v>2.4</v>
+      </c>
+      <c r="AA23">
+        <v>3.75</v>
+      </c>
+      <c r="AB23">
+        <v>2.7</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>18.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>4.33</v>
+      </c>
+      <c r="AG23">
+        <v>1.64</v>
+      </c>
+      <c r="AH23">
+        <v>2.13</v>
+      </c>
+      <c r="AI23">
+        <v>1.44</v>
+      </c>
+      <c r="AJ23">
+        <v>2.63</v>
+      </c>
+      <c r="AK23">
+        <v>1.47</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
+        <v>1.57</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
         <v>1.25</v>
       </c>
-      <c r="U23">
-        <v>3.75</v>
-      </c>
-      <c r="V23">
-        <v>2.2</v>
-      </c>
-      <c r="W23">
-        <v>1.62</v>
-      </c>
-      <c r="X23">
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>2.28</v>
+      </c>
+      <c r="AS23">
+        <v>1.21</v>
+      </c>
+      <c r="AT23">
+        <v>3.49</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
         <v>5</v>
       </c>
-      <c r="Y23">
-        <v>1.17</v>
-      </c>
-      <c r="Z23">
-        <v>1.67</v>
-      </c>
-      <c r="AA23">
-        <v>3.95</v>
-      </c>
-      <c r="AB23">
-        <v>4.8</v>
-      </c>
-      <c r="AC23">
-        <v>1.02</v>
-      </c>
-      <c r="AD23">
-        <v>12</v>
-      </c>
-      <c r="AE23">
-        <v>1.18</v>
-      </c>
-      <c r="AF23">
-        <v>4.75</v>
-      </c>
-      <c r="AG23">
-        <v>1.61</v>
-      </c>
-      <c r="AH23">
-        <v>2.23</v>
-      </c>
-      <c r="AI23">
-        <v>1.53</v>
-      </c>
-      <c r="AJ23">
-        <v>2.38</v>
-      </c>
-      <c r="AK23">
-        <v>1.16</v>
-      </c>
-      <c r="AL23">
-        <v>1.18</v>
-      </c>
-      <c r="AM23">
-        <v>2.15</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0.75</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1.29</v>
-      </c>
-      <c r="AS23">
-        <v>1.2</v>
-      </c>
-      <c r="AT23">
-        <v>2.49</v>
-      </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>3</v>
       </c>
-      <c r="AV23">
-        <v>3</v>
-      </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>6</v>
-      </c>
-      <c r="AX23">
-        <v>7</v>
       </c>
       <c r="AY23">
         <v>16</v>
       </c>
       <c r="AZ23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23">
+        <v>7</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>1.75</v>
+      </c>
+      <c r="BE23">
         <v>8</v>
       </c>
-      <c r="BB23">
-        <v>2</v>
-      </c>
-      <c r="BC23">
-        <v>10</v>
-      </c>
-      <c r="BD23">
-        <v>1.55</v>
-      </c>
-      <c r="BE23">
-        <v>8.5</v>
-      </c>
       <c r="BF23">
-        <v>2.91</v>
+        <v>2.42</v>
       </c>
       <c r="BG23">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="BH23">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="BI23">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BJ23">
         <v>3.1</v>
@@ -5680,16 +5689,16 @@
         <v>2.2</v>
       </c>
       <c r="BM23">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BN23">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO23">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP23">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5697,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491516</v>
+        <v>7491513</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5712,10 +5721,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5727,73 +5736,73 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
         <v>92</v>
       </c>
-      <c r="P24" t="s">
-        <v>152</v>
-      </c>
       <c r="Q24">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R24">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T24">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V24">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Z24">
-        <v>2.85</v>
+        <v>1.67</v>
       </c>
       <c r="AA24">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="AB24">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC24">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE24">
         <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG24">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AH24">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AI24">
         <v>1.53</v>
@@ -5802,100 +5811,100 @@
         <v>2.38</v>
       </c>
       <c r="AK24">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="AL24">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM24">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1.2</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1.29</v>
+      </c>
+      <c r="AS24">
+        <v>1.2</v>
+      </c>
+      <c r="AT24">
+        <v>2.49</v>
+      </c>
+      <c r="AU24">
         <v>3</v>
       </c>
-      <c r="AP24">
-        <v>0.5</v>
-      </c>
-      <c r="AQ24">
-        <v>1.4</v>
-      </c>
-      <c r="AR24">
-        <v>1.26</v>
-      </c>
-      <c r="AS24">
-        <v>1.42</v>
-      </c>
-      <c r="AT24">
-        <v>2.68</v>
-      </c>
-      <c r="AU24">
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
         <v>7</v>
-      </c>
-      <c r="AV24">
-        <v>6</v>
-      </c>
-      <c r="AW24">
-        <v>8</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
       </c>
       <c r="AY24">
         <v>16</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB24">
         <v>2</v>
       </c>
       <c r="BC24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD24">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="BE24">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF24">
-        <v>1.91</v>
+        <v>2.91</v>
       </c>
       <c r="BG24">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH24">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="BI24">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BJ24">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK24">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BL24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM24">
         <v>2</v>
       </c>
       <c r="BN24">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BO24">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP24">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -6026,7 +6035,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6109,7 +6118,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7491514</v>
+        <v>7491515</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6124,190 +6133,190 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
         <v>3</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
       </c>
       <c r="O26" t="s">
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q26">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R26">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S26">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U26">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V26">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W26">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X26">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y26">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z26">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA26">
         <v>3.6</v>
       </c>
       <c r="AB26">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="AC26">
         <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE26">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AF26">
-        <v>4.65</v>
+        <v>3.75</v>
       </c>
       <c r="AG26">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AH26">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AI26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ26">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK26">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="AL26">
+        <v>1.27</v>
+      </c>
+      <c r="AM26">
+        <v>1.25</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>0.75</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
         <v>1.22</v>
       </c>
-      <c r="AM26">
-        <v>1.57</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26">
-        <v>1</v>
-      </c>
-      <c r="AR26">
-        <v>1.96</v>
-      </c>
       <c r="AS26">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT26">
-        <v>3.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU26">
         <v>9</v>
       </c>
       <c r="AV26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY26">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD26">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="BG26">
         <v>1.2</v>
       </c>
       <c r="BH26">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BI26">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BJ26">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BK26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BL26">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BM26">
         <v>2</v>
       </c>
       <c r="BN26">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="BO26">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BP26">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6315,7 +6324,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7491515</v>
+        <v>7491509</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6330,10 +6339,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6348,172 +6357,172 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q27">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="R27">
         <v>2.3</v>
       </c>
       <c r="S27">
+        <v>3.5</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>3.4</v>
+      </c>
+      <c r="V27">
         <v>2.5</v>
       </c>
-      <c r="T27">
-        <v>1.33</v>
-      </c>
-      <c r="U27">
-        <v>3.25</v>
-      </c>
-      <c r="V27">
-        <v>2.63</v>
-      </c>
       <c r="W27">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X27">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y27">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z27">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="AA27">
         <v>3.6</v>
       </c>
       <c r="AB27">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="AC27">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD27">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE27">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF27">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG27">
+        <v>1.57</v>
+      </c>
+      <c r="AH27">
+        <v>2.3</v>
+      </c>
+      <c r="AI27">
+        <v>1.53</v>
+      </c>
+      <c r="AJ27">
+        <v>2.38</v>
+      </c>
+      <c r="AK27">
+        <v>1.38</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>1.65</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1.43</v>
+      </c>
+      <c r="AS27">
+        <v>1.27</v>
+      </c>
+      <c r="AT27">
+        <v>2.7</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>20</v>
+      </c>
+      <c r="AZ27">
+        <v>6</v>
+      </c>
+      <c r="BA27">
+        <v>13</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>15</v>
+      </c>
+      <c r="BD27">
         <v>1.75</v>
-      </c>
-      <c r="AH27">
-        <v>2.05</v>
-      </c>
-      <c r="AI27">
-        <v>1.67</v>
-      </c>
-      <c r="AJ27">
-        <v>2.1</v>
-      </c>
-      <c r="AK27">
-        <v>1.94</v>
-      </c>
-      <c r="AL27">
-        <v>1.27</v>
-      </c>
-      <c r="AM27">
-        <v>1.25</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>3</v>
-      </c>
-      <c r="AP27">
-        <v>0.75</v>
-      </c>
-      <c r="AQ27">
-        <v>3</v>
-      </c>
-      <c r="AR27">
-        <v>1.22</v>
-      </c>
-      <c r="AS27">
-        <v>1.22</v>
-      </c>
-      <c r="AT27">
-        <v>2.44</v>
-      </c>
-      <c r="AU27">
-        <v>9</v>
-      </c>
-      <c r="AV27">
-        <v>6</v>
-      </c>
-      <c r="AW27">
-        <v>9</v>
-      </c>
-      <c r="AX27">
-        <v>6</v>
-      </c>
-      <c r="AY27">
-        <v>23</v>
-      </c>
-      <c r="AZ27">
-        <v>13</v>
-      </c>
-      <c r="BA27">
-        <v>6</v>
-      </c>
-      <c r="BB27">
-        <v>5</v>
-      </c>
-      <c r="BC27">
-        <v>11</v>
-      </c>
-      <c r="BD27">
-        <v>2.33</v>
       </c>
       <c r="BE27">
         <v>8</v>
       </c>
       <c r="BF27">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="BG27">
         <v>1.2</v>
       </c>
       <c r="BH27">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BI27">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BJ27">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BK27">
+        <v>1.66</v>
+      </c>
+      <c r="BL27">
+        <v>2.07</v>
+      </c>
+      <c r="BM27">
+        <v>2.08</v>
+      </c>
+      <c r="BN27">
         <v>1.65</v>
       </c>
-      <c r="BL27">
-        <v>2.1</v>
-      </c>
-      <c r="BM27">
-        <v>2</v>
-      </c>
-      <c r="BN27">
-        <v>1.73</v>
-      </c>
       <c r="BO27">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BP27">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6521,7 +6530,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7491509</v>
+        <v>7491514</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6536,160 +6545,160 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s">
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q28">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R28">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S28">
+        <v>3.2</v>
+      </c>
+      <c r="T28">
+        <v>1.29</v>
+      </c>
+      <c r="U28">
         <v>3.5</v>
       </c>
-      <c r="T28">
-        <v>1.3</v>
-      </c>
-      <c r="U28">
-        <v>3.4</v>
-      </c>
       <c r="V28">
+        <v>2.38</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>5.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.14</v>
+      </c>
+      <c r="Z28">
         <v>2.5</v>
-      </c>
-      <c r="W28">
-        <v>1.5</v>
-      </c>
-      <c r="X28">
-        <v>6</v>
-      </c>
-      <c r="Y28">
-        <v>1.13</v>
-      </c>
-      <c r="Z28">
-        <v>2.2</v>
       </c>
       <c r="AA28">
         <v>3.6</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AC28">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD28">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AE28">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF28">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="AG28">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AH28">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AI28">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ28">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK28">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AL28">
         <v>1.22</v>
       </c>
       <c r="AM28">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.43</v>
+        <v>1.96</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="AT28">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="AU28">
+        <v>9</v>
+      </c>
+      <c r="AV28">
         <v>8</v>
       </c>
-      <c r="AV28">
-        <v>5</v>
-      </c>
       <c r="AW28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ28">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA28">
+        <v>9</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
         <v>13</v>
       </c>
-      <c r="BB28">
-        <v>2</v>
-      </c>
-      <c r="BC28">
-        <v>15</v>
-      </c>
       <c r="BD28">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BE28">
         <v>8</v>
       </c>
       <c r="BF28">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="BG28">
         <v>1.2</v>
@@ -6704,22 +6713,22 @@
         <v>2.75</v>
       </c>
       <c r="BK28">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BL28">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="BM28">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BN28">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BO28">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BP28">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6742,7 +6751,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
         <v>72</v>
@@ -6975,7 +6984,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7181,7 +7190,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7360,7 +7369,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
@@ -7593,7 +7602,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7799,7 +7808,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7963,7 +7972,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7491524</v>
+        <v>7491519</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7978,124 +7987,124 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="Q35">
-        <v>3.91</v>
+        <v>2.1</v>
       </c>
       <c r="R35">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="S35">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U35">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V35">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="W35">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X35">
-        <v>4.95</v>
+        <v>6.25</v>
       </c>
       <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>1.58</v>
+      </c>
+      <c r="AA35">
+        <v>3.95</v>
+      </c>
+      <c r="AB35">
+        <v>5.25</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>12</v>
+      </c>
+      <c r="AE35">
+        <v>1.18</v>
+      </c>
+      <c r="AF35">
+        <v>4.4</v>
+      </c>
+      <c r="AG35">
+        <v>1.71</v>
+      </c>
+      <c r="AH35">
+        <v>2.15</v>
+      </c>
+      <c r="AI35">
+        <v>1.72</v>
+      </c>
+      <c r="AJ35">
+        <v>2.06</v>
+      </c>
+      <c r="AK35">
         <v>1.14</v>
-      </c>
-      <c r="Z35">
-        <v>3.4</v>
-      </c>
-      <c r="AA35">
-        <v>3.85</v>
-      </c>
-      <c r="AB35">
-        <v>1.92</v>
-      </c>
-      <c r="AC35">
-        <v>1.04</v>
-      </c>
-      <c r="AD35">
-        <v>10</v>
-      </c>
-      <c r="AE35">
-        <v>1.17</v>
-      </c>
-      <c r="AF35">
-        <v>5</v>
-      </c>
-      <c r="AG35">
-        <v>1.5</v>
-      </c>
-      <c r="AH35">
-        <v>2.48</v>
-      </c>
-      <c r="AI35">
-        <v>1.47</v>
-      </c>
-      <c r="AJ35">
-        <v>2.55</v>
-      </c>
-      <c r="AK35">
-        <v>1.8</v>
       </c>
       <c r="AL35">
         <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="AS35">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AT35">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="AU35">
         <v>2</v>
@@ -8104,64 +8113,64 @@
         <v>4</v>
       </c>
       <c r="AW35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX35">
+        <v>3</v>
+      </c>
+      <c r="AY35">
+        <v>17</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
         <v>8</v>
       </c>
-      <c r="AY35">
+      <c r="BD35">
+        <v>1.45</v>
+      </c>
+      <c r="BE35">
         <v>9</v>
       </c>
-      <c r="AZ35">
-        <v>13</v>
-      </c>
-      <c r="BA35">
-        <v>1</v>
-      </c>
-      <c r="BB35">
-        <v>6</v>
-      </c>
-      <c r="BC35">
-        <v>7</v>
-      </c>
-      <c r="BD35">
-        <v>2.41</v>
-      </c>
-      <c r="BE35">
-        <v>8.5</v>
-      </c>
       <c r="BF35">
-        <v>1.75</v>
+        <v>3.32</v>
       </c>
       <c r="BG35">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH35">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BI35">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ35">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK35">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="BL35">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM35">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN35">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BO35">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP35">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8208,10 +8217,10 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8292,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8375,7 +8384,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7491519</v>
+        <v>7491524</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8390,124 +8399,124 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="Q37">
-        <v>2.1</v>
+        <v>3.91</v>
       </c>
       <c r="R37">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="S37">
+        <v>2.45</v>
+      </c>
+      <c r="T37">
+        <v>1.28</v>
+      </c>
+      <c r="U37">
+        <v>3.4</v>
+      </c>
+      <c r="V37">
+        <v>2.26</v>
+      </c>
+      <c r="W37">
+        <v>1.64</v>
+      </c>
+      <c r="X37">
+        <v>4.95</v>
+      </c>
+      <c r="Y37">
+        <v>1.14</v>
+      </c>
+      <c r="Z37">
+        <v>3.4</v>
+      </c>
+      <c r="AA37">
+        <v>3.85</v>
+      </c>
+      <c r="AB37">
+        <v>1.92</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>10</v>
+      </c>
+      <c r="AE37">
+        <v>1.17</v>
+      </c>
+      <c r="AF37">
         <v>5</v>
       </c>
-      <c r="T37">
-        <v>1.27</v>
-      </c>
-      <c r="U37">
-        <v>3.35</v>
-      </c>
-      <c r="V37">
-        <v>2.5</v>
-      </c>
-      <c r="W37">
-        <v>1.46</v>
-      </c>
-      <c r="X37">
-        <v>6.25</v>
-      </c>
-      <c r="Y37">
-        <v>1.1</v>
-      </c>
-      <c r="Z37">
-        <v>1.58</v>
-      </c>
-      <c r="AA37">
-        <v>3.95</v>
-      </c>
-      <c r="AB37">
-        <v>5.25</v>
-      </c>
-      <c r="AC37">
-        <v>1.01</v>
-      </c>
-      <c r="AD37">
-        <v>12</v>
-      </c>
-      <c r="AE37">
-        <v>1.18</v>
-      </c>
-      <c r="AF37">
-        <v>4.4</v>
-      </c>
       <c r="AG37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AH37">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="AI37">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AJ37">
-        <v>2.06</v>
+        <v>2.55</v>
       </c>
       <c r="AK37">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL37">
         <v>1.22</v>
       </c>
       <c r="AM37">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="AS37">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AT37">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8516,64 +8525,64 @@
         <v>4</v>
       </c>
       <c r="AW37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY37">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD37">
-        <v>1.45</v>
+        <v>2.41</v>
       </c>
       <c r="BE37">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF37">
-        <v>3.32</v>
+        <v>1.75</v>
       </c>
       <c r="BG37">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH37">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BI37">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ37">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK37">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="BL37">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM37">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN37">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BO37">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP37">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8581,7 +8590,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7491529</v>
+        <v>7491534</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8596,172 +8605,172 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="Q38">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R38">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T38">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U38">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V38">
+        <v>2.25</v>
+      </c>
+      <c r="W38">
+        <v>1.57</v>
+      </c>
+      <c r="X38">
+        <v>5.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.14</v>
+      </c>
+      <c r="Z38">
+        <v>3.2</v>
+      </c>
+      <c r="AA38">
+        <v>3.8</v>
+      </c>
+      <c r="AB38">
         <v>2.1</v>
-      </c>
-      <c r="W38">
-        <v>1.67</v>
-      </c>
-      <c r="X38">
-        <v>4.5</v>
-      </c>
-      <c r="Y38">
-        <v>1.18</v>
-      </c>
-      <c r="Z38">
-        <v>1.95</v>
-      </c>
-      <c r="AA38">
-        <v>3.9</v>
-      </c>
-      <c r="AB38">
-        <v>3.5</v>
       </c>
       <c r="AC38">
         <v>1.01</v>
       </c>
       <c r="AD38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE38">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AF38">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG38">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AH38">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AI38">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ38">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK38">
+        <v>1.72</v>
+      </c>
+      <c r="AL38">
         <v>1.2</v>
       </c>
-      <c r="AL38">
-        <v>1.18</v>
-      </c>
       <c r="AM38">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
         <v>0.5</v>
       </c>
-      <c r="AP38">
-        <v>2.5</v>
-      </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AS38">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AT38">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="AU38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX38">
         <v>6</v>
       </c>
       <c r="AY38">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BA38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD38">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE38">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF38">
-        <v>2.62</v>
+        <v>1.91</v>
       </c>
       <c r="BG38">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH38">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="BI38">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="BJ38">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK38">
         <v>1.65</v>
@@ -8787,7 +8796,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491534</v>
+        <v>7491529</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8802,172 +8811,172 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="Q39">
+        <v>2.3</v>
+      </c>
+      <c r="R39">
+        <v>2.6</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.22</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <v>2.1</v>
+      </c>
+      <c r="W39">
+        <v>1.67</v>
+      </c>
+      <c r="X39">
+        <v>4.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.18</v>
+      </c>
+      <c r="Z39">
+        <v>1.95</v>
+      </c>
+      <c r="AA39">
+        <v>3.9</v>
+      </c>
+      <c r="AB39">
         <v>3.5</v>
-      </c>
-      <c r="R39">
-        <v>2.4</v>
-      </c>
-      <c r="S39">
-        <v>2.63</v>
-      </c>
-      <c r="T39">
-        <v>1.29</v>
-      </c>
-      <c r="U39">
-        <v>3.5</v>
-      </c>
-      <c r="V39">
-        <v>2.25</v>
-      </c>
-      <c r="W39">
-        <v>1.57</v>
-      </c>
-      <c r="X39">
-        <v>5.5</v>
-      </c>
-      <c r="Y39">
-        <v>1.14</v>
-      </c>
-      <c r="Z39">
-        <v>3.2</v>
-      </c>
-      <c r="AA39">
-        <v>3.8</v>
-      </c>
-      <c r="AB39">
-        <v>2.1</v>
       </c>
       <c r="AC39">
         <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE39">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AF39">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AG39">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AH39">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AI39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ39">
+        <v>2.63</v>
+      </c>
+      <c r="AK39">
+        <v>1.2</v>
+      </c>
+      <c r="AL39">
+        <v>1.18</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
         <v>2.5</v>
       </c>
-      <c r="AK39">
-        <v>1.72</v>
-      </c>
-      <c r="AL39">
-        <v>1.2</v>
-      </c>
-      <c r="AM39">
-        <v>1.36</v>
-      </c>
-      <c r="AN39">
-        <v>0.5</v>
-      </c>
-      <c r="AO39">
-        <v>2</v>
-      </c>
-      <c r="AP39">
-        <v>0.5</v>
-      </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AS39">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="AU39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX39">
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ39">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
         <v>7</v>
       </c>
-      <c r="BB39">
-        <v>6</v>
-      </c>
-      <c r="BC39">
-        <v>13</v>
-      </c>
       <c r="BD39">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE39">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF39">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="BG39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH39">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="BI39">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BJ39">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK39">
         <v>1.65</v>
@@ -9035,7 +9044,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9199,7 +9208,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7491527</v>
+        <v>7491533</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9214,70 +9223,70 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q41">
+        <v>2.88</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>3.5</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
         <v>2.3</v>
       </c>
-      <c r="R41">
-        <v>2.38</v>
-      </c>
-      <c r="S41">
-        <v>4.5</v>
-      </c>
-      <c r="T41">
-        <v>1.3</v>
-      </c>
-      <c r="U41">
-        <v>3.4</v>
-      </c>
-      <c r="V41">
-        <v>2.5</v>
-      </c>
-      <c r="W41">
-        <v>1.5</v>
-      </c>
-      <c r="X41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>1.13</v>
-      </c>
-      <c r="Z41">
-        <v>1.77</v>
-      </c>
       <c r="AA41">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AB41">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="AC41">
         <v>1.04</v>
@@ -9286,16 +9295,16 @@
         <v>10</v>
       </c>
       <c r="AE41">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF41">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG41">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AH41">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AI41">
         <v>1.67</v>
@@ -9304,100 +9313,100 @@
         <v>2.1</v>
       </c>
       <c r="AK41">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL41">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM41">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
         <v>0.5</v>
       </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AS41">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AT41">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU41">
         <v>4</v>
       </c>
       <c r="AV41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>13</v>
+      </c>
+      <c r="AZ41">
+        <v>17</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
         <v>8</v>
       </c>
-      <c r="AX41">
-        <v>8</v>
-      </c>
-      <c r="AY41">
-        <v>16</v>
-      </c>
-      <c r="AZ41">
-        <v>16</v>
-      </c>
-      <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BB41">
-        <v>10</v>
-      </c>
-      <c r="BC41">
-        <v>12</v>
-      </c>
       <c r="BD41">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="BE41">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF41">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="BG41">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="BH41">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI41">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="BJ41">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK41">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="BL41">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM41">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="BN41">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="BO41">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="BP41">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9405,7 +9414,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491533</v>
+        <v>7491527</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9420,70 +9429,70 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Q42">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R42">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S42">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T42">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U42">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V42">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z42">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="AA42">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AB42">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="AC42">
         <v>1.04</v>
@@ -9492,16 +9501,16 @@
         <v>10</v>
       </c>
       <c r="AE42">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF42">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG42">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AH42">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AI42">
         <v>1.67</v>
@@ -9510,100 +9519,100 @@
         <v>2.1</v>
       </c>
       <c r="AK42">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL42">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM42">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR42">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AS42">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU42">
         <v>4</v>
       </c>
       <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>16</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
         <v>10</v>
       </c>
-      <c r="AW42">
-        <v>6</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>13</v>
-      </c>
-      <c r="AZ42">
-        <v>17</v>
-      </c>
-      <c r="BA42">
-        <v>2</v>
-      </c>
-      <c r="BB42">
-        <v>6</v>
-      </c>
       <c r="BC42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD42">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE42">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF42">
-        <v>2.43</v>
+        <v>3.32</v>
       </c>
       <c r="BG42">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH42">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI42">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BJ42">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK42">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BL42">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM42">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="BN42">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="BO42">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="BP42">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9650,10 +9659,10 @@
         <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9817,7 +9826,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7491528</v>
+        <v>7491531</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9832,43 +9841,43 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="P44" t="s">
         <v>92</v>
       </c>
       <c r="Q44">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="R44">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S44">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="T44">
         <v>1.25</v>
@@ -9877,25 +9886,25 @@
         <v>3.75</v>
       </c>
       <c r="V44">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W44">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X44">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y44">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z44">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AA44">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="AB44">
-        <v>7.8</v>
+        <v>3.45</v>
       </c>
       <c r="AC44">
         <v>1.01</v>
@@ -9904,118 +9913,118 @@
         <v>13</v>
       </c>
       <c r="AE44">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AF44">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AG44">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AH44">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AI44">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AJ44">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AK44">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AL44">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AM44">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="AN44">
         <v>2</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT44">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW44">
         <v>6</v>
       </c>
       <c r="AX44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY44">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
+        <v>16</v>
+      </c>
+      <c r="BA44">
         <v>8</v>
       </c>
-      <c r="BA44">
-        <v>5</v>
-      </c>
       <c r="BB44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD44">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="BE44">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BF44">
-        <v>5.1</v>
+        <v>3.82</v>
       </c>
       <c r="BG44">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="BH44">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI44">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="BJ44">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="BK44">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="BL44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BM44">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="BN44">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BO44">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="BP44">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10023,7 +10032,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7491531</v>
+        <v>7491532</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10038,7 +10047,7 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
         <v>83</v>
@@ -10047,181 +10056,181 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="Q45">
+        <v>3.1</v>
+      </c>
+      <c r="R45">
         <v>2.3</v>
       </c>
-      <c r="R45">
+      <c r="S45">
+        <v>3.1</v>
+      </c>
+      <c r="T45">
+        <v>1.3</v>
+      </c>
+      <c r="U45">
+        <v>3.4</v>
+      </c>
+      <c r="V45">
         <v>2.5</v>
       </c>
-      <c r="S45">
-        <v>4</v>
-      </c>
-      <c r="T45">
-        <v>1.25</v>
-      </c>
-      <c r="U45">
-        <v>3.75</v>
-      </c>
-      <c r="V45">
-        <v>2.2</v>
-      </c>
       <c r="W45">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y45">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z45">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AA45">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB45">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="AC45">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE45">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF45">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AG45">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH45">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.38</v>
+      </c>
+      <c r="AK45">
+        <v>1.52</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
         <v>1.5</v>
       </c>
-      <c r="AJ45">
-        <v>2.5</v>
-      </c>
-      <c r="AK45">
+      <c r="AN45">
+        <v>1.5</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
         <v>1.2</v>
       </c>
-      <c r="AL45">
-        <v>1.18</v>
-      </c>
-      <c r="AM45">
-        <v>1.95</v>
-      </c>
-      <c r="AN45">
-        <v>2</v>
-      </c>
-      <c r="AO45">
-        <v>0.5</v>
-      </c>
-      <c r="AP45">
-        <v>1.25</v>
-      </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AR45">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AS45">
-        <v>0.9399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="AT45">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV45">
         <v>7</v>
       </c>
       <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>13</v>
+      </c>
+      <c r="AZ45">
+        <v>14</v>
+      </c>
+      <c r="BA45">
         <v>6</v>
       </c>
-      <c r="AX45">
-        <v>7</v>
-      </c>
-      <c r="AY45">
-        <v>11</v>
-      </c>
-      <c r="AZ45">
-        <v>16</v>
-      </c>
-      <c r="BA45">
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>2.05</v>
+      </c>
+      <c r="BE45">
         <v>8</v>
       </c>
-      <c r="BB45">
-        <v>6</v>
-      </c>
-      <c r="BC45">
-        <v>14</v>
-      </c>
-      <c r="BD45">
-        <v>1.37</v>
-      </c>
-      <c r="BE45">
-        <v>9.5</v>
-      </c>
       <c r="BF45">
-        <v>3.82</v>
+        <v>1.95</v>
       </c>
       <c r="BG45">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH45">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="BI45">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="BJ45">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BK45">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BL45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BM45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN45">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BO45">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="BP45">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10229,7 +10238,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7491532</v>
+        <v>7491528</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10244,190 +10253,190 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
         <v>92</v>
       </c>
-      <c r="P46" t="s">
-        <v>170</v>
-      </c>
       <c r="Q46">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="R46">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="S46">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="T46">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U46">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X46">
+        <v>5.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.14</v>
+      </c>
+      <c r="Z46">
+        <v>1.33</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>7.8</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>13</v>
+      </c>
+      <c r="AE46">
+        <v>1.13</v>
+      </c>
+      <c r="AF46">
+        <v>4.75</v>
+      </c>
+      <c r="AG46">
+        <v>1.53</v>
+      </c>
+      <c r="AH46">
+        <v>2.35</v>
+      </c>
+      <c r="AI46">
+        <v>1.83</v>
+      </c>
+      <c r="AJ46">
+        <v>1.83</v>
+      </c>
+      <c r="AK46">
+        <v>1.03</v>
+      </c>
+      <c r="AL46">
+        <v>1.11</v>
+      </c>
+      <c r="AM46">
+        <v>3.25</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>1.28</v>
+      </c>
+      <c r="AS46">
+        <v>1.12</v>
+      </c>
+      <c r="AT46">
+        <v>2.4</v>
+      </c>
+      <c r="AU46">
+        <v>9</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
         <v>6</v>
       </c>
-      <c r="Y46">
-        <v>1.13</v>
-      </c>
-      <c r="Z46">
-        <v>2.6</v>
-      </c>
-      <c r="AA46">
-        <v>3.6</v>
-      </c>
-      <c r="AB46">
-        <v>2.4</v>
-      </c>
-      <c r="AC46">
-        <v>1.04</v>
-      </c>
-      <c r="AD46">
-        <v>10</v>
-      </c>
-      <c r="AE46">
-        <v>1.2</v>
-      </c>
-      <c r="AF46">
-        <v>4.2</v>
-      </c>
-      <c r="AG46">
-        <v>1.65</v>
-      </c>
-      <c r="AH46">
-        <v>2.1</v>
-      </c>
-      <c r="AI46">
-        <v>1.53</v>
-      </c>
-      <c r="AJ46">
-        <v>2.38</v>
-      </c>
-      <c r="AK46">
-        <v>1.52</v>
-      </c>
-      <c r="AL46">
-        <v>1.22</v>
-      </c>
-      <c r="AM46">
-        <v>1.5</v>
-      </c>
-      <c r="AN46">
-        <v>1.5</v>
-      </c>
-      <c r="AO46">
+      <c r="AX46">
         <v>3</v>
       </c>
-      <c r="AP46">
-        <v>0.75</v>
-      </c>
-      <c r="AQ46">
-        <v>3</v>
-      </c>
-      <c r="AR46">
-        <v>1.24</v>
-      </c>
-      <c r="AS46">
-        <v>1.32</v>
-      </c>
-      <c r="AT46">
-        <v>2.56</v>
-      </c>
-      <c r="AU46">
-        <v>6</v>
-      </c>
-      <c r="AV46">
-        <v>7</v>
-      </c>
-      <c r="AW46">
+      <c r="AY46">
+        <v>18</v>
+      </c>
+      <c r="AZ46">
+        <v>8</v>
+      </c>
+      <c r="BA46">
         <v>5</v>
-      </c>
-      <c r="AX46">
-        <v>2</v>
-      </c>
-      <c r="AY46">
-        <v>13</v>
-      </c>
-      <c r="AZ46">
-        <v>14</v>
-      </c>
-      <c r="BA46">
-        <v>6</v>
       </c>
       <c r="BB46">
         <v>4</v>
       </c>
       <c r="BC46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD46">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
       <c r="BE46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF46">
-        <v>1.95</v>
+        <v>5.1</v>
       </c>
       <c r="BG46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH46">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="BI46">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BJ46">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="BK46">
+        <v>1.47</v>
+      </c>
+      <c r="BL46">
+        <v>2.5</v>
+      </c>
+      <c r="BM46">
+        <v>1.72</v>
+      </c>
+      <c r="BN46">
+        <v>2</v>
+      </c>
+      <c r="BO46">
+        <v>2.1</v>
+      </c>
+      <c r="BP46">
         <v>1.65</v>
-      </c>
-      <c r="BL46">
-        <v>2.1</v>
-      </c>
-      <c r="BM46">
-        <v>2</v>
-      </c>
-      <c r="BN46">
-        <v>1.72</v>
-      </c>
-      <c r="BO46">
-        <v>2.5</v>
-      </c>
-      <c r="BP46">
-        <v>1.47</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10477,7 +10486,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10683,7 +10692,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10862,7 +10871,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
         <v>70</v>
@@ -10889,7 +10898,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10970,7 +10979,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11053,7 +11062,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7491539</v>
+        <v>7491542</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11068,106 +11077,106 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
         <v>92</v>
       </c>
-      <c r="P50" t="s">
-        <v>174</v>
-      </c>
       <c r="Q50">
+        <v>2.73</v>
+      </c>
+      <c r="R50">
+        <v>2.46</v>
+      </c>
+      <c r="S50">
+        <v>3.69</v>
+      </c>
+      <c r="T50">
+        <v>1.27</v>
+      </c>
+      <c r="U50">
         <v>3.4</v>
       </c>
-      <c r="R50">
-        <v>2.3</v>
-      </c>
-      <c r="S50">
-        <v>2.63</v>
-      </c>
-      <c r="T50">
-        <v>1.26</v>
-      </c>
-      <c r="U50">
-        <v>3.64</v>
-      </c>
       <c r="V50">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="W50">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X50">
         <v>5</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="Z50">
-        <v>3.05</v>
+        <v>2.13</v>
       </c>
       <c r="AA50">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AB50">
-        <v>2.14</v>
+        <v>3.12</v>
       </c>
       <c r="AC50">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD50">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE50">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF50">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AG50">
+        <v>1.62</v>
+      </c>
+      <c r="AH50">
+        <v>2.31</v>
+      </c>
+      <c r="AI50">
         <v>1.5</v>
       </c>
-      <c r="AH50">
+      <c r="AJ50">
         <v>2.4</v>
       </c>
-      <c r="AI50">
-        <v>1.44</v>
-      </c>
-      <c r="AJ50">
-        <v>2.5</v>
-      </c>
       <c r="AK50">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AL50">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AM50">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO50">
         <v>2</v>
@@ -11176,82 +11185,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AS50">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AT50">
-        <v>2.44</v>
+        <v>3.19</v>
       </c>
       <c r="AU50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY50">
+        <v>20</v>
+      </c>
+      <c r="AZ50">
+        <v>11</v>
+      </c>
+      <c r="BA50">
         <v>8</v>
       </c>
-      <c r="AZ50">
-        <v>21</v>
-      </c>
-      <c r="BA50">
-        <v>7</v>
-      </c>
       <c r="BB50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD50">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="BE50">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF50">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="BG50">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="BH50">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="BI50">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="BJ50">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="BK50">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
       <c r="BL50">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="BM50">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="BN50">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="BO50">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="BP50">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11259,7 +11268,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7491542</v>
+        <v>7491539</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11274,106 +11283,106 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="Q51">
-        <v>2.73</v>
+        <v>3.4</v>
       </c>
       <c r="R51">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="S51">
-        <v>3.69</v>
+        <v>2.63</v>
       </c>
       <c r="T51">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U51">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="V51">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="W51">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
-        <v>2.13</v>
+        <v>3.05</v>
       </c>
       <c r="AA51">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="AB51">
-        <v>3.12</v>
+        <v>2.14</v>
       </c>
       <c r="AC51">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE51">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF51">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG51">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AH51">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AI51">
+        <v>1.44</v>
+      </c>
+      <c r="AJ51">
+        <v>2.5</v>
+      </c>
+      <c r="AK51">
+        <v>1.71</v>
+      </c>
+      <c r="AL51">
+        <v>1.26</v>
+      </c>
+      <c r="AM51">
+        <v>1.38</v>
+      </c>
+      <c r="AN51">
         <v>1.5</v>
-      </c>
-      <c r="AJ51">
-        <v>2.4</v>
-      </c>
-      <c r="AK51">
-        <v>1.36</v>
-      </c>
-      <c r="AL51">
-        <v>1.27</v>
-      </c>
-      <c r="AM51">
-        <v>1.72</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
       </c>
       <c r="AO51">
         <v>2</v>
@@ -11382,82 +11391,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR51">
+        <v>0.97</v>
+      </c>
+      <c r="AS51">
         <v>1.47</v>
       </c>
-      <c r="AS51">
+      <c r="AT51">
+        <v>2.44</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>12</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>7</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>21</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>2.24</v>
+      </c>
+      <c r="BE51">
+        <v>9</v>
+      </c>
+      <c r="BF51">
+        <v>1.93</v>
+      </c>
+      <c r="BG51">
+        <v>1.14</v>
+      </c>
+      <c r="BH51">
+        <v>5.5</v>
+      </c>
+      <c r="BI51">
+        <v>1.26</v>
+      </c>
+      <c r="BJ51">
+        <v>3.6</v>
+      </c>
+      <c r="BK51">
+        <v>1.44</v>
+      </c>
+      <c r="BL51">
+        <v>2.65</v>
+      </c>
+      <c r="BM51">
         <v>1.72</v>
       </c>
-      <c r="AT51">
-        <v>3.19</v>
-      </c>
-      <c r="AU51">
-        <v>10</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>7</v>
-      </c>
-      <c r="AX51">
-        <v>6</v>
-      </c>
-      <c r="AY51">
-        <v>20</v>
-      </c>
-      <c r="AZ51">
-        <v>11</v>
-      </c>
-      <c r="BA51">
-        <v>8</v>
-      </c>
-      <c r="BB51">
-        <v>1</v>
-      </c>
-      <c r="BC51">
-        <v>9</v>
-      </c>
-      <c r="BD51">
-        <v>2.4</v>
-      </c>
-      <c r="BE51">
-        <v>8.5</v>
-      </c>
-      <c r="BF51">
-        <v>1.87</v>
-      </c>
-      <c r="BG51">
-        <v>1.32</v>
-      </c>
-      <c r="BH51">
-        <v>3.2</v>
-      </c>
-      <c r="BI51">
-        <v>1.55</v>
-      </c>
-      <c r="BJ51">
-        <v>2.3</v>
-      </c>
-      <c r="BK51">
-        <v>1.92</v>
-      </c>
-      <c r="BL51">
-        <v>1.82</v>
-      </c>
-      <c r="BM51">
-        <v>2.45</v>
-      </c>
       <c r="BN51">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="BO51">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="BP51">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11507,7 +11516,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11671,7 +11680,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7491538</v>
+        <v>7491541</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11686,25 +11695,25 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>4</v>
@@ -11713,97 +11722,97 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q53">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R53">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V53">
+        <v>2.25</v>
+      </c>
+      <c r="W53">
+        <v>1.57</v>
+      </c>
+      <c r="X53">
+        <v>5.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.14</v>
+      </c>
+      <c r="Z53">
+        <v>2.7</v>
+      </c>
+      <c r="AA53">
+        <v>3.5</v>
+      </c>
+      <c r="AB53">
+        <v>2.45</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>13</v>
+      </c>
+      <c r="AE53">
+        <v>1.18</v>
+      </c>
+      <c r="AF53">
+        <v>4.75</v>
+      </c>
+      <c r="AG53">
+        <v>1.52</v>
+      </c>
+      <c r="AH53">
+        <v>2.43</v>
+      </c>
+      <c r="AI53">
+        <v>1.44</v>
+      </c>
+      <c r="AJ53">
         <v>2.63</v>
       </c>
-      <c r="W53">
-        <v>1.44</v>
-      </c>
-      <c r="X53">
-        <v>6.5</v>
-      </c>
-      <c r="Y53">
-        <v>1.11</v>
-      </c>
-      <c r="Z53">
-        <v>1.95</v>
-      </c>
-      <c r="AA53">
-        <v>3.9</v>
-      </c>
-      <c r="AB53">
-        <v>3.4</v>
-      </c>
-      <c r="AC53">
-        <v>1.05</v>
-      </c>
-      <c r="AD53">
-        <v>9.5</v>
-      </c>
-      <c r="AE53">
+      <c r="AK53">
+        <v>1.57</v>
+      </c>
+      <c r="AL53">
         <v>1.25</v>
       </c>
-      <c r="AF53">
-        <v>3.9</v>
-      </c>
-      <c r="AG53">
-        <v>1.63</v>
-      </c>
-      <c r="AH53">
-        <v>2.29</v>
-      </c>
-      <c r="AI53">
-        <v>1.67</v>
-      </c>
-      <c r="AJ53">
-        <v>2.1</v>
-      </c>
-      <c r="AK53">
-        <v>1.25</v>
-      </c>
-      <c r="AL53">
-        <v>1.22</v>
-      </c>
       <c r="AM53">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="AS53">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AT53">
-        <v>2.31</v>
+        <v>3.03</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -11812,64 +11821,64 @@
         <v>5</v>
       </c>
       <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>1</v>
+      </c>
+      <c r="AY53">
+        <v>13</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>2</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
         <v>7</v>
       </c>
-      <c r="AX53">
-        <v>10</v>
-      </c>
-      <c r="AY53">
-        <v>21</v>
-      </c>
-      <c r="AZ53">
-        <v>20</v>
-      </c>
-      <c r="BA53">
-        <v>9</v>
-      </c>
-      <c r="BB53">
-        <v>8</v>
-      </c>
-      <c r="BC53">
-        <v>17</v>
-      </c>
       <c r="BD53">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BE53">
         <v>8</v>
       </c>
       <c r="BF53">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BG53">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH53">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BI53">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BJ53">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BK53">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BL53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BM53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN53">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BO53">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BP53">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11877,7 +11886,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7491541</v>
+        <v>7491538</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11892,25 +11901,25 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
         <v>3</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
       </c>
       <c r="N54">
         <v>4</v>
@@ -11919,97 +11928,97 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R54">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S54">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T54">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U54">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V54">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W54">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X54">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y54">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z54">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA54">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB54">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="AC54">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD54">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE54">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF54">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AG54">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AH54">
-        <v>2.43</v>
+        <v>2.29</v>
       </c>
       <c r="AI54">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ54">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AK54">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AL54">
+        <v>1.22</v>
+      </c>
+      <c r="AM54">
+        <v>1.85</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>0.5</v>
+      </c>
+      <c r="AP54">
+        <v>1.75</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
         <v>1.25</v>
       </c>
-      <c r="AM54">
-        <v>1.42</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>2</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54">
-        <v>1.5</v>
-      </c>
-      <c r="AR54">
-        <v>1.87</v>
-      </c>
       <c r="AS54">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AT54">
-        <v>3.03</v>
+        <v>2.31</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12018,64 +12027,64 @@
         <v>5</v>
       </c>
       <c r="AW54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY54">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ54">
+        <v>20</v>
+      </c>
+      <c r="BA54">
         <v>9</v>
       </c>
-      <c r="BA54">
-        <v>2</v>
-      </c>
       <c r="BB54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC54">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD54">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BE54">
         <v>8</v>
       </c>
       <c r="BF54">
+        <v>2.33</v>
+      </c>
+      <c r="BG54">
+        <v>1.2</v>
+      </c>
+      <c r="BH54">
+        <v>3.95</v>
+      </c>
+      <c r="BI54">
+        <v>1.45</v>
+      </c>
+      <c r="BJ54">
+        <v>2.55</v>
+      </c>
+      <c r="BK54">
+        <v>1.73</v>
+      </c>
+      <c r="BL54">
+        <v>2</v>
+      </c>
+      <c r="BM54">
         <v>2.1</v>
       </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>0</v>
-      </c>
-      <c r="BK54">
-        <v>1.6</v>
-      </c>
-      <c r="BL54">
-        <v>2.2</v>
-      </c>
-      <c r="BM54">
-        <v>2</v>
-      </c>
       <c r="BN54">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BO54">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP54">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12125,7 +12134,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12307,7 +12316,7 @@
         <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -12331,7 +12340,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12537,7 +12546,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12618,7 +12627,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR57">
         <v>1.5</v>
@@ -12701,7 +12710,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7491546</v>
+        <v>7491545</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12716,190 +12725,190 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="R58">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="T58">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W58">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X58">
-        <v>4.55</v>
+        <v>5.3</v>
       </c>
       <c r="Y58">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z58">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="AA58">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB58">
-        <v>4.05</v>
+        <v>2.88</v>
       </c>
       <c r="AC58">
         <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE58">
         <v>1.14</v>
       </c>
       <c r="AF58">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG58">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AH58">
-        <v>2.54</v>
+        <v>2.29</v>
       </c>
       <c r="AI58">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AJ58">
+        <v>2.5</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.65</v>
+      </c>
+      <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>3</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>3</v>
+      </c>
+      <c r="AR58">
+        <v>1.59</v>
+      </c>
+      <c r="AS58">
+        <v>1.28</v>
+      </c>
+      <c r="AT58">
+        <v>2.87</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>17</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>8</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>1.72</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
         <v>2.6</v>
       </c>
-      <c r="AK58">
-        <v>1.22</v>
-      </c>
-      <c r="AL58">
-        <v>1.18</v>
-      </c>
-      <c r="AM58">
-        <v>2</v>
-      </c>
-      <c r="AN58">
-        <v>2.33</v>
-      </c>
-      <c r="AO58">
-        <v>1.67</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
+      <c r="BG58">
+        <v>1.1</v>
+      </c>
+      <c r="BH58">
+        <v>4.75</v>
+      </c>
+      <c r="BI58">
+        <v>1.28</v>
+      </c>
+      <c r="BJ58">
+        <v>3.25</v>
+      </c>
+      <c r="BK58">
         <v>1.5</v>
       </c>
-      <c r="AR58">
-        <v>1.49</v>
-      </c>
-      <c r="AS58">
+      <c r="BL58">
+        <v>2.35</v>
+      </c>
+      <c r="BM58">
+        <v>1.88</v>
+      </c>
+      <c r="BN58">
+        <v>1.92</v>
+      </c>
+      <c r="BO58">
+        <v>2.35</v>
+      </c>
+      <c r="BP58">
         <v>1.52</v>
-      </c>
-      <c r="AT58">
-        <v>3.01</v>
-      </c>
-      <c r="AU58">
-        <v>10</v>
-      </c>
-      <c r="AV58">
-        <v>7</v>
-      </c>
-      <c r="AW58">
-        <v>6</v>
-      </c>
-      <c r="AX58">
-        <v>4</v>
-      </c>
-      <c r="AY58">
-        <v>20</v>
-      </c>
-      <c r="AZ58">
-        <v>13</v>
-      </c>
-      <c r="BA58">
-        <v>7</v>
-      </c>
-      <c r="BB58">
-        <v>3</v>
-      </c>
-      <c r="BC58">
-        <v>10</v>
-      </c>
-      <c r="BD58">
-        <v>1.52</v>
-      </c>
-      <c r="BE58">
-        <v>8</v>
-      </c>
-      <c r="BF58">
-        <v>3.1</v>
-      </c>
-      <c r="BG58">
-        <v>1.13</v>
-      </c>
-      <c r="BH58">
-        <v>5.5</v>
-      </c>
-      <c r="BI58">
-        <v>1.27</v>
-      </c>
-      <c r="BJ58">
-        <v>3.35</v>
-      </c>
-      <c r="BK58">
-        <v>1.48</v>
-      </c>
-      <c r="BL58">
-        <v>2.45</v>
-      </c>
-      <c r="BM58">
-        <v>1.8</v>
-      </c>
-      <c r="BN58">
-        <v>2</v>
-      </c>
-      <c r="BO58">
-        <v>2.28</v>
-      </c>
-      <c r="BP58">
-        <v>1.55</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12907,7 +12916,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7491545</v>
+        <v>7491546</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12922,190 +12931,190 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="R59">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S59">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="V59">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W59">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X59">
-        <v>5.3</v>
+        <v>4.55</v>
       </c>
       <c r="Y59">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z59">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="AA59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB59">
-        <v>2.88</v>
+        <v>4.05</v>
       </c>
       <c r="AC59">
         <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE59">
         <v>1.14</v>
       </c>
       <c r="AF59">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG59">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AH59">
-        <v>2.29</v>
+        <v>2.54</v>
       </c>
       <c r="AI59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AJ59">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AK59">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL59">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM59">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO59">
+        <v>1.67</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.49</v>
+      </c>
+      <c r="AS59">
+        <v>1.52</v>
+      </c>
+      <c r="AT59">
+        <v>3.01</v>
+      </c>
+      <c r="AU59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>20</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
         <v>3</v>
       </c>
-      <c r="AP59">
-        <v>0.5</v>
-      </c>
-      <c r="AQ59">
-        <v>3</v>
-      </c>
-      <c r="AR59">
-        <v>1.59</v>
-      </c>
-      <c r="AS59">
-        <v>1.28</v>
-      </c>
-      <c r="AT59">
-        <v>2.87</v>
-      </c>
-      <c r="AU59">
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>1.52</v>
+      </c>
+      <c r="BE59">
         <v>8</v>
       </c>
-      <c r="AV59">
-        <v>3</v>
-      </c>
-      <c r="AW59">
-        <v>4</v>
-      </c>
-      <c r="AX59">
-        <v>3</v>
-      </c>
-      <c r="AY59">
-        <v>17</v>
-      </c>
-      <c r="AZ59">
-        <v>12</v>
-      </c>
-      <c r="BA59">
-        <v>8</v>
-      </c>
-      <c r="BB59">
-        <v>4</v>
-      </c>
-      <c r="BC59">
-        <v>12</v>
-      </c>
-      <c r="BD59">
-        <v>1.72</v>
-      </c>
-      <c r="BE59">
-        <v>7.5</v>
-      </c>
       <c r="BF59">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BG59">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="BH59">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI59">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ59">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BK59">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BL59">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="BM59">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BN59">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BO59">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="BP59">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13361,7 +13370,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13749,7 +13758,7 @@
         <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13773,7 +13782,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13851,7 +13860,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -13979,7 +13988,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14185,7 +14194,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14776,7 +14785,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
         <v>80</v>
@@ -14800,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P68" t="s">
         <v>92</v>
@@ -15009,7 +15018,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15215,7 +15224,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15379,7 +15388,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7491560</v>
+        <v>7491554</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15394,88 +15403,88 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>3</v>
       </c>
-      <c r="L71">
-        <v>2</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
       <c r="N71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S71">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="T71">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U71">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>2.45</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>2.63</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.2</v>
+      </c>
+      <c r="AF71">
+        <v>4.33</v>
+      </c>
+      <c r="AG71">
+        <v>1.6</v>
+      </c>
+      <c r="AH71">
         <v>2.2</v>
-      </c>
-      <c r="W71">
-        <v>1.62</v>
-      </c>
-      <c r="X71">
-        <v>5</v>
-      </c>
-      <c r="Y71">
-        <v>1.17</v>
-      </c>
-      <c r="Z71">
-        <v>1.91</v>
-      </c>
-      <c r="AA71">
-        <v>3.8</v>
-      </c>
-      <c r="AB71">
-        <v>3.4</v>
-      </c>
-      <c r="AC71">
-        <v>1.01</v>
-      </c>
-      <c r="AD71">
-        <v>13</v>
-      </c>
-      <c r="AE71">
-        <v>1.11</v>
-      </c>
-      <c r="AF71">
-        <v>5.5</v>
-      </c>
-      <c r="AG71">
-        <v>1.5</v>
-      </c>
-      <c r="AH71">
-        <v>2.4</v>
       </c>
       <c r="AI71">
         <v>1.5</v>
@@ -15484,100 +15493,100 @@
         <v>2.5</v>
       </c>
       <c r="AK71">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AL71">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM71">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO71">
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AS71">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="AU71">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX71">
         <v>9</v>
       </c>
       <c r="AY71">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>10</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
         <v>13</v>
       </c>
-      <c r="BA71">
-        <v>5</v>
-      </c>
-      <c r="BB71">
-        <v>7</v>
-      </c>
-      <c r="BC71">
-        <v>12</v>
-      </c>
       <c r="BD71">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BE71">
         <v>8.5</v>
       </c>
       <c r="BF71">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="BG71">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="BH71">
-        <v>4.25</v>
+        <v>5.15</v>
       </c>
       <c r="BI71">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BJ71">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK71">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="BL71">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BM71">
         <v>1.98</v>
       </c>
       <c r="BN71">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="BO71">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="BP71">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15585,7 +15594,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7491561</v>
+        <v>7491560</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15600,160 +15609,160 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <v>2</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="Q72">
+        <v>2.5</v>
+      </c>
+      <c r="R72">
+        <v>2.4</v>
+      </c>
+      <c r="S72">
+        <v>3.6</v>
+      </c>
+      <c r="T72">
+        <v>1.25</v>
+      </c>
+      <c r="U72">
+        <v>3.75</v>
+      </c>
+      <c r="V72">
+        <v>2.2</v>
+      </c>
+      <c r="W72">
+        <v>1.62</v>
+      </c>
+      <c r="X72">
+        <v>5</v>
+      </c>
+      <c r="Y72">
+        <v>1.17</v>
+      </c>
+      <c r="Z72">
+        <v>1.91</v>
+      </c>
+      <c r="AA72">
+        <v>3.8</v>
+      </c>
+      <c r="AB72">
         <v>3.4</v>
       </c>
-      <c r="R72">
-        <v>2.25</v>
-      </c>
-      <c r="S72">
-        <v>2.88</v>
-      </c>
-      <c r="T72">
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>13</v>
+      </c>
+      <c r="AE72">
+        <v>1.11</v>
+      </c>
+      <c r="AF72">
+        <v>5.5</v>
+      </c>
+      <c r="AG72">
+        <v>1.5</v>
+      </c>
+      <c r="AH72">
+        <v>2.4</v>
+      </c>
+      <c r="AI72">
+        <v>1.5</v>
+      </c>
+      <c r="AJ72">
+        <v>2.5</v>
+      </c>
+      <c r="AK72">
+        <v>1.3</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>1.8</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>1.33</v>
       </c>
-      <c r="U72">
-        <v>3.25</v>
-      </c>
-      <c r="V72">
-        <v>2.63</v>
-      </c>
-      <c r="W72">
-        <v>1.44</v>
-      </c>
-      <c r="X72">
-        <v>6.5</v>
-      </c>
-      <c r="Y72">
-        <v>1.11</v>
-      </c>
-      <c r="Z72">
-        <v>2.88</v>
-      </c>
-      <c r="AA72">
-        <v>3.4</v>
-      </c>
-      <c r="AB72">
-        <v>2.3</v>
-      </c>
-      <c r="AC72">
-        <v>1.05</v>
-      </c>
-      <c r="AD72">
-        <v>9.5</v>
-      </c>
-      <c r="AE72">
-        <v>1.19</v>
-      </c>
-      <c r="AF72">
-        <v>3.66</v>
-      </c>
-      <c r="AG72">
-        <v>1.73</v>
-      </c>
-      <c r="AH72">
-        <v>2</v>
-      </c>
-      <c r="AI72">
-        <v>1.62</v>
-      </c>
-      <c r="AJ72">
-        <v>2.2</v>
-      </c>
-      <c r="AK72">
-        <v>1.63</v>
-      </c>
-      <c r="AL72">
-        <v>1.29</v>
-      </c>
-      <c r="AM72">
-        <v>1.4</v>
-      </c>
-      <c r="AN72">
-        <v>1</v>
-      </c>
-      <c r="AO72">
-        <v>0.33</v>
-      </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT72">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
         <v>13</v>
       </c>
-      <c r="AZ72">
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>7</v>
+      </c>
+      <c r="BC72">
         <v>12</v>
       </c>
-      <c r="BA72">
-        <v>6</v>
-      </c>
-      <c r="BB72">
-        <v>8</v>
-      </c>
-      <c r="BC72">
-        <v>14</v>
-      </c>
       <c r="BD72">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="BE72">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF72">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="BG72">
         <v>1.18</v>
@@ -15791,7 +15800,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7491554</v>
+        <v>7491561</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15806,190 +15815,602 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q73">
+        <v>3.4</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>2.88</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3.25</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>2.88</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.3</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.19</v>
+      </c>
+      <c r="AF73">
+        <v>3.66</v>
+      </c>
+      <c r="AG73">
+        <v>1.73</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>1.62</v>
+      </c>
+      <c r="AJ73">
+        <v>2.2</v>
+      </c>
+      <c r="AK73">
+        <v>1.63</v>
+      </c>
+      <c r="AL73">
+        <v>1.29</v>
+      </c>
+      <c r="AM73">
+        <v>1.4</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.66</v>
+      </c>
+      <c r="AS73">
+        <v>1.5</v>
+      </c>
+      <c r="AT73">
+        <v>3.16</v>
+      </c>
+      <c r="AU73">
+        <v>10</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73" t="s">
-        <v>92</v>
-      </c>
-      <c r="P73" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q73">
-        <v>3</v>
-      </c>
-      <c r="R73">
-        <v>2.38</v>
-      </c>
-      <c r="S73">
-        <v>3.1</v>
-      </c>
-      <c r="T73">
-        <v>1.3</v>
-      </c>
-      <c r="U73">
-        <v>3.4</v>
-      </c>
-      <c r="V73">
-        <v>2.38</v>
-      </c>
-      <c r="W73">
-        <v>1.53</v>
-      </c>
-      <c r="X73">
+      <c r="AX73">
+        <v>10</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>12</v>
+      </c>
+      <c r="BA73">
         <v>6</v>
       </c>
-      <c r="Y73">
-        <v>1.13</v>
-      </c>
-      <c r="Z73">
-        <v>2.45</v>
-      </c>
-      <c r="AA73">
-        <v>3.5</v>
-      </c>
-      <c r="AB73">
-        <v>2.63</v>
-      </c>
-      <c r="AC73">
-        <v>1.04</v>
-      </c>
-      <c r="AD73">
-        <v>10</v>
-      </c>
-      <c r="AE73">
-        <v>1.2</v>
-      </c>
-      <c r="AF73">
-        <v>4.33</v>
-      </c>
-      <c r="AG73">
+      <c r="BB73">
+        <v>8</v>
+      </c>
+      <c r="BC73">
+        <v>14</v>
+      </c>
+      <c r="BD73">
+        <v>2.1</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>1.91</v>
+      </c>
+      <c r="BG73">
+        <v>1.18</v>
+      </c>
+      <c r="BH73">
+        <v>4.25</v>
+      </c>
+      <c r="BI73">
+        <v>1.34</v>
+      </c>
+      <c r="BJ73">
+        <v>2.95</v>
+      </c>
+      <c r="BK73">
         <v>1.6</v>
       </c>
-      <c r="AH73">
-        <v>2.2</v>
-      </c>
-      <c r="AI73">
-        <v>1.5</v>
-      </c>
-      <c r="AJ73">
-        <v>2.5</v>
-      </c>
-      <c r="AK73">
-        <v>1.48</v>
-      </c>
-      <c r="AL73">
-        <v>1.28</v>
-      </c>
-      <c r="AM73">
-        <v>1.56</v>
-      </c>
-      <c r="AN73">
-        <v>1.67</v>
-      </c>
-      <c r="AO73">
-        <v>1.33</v>
-      </c>
-      <c r="AP73">
-        <v>1.25</v>
-      </c>
-      <c r="AQ73">
-        <v>1.75</v>
-      </c>
-      <c r="AR73">
-        <v>1.59</v>
-      </c>
-      <c r="AS73">
-        <v>1.43</v>
-      </c>
-      <c r="AT73">
-        <v>3.02</v>
-      </c>
-      <c r="AU73">
-        <v>12</v>
-      </c>
-      <c r="AV73">
-        <v>2</v>
-      </c>
-      <c r="AW73">
-        <v>8</v>
-      </c>
-      <c r="AX73">
-        <v>9</v>
-      </c>
-      <c r="AY73">
-        <v>20</v>
-      </c>
-      <c r="AZ73">
-        <v>11</v>
-      </c>
-      <c r="BA73">
-        <v>10</v>
-      </c>
-      <c r="BB73">
-        <v>3</v>
-      </c>
-      <c r="BC73">
-        <v>13</v>
-      </c>
-      <c r="BD73">
-        <v>2</v>
-      </c>
-      <c r="BE73">
-        <v>8.5</v>
-      </c>
-      <c r="BF73">
-        <v>2</v>
-      </c>
-      <c r="BG73">
-        <v>1.08</v>
-      </c>
-      <c r="BH73">
-        <v>5.15</v>
-      </c>
-      <c r="BI73">
-        <v>1.3</v>
-      </c>
-      <c r="BJ73">
-        <v>3.1</v>
-      </c>
-      <c r="BK73">
-        <v>1.54</v>
-      </c>
       <c r="BL73">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BM73">
         <v>1.98</v>
       </c>
       <c r="BN73">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BO73">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="BP73">
-        <v>1.48</v>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7491562</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45583.5625</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>2.5</v>
+      </c>
+      <c r="S74">
+        <v>2.25</v>
+      </c>
+      <c r="T74">
+        <v>1.25</v>
+      </c>
+      <c r="U74">
+        <v>3.75</v>
+      </c>
+      <c r="V74">
+        <v>2.1</v>
+      </c>
+      <c r="W74">
+        <v>1.67</v>
+      </c>
+      <c r="X74">
+        <v>4.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.18</v>
+      </c>
+      <c r="Z74">
+        <v>3.8</v>
+      </c>
+      <c r="AA74">
+        <v>3.8</v>
+      </c>
+      <c r="AB74">
+        <v>1.83</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>1.45</v>
+      </c>
+      <c r="AH74">
+        <v>2.55</v>
+      </c>
+      <c r="AI74">
+        <v>1.44</v>
+      </c>
+      <c r="AJ74">
+        <v>2.63</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0.5</v>
+      </c>
+      <c r="AO74">
+        <v>1.67</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>1.25</v>
+      </c>
+      <c r="AR74">
+        <v>1.62</v>
+      </c>
+      <c r="AS74">
+        <v>2.05</v>
+      </c>
+      <c r="AT74">
+        <v>3.67</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>13</v>
+      </c>
+      <c r="AZ74">
+        <v>19</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>7</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>1.91</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7491566</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45583.5625</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>144</v>
+      </c>
+      <c r="P75" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.5</v>
+      </c>
+      <c r="S75">
+        <v>4.33</v>
+      </c>
+      <c r="T75">
+        <v>1.29</v>
+      </c>
+      <c r="U75">
+        <v>3.5</v>
+      </c>
+      <c r="V75">
+        <v>2.25</v>
+      </c>
+      <c r="W75">
+        <v>1.57</v>
+      </c>
+      <c r="X75">
+        <v>5.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.14</v>
+      </c>
+      <c r="Z75">
+        <v>1.75</v>
+      </c>
+      <c r="AA75">
+        <v>3.8</v>
+      </c>
+      <c r="AB75">
+        <v>4.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.18</v>
+      </c>
+      <c r="AF75">
+        <v>4.75</v>
+      </c>
+      <c r="AG75">
+        <v>1.53</v>
+      </c>
+      <c r="AH75">
+        <v>2.35</v>
+      </c>
+      <c r="AI75">
+        <v>1.53</v>
+      </c>
+      <c r="AJ75">
+        <v>2.38</v>
+      </c>
+      <c r="AK75">
+        <v>1.18</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>0.75</v>
+      </c>
+      <c r="AO75">
+        <v>0.25</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.2</v>
+      </c>
+      <c r="AR75">
+        <v>1.4</v>
+      </c>
+      <c r="AS75">
+        <v>1.16</v>
+      </c>
+      <c r="AT75">
+        <v>2.56</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>18</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>12</v>
+      </c>
+      <c r="BD75">
+        <v>1.69</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.53</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,12 +262,12 @@
     <t>Nürnberg</t>
   </si>
   <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
     <t>Elversberg</t>
   </si>
   <si>
-    <t>Fortuna Düsseldorf</t>
-  </si>
-  <si>
     <t>Hamburger SV</t>
   </si>
   <si>
@@ -325,27 +325,27 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['18', '48', '75']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['90', '90+6']</t>
   </si>
   <si>
     <t>['26', '34', '58', '61', '88']</t>
   </si>
   <si>
+    <t>['39', '45+2']</t>
+  </si>
+  <si>
     <t>['42']</t>
   </si>
   <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['39', '45+2']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -358,27 +358,27 @@
     <t>['32', '45', '68']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['45+3', '73']</t>
   </si>
   <si>
     <t>['19', '78', '90+1']</t>
   </si>
   <si>
-    <t>['45+3', '73']</t>
-  </si>
-  <si>
     <t>['6', '73', '90+5']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['1', '14', '76', '89', '90+3']</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>['32', '50']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['5', '78']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -445,10 +445,16 @@
     <t>['20', '90+3']</t>
   </si>
   <si>
+    <t>['52', '72', '83']</t>
+  </si>
+  <si>
     <t>['11', '40', '54', '65', '90+4']</t>
   </si>
   <si>
-    <t>['52', '72', '83']</t>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -493,15 +499,15 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['8', '76']</t>
+  </si>
+  <si>
     <t>['81', '82']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['8', '76']</t>
-  </si>
-  <si>
     <t>['4', '49', '77', '88']</t>
   </si>
   <si>
@@ -514,12 +520,12 @@
     <t>['28', '51', '64', '79']</t>
   </si>
   <si>
+    <t>['73', '87']</t>
+  </si>
+  <si>
     <t>['25', '45+1', '46']</t>
   </si>
   <si>
-    <t>['73', '87']</t>
-  </si>
-  <si>
     <t>['37', '46', '85']</t>
   </si>
   <si>
@@ -550,12 +556,12 @@
     <t>['58', '90+5']</t>
   </si>
   <si>
+    <t>['28', '60', '77']</t>
+  </si>
+  <si>
     <t>['24', '30']</t>
   </si>
   <si>
-    <t>['28', '60', '77']</t>
-  </si>
-  <si>
     <t>['29', '60', '71']</t>
   </si>
   <si>
@@ -565,12 +571,12 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['46', '60']</t>
+  </si>
+  <si>
     <t>['22', '48']</t>
   </si>
   <si>
-    <t>['46', '60']</t>
-  </si>
-  <si>
     <t>['67', '74']</t>
   </si>
   <si>
@@ -589,13 +595,19 @@
     <t>['9', '72']</t>
   </si>
   <si>
+    <t>['42', '75']</t>
+  </si>
+  <si>
     <t>['8', '83', '90']</t>
   </si>
   <si>
-    <t>['42', '75']</t>
-  </si>
-  <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['44', '81', '89']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1228,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1422,7 +1434,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1834,7 +1846,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2016,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2121,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2246,7 +2258,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2428,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2452,7 +2464,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2658,7 +2670,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2864,7 +2876,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3148,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3276,7 +3288,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3563,7 +3575,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3646,7 +3658,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491502</v>
+        <v>7491499</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3664,187 +3676,187 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="R14">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S14">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T14">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="U14">
+        <v>3.4</v>
+      </c>
+      <c r="V14">
+        <v>2.2</v>
+      </c>
+      <c r="W14">
+        <v>1.6</v>
+      </c>
+      <c r="X14">
+        <v>4.85</v>
+      </c>
+      <c r="Y14">
+        <v>1.16</v>
+      </c>
+      <c r="Z14">
+        <v>1.91</v>
+      </c>
+      <c r="AA14">
+        <v>3.97</v>
+      </c>
+      <c r="AB14">
+        <v>3.66</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>11</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
+        <v>4.75</v>
+      </c>
+      <c r="AG14">
+        <v>1.55</v>
+      </c>
+      <c r="AH14">
+        <v>2.45</v>
+      </c>
+      <c r="AI14">
+        <v>1.45</v>
+      </c>
+      <c r="AJ14">
+        <v>2.5</v>
+      </c>
+      <c r="AK14">
+        <v>1.25</v>
+      </c>
+      <c r="AL14">
+        <v>1.22</v>
+      </c>
+      <c r="AM14">
+        <v>1.85</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1.25</v>
+      </c>
+      <c r="AQ14">
+        <v>1.5</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
         <v>3</v>
       </c>
-      <c r="V14">
-        <v>2.63</v>
-      </c>
-      <c r="W14">
-        <v>1.44</v>
-      </c>
-      <c r="X14">
-        <v>7</v>
-      </c>
-      <c r="Y14">
-        <v>1.1</v>
-      </c>
-      <c r="Z14">
-        <v>3.2</v>
-      </c>
-      <c r="AA14">
-        <v>3.75</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <v>1.01</v>
-      </c>
-      <c r="AD14">
-        <v>10.5</v>
-      </c>
-      <c r="AE14">
-        <v>1.21</v>
-      </c>
-      <c r="AF14">
-        <v>3.75</v>
-      </c>
-      <c r="AG14">
-        <v>1.62</v>
-      </c>
-      <c r="AH14">
-        <v>2.2</v>
-      </c>
-      <c r="AI14">
-        <v>1.67</v>
-      </c>
-      <c r="AJ14">
-        <v>2.1</v>
-      </c>
-      <c r="AK14">
-        <v>1.83</v>
-      </c>
-      <c r="AL14">
-        <v>1.28</v>
-      </c>
-      <c r="AM14">
-        <v>1.29</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1.75</v>
-      </c>
-      <c r="AQ14">
-        <v>1.25</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>10</v>
-      </c>
       <c r="AW14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX14">
         <v>4</v>
       </c>
       <c r="AY14">
+        <v>21</v>
+      </c>
+      <c r="AZ14">
         <v>10</v>
       </c>
-      <c r="AZ14">
-        <v>23</v>
-      </c>
       <c r="BA14">
+        <v>7</v>
+      </c>
+      <c r="BB14">
         <v>4</v>
       </c>
-      <c r="BB14">
-        <v>13</v>
-      </c>
       <c r="BC14">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BD14">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="BE14">
         <v>8.5</v>
       </c>
       <c r="BF14">
-        <v>1.82</v>
+        <v>2.43</v>
       </c>
       <c r="BG14">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH14">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BI14">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BJ14">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK14">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BL14">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="BM14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN14">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO14">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BP14">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3852,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7491499</v>
+        <v>7491502</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3870,113 +3882,113 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="Q15">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S15">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="T15">
+        <v>1.36</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2.63</v>
+      </c>
+      <c r="W15">
+        <v>1.44</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
+        <v>3.2</v>
+      </c>
+      <c r="AA15">
+        <v>3.75</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>1.01</v>
+      </c>
+      <c r="AD15">
+        <v>10.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.21</v>
+      </c>
+      <c r="AF15">
+        <v>3.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.62</v>
+      </c>
+      <c r="AH15">
+        <v>2.2</v>
+      </c>
+      <c r="AI15">
+        <v>1.67</v>
+      </c>
+      <c r="AJ15">
+        <v>2.1</v>
+      </c>
+      <c r="AK15">
+        <v>1.83</v>
+      </c>
+      <c r="AL15">
         <v>1.28</v>
       </c>
-      <c r="U15">
-        <v>3.4</v>
-      </c>
-      <c r="V15">
-        <v>2.2</v>
-      </c>
-      <c r="W15">
-        <v>1.6</v>
-      </c>
-      <c r="X15">
-        <v>4.85</v>
-      </c>
-      <c r="Y15">
-        <v>1.16</v>
-      </c>
-      <c r="Z15">
-        <v>1.91</v>
-      </c>
-      <c r="AA15">
-        <v>3.97</v>
-      </c>
-      <c r="AB15">
-        <v>3.66</v>
-      </c>
-      <c r="AC15">
-        <v>1.03</v>
-      </c>
-      <c r="AD15">
-        <v>11</v>
-      </c>
-      <c r="AE15">
-        <v>1.18</v>
-      </c>
-      <c r="AF15">
-        <v>4.75</v>
-      </c>
-      <c r="AG15">
-        <v>1.55</v>
-      </c>
-      <c r="AH15">
-        <v>2.45</v>
-      </c>
-      <c r="AI15">
-        <v>1.45</v>
-      </c>
-      <c r="AJ15">
-        <v>2.5</v>
-      </c>
-      <c r="AK15">
+      <c r="AM15">
+        <v>1.29</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1.75</v>
+      </c>
+      <c r="AQ15">
         <v>1.25</v>
       </c>
-      <c r="AL15">
-        <v>1.22</v>
-      </c>
-      <c r="AM15">
-        <v>1.85</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>1.25</v>
-      </c>
-      <c r="AQ15">
-        <v>1.5</v>
-      </c>
       <c r="AR15">
         <v>0</v>
       </c>
@@ -3987,70 +3999,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
         <v>3</v>
-      </c>
-      <c r="AW15">
-        <v>12</v>
       </c>
       <c r="AX15">
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="BA15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BC15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BD15">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2.43</v>
+        <v>1.82</v>
       </c>
       <c r="BG15">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH15">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI15">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ15">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK15">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BL15">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="BM15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN15">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO15">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BP15">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4100,7 +4112,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4306,7 +4318,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4512,7 +4524,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4796,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4882,7 +4894,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7491510</v>
+        <v>7491511</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4897,88 +4909,88 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T20">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V20">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W20">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y20">
+        <v>1.14</v>
+      </c>
+      <c r="Z20">
+        <v>2.44</v>
+      </c>
+      <c r="AA20">
+        <v>3.72</v>
+      </c>
+      <c r="AB20">
+        <v>2.62</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
         <v>1.17</v>
       </c>
-      <c r="Z20">
-        <v>1.77</v>
-      </c>
-      <c r="AA20">
-        <v>3.92</v>
-      </c>
-      <c r="AB20">
-        <v>4.18</v>
-      </c>
-      <c r="AC20">
-        <v>1.02</v>
-      </c>
-      <c r="AD20">
-        <v>22</v>
-      </c>
-      <c r="AE20">
-        <v>1.1</v>
-      </c>
       <c r="AF20">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="AG20">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AH20">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="AI20">
         <v>1.5</v>
@@ -4987,100 +4999,100 @@
         <v>2.5</v>
       </c>
       <c r="AK20">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AL20">
         <v>1.22</v>
       </c>
       <c r="AM20">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AN20">
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>0.8100000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="AU20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
         <v>4</v>
       </c>
-      <c r="AW20">
-        <v>5</v>
-      </c>
       <c r="AX20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB20">
         <v>3</v>
       </c>
       <c r="BC20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD20">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="BE20">
-        <v>8.199999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="BF20">
-        <v>4.55</v>
+        <v>2.39</v>
       </c>
       <c r="BG20">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH20">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI20">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ20">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK20">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL20">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN20">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BO20">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BP20">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5088,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491511</v>
+        <v>7491510</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5103,88 +5115,88 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S21">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W21">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z21">
-        <v>2.44</v>
+        <v>1.77</v>
       </c>
       <c r="AA21">
-        <v>3.72</v>
+        <v>3.92</v>
       </c>
       <c r="AB21">
-        <v>2.62</v>
+        <v>4.18</v>
       </c>
       <c r="AC21">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD21">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE21">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AF21">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="AG21">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AH21">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="AI21">
         <v>1.5</v>
@@ -5193,100 +5205,100 @@
         <v>2.5</v>
       </c>
       <c r="AK21">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AL21">
         <v>1.22</v>
       </c>
       <c r="AM21">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AS21">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT21">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
         <v>4</v>
       </c>
-      <c r="AV21">
-        <v>2</v>
-      </c>
       <c r="AW21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB21">
         <v>3</v>
       </c>
       <c r="BC21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD21">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="BE21">
-        <v>6.85</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF21">
-        <v>2.39</v>
+        <v>4.55</v>
       </c>
       <c r="BG21">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH21">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI21">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ21">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BK21">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL21">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BO21">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP21">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5294,7 +5306,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491516</v>
+        <v>7491512</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5309,10 +5321,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5324,175 +5336,175 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>2.4</v>
+      </c>
+      <c r="S22">
         <v>3.1</v>
       </c>
-      <c r="R22">
-        <v>2.3</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y22">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z22">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="AA22">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AB22">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC22">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AE22">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF22">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG22">
         <v>1.64</v>
       </c>
       <c r="AH22">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AI22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ22">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AK22">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AL22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM22">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>2.28</v>
       </c>
       <c r="AS22">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.68</v>
+        <v>3.49</v>
       </c>
       <c r="AU22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
         <v>6</v>
-      </c>
-      <c r="AW22">
-        <v>8</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
       </c>
       <c r="AY22">
         <v>16</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD22">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE22">
         <v>8</v>
       </c>
       <c r="BF22">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="BG22">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH22">
         <v>4.25</v>
       </c>
       <c r="BI22">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ22">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK22">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BL22">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM22">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BN22">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BO22">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BP22">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5500,7 +5512,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491512</v>
+        <v>7491513</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5515,10 +5527,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5530,154 +5542,154 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="Q23">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T23">
+        <v>1.25</v>
+      </c>
+      <c r="U23">
+        <v>3.75</v>
+      </c>
+      <c r="V23">
+        <v>2.2</v>
+      </c>
+      <c r="W23">
+        <v>1.62</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>1.17</v>
+      </c>
+      <c r="Z23">
+        <v>1.67</v>
+      </c>
+      <c r="AA23">
+        <v>3.95</v>
+      </c>
+      <c r="AB23">
+        <v>4.8</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>12</v>
+      </c>
+      <c r="AE23">
+        <v>1.18</v>
+      </c>
+      <c r="AF23">
+        <v>4.75</v>
+      </c>
+      <c r="AG23">
+        <v>1.61</v>
+      </c>
+      <c r="AH23">
+        <v>2.23</v>
+      </c>
+      <c r="AI23">
+        <v>1.53</v>
+      </c>
+      <c r="AJ23">
+        <v>2.38</v>
+      </c>
+      <c r="AK23">
+        <v>1.16</v>
+      </c>
+      <c r="AL23">
+        <v>1.18</v>
+      </c>
+      <c r="AM23">
+        <v>2.15</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.2</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>1.29</v>
       </c>
-      <c r="U23">
-        <v>3.5</v>
-      </c>
-      <c r="V23">
-        <v>2.25</v>
-      </c>
-      <c r="W23">
-        <v>1.57</v>
-      </c>
-      <c r="X23">
-        <v>5.5</v>
-      </c>
-      <c r="Y23">
-        <v>1.14</v>
-      </c>
-      <c r="Z23">
-        <v>2.4</v>
-      </c>
-      <c r="AA23">
-        <v>3.75</v>
-      </c>
-      <c r="AB23">
-        <v>2.7</v>
-      </c>
-      <c r="AC23">
-        <v>1.03</v>
-      </c>
-      <c r="AD23">
-        <v>18.5</v>
-      </c>
-      <c r="AE23">
+      <c r="AS23">
         <v>1.2</v>
       </c>
-      <c r="AF23">
-        <v>4.33</v>
-      </c>
-      <c r="AG23">
-        <v>1.64</v>
-      </c>
-      <c r="AH23">
-        <v>2.13</v>
-      </c>
-      <c r="AI23">
-        <v>1.44</v>
-      </c>
-      <c r="AJ23">
-        <v>2.63</v>
-      </c>
-      <c r="AK23">
-        <v>1.47</v>
-      </c>
-      <c r="AL23">
-        <v>1.2</v>
-      </c>
-      <c r="AM23">
-        <v>1.57</v>
-      </c>
-      <c r="AN23">
+      <c r="AT23">
+        <v>2.49</v>
+      </c>
+      <c r="AU23">
         <v>3</v>
       </c>
-      <c r="AO23">
+      <c r="AV23">
         <v>3</v>
       </c>
-      <c r="AP23">
-        <v>1.25</v>
-      </c>
-      <c r="AQ23">
-        <v>1.5</v>
-      </c>
-      <c r="AR23">
-        <v>2.28</v>
-      </c>
-      <c r="AS23">
-        <v>1.21</v>
-      </c>
-      <c r="AT23">
-        <v>3.49</v>
-      </c>
-      <c r="AU23">
-        <v>4</v>
-      </c>
-      <c r="AV23">
-        <v>5</v>
-      </c>
       <c r="AW23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY23">
         <v>16</v>
       </c>
       <c r="AZ23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD23">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="BE23">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF23">
-        <v>2.42</v>
+        <v>2.91</v>
       </c>
       <c r="BG23">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH23">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="BI23">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BJ23">
         <v>3.1</v>
@@ -5689,16 +5701,16 @@
         <v>2.2</v>
       </c>
       <c r="BM23">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BN23">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO23">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BP23">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5706,7 +5718,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491513</v>
+        <v>7491516</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5721,10 +5733,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5736,73 +5748,73 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="Q24">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
         <v>2.5</v>
       </c>
-      <c r="S24">
-        <v>4.5</v>
-      </c>
-      <c r="T24">
-        <v>1.25</v>
-      </c>
-      <c r="U24">
-        <v>3.75</v>
-      </c>
-      <c r="V24">
-        <v>2.2</v>
-      </c>
       <c r="W24">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y24">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z24">
-        <v>1.67</v>
+        <v>2.85</v>
       </c>
       <c r="AA24">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="AB24">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC24">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE24">
         <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AG24">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AH24">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AI24">
         <v>1.53</v>
@@ -5811,100 +5823,100 @@
         <v>2.38</v>
       </c>
       <c r="AK24">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AL24">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM24">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AT24">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="AU24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY24">
         <v>16</v>
       </c>
       <c r="AZ24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>2.1</v>
+      </c>
+      <c r="BE24">
         <v>8</v>
       </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24">
-        <v>10</v>
-      </c>
-      <c r="BD24">
-        <v>1.55</v>
-      </c>
-      <c r="BE24">
-        <v>8.5</v>
-      </c>
       <c r="BF24">
-        <v>2.91</v>
+        <v>1.91</v>
       </c>
       <c r="BG24">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH24">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="BI24">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ24">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BK24">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BL24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM24">
         <v>2</v>
       </c>
       <c r="BN24">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO24">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BP24">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -6118,7 +6130,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7491515</v>
+        <v>7491514</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6133,190 +6145,190 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q26">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R26">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S26">
+        <v>3.2</v>
+      </c>
+      <c r="T26">
+        <v>1.29</v>
+      </c>
+      <c r="U26">
+        <v>3.5</v>
+      </c>
+      <c r="V26">
+        <v>2.38</v>
+      </c>
+      <c r="W26">
+        <v>1.53</v>
+      </c>
+      <c r="X26">
+        <v>5.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.14</v>
+      </c>
+      <c r="Z26">
         <v>2.5</v>
-      </c>
-      <c r="T26">
-        <v>1.33</v>
-      </c>
-      <c r="U26">
-        <v>3.25</v>
-      </c>
-      <c r="V26">
-        <v>2.63</v>
-      </c>
-      <c r="W26">
-        <v>1.44</v>
-      </c>
-      <c r="X26">
-        <v>6.5</v>
-      </c>
-      <c r="Y26">
-        <v>1.11</v>
-      </c>
-      <c r="Z26">
-        <v>3.75</v>
       </c>
       <c r="AA26">
         <v>3.6</v>
       </c>
       <c r="AB26">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="AC26">
         <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE26">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AF26">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="AG26">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AH26">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AI26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AJ26">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AK26">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="AL26">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM26">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
-        <v>1.22</v>
+        <v>1.96</v>
       </c>
       <c r="AS26">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AT26">
-        <v>2.44</v>
+        <v>3.53</v>
       </c>
       <c r="AU26">
         <v>9</v>
       </c>
       <c r="AV26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>15</v>
+      </c>
+      <c r="AZ26">
+        <v>15</v>
+      </c>
+      <c r="BA26">
         <v>9</v>
       </c>
-      <c r="AX26">
-        <v>6</v>
-      </c>
-      <c r="AY26">
-        <v>23</v>
-      </c>
-      <c r="AZ26">
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
         <v>13</v>
       </c>
-      <c r="BA26">
-        <v>6</v>
-      </c>
-      <c r="BB26">
-        <v>5</v>
-      </c>
-      <c r="BC26">
-        <v>11</v>
-      </c>
       <c r="BD26">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="BG26">
         <v>1.2</v>
       </c>
       <c r="BH26">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BI26">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BJ26">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BK26">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BL26">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BM26">
         <v>2</v>
       </c>
       <c r="BN26">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BO26">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BP26">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6324,7 +6336,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7491509</v>
+        <v>7491515</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6339,10 +6351,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6357,172 +6369,172 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q27">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R27">
         <v>2.3</v>
       </c>
       <c r="S27">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V27">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z27">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="AA27">
         <v>3.6</v>
       </c>
       <c r="AB27">
+        <v>1.9</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>10.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.21</v>
+      </c>
+      <c r="AF27">
+        <v>3.75</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>2.05</v>
+      </c>
+      <c r="AI27">
+        <v>1.67</v>
+      </c>
+      <c r="AJ27">
+        <v>2.1</v>
+      </c>
+      <c r="AK27">
+        <v>1.94</v>
+      </c>
+      <c r="AL27">
+        <v>1.27</v>
+      </c>
+      <c r="AM27">
+        <v>1.25</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
         <v>3</v>
       </c>
-      <c r="AC27">
-        <v>1.01</v>
-      </c>
-      <c r="AD27">
+      <c r="AP27">
+        <v>0.75</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.22</v>
+      </c>
+      <c r="AS27">
+        <v>1.22</v>
+      </c>
+      <c r="AT27">
+        <v>2.44</v>
+      </c>
+      <c r="AU27">
+        <v>9</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>9</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>23</v>
+      </c>
+      <c r="AZ27">
+        <v>13</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>5</v>
+      </c>
+      <c r="BC27">
         <v>11</v>
       </c>
-      <c r="AE27">
-        <v>1.18</v>
-      </c>
-      <c r="AF27">
-        <v>4.33</v>
-      </c>
-      <c r="AG27">
-        <v>1.57</v>
-      </c>
-      <c r="AH27">
-        <v>2.3</v>
-      </c>
-      <c r="AI27">
-        <v>1.53</v>
-      </c>
-      <c r="AJ27">
-        <v>2.38</v>
-      </c>
-      <c r="AK27">
-        <v>1.38</v>
-      </c>
-      <c r="AL27">
-        <v>1.22</v>
-      </c>
-      <c r="AM27">
-        <v>1.65</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27">
-        <v>1.43</v>
-      </c>
-      <c r="AS27">
-        <v>1.27</v>
-      </c>
-      <c r="AT27">
-        <v>2.7</v>
-      </c>
-      <c r="AU27">
-        <v>8</v>
-      </c>
-      <c r="AV27">
-        <v>5</v>
-      </c>
-      <c r="AW27">
-        <v>8</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>20</v>
-      </c>
-      <c r="AZ27">
-        <v>6</v>
-      </c>
-      <c r="BA27">
-        <v>13</v>
-      </c>
-      <c r="BB27">
-        <v>2</v>
-      </c>
-      <c r="BC27">
-        <v>15</v>
-      </c>
       <c r="BD27">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="BE27">
         <v>8</v>
       </c>
       <c r="BF27">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BG27">
         <v>1.2</v>
       </c>
       <c r="BH27">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BI27">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BJ27">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BK27">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BL27">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="BM27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BN27">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BO27">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BP27">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6530,7 +6542,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7491514</v>
+        <v>7491509</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6545,106 +6557,106 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S28">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V28">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W28">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z28">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA28">
         <v>3.6</v>
       </c>
       <c r="AB28">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD28">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE28">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF28">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="AG28">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AH28">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AI28">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AJ28">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AK28">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AL28">
         <v>1.22</v>
       </c>
       <c r="AM28">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -6656,49 +6668,49 @@
         <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="AS28">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="AT28">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="AU28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
         <v>8</v>
       </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
       <c r="AX28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY28">
+        <v>20</v>
+      </c>
+      <c r="AZ28">
+        <v>6</v>
+      </c>
+      <c r="BA28">
+        <v>13</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
         <v>15</v>
       </c>
-      <c r="AZ28">
-        <v>15</v>
-      </c>
-      <c r="BA28">
-        <v>9</v>
-      </c>
-      <c r="BB28">
-        <v>4</v>
-      </c>
-      <c r="BC28">
-        <v>13</v>
-      </c>
       <c r="BD28">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BE28">
         <v>8</v>
       </c>
       <c r="BF28">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BG28">
         <v>1.2</v>
@@ -6713,22 +6725,22 @@
         <v>2.75</v>
       </c>
       <c r="BK28">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BL28">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="BM28">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN28">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="BO28">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BP28">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6751,7 +6763,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>72</v>
@@ -6984,7 +6996,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7062,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>1.25</v>
@@ -7190,7 +7202,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7369,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
@@ -7602,7 +7614,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7808,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7972,7 +7984,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7491519</v>
+        <v>7491524</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7987,124 +7999,124 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="Q35">
-        <v>2.1</v>
+        <v>3.91</v>
       </c>
       <c r="R35">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="S35">
+        <v>2.45</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
+        <v>3.4</v>
+      </c>
+      <c r="V35">
+        <v>2.26</v>
+      </c>
+      <c r="W35">
+        <v>1.64</v>
+      </c>
+      <c r="X35">
+        <v>4.95</v>
+      </c>
+      <c r="Y35">
+        <v>1.14</v>
+      </c>
+      <c r="Z35">
+        <v>3.4</v>
+      </c>
+      <c r="AA35">
+        <v>3.85</v>
+      </c>
+      <c r="AB35">
+        <v>1.92</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>1.17</v>
+      </c>
+      <c r="AF35">
         <v>5</v>
       </c>
-      <c r="T35">
-        <v>1.27</v>
-      </c>
-      <c r="U35">
-        <v>3.35</v>
-      </c>
-      <c r="V35">
-        <v>2.5</v>
-      </c>
-      <c r="W35">
-        <v>1.46</v>
-      </c>
-      <c r="X35">
-        <v>6.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.1</v>
-      </c>
-      <c r="Z35">
-        <v>1.58</v>
-      </c>
-      <c r="AA35">
-        <v>3.95</v>
-      </c>
-      <c r="AB35">
-        <v>5.25</v>
-      </c>
-      <c r="AC35">
-        <v>1.01</v>
-      </c>
-      <c r="AD35">
-        <v>12</v>
-      </c>
-      <c r="AE35">
-        <v>1.18</v>
-      </c>
-      <c r="AF35">
-        <v>4.4</v>
-      </c>
       <c r="AG35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AH35">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="AI35">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AJ35">
-        <v>2.06</v>
+        <v>2.55</v>
       </c>
       <c r="AK35">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AL35">
         <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AT35">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="AU35">
         <v>2</v>
@@ -8113,64 +8125,64 @@
         <v>4</v>
       </c>
       <c r="AW35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD35">
-        <v>1.45</v>
+        <v>2.41</v>
       </c>
       <c r="BE35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF35">
-        <v>3.32</v>
+        <v>1.75</v>
       </c>
       <c r="BG35">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BI35">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ35">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK35">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="BL35">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM35">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN35">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BO35">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP35">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8217,10 +8229,10 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8384,7 +8396,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7491524</v>
+        <v>7491519</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8399,124 +8411,124 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="Q37">
-        <v>3.91</v>
+        <v>2.1</v>
       </c>
       <c r="R37">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="S37">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U37">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V37">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="W37">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X37">
-        <v>4.95</v>
+        <v>6.25</v>
       </c>
       <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>1.58</v>
+      </c>
+      <c r="AA37">
+        <v>3.95</v>
+      </c>
+      <c r="AB37">
+        <v>5.25</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>1.18</v>
+      </c>
+      <c r="AF37">
+        <v>4.4</v>
+      </c>
+      <c r="AG37">
+        <v>1.71</v>
+      </c>
+      <c r="AH37">
+        <v>2.15</v>
+      </c>
+      <c r="AI37">
+        <v>1.72</v>
+      </c>
+      <c r="AJ37">
+        <v>2.06</v>
+      </c>
+      <c r="AK37">
         <v>1.14</v>
-      </c>
-      <c r="Z37">
-        <v>3.4</v>
-      </c>
-      <c r="AA37">
-        <v>3.85</v>
-      </c>
-      <c r="AB37">
-        <v>1.92</v>
-      </c>
-      <c r="AC37">
-        <v>1.04</v>
-      </c>
-      <c r="AD37">
-        <v>10</v>
-      </c>
-      <c r="AE37">
-        <v>1.17</v>
-      </c>
-      <c r="AF37">
-        <v>5</v>
-      </c>
-      <c r="AG37">
-        <v>1.5</v>
-      </c>
-      <c r="AH37">
-        <v>2.48</v>
-      </c>
-      <c r="AI37">
-        <v>1.47</v>
-      </c>
-      <c r="AJ37">
-        <v>2.55</v>
-      </c>
-      <c r="AK37">
-        <v>1.8</v>
       </c>
       <c r="AL37">
         <v>1.22</v>
       </c>
       <c r="AM37">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR37">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="AS37">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8525,64 +8537,64 @@
         <v>4</v>
       </c>
       <c r="AW37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>17</v>
+      </c>
+      <c r="AZ37">
+        <v>11</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
         <v>8</v>
       </c>
-      <c r="AY37">
+      <c r="BD37">
+        <v>1.45</v>
+      </c>
+      <c r="BE37">
         <v>9</v>
       </c>
-      <c r="AZ37">
-        <v>13</v>
-      </c>
-      <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BB37">
-        <v>6</v>
-      </c>
-      <c r="BC37">
-        <v>7</v>
-      </c>
-      <c r="BD37">
-        <v>2.41</v>
-      </c>
-      <c r="BE37">
-        <v>8.5</v>
-      </c>
       <c r="BF37">
-        <v>1.75</v>
+        <v>3.32</v>
       </c>
       <c r="BG37">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH37">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BI37">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ37">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK37">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="BL37">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM37">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN37">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BO37">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP37">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8590,7 +8602,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7491534</v>
+        <v>7491529</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8605,172 +8617,172 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="Q38">
+        <v>2.3</v>
+      </c>
+      <c r="R38">
+        <v>2.6</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.22</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>2.1</v>
+      </c>
+      <c r="W38">
+        <v>1.67</v>
+      </c>
+      <c r="X38">
+        <v>4.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.18</v>
+      </c>
+      <c r="Z38">
+        <v>1.95</v>
+      </c>
+      <c r="AA38">
+        <v>3.9</v>
+      </c>
+      <c r="AB38">
         <v>3.5</v>
-      </c>
-      <c r="R38">
-        <v>2.4</v>
-      </c>
-      <c r="S38">
-        <v>2.63</v>
-      </c>
-      <c r="T38">
-        <v>1.29</v>
-      </c>
-      <c r="U38">
-        <v>3.5</v>
-      </c>
-      <c r="V38">
-        <v>2.25</v>
-      </c>
-      <c r="W38">
-        <v>1.57</v>
-      </c>
-      <c r="X38">
-        <v>5.5</v>
-      </c>
-      <c r="Y38">
-        <v>1.14</v>
-      </c>
-      <c r="Z38">
-        <v>3.2</v>
-      </c>
-      <c r="AA38">
-        <v>3.8</v>
-      </c>
-      <c r="AB38">
-        <v>2.1</v>
       </c>
       <c r="AC38">
         <v>1.01</v>
       </c>
       <c r="AD38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE38">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AF38">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AG38">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AH38">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AI38">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.2</v>
+      </c>
+      <c r="AL38">
+        <v>1.18</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
         <v>2.5</v>
       </c>
-      <c r="AK38">
-        <v>1.72</v>
-      </c>
-      <c r="AL38">
-        <v>1.2</v>
-      </c>
-      <c r="AM38">
-        <v>1.36</v>
-      </c>
-      <c r="AN38">
-        <v>0.5</v>
-      </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
-      <c r="AP38">
-        <v>0.5</v>
-      </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AS38">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="AT38">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="AU38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX38">
         <v>6</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ38">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
         <v>7</v>
       </c>
-      <c r="BB38">
-        <v>6</v>
-      </c>
-      <c r="BC38">
-        <v>13</v>
-      </c>
       <c r="BD38">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE38">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF38">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="BG38">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH38">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="BI38">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BJ38">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK38">
         <v>1.65</v>
@@ -8796,7 +8808,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491529</v>
+        <v>7491534</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8811,172 +8823,172 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O39" t="s">
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="Q39">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R39">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T39">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.14</v>
+      </c>
+      <c r="Z39">
+        <v>3.2</v>
+      </c>
+      <c r="AA39">
+        <v>3.8</v>
+      </c>
+      <c r="AB39">
         <v>2.1</v>
-      </c>
-      <c r="W39">
-        <v>1.67</v>
-      </c>
-      <c r="X39">
-        <v>4.5</v>
-      </c>
-      <c r="Y39">
-        <v>1.18</v>
-      </c>
-      <c r="Z39">
-        <v>1.95</v>
-      </c>
-      <c r="AA39">
-        <v>3.9</v>
-      </c>
-      <c r="AB39">
-        <v>3.5</v>
       </c>
       <c r="AC39">
         <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE39">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AF39">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG39">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AH39">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AI39">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ39">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK39">
+        <v>1.72</v>
+      </c>
+      <c r="AL39">
         <v>1.2</v>
       </c>
-      <c r="AL39">
-        <v>1.18</v>
-      </c>
       <c r="AM39">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AS39">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AT39">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX39">
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ39">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BA39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC39">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD39">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE39">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF39">
-        <v>2.62</v>
+        <v>1.91</v>
       </c>
       <c r="BG39">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH39">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="BI39">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="BJ39">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK39">
         <v>1.65</v>
@@ -9044,7 +9056,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9208,7 +9220,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7491533</v>
+        <v>7491527</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9223,70 +9235,70 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" t="s">
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q41">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R41">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S41">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T41">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V41">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W41">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y41">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z41">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="AA41">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AB41">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="AC41">
         <v>1.04</v>
@@ -9295,16 +9307,16 @@
         <v>10</v>
       </c>
       <c r="AE41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF41">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG41">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AH41">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AI41">
         <v>1.67</v>
@@ -9313,100 +9325,100 @@
         <v>2.1</v>
       </c>
       <c r="AK41">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM41">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR41">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AS41">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AT41">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU41">
         <v>4</v>
       </c>
       <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>16</v>
+      </c>
+      <c r="AZ41">
+        <v>16</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
         <v>10</v>
       </c>
-      <c r="AW41">
-        <v>6</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>13</v>
-      </c>
-      <c r="AZ41">
-        <v>17</v>
-      </c>
-      <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BB41">
-        <v>6</v>
-      </c>
       <c r="BC41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD41">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE41">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF41">
-        <v>2.43</v>
+        <v>3.32</v>
       </c>
       <c r="BG41">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH41">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI41">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BJ41">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK41">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BL41">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM41">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="BN41">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="BO41">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="BP41">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9414,7 +9426,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491527</v>
+        <v>7491533</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9429,70 +9441,70 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q42">
+        <v>2.88</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>3.5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
         <v>2.3</v>
       </c>
-      <c r="R42">
-        <v>2.38</v>
-      </c>
-      <c r="S42">
-        <v>4.5</v>
-      </c>
-      <c r="T42">
-        <v>1.3</v>
-      </c>
-      <c r="U42">
-        <v>3.4</v>
-      </c>
-      <c r="V42">
-        <v>2.5</v>
-      </c>
-      <c r="W42">
-        <v>1.5</v>
-      </c>
-      <c r="X42">
-        <v>6</v>
-      </c>
-      <c r="Y42">
-        <v>1.13</v>
-      </c>
-      <c r="Z42">
-        <v>1.77</v>
-      </c>
       <c r="AA42">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AB42">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="AC42">
         <v>1.04</v>
@@ -9501,16 +9513,16 @@
         <v>10</v>
       </c>
       <c r="AE42">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF42">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG42">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AH42">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AI42">
         <v>1.67</v>
@@ -9519,100 +9531,100 @@
         <v>2.1</v>
       </c>
       <c r="AK42">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL42">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM42">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
         <v>0.5</v>
       </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AT42">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU42">
         <v>4</v>
       </c>
       <c r="AV42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>17</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
         <v>8</v>
       </c>
-      <c r="AX42">
-        <v>8</v>
-      </c>
-      <c r="AY42">
-        <v>16</v>
-      </c>
-      <c r="AZ42">
-        <v>16</v>
-      </c>
-      <c r="BA42">
-        <v>2</v>
-      </c>
-      <c r="BB42">
-        <v>10</v>
-      </c>
-      <c r="BC42">
-        <v>12</v>
-      </c>
       <c r="BD42">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="BE42">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF42">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="BG42">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="BH42">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI42">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="BJ42">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK42">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="BL42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM42">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="BN42">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="BO42">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="BP42">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9659,10 +9671,10 @@
         <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9826,7 +9838,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7491531</v>
+        <v>7491528</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9841,43 +9853,43 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="P44" t="s">
         <v>92</v>
       </c>
       <c r="Q44">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="R44">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="T44">
         <v>1.25</v>
@@ -9886,25 +9898,25 @@
         <v>3.75</v>
       </c>
       <c r="V44">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W44">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X44">
+        <v>5.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.14</v>
+      </c>
+      <c r="Z44">
+        <v>1.33</v>
+      </c>
+      <c r="AA44">
         <v>5</v>
       </c>
-      <c r="Y44">
-        <v>1.17</v>
-      </c>
-      <c r="Z44">
-        <v>1.9</v>
-      </c>
-      <c r="AA44">
-        <v>3.8</v>
-      </c>
       <c r="AB44">
-        <v>3.45</v>
+        <v>7.8</v>
       </c>
       <c r="AC44">
         <v>1.01</v>
@@ -9913,118 +9925,118 @@
         <v>13</v>
       </c>
       <c r="AE44">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AF44">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AG44">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AH44">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AI44">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ44">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK44">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AL44">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AM44">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="AN44">
         <v>2</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="AS44">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AT44">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="AU44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW44">
         <v>6</v>
       </c>
       <c r="AX44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY44">
+        <v>18</v>
+      </c>
+      <c r="AZ44">
+        <v>8</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>1.23</v>
+      </c>
+      <c r="BE44">
         <v>11</v>
       </c>
-      <c r="AZ44">
-        <v>16</v>
-      </c>
-      <c r="BA44">
-        <v>8</v>
-      </c>
-      <c r="BB44">
-        <v>6</v>
-      </c>
-      <c r="BC44">
-        <v>14</v>
-      </c>
-      <c r="BD44">
-        <v>1.37</v>
-      </c>
-      <c r="BE44">
-        <v>9.5</v>
-      </c>
       <c r="BF44">
-        <v>3.82</v>
+        <v>5.1</v>
       </c>
       <c r="BG44">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="BH44">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI44">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="BJ44">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="BK44">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="BL44">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BM44">
+        <v>1.72</v>
+      </c>
+      <c r="BN44">
+        <v>2</v>
+      </c>
+      <c r="BO44">
         <v>2.1</v>
       </c>
-      <c r="BN44">
+      <c r="BP44">
         <v>1.65</v>
-      </c>
-      <c r="BO44">
-        <v>2.88</v>
-      </c>
-      <c r="BP44">
-        <v>1.35</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10032,7 +10044,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7491532</v>
+        <v>7491531</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10047,7 +10059,7 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
         <v>83</v>
@@ -10056,181 +10068,181 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="Q45">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R45">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S45">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T45">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U45">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>1.62</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.17</v>
+      </c>
+      <c r="Z45">
+        <v>1.9</v>
+      </c>
+      <c r="AA45">
+        <v>3.8</v>
+      </c>
+      <c r="AB45">
+        <v>3.45</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>13</v>
+      </c>
+      <c r="AE45">
+        <v>1.17</v>
+      </c>
+      <c r="AF45">
+        <v>5</v>
+      </c>
+      <c r="AG45">
+        <v>1.6</v>
+      </c>
+      <c r="AH45">
+        <v>2.2</v>
+      </c>
+      <c r="AI45">
+        <v>1.5</v>
+      </c>
+      <c r="AJ45">
         <v>2.5</v>
       </c>
-      <c r="W45">
-        <v>1.5</v>
-      </c>
-      <c r="X45">
-        <v>6</v>
-      </c>
-      <c r="Y45">
-        <v>1.13</v>
-      </c>
-      <c r="Z45">
-        <v>2.6</v>
-      </c>
-      <c r="AA45">
-        <v>3.6</v>
-      </c>
-      <c r="AB45">
-        <v>2.4</v>
-      </c>
-      <c r="AC45">
-        <v>1.04</v>
-      </c>
-      <c r="AD45">
-        <v>10</v>
-      </c>
-      <c r="AE45">
+      <c r="AK45">
         <v>1.2</v>
       </c>
-      <c r="AF45">
-        <v>4.2</v>
-      </c>
-      <c r="AG45">
-        <v>1.65</v>
-      </c>
-      <c r="AH45">
-        <v>2.1</v>
-      </c>
-      <c r="AI45">
-        <v>1.53</v>
-      </c>
-      <c r="AJ45">
-        <v>2.38</v>
-      </c>
-      <c r="AK45">
-        <v>1.52</v>
-      </c>
       <c r="AL45">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AN45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45">
+        <v>1.2</v>
+      </c>
+      <c r="AR45">
+        <v>1.68</v>
+      </c>
+      <c r="AS45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT45">
+        <v>2.62</v>
+      </c>
+      <c r="AU45">
         <v>3</v>
-      </c>
-      <c r="AP45">
-        <v>1.2</v>
-      </c>
-      <c r="AQ45">
-        <v>3</v>
-      </c>
-      <c r="AR45">
-        <v>1.24</v>
-      </c>
-      <c r="AS45">
-        <v>1.32</v>
-      </c>
-      <c r="AT45">
-        <v>2.56</v>
-      </c>
-      <c r="AU45">
-        <v>6</v>
       </c>
       <c r="AV45">
         <v>7</v>
       </c>
       <c r="AW45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
+        <v>16</v>
+      </c>
+      <c r="BA45">
+        <v>8</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
         <v>14</v>
       </c>
-      <c r="BA45">
-        <v>6</v>
-      </c>
-      <c r="BB45">
-        <v>4</v>
-      </c>
-      <c r="BC45">
-        <v>10</v>
-      </c>
       <c r="BD45">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="BE45">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF45">
-        <v>1.95</v>
+        <v>3.82</v>
       </c>
       <c r="BG45">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BH45">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="BI45">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="BJ45">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BK45">
+        <v>1.73</v>
+      </c>
+      <c r="BL45">
+        <v>2</v>
+      </c>
+      <c r="BM45">
+        <v>2.1</v>
+      </c>
+      <c r="BN45">
         <v>1.65</v>
       </c>
-      <c r="BL45">
-        <v>2.1</v>
-      </c>
-      <c r="BM45">
-        <v>2</v>
-      </c>
-      <c r="BN45">
-        <v>1.72</v>
-      </c>
       <c r="BO45">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="BP45">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10238,7 +10250,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7491528</v>
+        <v>7491532</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10253,190 +10265,190 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q46">
+        <v>3.1</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>3.1</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>2.6</v>
+      </c>
+      <c r="AA46">
+        <v>3.6</v>
+      </c>
+      <c r="AB46">
+        <v>2.4</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.2</v>
+      </c>
+      <c r="AF46">
+        <v>4.2</v>
+      </c>
+      <c r="AG46">
+        <v>1.65</v>
+      </c>
+      <c r="AH46">
+        <v>2.1</v>
+      </c>
+      <c r="AI46">
+        <v>1.53</v>
+      </c>
+      <c r="AJ46">
+        <v>2.38</v>
+      </c>
+      <c r="AK46">
+        <v>1.52</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>1.5</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>1.2</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>1.24</v>
+      </c>
+      <c r="AS46">
+        <v>1.32</v>
+      </c>
+      <c r="AT46">
+        <v>2.56</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
         <v>5</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>5</v>
-      </c>
-      <c r="O46" t="s">
-        <v>121</v>
-      </c>
-      <c r="P46" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q46">
-        <v>1.8</v>
-      </c>
-      <c r="R46">
-        <v>2.63</v>
-      </c>
-      <c r="S46">
-        <v>7.5</v>
-      </c>
-      <c r="T46">
-        <v>1.25</v>
-      </c>
-      <c r="U46">
-        <v>3.75</v>
-      </c>
-      <c r="V46">
-        <v>2.25</v>
-      </c>
-      <c r="W46">
-        <v>1.57</v>
-      </c>
-      <c r="X46">
-        <v>5.5</v>
-      </c>
-      <c r="Y46">
-        <v>1.14</v>
-      </c>
-      <c r="Z46">
-        <v>1.33</v>
-      </c>
-      <c r="AA46">
-        <v>5</v>
-      </c>
-      <c r="AB46">
-        <v>7.8</v>
-      </c>
-      <c r="AC46">
-        <v>1.01</v>
-      </c>
-      <c r="AD46">
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
         <v>13</v>
       </c>
-      <c r="AE46">
-        <v>1.13</v>
-      </c>
-      <c r="AF46">
-        <v>4.75</v>
-      </c>
-      <c r="AG46">
-        <v>1.53</v>
-      </c>
-      <c r="AH46">
-        <v>2.35</v>
-      </c>
-      <c r="AI46">
-        <v>1.83</v>
-      </c>
-      <c r="AJ46">
-        <v>1.83</v>
-      </c>
-      <c r="AK46">
-        <v>1.03</v>
-      </c>
-      <c r="AL46">
-        <v>1.11</v>
-      </c>
-      <c r="AM46">
-        <v>3.25</v>
-      </c>
-      <c r="AN46">
-        <v>2</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>2</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>1.28</v>
-      </c>
-      <c r="AS46">
-        <v>1.12</v>
-      </c>
-      <c r="AT46">
-        <v>2.4</v>
-      </c>
-      <c r="AU46">
-        <v>9</v>
-      </c>
-      <c r="AV46">
-        <v>2</v>
-      </c>
-      <c r="AW46">
+      <c r="AZ46">
+        <v>14</v>
+      </c>
+      <c r="BA46">
         <v>6</v>
-      </c>
-      <c r="AX46">
-        <v>3</v>
-      </c>
-      <c r="AY46">
-        <v>18</v>
-      </c>
-      <c r="AZ46">
-        <v>8</v>
-      </c>
-      <c r="BA46">
-        <v>5</v>
       </c>
       <c r="BB46">
         <v>4</v>
       </c>
       <c r="BC46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD46">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
       <c r="BE46">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF46">
-        <v>5.1</v>
+        <v>1.95</v>
       </c>
       <c r="BG46">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH46">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI46">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="BJ46">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="BK46">
+        <v>1.65</v>
+      </c>
+      <c r="BL46">
+        <v>2.1</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.72</v>
+      </c>
+      <c r="BO46">
+        <v>2.5</v>
+      </c>
+      <c r="BP46">
         <v>1.47</v>
-      </c>
-      <c r="BL46">
-        <v>2.5</v>
-      </c>
-      <c r="BM46">
-        <v>1.72</v>
-      </c>
-      <c r="BN46">
-        <v>2</v>
-      </c>
-      <c r="BO46">
-        <v>2.1</v>
-      </c>
-      <c r="BP46">
-        <v>1.65</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10486,7 +10498,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10692,7 +10704,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10871,7 +10883,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
         <v>70</v>
@@ -10898,7 +10910,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11062,7 +11074,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7491542</v>
+        <v>7491539</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11077,106 +11089,106 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="Q50">
-        <v>2.73</v>
+        <v>3.4</v>
       </c>
       <c r="R50">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="S50">
-        <v>3.69</v>
+        <v>2.63</v>
       </c>
       <c r="T50">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U50">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="V50">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="W50">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X50">
         <v>5</v>
       </c>
       <c r="Y50">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
-        <v>2.13</v>
+        <v>3.05</v>
       </c>
       <c r="AA50">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="AB50">
-        <v>3.12</v>
+        <v>2.14</v>
       </c>
       <c r="AC50">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE50">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF50">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG50">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AH50">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="AI50">
+        <v>1.44</v>
+      </c>
+      <c r="AJ50">
+        <v>2.5</v>
+      </c>
+      <c r="AK50">
+        <v>1.71</v>
+      </c>
+      <c r="AL50">
+        <v>1.26</v>
+      </c>
+      <c r="AM50">
+        <v>1.38</v>
+      </c>
+      <c r="AN50">
         <v>1.5</v>
-      </c>
-      <c r="AJ50">
-        <v>2.4</v>
-      </c>
-      <c r="AK50">
-        <v>1.36</v>
-      </c>
-      <c r="AL50">
-        <v>1.27</v>
-      </c>
-      <c r="AM50">
-        <v>1.72</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
       </c>
       <c r="AO50">
         <v>2</v>
@@ -11185,82 +11197,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR50">
+        <v>0.97</v>
+      </c>
+      <c r="AS50">
         <v>1.47</v>
       </c>
-      <c r="AS50">
+      <c r="AT50">
+        <v>2.44</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>12</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
+        <v>21</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>2.24</v>
+      </c>
+      <c r="BE50">
+        <v>9</v>
+      </c>
+      <c r="BF50">
+        <v>1.93</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>5.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.26</v>
+      </c>
+      <c r="BJ50">
+        <v>3.6</v>
+      </c>
+      <c r="BK50">
+        <v>1.44</v>
+      </c>
+      <c r="BL50">
+        <v>2.65</v>
+      </c>
+      <c r="BM50">
         <v>1.72</v>
       </c>
-      <c r="AT50">
-        <v>3.19</v>
-      </c>
-      <c r="AU50">
-        <v>10</v>
-      </c>
-      <c r="AV50">
-        <v>2</v>
-      </c>
-      <c r="AW50">
-        <v>7</v>
-      </c>
-      <c r="AX50">
-        <v>6</v>
-      </c>
-      <c r="AY50">
-        <v>20</v>
-      </c>
-      <c r="AZ50">
-        <v>11</v>
-      </c>
-      <c r="BA50">
-        <v>8</v>
-      </c>
-      <c r="BB50">
-        <v>1</v>
-      </c>
-      <c r="BC50">
-        <v>9</v>
-      </c>
-      <c r="BD50">
-        <v>2.4</v>
-      </c>
-      <c r="BE50">
-        <v>8.5</v>
-      </c>
-      <c r="BF50">
-        <v>1.87</v>
-      </c>
-      <c r="BG50">
-        <v>1.32</v>
-      </c>
-      <c r="BH50">
-        <v>3.2</v>
-      </c>
-      <c r="BI50">
-        <v>1.55</v>
-      </c>
-      <c r="BJ50">
-        <v>2.3</v>
-      </c>
-      <c r="BK50">
-        <v>1.92</v>
-      </c>
-      <c r="BL50">
-        <v>1.82</v>
-      </c>
-      <c r="BM50">
-        <v>2.45</v>
-      </c>
       <c r="BN50">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="BO50">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="BP50">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11268,7 +11280,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7491539</v>
+        <v>7491542</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11283,106 +11295,106 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
         <v>92</v>
       </c>
-      <c r="P51" t="s">
-        <v>176</v>
-      </c>
       <c r="Q51">
+        <v>2.73</v>
+      </c>
+      <c r="R51">
+        <v>2.46</v>
+      </c>
+      <c r="S51">
+        <v>3.69</v>
+      </c>
+      <c r="T51">
+        <v>1.27</v>
+      </c>
+      <c r="U51">
         <v>3.4</v>
       </c>
-      <c r="R51">
-        <v>2.3</v>
-      </c>
-      <c r="S51">
-        <v>2.63</v>
-      </c>
-      <c r="T51">
-        <v>1.26</v>
-      </c>
-      <c r="U51">
-        <v>3.64</v>
-      </c>
       <c r="V51">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="W51">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="Z51">
-        <v>3.05</v>
+        <v>2.13</v>
       </c>
       <c r="AA51">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AB51">
-        <v>2.14</v>
+        <v>3.12</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD51">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE51">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF51">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AG51">
+        <v>1.62</v>
+      </c>
+      <c r="AH51">
+        <v>2.31</v>
+      </c>
+      <c r="AI51">
         <v>1.5</v>
       </c>
-      <c r="AH51">
+      <c r="AJ51">
         <v>2.4</v>
       </c>
-      <c r="AI51">
-        <v>1.44</v>
-      </c>
-      <c r="AJ51">
-        <v>2.5</v>
-      </c>
       <c r="AK51">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AL51">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AM51">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO51">
         <v>2</v>
@@ -11391,82 +11403,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AS51">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AT51">
-        <v>2.44</v>
+        <v>3.19</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY51">
+        <v>20</v>
+      </c>
+      <c r="AZ51">
+        <v>11</v>
+      </c>
+      <c r="BA51">
         <v>8</v>
       </c>
-      <c r="AZ51">
-        <v>21</v>
-      </c>
-      <c r="BA51">
-        <v>7</v>
-      </c>
       <c r="BB51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD51">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="BE51">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF51">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="BG51">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="BH51">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="BI51">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="BJ51">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="BK51">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
       <c r="BL51">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="BM51">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="BN51">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="BO51">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="BP51">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11516,7 +11528,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11680,7 +11692,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7491541</v>
+        <v>7491538</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11695,25 +11707,25 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <v>3</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
       </c>
       <c r="N53">
         <v>4</v>
@@ -11722,97 +11734,97 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S53">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T53">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V53">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W53">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X53">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y53">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z53">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA53">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB53">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="AC53">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD53">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE53">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF53">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AG53">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AH53">
-        <v>2.43</v>
+        <v>2.29</v>
       </c>
       <c r="AI53">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ53">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AK53">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.85</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.75</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
         <v>1.25</v>
       </c>
-      <c r="AM53">
-        <v>1.42</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>2</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53">
-        <v>1.5</v>
-      </c>
-      <c r="AR53">
-        <v>1.87</v>
-      </c>
       <c r="AS53">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AT53">
-        <v>3.03</v>
+        <v>2.31</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -11821,64 +11833,64 @@
         <v>5</v>
       </c>
       <c r="AW53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY53">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ53">
+        <v>20</v>
+      </c>
+      <c r="BA53">
         <v>9</v>
       </c>
-      <c r="BA53">
-        <v>2</v>
-      </c>
       <c r="BB53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC53">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD53">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BE53">
         <v>8</v>
       </c>
       <c r="BF53">
+        <v>2.33</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.95</v>
+      </c>
+      <c r="BI53">
+        <v>1.45</v>
+      </c>
+      <c r="BJ53">
+        <v>2.55</v>
+      </c>
+      <c r="BK53">
+        <v>1.73</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
         <v>2.1</v>
       </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>0</v>
-      </c>
-      <c r="BI53">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>0</v>
-      </c>
-      <c r="BK53">
-        <v>1.6</v>
-      </c>
-      <c r="BL53">
-        <v>2.2</v>
-      </c>
-      <c r="BM53">
-        <v>2</v>
-      </c>
       <c r="BN53">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BO53">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP53">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11886,7 +11898,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7491538</v>
+        <v>7491541</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11901,25 +11913,25 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>4</v>
@@ -11928,97 +11940,97 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R54">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T54">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U54">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V54">
+        <v>2.25</v>
+      </c>
+      <c r="W54">
+        <v>1.57</v>
+      </c>
+      <c r="X54">
+        <v>5.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.14</v>
+      </c>
+      <c r="Z54">
+        <v>2.7</v>
+      </c>
+      <c r="AA54">
+        <v>3.5</v>
+      </c>
+      <c r="AB54">
+        <v>2.45</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>13</v>
+      </c>
+      <c r="AE54">
+        <v>1.18</v>
+      </c>
+      <c r="AF54">
+        <v>4.75</v>
+      </c>
+      <c r="AG54">
+        <v>1.52</v>
+      </c>
+      <c r="AH54">
+        <v>2.43</v>
+      </c>
+      <c r="AI54">
+        <v>1.44</v>
+      </c>
+      <c r="AJ54">
         <v>2.63</v>
       </c>
-      <c r="W54">
-        <v>1.44</v>
-      </c>
-      <c r="X54">
-        <v>6.5</v>
-      </c>
-      <c r="Y54">
-        <v>1.11</v>
-      </c>
-      <c r="Z54">
-        <v>1.95</v>
-      </c>
-      <c r="AA54">
-        <v>3.9</v>
-      </c>
-      <c r="AB54">
-        <v>3.4</v>
-      </c>
-      <c r="AC54">
-        <v>1.05</v>
-      </c>
-      <c r="AD54">
-        <v>9.5</v>
-      </c>
-      <c r="AE54">
+      <c r="AK54">
+        <v>1.57</v>
+      </c>
+      <c r="AL54">
         <v>1.25</v>
       </c>
-      <c r="AF54">
-        <v>3.9</v>
-      </c>
-      <c r="AG54">
-        <v>1.63</v>
-      </c>
-      <c r="AH54">
-        <v>2.29</v>
-      </c>
-      <c r="AI54">
-        <v>1.67</v>
-      </c>
-      <c r="AJ54">
-        <v>2.1</v>
-      </c>
-      <c r="AK54">
-        <v>1.25</v>
-      </c>
-      <c r="AL54">
-        <v>1.22</v>
-      </c>
       <c r="AM54">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="AS54">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AT54">
-        <v>2.31</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12027,64 +12039,64 @@
         <v>5</v>
       </c>
       <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
         <v>7</v>
       </c>
-      <c r="AX54">
-        <v>10</v>
-      </c>
-      <c r="AY54">
-        <v>21</v>
-      </c>
-      <c r="AZ54">
-        <v>20</v>
-      </c>
-      <c r="BA54">
-        <v>9</v>
-      </c>
-      <c r="BB54">
-        <v>8</v>
-      </c>
-      <c r="BC54">
-        <v>17</v>
-      </c>
       <c r="BD54">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BE54">
         <v>8</v>
       </c>
       <c r="BF54">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BG54">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH54">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BI54">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BK54">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BL54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BM54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN54">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BO54">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BP54">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12134,7 +12146,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12212,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12316,7 +12328,7 @@
         <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -12340,7 +12352,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12546,7 +12558,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12710,7 +12722,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7491545</v>
+        <v>7491546</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12725,190 +12737,190 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="R58">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S58">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="V58">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X58">
-        <v>5.3</v>
+        <v>4.55</v>
       </c>
       <c r="Y58">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z58">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="AA58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB58">
-        <v>2.88</v>
+        <v>4.05</v>
       </c>
       <c r="AC58">
         <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE58">
         <v>1.14</v>
       </c>
       <c r="AF58">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG58">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AH58">
-        <v>2.29</v>
+        <v>2.54</v>
       </c>
       <c r="AI58">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AJ58">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AK58">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL58">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM58">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AN58">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO58">
+        <v>1.67</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.49</v>
+      </c>
+      <c r="AS58">
+        <v>1.52</v>
+      </c>
+      <c r="AT58">
+        <v>3.01</v>
+      </c>
+      <c r="AU58">
+        <v>10</v>
+      </c>
+      <c r="AV58">
+        <v>7</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>20</v>
+      </c>
+      <c r="AZ58">
+        <v>13</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
         <v>3</v>
       </c>
-      <c r="AP58">
-        <v>1</v>
-      </c>
-      <c r="AQ58">
-        <v>3</v>
-      </c>
-      <c r="AR58">
-        <v>1.59</v>
-      </c>
-      <c r="AS58">
-        <v>1.28</v>
-      </c>
-      <c r="AT58">
-        <v>2.87</v>
-      </c>
-      <c r="AU58">
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>1.52</v>
+      </c>
+      <c r="BE58">
         <v>8</v>
       </c>
-      <c r="AV58">
-        <v>3</v>
-      </c>
-      <c r="AW58">
-        <v>4</v>
-      </c>
-      <c r="AX58">
-        <v>3</v>
-      </c>
-      <c r="AY58">
-        <v>17</v>
-      </c>
-      <c r="AZ58">
-        <v>12</v>
-      </c>
-      <c r="BA58">
-        <v>8</v>
-      </c>
-      <c r="BB58">
-        <v>4</v>
-      </c>
-      <c r="BC58">
-        <v>12</v>
-      </c>
-      <c r="BD58">
-        <v>1.72</v>
-      </c>
-      <c r="BE58">
-        <v>7.5</v>
-      </c>
       <c r="BF58">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BG58">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="BH58">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI58">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ58">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BK58">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BL58">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="BM58">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BN58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BO58">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="BP58">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12916,7 +12928,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7491546</v>
+        <v>7491545</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12931,190 +12943,190 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="R59">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="T59">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U59">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V59">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W59">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X59">
-        <v>4.55</v>
+        <v>5.3</v>
       </c>
       <c r="Y59">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z59">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="AA59">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB59">
-        <v>4.05</v>
+        <v>2.88</v>
       </c>
       <c r="AC59">
         <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE59">
         <v>1.14</v>
       </c>
       <c r="AF59">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG59">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AH59">
-        <v>2.54</v>
+        <v>2.29</v>
       </c>
       <c r="AI59">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AJ59">
+        <v>2.5</v>
+      </c>
+      <c r="AK59">
+        <v>1.36</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>1.65</v>
+      </c>
+      <c r="AN59">
+        <v>0.67</v>
+      </c>
+      <c r="AO59">
+        <v>3</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>1.59</v>
+      </c>
+      <c r="AS59">
+        <v>1.28</v>
+      </c>
+      <c r="AT59">
+        <v>2.87</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>3</v>
+      </c>
+      <c r="AY59">
+        <v>17</v>
+      </c>
+      <c r="AZ59">
+        <v>12</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.72</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
         <v>2.6</v>
       </c>
-      <c r="AK59">
-        <v>1.22</v>
-      </c>
-      <c r="AL59">
-        <v>1.18</v>
-      </c>
-      <c r="AM59">
-        <v>2</v>
-      </c>
-      <c r="AN59">
-        <v>2.33</v>
-      </c>
-      <c r="AO59">
-        <v>1.67</v>
-      </c>
-      <c r="AP59">
-        <v>2</v>
-      </c>
-      <c r="AQ59">
+      <c r="BG59">
+        <v>1.1</v>
+      </c>
+      <c r="BH59">
+        <v>4.75</v>
+      </c>
+      <c r="BI59">
+        <v>1.28</v>
+      </c>
+      <c r="BJ59">
+        <v>3.25</v>
+      </c>
+      <c r="BK59">
         <v>1.5</v>
       </c>
-      <c r="AR59">
-        <v>1.49</v>
-      </c>
-      <c r="AS59">
+      <c r="BL59">
+        <v>2.35</v>
+      </c>
+      <c r="BM59">
+        <v>1.88</v>
+      </c>
+      <c r="BN59">
+        <v>1.92</v>
+      </c>
+      <c r="BO59">
+        <v>2.35</v>
+      </c>
+      <c r="BP59">
         <v>1.52</v>
-      </c>
-      <c r="AT59">
-        <v>3.01</v>
-      </c>
-      <c r="AU59">
-        <v>10</v>
-      </c>
-      <c r="AV59">
-        <v>7</v>
-      </c>
-      <c r="AW59">
-        <v>6</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>20</v>
-      </c>
-      <c r="AZ59">
-        <v>13</v>
-      </c>
-      <c r="BA59">
-        <v>7</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>10</v>
-      </c>
-      <c r="BD59">
-        <v>1.52</v>
-      </c>
-      <c r="BE59">
-        <v>8</v>
-      </c>
-      <c r="BF59">
-        <v>3.1</v>
-      </c>
-      <c r="BG59">
-        <v>1.13</v>
-      </c>
-      <c r="BH59">
-        <v>5.5</v>
-      </c>
-      <c r="BI59">
-        <v>1.27</v>
-      </c>
-      <c r="BJ59">
-        <v>3.35</v>
-      </c>
-      <c r="BK59">
-        <v>1.48</v>
-      </c>
-      <c r="BL59">
-        <v>2.45</v>
-      </c>
-      <c r="BM59">
-        <v>1.8</v>
-      </c>
-      <c r="BN59">
-        <v>2</v>
-      </c>
-      <c r="BO59">
-        <v>2.28</v>
-      </c>
-      <c r="BP59">
-        <v>1.55</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13242,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13370,7 +13382,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13448,10 +13460,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -13758,7 +13770,7 @@
         <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13782,7 +13794,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13863,7 +13875,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -13988,7 +14000,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14194,7 +14206,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14785,7 +14797,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
         <v>80</v>
@@ -14809,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P68" t="s">
         <v>92</v>
@@ -15018,7 +15030,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15224,7 +15236,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15388,7 +15400,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7491554</v>
+        <v>7491560</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15403,88 +15415,88 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O71" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R71">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S71">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="T71">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U71">
+        <v>3.75</v>
+      </c>
+      <c r="V71">
+        <v>2.2</v>
+      </c>
+      <c r="W71">
+        <v>1.62</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>1.17</v>
+      </c>
+      <c r="Z71">
+        <v>1.91</v>
+      </c>
+      <c r="AA71">
+        <v>3.8</v>
+      </c>
+      <c r="AB71">
         <v>3.4</v>
       </c>
-      <c r="V71">
-        <v>2.38</v>
-      </c>
-      <c r="W71">
-        <v>1.53</v>
-      </c>
-      <c r="X71">
-        <v>6</v>
-      </c>
-      <c r="Y71">
-        <v>1.13</v>
-      </c>
-      <c r="Z71">
-        <v>2.45</v>
-      </c>
-      <c r="AA71">
-        <v>3.5</v>
-      </c>
-      <c r="AB71">
-        <v>2.63</v>
-      </c>
       <c r="AC71">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE71">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AF71">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AG71">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AH71">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI71">
         <v>1.5</v>
@@ -15493,100 +15505,100 @@
         <v>2.5</v>
       </c>
       <c r="AK71">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AL71">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM71">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AN71">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO71">
         <v>1.33</v>
       </c>
       <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
         <v>1.25</v>
       </c>
-      <c r="AQ71">
-        <v>1.75</v>
-      </c>
       <c r="AR71">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AT71">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="AU71">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX71">
         <v>9</v>
       </c>
       <c r="AY71">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AZ71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD71">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BE71">
         <v>8.5</v>
       </c>
       <c r="BF71">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BG71">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="BH71">
-        <v>5.15</v>
+        <v>4.25</v>
       </c>
       <c r="BI71">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ71">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BK71">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BL71">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BM71">
         <v>1.98</v>
       </c>
       <c r="BN71">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BO71">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="BP71">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15594,7 +15606,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7491560</v>
+        <v>7491561</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15609,160 +15621,160 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>2.88</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>2.88</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>2.3</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.19</v>
+      </c>
+      <c r="AF72">
+        <v>3.66</v>
+      </c>
+      <c r="AG72">
+        <v>1.73</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72">
+        <v>2.2</v>
+      </c>
+      <c r="AK72">
+        <v>1.63</v>
+      </c>
+      <c r="AL72">
+        <v>1.29</v>
+      </c>
+      <c r="AM72">
+        <v>1.4</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.25</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
+        <v>1.5</v>
+      </c>
+      <c r="AT72">
+        <v>3.16</v>
+      </c>
+      <c r="AU72">
+        <v>10</v>
+      </c>
+      <c r="AV72">
+        <v>2</v>
+      </c>
+      <c r="AW72">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
-        <v>4</v>
-      </c>
-      <c r="O72" t="s">
-        <v>141</v>
-      </c>
-      <c r="P72" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q72">
-        <v>2.5</v>
-      </c>
-      <c r="R72">
-        <v>2.4</v>
-      </c>
-      <c r="S72">
-        <v>3.6</v>
-      </c>
-      <c r="T72">
-        <v>1.25</v>
-      </c>
-      <c r="U72">
-        <v>3.75</v>
-      </c>
-      <c r="V72">
-        <v>2.2</v>
-      </c>
-      <c r="W72">
-        <v>1.62</v>
-      </c>
-      <c r="X72">
-        <v>5</v>
-      </c>
-      <c r="Y72">
-        <v>1.17</v>
-      </c>
-      <c r="Z72">
+      <c r="AX72">
+        <v>10</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>14</v>
+      </c>
+      <c r="BD72">
+        <v>2.1</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
         <v>1.91</v>
-      </c>
-      <c r="AA72">
-        <v>3.8</v>
-      </c>
-      <c r="AB72">
-        <v>3.4</v>
-      </c>
-      <c r="AC72">
-        <v>1.01</v>
-      </c>
-      <c r="AD72">
-        <v>13</v>
-      </c>
-      <c r="AE72">
-        <v>1.11</v>
-      </c>
-      <c r="AF72">
-        <v>5.5</v>
-      </c>
-      <c r="AG72">
-        <v>1.5</v>
-      </c>
-      <c r="AH72">
-        <v>2.4</v>
-      </c>
-      <c r="AI72">
-        <v>1.5</v>
-      </c>
-      <c r="AJ72">
-        <v>2.5</v>
-      </c>
-      <c r="AK72">
-        <v>1.3</v>
-      </c>
-      <c r="AL72">
-        <v>1.22</v>
-      </c>
-      <c r="AM72">
-        <v>1.8</v>
-      </c>
-      <c r="AN72">
-        <v>1</v>
-      </c>
-      <c r="AO72">
-        <v>1.33</v>
-      </c>
-      <c r="AP72">
-        <v>1</v>
-      </c>
-      <c r="AQ72">
-        <v>1.25</v>
-      </c>
-      <c r="AR72">
-        <v>1.7</v>
-      </c>
-      <c r="AS72">
-        <v>1.48</v>
-      </c>
-      <c r="AT72">
-        <v>3.18</v>
-      </c>
-      <c r="AU72">
-        <v>4</v>
-      </c>
-      <c r="AV72">
-        <v>4</v>
-      </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>9</v>
-      </c>
-      <c r="AY72">
-        <v>9</v>
-      </c>
-      <c r="AZ72">
-        <v>13</v>
-      </c>
-      <c r="BA72">
-        <v>5</v>
-      </c>
-      <c r="BB72">
-        <v>7</v>
-      </c>
-      <c r="BC72">
-        <v>12</v>
-      </c>
-      <c r="BD72">
-        <v>1.82</v>
-      </c>
-      <c r="BE72">
-        <v>8.5</v>
-      </c>
-      <c r="BF72">
-        <v>2.39</v>
       </c>
       <c r="BG72">
         <v>1.18</v>
@@ -15800,7 +15812,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7491561</v>
+        <v>7491554</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15815,190 +15827,190 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>2.38</v>
+      </c>
+      <c r="S73">
+        <v>3.1</v>
+      </c>
+      <c r="T73">
+        <v>1.3</v>
+      </c>
+      <c r="U73">
         <v>3.4</v>
       </c>
-      <c r="R73">
-        <v>2.25</v>
-      </c>
-      <c r="S73">
-        <v>2.88</v>
-      </c>
-      <c r="T73">
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>1.13</v>
+      </c>
+      <c r="Z73">
+        <v>2.45</v>
+      </c>
+      <c r="AA73">
+        <v>3.5</v>
+      </c>
+      <c r="AB73">
+        <v>2.63</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.33</v>
+      </c>
+      <c r="AG73">
+        <v>1.6</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>1.5</v>
+      </c>
+      <c r="AJ73">
+        <v>2.5</v>
+      </c>
+      <c r="AK73">
+        <v>1.48</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.56</v>
+      </c>
+      <c r="AN73">
+        <v>1.67</v>
+      </c>
+      <c r="AO73">
         <v>1.33</v>
       </c>
-      <c r="U73">
-        <v>3.25</v>
-      </c>
-      <c r="V73">
-        <v>2.63</v>
-      </c>
-      <c r="W73">
-        <v>1.44</v>
-      </c>
-      <c r="X73">
-        <v>6.5</v>
-      </c>
-      <c r="Y73">
-        <v>1.11</v>
-      </c>
-      <c r="Z73">
-        <v>2.88</v>
-      </c>
-      <c r="AA73">
-        <v>3.4</v>
-      </c>
-      <c r="AB73">
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.75</v>
+      </c>
+      <c r="AR73">
+        <v>1.59</v>
+      </c>
+      <c r="AS73">
+        <v>1.43</v>
+      </c>
+      <c r="AT73">
+        <v>3.02</v>
+      </c>
+      <c r="AU73">
+        <v>12</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>8</v>
+      </c>
+      <c r="AX73">
+        <v>9</v>
+      </c>
+      <c r="AY73">
+        <v>20</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>10</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>13</v>
+      </c>
+      <c r="BD73">
+        <v>2</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>2</v>
+      </c>
+      <c r="BG73">
+        <v>1.08</v>
+      </c>
+      <c r="BH73">
+        <v>5.15</v>
+      </c>
+      <c r="BI73">
+        <v>1.3</v>
+      </c>
+      <c r="BJ73">
+        <v>3.1</v>
+      </c>
+      <c r="BK73">
+        <v>1.54</v>
+      </c>
+      <c r="BL73">
         <v>2.3</v>
-      </c>
-      <c r="AC73">
-        <v>1.05</v>
-      </c>
-      <c r="AD73">
-        <v>9.5</v>
-      </c>
-      <c r="AE73">
-        <v>1.19</v>
-      </c>
-      <c r="AF73">
-        <v>3.66</v>
-      </c>
-      <c r="AG73">
-        <v>1.73</v>
-      </c>
-      <c r="AH73">
-        <v>2</v>
-      </c>
-      <c r="AI73">
-        <v>1.62</v>
-      </c>
-      <c r="AJ73">
-        <v>2.2</v>
-      </c>
-      <c r="AK73">
-        <v>1.63</v>
-      </c>
-      <c r="AL73">
-        <v>1.29</v>
-      </c>
-      <c r="AM73">
-        <v>1.4</v>
-      </c>
-      <c r="AN73">
-        <v>1</v>
-      </c>
-      <c r="AO73">
-        <v>0.33</v>
-      </c>
-      <c r="AP73">
-        <v>1.5</v>
-      </c>
-      <c r="AQ73">
-        <v>0.25</v>
-      </c>
-      <c r="AR73">
-        <v>1.66</v>
-      </c>
-      <c r="AS73">
-        <v>1.5</v>
-      </c>
-      <c r="AT73">
-        <v>3.16</v>
-      </c>
-      <c r="AU73">
-        <v>10</v>
-      </c>
-      <c r="AV73">
-        <v>2</v>
-      </c>
-      <c r="AW73">
-        <v>3</v>
-      </c>
-      <c r="AX73">
-        <v>10</v>
-      </c>
-      <c r="AY73">
-        <v>13</v>
-      </c>
-      <c r="AZ73">
-        <v>12</v>
-      </c>
-      <c r="BA73">
-        <v>6</v>
-      </c>
-      <c r="BB73">
-        <v>8</v>
-      </c>
-      <c r="BC73">
-        <v>14</v>
-      </c>
-      <c r="BD73">
-        <v>2.1</v>
-      </c>
-      <c r="BE73">
-        <v>8</v>
-      </c>
-      <c r="BF73">
-        <v>1.91</v>
-      </c>
-      <c r="BG73">
-        <v>1.18</v>
-      </c>
-      <c r="BH73">
-        <v>4.25</v>
-      </c>
-      <c r="BI73">
-        <v>1.34</v>
-      </c>
-      <c r="BJ73">
-        <v>2.95</v>
-      </c>
-      <c r="BK73">
-        <v>1.6</v>
-      </c>
-      <c r="BL73">
-        <v>2.17</v>
       </c>
       <c r="BM73">
         <v>1.98</v>
       </c>
       <c r="BN73">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="BO73">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="BP73">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16006,7 +16018,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7491562</v>
+        <v>7491566</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16021,160 +16033,160 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
         <v>3</v>
       </c>
-      <c r="L74">
-        <v>5</v>
-      </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O74" t="s">
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q74">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R74">
         <v>2.5</v>
       </c>
       <c r="S74">
+        <v>4.33</v>
+      </c>
+      <c r="T74">
+        <v>1.29</v>
+      </c>
+      <c r="U74">
+        <v>3.5</v>
+      </c>
+      <c r="V74">
         <v>2.25</v>
       </c>
-      <c r="T74">
-        <v>1.25</v>
-      </c>
-      <c r="U74">
-        <v>3.75</v>
-      </c>
-      <c r="V74">
-        <v>2.1</v>
-      </c>
       <c r="W74">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X74">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y74">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z74">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA74">
         <v>3.8</v>
       </c>
       <c r="AB74">
-        <v>1.83</v>
+        <v>4.2</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AG74">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AH74">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AI74">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AJ74">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AK74">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AL74">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AS74">
-        <v>2.05</v>
+        <v>1.16</v>
       </c>
       <c r="AT74">
-        <v>3.67</v>
+        <v>2.56</v>
       </c>
       <c r="AU74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW74">
         <v>5</v>
       </c>
       <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>18</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
         <v>7</v>
       </c>
-      <c r="AY74">
-        <v>13</v>
-      </c>
-      <c r="AZ74">
-        <v>19</v>
-      </c>
-      <c r="BA74">
-        <v>3</v>
-      </c>
       <c r="BB74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD74">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF74">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="BG74">
         <v>0</v>
@@ -16189,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="BK74">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL74">
         <v>0</v>
@@ -16212,7 +16224,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7491566</v>
+        <v>7491562</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16227,189 +16239,807 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O75" t="s">
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q75">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="R75">
         <v>2.5</v>
       </c>
       <c r="S75">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V75">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W75">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X75">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y75">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z75">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="AA75">
         <v>3.8</v>
       </c>
       <c r="AB75">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="AC75">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE75">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF75">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AG75">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AH75">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="AI75">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ75">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AK75">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AL75">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AM75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN75">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AS75">
-        <v>1.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT75">
-        <v>2.56</v>
+        <v>3.67</v>
       </c>
       <c r="AU75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW75">
         <v>5</v>
       </c>
       <c r="AX75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY75">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
+        <v>19</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>1.91</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7491570</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45584.33333333334</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>92</v>
+      </c>
+      <c r="P76" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q76">
+        <v>4.5</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>2.38</v>
+      </c>
+      <c r="T76">
+        <v>1.33</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.5</v>
+      </c>
+      <c r="W76">
+        <v>1.5</v>
+      </c>
+      <c r="X76">
+        <v>6.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.11</v>
+      </c>
+      <c r="Z76">
+        <v>4.16</v>
+      </c>
+      <c r="AA76">
+        <v>3.66</v>
+      </c>
+      <c r="AB76">
+        <v>1.7</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1.94</v>
+      </c>
+      <c r="AF76">
+        <v>1.94</v>
+      </c>
+      <c r="AG76">
+        <v>1.67</v>
+      </c>
+      <c r="AH76">
+        <v>2.1</v>
+      </c>
+      <c r="AI76">
+        <v>1.67</v>
+      </c>
+      <c r="AJ76">
+        <v>2.1</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>3</v>
+      </c>
+      <c r="AP76">
+        <v>0.8</v>
+      </c>
+      <c r="AQ76">
+        <v>3</v>
+      </c>
+      <c r="AR76">
+        <v>1.26</v>
+      </c>
+      <c r="AS76">
+        <v>1.26</v>
+      </c>
+      <c r="AT76">
+        <v>2.52</v>
+      </c>
+      <c r="AU76">
         <v>6</v>
       </c>
-      <c r="BA75">
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>16</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>12</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7491564</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45584.33333333334</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q77">
+        <v>2.3</v>
+      </c>
+      <c r="R77">
+        <v>2.4</v>
+      </c>
+      <c r="S77">
+        <v>4.33</v>
+      </c>
+      <c r="T77">
+        <v>1.29</v>
+      </c>
+      <c r="U77">
+        <v>3.5</v>
+      </c>
+      <c r="V77">
+        <v>2.25</v>
+      </c>
+      <c r="W77">
+        <v>1.57</v>
+      </c>
+      <c r="X77">
+        <v>5.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.14</v>
+      </c>
+      <c r="Z77">
+        <v>1.88</v>
+      </c>
+      <c r="AA77">
+        <v>3.55</v>
+      </c>
+      <c r="AB77">
+        <v>3.48</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <v>1.18</v>
+      </c>
+      <c r="AF77">
+        <v>4.75</v>
+      </c>
+      <c r="AG77">
+        <v>1.55</v>
+      </c>
+      <c r="AH77">
+        <v>2.3</v>
+      </c>
+      <c r="AI77">
+        <v>1.53</v>
+      </c>
+      <c r="AJ77">
+        <v>2.38</v>
+      </c>
+      <c r="AK77">
+        <v>1.18</v>
+      </c>
+      <c r="AL77">
+        <v>1.18</v>
+      </c>
+      <c r="AM77">
+        <v>2.05</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>3</v>
+      </c>
+      <c r="AQ77">
+        <v>0.8</v>
+      </c>
+      <c r="AR77">
+        <v>1.65</v>
+      </c>
+      <c r="AS77">
+        <v>1.31</v>
+      </c>
+      <c r="AT77">
+        <v>2.96</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>16</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
         <v>7</v>
       </c>
-      <c r="BB75">
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.51</v>
+      </c>
+      <c r="BE77">
+        <v>9</v>
+      </c>
+      <c r="BF77">
+        <v>3.06</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>2</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7491569</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45584.33333333334</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q78">
+        <v>2.88</v>
+      </c>
+      <c r="R78">
+        <v>2.4</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.25</v>
+      </c>
+      <c r="U78">
+        <v>3.75</v>
+      </c>
+      <c r="V78">
+        <v>2.25</v>
+      </c>
+      <c r="W78">
+        <v>1.57</v>
+      </c>
+      <c r="X78">
+        <v>5.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.14</v>
+      </c>
+      <c r="Z78">
+        <v>2.3</v>
+      </c>
+      <c r="AA78">
+        <v>3.53</v>
+      </c>
+      <c r="AB78">
+        <v>2.61</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <v>1.17</v>
+      </c>
+      <c r="AF78">
         <v>5</v>
       </c>
-      <c r="BC75">
-        <v>12</v>
-      </c>
-      <c r="BD75">
-        <v>1.69</v>
-      </c>
-      <c r="BE75">
+      <c r="AG78">
+        <v>1.5</v>
+      </c>
+      <c r="AH78">
+        <v>2.4</v>
+      </c>
+      <c r="AI78">
+        <v>1.44</v>
+      </c>
+      <c r="AJ78">
+        <v>2.63</v>
+      </c>
+      <c r="AK78">
+        <v>1.45</v>
+      </c>
+      <c r="AL78">
+        <v>1.2</v>
+      </c>
+      <c r="AM78">
+        <v>1.57</v>
+      </c>
+      <c r="AN78">
+        <v>0.5</v>
+      </c>
+      <c r="AO78">
+        <v>1.25</v>
+      </c>
+      <c r="AP78">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78">
+        <v>1.2</v>
+      </c>
+      <c r="AR78">
+        <v>1.45</v>
+      </c>
+      <c r="AS78">
+        <v>1.27</v>
+      </c>
+      <c r="AT78">
+        <v>2.72</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
+        <v>6</v>
+      </c>
+      <c r="AZ78">
+        <v>19</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>8</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.75</v>
+      </c>
+      <c r="BE78">
         <v>8.5</v>
       </c>
-      <c r="BF75">
-        <v>2.53</v>
-      </c>
-      <c r="BG75">
-        <v>0</v>
-      </c>
-      <c r="BH75">
-        <v>0</v>
-      </c>
-      <c r="BI75">
-        <v>0</v>
-      </c>
-      <c r="BJ75">
-        <v>0</v>
-      </c>
-      <c r="BK75">
-        <v>0</v>
-      </c>
-      <c r="BL75">
-        <v>0</v>
-      </c>
-      <c r="BM75">
-        <v>0</v>
-      </c>
-      <c r="BN75">
-        <v>0</v>
-      </c>
-      <c r="BO75">
-        <v>0</v>
-      </c>
-      <c r="BP75">
+      <c r="BF78">
+        <v>2.43</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,7 +445,7 @@
     <t>['20', '90+3']</t>
   </si>
   <si>
-    <t>['52', '72', '83']</t>
+    <t>['54', '72', '83']</t>
   </si>
   <si>
     <t>['11', '40', '54', '65', '90+4']</t>
@@ -457,6 +457,12 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['30', '87', '90']</t>
+  </si>
+  <si>
+    <t>['5', '42', '45+1']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -608,6 +614,15 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['13', '18', '33', '88']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1243,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1434,7 +1449,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1515,7 +1530,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1846,7 +1861,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1927,7 +1942,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2258,7 +2273,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2464,7 +2479,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2670,7 +2685,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2748,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2876,7 +2891,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2954,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
         <v>1.4</v>
@@ -3288,7 +3303,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3366,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3781,7 +3796,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3906,7 +3921,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4112,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4190,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4318,7 +4333,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4524,7 +4539,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4605,7 +4620,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5142,7 +5157,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5348,7 +5363,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5426,10 +5441,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>2.28</v>
@@ -5760,7 +5775,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6172,7 +6187,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6378,7 +6393,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6456,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6584,7 +6599,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6665,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6996,7 +7011,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7202,7 +7217,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7280,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7614,7 +7629,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7695,7 +7710,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -7820,7 +7835,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7898,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8026,7 +8041,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8107,7 +8122,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>2.14</v>
@@ -8232,7 +8247,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8850,7 +8865,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8931,7 +8946,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.52</v>
@@ -9056,7 +9071,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9262,7 +9277,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9468,7 +9483,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9546,10 +9561,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9674,7 +9689,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9755,7 +9770,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -9958,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10164,7 +10179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10292,7 +10307,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10498,7 +10513,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10704,7 +10719,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10910,7 +10925,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11116,7 +11131,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11528,7 +11543,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11606,7 +11621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -11734,7 +11749,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11940,7 +11955,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12021,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12146,7 +12161,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12352,7 +12367,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12430,7 +12445,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12558,7 +12573,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12636,7 +12651,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ57">
         <v>0.2</v>
@@ -12764,7 +12779,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12842,10 +12857,10 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -12970,7 +12985,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13051,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR59">
         <v>1.59</v>
@@ -13382,7 +13397,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13669,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -13794,7 +13809,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14000,7 +14015,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14081,7 +14096,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -14206,7 +14221,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -15030,7 +15045,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15236,7 +15251,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15442,7 +15457,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15854,7 +15869,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16060,7 +16075,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16153,22 +16168,22 @@
         <v>2.56</v>
       </c>
       <c r="AU74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX74">
         <v>2</v>
       </c>
       <c r="AY74">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA74">
         <v>7</v>
@@ -16236,7 +16251,7 @@
         <v>45583.5625</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -16266,7 +16281,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16359,31 +16374,31 @@
         <v>3.67</v>
       </c>
       <c r="AU75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY75">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ75">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA75">
         <v>3</v>
       </c>
       <c r="BB75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD75">
         <v>0</v>
@@ -16472,7 +16487,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16884,7 +16899,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17041,6 +17056,830 @@
       </c>
       <c r="BP78">
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7491567</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45584.64583333334</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q79">
+        <v>3.2</v>
+      </c>
+      <c r="R79">
+        <v>2.4</v>
+      </c>
+      <c r="S79">
+        <v>2.88</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.25</v>
+      </c>
+      <c r="W79">
+        <v>1.57</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>2.97</v>
+      </c>
+      <c r="AA79">
+        <v>3.65</v>
+      </c>
+      <c r="AB79">
+        <v>2.3</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>15</v>
+      </c>
+      <c r="AE79">
+        <v>2.23</v>
+      </c>
+      <c r="AF79">
+        <v>1.69</v>
+      </c>
+      <c r="AG79">
+        <v>1.5</v>
+      </c>
+      <c r="AH79">
+        <v>2.48</v>
+      </c>
+      <c r="AI79">
+        <v>1.44</v>
+      </c>
+      <c r="AJ79">
+        <v>2.63</v>
+      </c>
+      <c r="AK79">
+        <v>1.57</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.44</v>
+      </c>
+      <c r="AN79">
+        <v>0.67</v>
+      </c>
+      <c r="AO79">
+        <v>1.5</v>
+      </c>
+      <c r="AP79">
+        <v>1.25</v>
+      </c>
+      <c r="AQ79">
+        <v>1.2</v>
+      </c>
+      <c r="AR79">
+        <v>1.72</v>
+      </c>
+      <c r="AS79">
+        <v>1.5</v>
+      </c>
+      <c r="AT79">
+        <v>3.22</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>2</v>
+      </c>
+      <c r="BE79">
+        <v>7.3</v>
+      </c>
+      <c r="BF79">
+        <v>2.05</v>
+      </c>
+      <c r="BG79">
+        <v>1.09</v>
+      </c>
+      <c r="BH79">
+        <v>5</v>
+      </c>
+      <c r="BI79">
+        <v>1.22</v>
+      </c>
+      <c r="BJ79">
+        <v>3.75</v>
+      </c>
+      <c r="BK79">
+        <v>1.91</v>
+      </c>
+      <c r="BL79">
+        <v>2.62</v>
+      </c>
+      <c r="BM79">
+        <v>1.72</v>
+      </c>
+      <c r="BN79">
+        <v>1.98</v>
+      </c>
+      <c r="BO79">
+        <v>2.2</v>
+      </c>
+      <c r="BP79">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7491563</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45585.35416666666</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>148</v>
+      </c>
+      <c r="P80" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q80">
+        <v>2.1</v>
+      </c>
+      <c r="R80">
+        <v>2.6</v>
+      </c>
+      <c r="S80">
+        <v>4.5</v>
+      </c>
+      <c r="T80">
+        <v>1.22</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>2.1</v>
+      </c>
+      <c r="W80">
+        <v>1.67</v>
+      </c>
+      <c r="X80">
+        <v>4.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.18</v>
+      </c>
+      <c r="Z80">
+        <v>1.62</v>
+      </c>
+      <c r="AA80">
+        <v>4.54</v>
+      </c>
+      <c r="AB80">
+        <v>4.64</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>17</v>
+      </c>
+      <c r="AE80">
+        <v>1.14</v>
+      </c>
+      <c r="AF80">
+        <v>5.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.41</v>
+      </c>
+      <c r="AH80">
+        <v>2.78</v>
+      </c>
+      <c r="AI80">
+        <v>1.5</v>
+      </c>
+      <c r="AJ80">
+        <v>2.5</v>
+      </c>
+      <c r="AK80">
+        <v>1.15</v>
+      </c>
+      <c r="AL80">
+        <v>1.16</v>
+      </c>
+      <c r="AM80">
+        <v>2.25</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>3</v>
+      </c>
+      <c r="AP80">
+        <v>2.2</v>
+      </c>
+      <c r="AQ80">
+        <v>2.4</v>
+      </c>
+      <c r="AR80">
+        <v>1.62</v>
+      </c>
+      <c r="AS80">
+        <v>1.22</v>
+      </c>
+      <c r="AT80">
+        <v>2.84</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>14</v>
+      </c>
+      <c r="AZ80">
+        <v>15</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>11</v>
+      </c>
+      <c r="BD80">
+        <v>1.37</v>
+      </c>
+      <c r="BE80">
+        <v>9.5</v>
+      </c>
+      <c r="BF80">
+        <v>3.69</v>
+      </c>
+      <c r="BG80">
+        <v>1.13</v>
+      </c>
+      <c r="BH80">
+        <v>5.45</v>
+      </c>
+      <c r="BI80">
+        <v>1.25</v>
+      </c>
+      <c r="BJ80">
+        <v>3.72</v>
+      </c>
+      <c r="BK80">
+        <v>1.43</v>
+      </c>
+      <c r="BL80">
+        <v>2.68</v>
+      </c>
+      <c r="BM80">
+        <v>1.8</v>
+      </c>
+      <c r="BN80">
+        <v>2</v>
+      </c>
+      <c r="BO80">
+        <v>2.12</v>
+      </c>
+      <c r="BP80">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7491565</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45585.35416666666</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q81">
+        <v>2.38</v>
+      </c>
+      <c r="R81">
+        <v>2.4</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>1.29</v>
+      </c>
+      <c r="U81">
+        <v>3.5</v>
+      </c>
+      <c r="V81">
+        <v>2.25</v>
+      </c>
+      <c r="W81">
+        <v>1.57</v>
+      </c>
+      <c r="X81">
+        <v>5.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.14</v>
+      </c>
+      <c r="Z81">
+        <v>1.83</v>
+      </c>
+      <c r="AA81">
+        <v>4.04</v>
+      </c>
+      <c r="AB81">
+        <v>3.86</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>13</v>
+      </c>
+      <c r="AE81">
+        <v>1.18</v>
+      </c>
+      <c r="AF81">
+        <v>4.75</v>
+      </c>
+      <c r="AG81">
+        <v>1.52</v>
+      </c>
+      <c r="AH81">
+        <v>2.43</v>
+      </c>
+      <c r="AI81">
+        <v>1.53</v>
+      </c>
+      <c r="AJ81">
+        <v>2.38</v>
+      </c>
+      <c r="AK81">
+        <v>1.22</v>
+      </c>
+      <c r="AL81">
+        <v>1.18</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>1.25</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
+      <c r="AQ81">
+        <v>1.4</v>
+      </c>
+      <c r="AR81">
+        <v>1.41</v>
+      </c>
+      <c r="AS81">
+        <v>1.22</v>
+      </c>
+      <c r="AT81">
+        <v>2.63</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>6</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
+        <v>1.41</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>3.49</v>
+      </c>
+      <c r="BG81">
+        <v>1.17</v>
+      </c>
+      <c r="BH81">
+        <v>4.7</v>
+      </c>
+      <c r="BI81">
+        <v>1.31</v>
+      </c>
+      <c r="BJ81">
+        <v>3.25</v>
+      </c>
+      <c r="BK81">
+        <v>1.91</v>
+      </c>
+      <c r="BL81">
+        <v>2.39</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.37</v>
+      </c>
+      <c r="BP81">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7491568</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45585.35416666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q82">
+        <v>3.5</v>
+      </c>
+      <c r="R82">
+        <v>2.38</v>
+      </c>
+      <c r="S82">
+        <v>2.75</v>
+      </c>
+      <c r="T82">
+        <v>1.3</v>
+      </c>
+      <c r="U82">
+        <v>3.4</v>
+      </c>
+      <c r="V82">
+        <v>2.38</v>
+      </c>
+      <c r="W82">
+        <v>1.53</v>
+      </c>
+      <c r="X82">
+        <v>6</v>
+      </c>
+      <c r="Y82">
+        <v>1.13</v>
+      </c>
+      <c r="Z82">
+        <v>3.09</v>
+      </c>
+      <c r="AA82">
+        <v>3.72</v>
+      </c>
+      <c r="AB82">
+        <v>2.17</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
+        <v>1.18</v>
+      </c>
+      <c r="AF82">
+        <v>4.5</v>
+      </c>
+      <c r="AG82">
+        <v>1.65</v>
+      </c>
+      <c r="AH82">
+        <v>2.23</v>
+      </c>
+      <c r="AI82">
+        <v>1.53</v>
+      </c>
+      <c r="AJ82">
+        <v>2.38</v>
+      </c>
+      <c r="AK82">
+        <v>1.7</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.36</v>
+      </c>
+      <c r="AN82">
+        <v>0.75</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>0.6</v>
+      </c>
+      <c r="AQ82">
+        <v>1.8</v>
+      </c>
+      <c r="AR82">
+        <v>1.52</v>
+      </c>
+      <c r="AS82">
+        <v>1.27</v>
+      </c>
+      <c r="AT82">
+        <v>2.79</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>15</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>12</v>
+      </c>
+      <c r="BC82">
+        <v>17</v>
+      </c>
+      <c r="BD82">
+        <v>2.43</v>
+      </c>
+      <c r="BE82">
+        <v>8.5</v>
+      </c>
+      <c r="BF82">
+        <v>1.75</v>
+      </c>
+      <c r="BG82">
+        <v>1.22</v>
+      </c>
+      <c r="BH82">
+        <v>4</v>
+      </c>
+      <c r="BI82">
+        <v>1.4</v>
+      </c>
+      <c r="BJ82">
+        <v>2.83</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>2.13</v>
+      </c>
+      <c r="BM82">
+        <v>2.08</v>
+      </c>
+      <c r="BN82">
+        <v>1.7</v>
+      </c>
+      <c r="BO82">
+        <v>2.7</v>
+      </c>
+      <c r="BP82">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -17278,7 +17278,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45585.35416666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F80">
         <v>9</v>
@@ -17484,7 +17484,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45585.35416666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F81">
         <v>9</v>
@@ -17690,7 +17690,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45585.35416666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F82">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -17278,10 +17278,10 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45584.875</v>
+        <v>45585.35416666666</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -17404,22 +17404,22 @@
         <v>2.84</v>
       </c>
       <c r="AU80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV80">
         <v>3</v>
       </c>
       <c r="AW80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX80">
         <v>5</v>
       </c>
       <c r="AY80">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ80">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17484,7 +17484,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45584.875</v>
+        <v>45585.35416666666</v>
       </c>
       <c r="F81">
         <v>9</v>
@@ -17610,22 +17610,22 @@
         <v>2.63</v>
       </c>
       <c r="AU81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>7</v>
+      </c>
+      <c r="AZ81">
         <v>8</v>
-      </c>
-      <c r="AW81">
-        <v>2</v>
-      </c>
-      <c r="AX81">
-        <v>6</v>
-      </c>
-      <c r="AY81">
-        <v>10</v>
-      </c>
-      <c r="AZ81">
-        <v>14</v>
       </c>
       <c r="BA81">
         <v>3</v>
@@ -17690,7 +17690,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45584.875</v>
+        <v>45585.35416666666</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -17822,16 +17822,16 @@
         <v>4</v>
       </c>
       <c r="AW82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX82">
         <v>6</v>
       </c>
       <c r="AY82">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ82">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA82">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['5', '42', '45+1']</t>
   </si>
   <si>
+    <t>['17', '23', '45', '59', '74', '80', '83', '90+1']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -623,6 +626,12 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['76', '80']</t>
+  </si>
+  <si>
+    <t>['36', '42', '49']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1252,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1321,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1449,7 +1458,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1861,7 +1870,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1942,7 +1951,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2479,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2685,7 +2694,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2891,7 +2900,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3303,7 +3312,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3587,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3921,7 +3930,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4127,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4333,7 +4342,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4539,7 +4548,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5157,7 +5166,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5363,7 +5372,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5444,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>2.28</v>
@@ -5775,7 +5784,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6059,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>0.2</v>
@@ -6187,7 +6196,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6393,7 +6402,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6599,7 +6608,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7011,7 +7020,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7217,7 +7226,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7629,7 +7638,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7707,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
         <v>2.4</v>
@@ -7835,7 +7844,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8041,7 +8050,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8247,7 +8256,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8865,7 +8874,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8946,7 +8955,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.52</v>
@@ -9071,7 +9080,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9277,7 +9286,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9483,7 +9492,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9689,7 +9698,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9767,7 +9776,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>2.4</v>
@@ -10307,7 +10316,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10513,7 +10522,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10719,7 +10728,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10925,7 +10934,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11131,7 +11140,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11209,7 +11218,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11543,7 +11552,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11749,7 +11758,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11955,7 +11964,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12161,7 +12170,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12367,7 +12376,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12573,7 +12582,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12779,7 +12788,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12860,7 +12869,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -12985,7 +12994,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13397,7 +13406,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13809,7 +13818,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14015,7 +14024,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14093,7 +14102,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14221,7 +14230,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14711,7 +14720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15045,7 +15054,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15123,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15251,7 +15260,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15457,7 +15466,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15869,7 +15878,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16075,7 +16084,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16281,7 +16290,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16487,7 +16496,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16899,7 +16908,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17186,7 +17195,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -17311,7 +17320,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17517,7 +17526,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17723,7 +17732,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17880,6 +17889,418 @@
       </c>
       <c r="BP82">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7491571</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45590.5625</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>115</v>
+      </c>
+      <c r="P83" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q83">
+        <v>2.15</v>
+      </c>
+      <c r="R83">
+        <v>2.5</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>1.21</v>
+      </c>
+      <c r="U83">
+        <v>3.95</v>
+      </c>
+      <c r="V83">
+        <v>2.04</v>
+      </c>
+      <c r="W83">
+        <v>1.71</v>
+      </c>
+      <c r="X83">
+        <v>4.25</v>
+      </c>
+      <c r="Y83">
+        <v>1.19</v>
+      </c>
+      <c r="Z83">
+        <v>1.75</v>
+      </c>
+      <c r="AA83">
+        <v>4</v>
+      </c>
+      <c r="AB83">
+        <v>4</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>17</v>
+      </c>
+      <c r="AE83">
+        <v>1.14</v>
+      </c>
+      <c r="AF83">
+        <v>5.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.4</v>
+      </c>
+      <c r="AH83">
+        <v>2.82</v>
+      </c>
+      <c r="AI83">
+        <v>1.42</v>
+      </c>
+      <c r="AJ83">
+        <v>2.75</v>
+      </c>
+      <c r="AK83">
+        <v>1.17</v>
+      </c>
+      <c r="AL83">
+        <v>1.17</v>
+      </c>
+      <c r="AM83">
+        <v>2.15</v>
+      </c>
+      <c r="AN83">
+        <v>1.4</v>
+      </c>
+      <c r="AO83">
+        <v>1.2</v>
+      </c>
+      <c r="AP83">
+        <v>1.17</v>
+      </c>
+      <c r="AQ83">
+        <v>1.5</v>
+      </c>
+      <c r="AR83">
+        <v>2.13</v>
+      </c>
+      <c r="AS83">
+        <v>1.43</v>
+      </c>
+      <c r="AT83">
+        <v>3.56</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>15</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.37</v>
+      </c>
+      <c r="BE83">
+        <v>7.8</v>
+      </c>
+      <c r="BF83">
+        <v>4.25</v>
+      </c>
+      <c r="BG83">
+        <v>1.19</v>
+      </c>
+      <c r="BH83">
+        <v>4.4</v>
+      </c>
+      <c r="BI83">
+        <v>1.35</v>
+      </c>
+      <c r="BJ83">
+        <v>3.05</v>
+      </c>
+      <c r="BK83">
+        <v>1.59</v>
+      </c>
+      <c r="BL83">
+        <v>2.27</v>
+      </c>
+      <c r="BM83">
+        <v>1.98</v>
+      </c>
+      <c r="BN83">
+        <v>1.82</v>
+      </c>
+      <c r="BO83">
+        <v>2.5</v>
+      </c>
+      <c r="BP83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7491577</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45590.5625</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84">
+        <v>8</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>11</v>
+      </c>
+      <c r="O84" t="s">
+        <v>149</v>
+      </c>
+      <c r="P84" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q84">
+        <v>2.3</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>4.5</v>
+      </c>
+      <c r="T84">
+        <v>1.31</v>
+      </c>
+      <c r="U84">
+        <v>3.14</v>
+      </c>
+      <c r="V84">
+        <v>2.58</v>
+      </c>
+      <c r="W84">
+        <v>1.51</v>
+      </c>
+      <c r="X84">
+        <v>5.75</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>1.83</v>
+      </c>
+      <c r="AA84">
+        <v>3.75</v>
+      </c>
+      <c r="AB84">
+        <v>4</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>11</v>
+      </c>
+      <c r="AE84">
+        <v>1.2</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+      <c r="AG84">
+        <v>1.72</v>
+      </c>
+      <c r="AH84">
+        <v>2.05</v>
+      </c>
+      <c r="AI84">
+        <v>1.67</v>
+      </c>
+      <c r="AJ84">
+        <v>2.15</v>
+      </c>
+      <c r="AK84">
+        <v>1.22</v>
+      </c>
+      <c r="AL84">
+        <v>1.26</v>
+      </c>
+      <c r="AM84">
+        <v>2.03</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>1.8</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>1.18</v>
+      </c>
+      <c r="AS84">
+        <v>0.99</v>
+      </c>
+      <c r="AT84">
+        <v>2.17</v>
+      </c>
+      <c r="AU84">
+        <v>14</v>
+      </c>
+      <c r="AV84">
+        <v>8</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>21</v>
+      </c>
+      <c r="AZ84">
+        <v>16</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>1.45</v>
+      </c>
+      <c r="BE84">
+        <v>7.8</v>
+      </c>
+      <c r="BF84">
+        <v>3.2</v>
+      </c>
+      <c r="BG84">
+        <v>1.17</v>
+      </c>
+      <c r="BH84">
+        <v>4.65</v>
+      </c>
+      <c r="BI84">
+        <v>1.32</v>
+      </c>
+      <c r="BJ84">
+        <v>3.22</v>
+      </c>
+      <c r="BK84">
+        <v>1.54</v>
+      </c>
+      <c r="BL84">
+        <v>2.38</v>
+      </c>
+      <c r="BM84">
+        <v>1.88</v>
+      </c>
+      <c r="BN84">
+        <v>1.92</v>
+      </c>
+      <c r="BO84">
+        <v>2.38</v>
+      </c>
+      <c r="BP84">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,15 @@
     <t>['17', '23', '45', '59', '74', '80', '83', '90+1']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['32', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['41', '53', '63', '90+6']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -632,6 +641,15 @@
   </si>
   <si>
     <t>['36', '42', '49']</t>
+  </si>
+  <si>
+    <t>['9', '49', '58']</t>
+  </si>
+  <si>
+    <t>['23', '27', '39', '62']</t>
+  </si>
+  <si>
+    <t>['6', '83']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1270,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1333,7 +1351,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1458,7 +1476,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1536,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1870,7 +1888,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2282,7 +2300,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2360,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>0.2</v>
@@ -2488,7 +2506,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2694,7 +2712,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2900,7 +2918,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3312,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3393,7 +3411,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3930,7 +3948,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4008,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4136,7 +4154,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4217,7 +4235,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4342,7 +4360,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4548,7 +4566,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5041,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.5</v>
@@ -5166,7 +5184,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5244,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.2</v>
@@ -5372,7 +5390,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5784,7 +5802,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6196,7 +6214,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6402,7 +6420,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6608,7 +6626,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7020,7 +7038,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7101,7 +7119,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7226,7 +7244,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7510,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7638,7 +7656,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7844,7 +7862,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7925,7 +7943,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8050,7 +8068,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8256,7 +8274,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8334,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8746,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -8874,7 +8892,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9080,7 +9098,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9286,7 +9304,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9492,7 +9510,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9698,7 +9716,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10316,7 +10334,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10522,7 +10540,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10728,7 +10746,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10806,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10934,7 +10952,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11140,7 +11158,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11221,7 +11239,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11427,7 +11445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11552,7 +11570,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11633,7 +11651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -11758,7 +11776,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11836,7 +11854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11964,7 +11982,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12170,7 +12188,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12376,7 +12394,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12582,7 +12600,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12788,7 +12806,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12994,7 +13012,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13406,7 +13424,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13818,7 +13836,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14024,7 +14042,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14230,7 +14248,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14308,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14926,7 +14944,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -15054,7 +15072,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15260,7 +15278,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15338,10 +15356,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -15466,7 +15484,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15547,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15878,7 +15896,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15959,7 +15977,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16084,7 +16102,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16290,7 +16308,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16496,7 +16514,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16908,7 +16926,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17320,7 +17338,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17526,7 +17544,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17732,7 +17750,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17905,7 +17923,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45590.5625</v>
+        <v>45589.875</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -17938,7 +17956,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18111,7 +18129,7 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45590.5625</v>
+        <v>45589.875</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -18144,7 +18162,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18243,13 +18261,13 @@
         <v>8</v>
       </c>
       <c r="AW84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX84">
         <v>6</v>
       </c>
       <c r="AY84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ84">
         <v>16</v>
@@ -18300,6 +18318,624 @@
         <v>2.38</v>
       </c>
       <c r="BP84">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7491574</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45591.33333333334</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q85">
+        <v>2.54</v>
+      </c>
+      <c r="R85">
+        <v>2.65</v>
+      </c>
+      <c r="S85">
+        <v>3.55</v>
+      </c>
+      <c r="T85">
+        <v>1.22</v>
+      </c>
+      <c r="U85">
+        <v>3.82</v>
+      </c>
+      <c r="V85">
+        <v>2.09</v>
+      </c>
+      <c r="W85">
+        <v>1.76</v>
+      </c>
+      <c r="X85">
+        <v>4.4</v>
+      </c>
+      <c r="Y85">
+        <v>1.17</v>
+      </c>
+      <c r="Z85">
+        <v>2.05</v>
+      </c>
+      <c r="AA85">
+        <v>4.1</v>
+      </c>
+      <c r="AB85">
+        <v>3.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.11</v>
+      </c>
+      <c r="AF85">
+        <v>5.7</v>
+      </c>
+      <c r="AG85">
+        <v>1.43</v>
+      </c>
+      <c r="AH85">
+        <v>2.7</v>
+      </c>
+      <c r="AI85">
+        <v>1.41</v>
+      </c>
+      <c r="AJ85">
+        <v>2.81</v>
+      </c>
+      <c r="AK85">
+        <v>1.36</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.76</v>
+      </c>
+      <c r="AN85">
+        <v>2.5</v>
+      </c>
+      <c r="AO85">
+        <v>2</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>2.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.57</v>
+      </c>
+      <c r="AS85">
+        <v>1.65</v>
+      </c>
+      <c r="AT85">
+        <v>3.22</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>9</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>14</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>7</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.55</v>
+      </c>
+      <c r="BE85">
+        <v>9</v>
+      </c>
+      <c r="BF85">
+        <v>2.9</v>
+      </c>
+      <c r="BG85">
+        <v>1.17</v>
+      </c>
+      <c r="BH85">
+        <v>4.65</v>
+      </c>
+      <c r="BI85">
+        <v>1.32</v>
+      </c>
+      <c r="BJ85">
+        <v>3.2</v>
+      </c>
+      <c r="BK85">
+        <v>1.55</v>
+      </c>
+      <c r="BL85">
+        <v>2.36</v>
+      </c>
+      <c r="BM85">
+        <v>1.85</v>
+      </c>
+      <c r="BN85">
+        <v>1.95</v>
+      </c>
+      <c r="BO85">
+        <v>2.39</v>
+      </c>
+      <c r="BP85">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7491575</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45591.33333333334</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>7</v>
+      </c>
+      <c r="O86" t="s">
+        <v>151</v>
+      </c>
+      <c r="P86" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q86">
+        <v>2.4</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>3.75</v>
+      </c>
+      <c r="T86">
+        <v>1.29</v>
+      </c>
+      <c r="U86">
+        <v>3.26</v>
+      </c>
+      <c r="V86">
+        <v>2.24</v>
+      </c>
+      <c r="W86">
+        <v>1.65</v>
+      </c>
+      <c r="X86">
+        <v>4.85</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>1.95</v>
+      </c>
+      <c r="AA86">
+        <v>3.8</v>
+      </c>
+      <c r="AB86">
+        <v>3.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>13</v>
+      </c>
+      <c r="AE86">
+        <v>1.11</v>
+      </c>
+      <c r="AF86">
+        <v>5.5</v>
+      </c>
+      <c r="AG86">
+        <v>1.48</v>
+      </c>
+      <c r="AH86">
+        <v>2.54</v>
+      </c>
+      <c r="AI86">
+        <v>1.47</v>
+      </c>
+      <c r="AJ86">
+        <v>2.63</v>
+      </c>
+      <c r="AK86">
+        <v>1.27</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.85</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>0.8</v>
+      </c>
+      <c r="AQ86">
+        <v>1.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.49</v>
+      </c>
+      <c r="AS86">
+        <v>1.48</v>
+      </c>
+      <c r="AT86">
+        <v>2.97</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>8</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>20</v>
+      </c>
+      <c r="AZ86">
+        <v>17</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>1.75</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.41</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>4.2</v>
+      </c>
+      <c r="BI86">
+        <v>1.37</v>
+      </c>
+      <c r="BJ86">
+        <v>2.93</v>
+      </c>
+      <c r="BK86">
+        <v>1.63</v>
+      </c>
+      <c r="BL86">
+        <v>2.19</v>
+      </c>
+      <c r="BM86">
+        <v>2.02</v>
+      </c>
+      <c r="BN86">
+        <v>1.74</v>
+      </c>
+      <c r="BO86">
+        <v>2.6</v>
+      </c>
+      <c r="BP86">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7491576</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45591.33333333334</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>83</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>152</v>
+      </c>
+      <c r="P87" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q87">
+        <v>3.6</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>2.4</v>
+      </c>
+      <c r="T87">
+        <v>1.23</v>
+      </c>
+      <c r="U87">
+        <v>3.72</v>
+      </c>
+      <c r="V87">
+        <v>2.11</v>
+      </c>
+      <c r="W87">
+        <v>1.73</v>
+      </c>
+      <c r="X87">
+        <v>4.4</v>
+      </c>
+      <c r="Y87">
+        <v>1.17</v>
+      </c>
+      <c r="Z87">
+        <v>3.3</v>
+      </c>
+      <c r="AA87">
+        <v>3.9</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>17</v>
+      </c>
+      <c r="AE87">
+        <v>1.08</v>
+      </c>
+      <c r="AF87">
+        <v>6.5</v>
+      </c>
+      <c r="AG87">
+        <v>1.43</v>
+      </c>
+      <c r="AH87">
+        <v>2.7</v>
+      </c>
+      <c r="AI87">
+        <v>1.4</v>
+      </c>
+      <c r="AJ87">
+        <v>2.88</v>
+      </c>
+      <c r="AK87">
+        <v>1.81</v>
+      </c>
+      <c r="AL87">
+        <v>1.26</v>
+      </c>
+      <c r="AM87">
+        <v>1.33</v>
+      </c>
+      <c r="AN87">
+        <v>1.75</v>
+      </c>
+      <c r="AO87">
+        <v>1.75</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.4</v>
+      </c>
+      <c r="AR87">
+        <v>1.33</v>
+      </c>
+      <c r="AS87">
+        <v>1.43</v>
+      </c>
+      <c r="AT87">
+        <v>2.76</v>
+      </c>
+      <c r="AU87">
+        <v>11</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
+        <v>10</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>2.66</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.64</v>
+      </c>
+      <c r="BG87">
+        <v>1.17</v>
+      </c>
+      <c r="BH87">
+        <v>4.65</v>
+      </c>
+      <c r="BI87">
+        <v>1.32</v>
+      </c>
+      <c r="BJ87">
+        <v>3.2</v>
+      </c>
+      <c r="BK87">
+        <v>1.55</v>
+      </c>
+      <c r="BL87">
+        <v>2.36</v>
+      </c>
+      <c r="BM87">
+        <v>1.92</v>
+      </c>
+      <c r="BN87">
+        <v>1.88</v>
+      </c>
+      <c r="BO87">
+        <v>2.39</v>
+      </c>
+      <c r="BP87">
         <v>1.54</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['41', '53', '63', '90+6']</t>
   </si>
   <si>
+    <t>['35', '49', '90+4']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -650,6 +653,9 @@
   </si>
   <si>
     <t>['6', '83']</t>
+  </si>
+  <si>
+    <t>['14', '57', '61', '67']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1276,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1476,7 +1482,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1888,7 +1894,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2300,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2506,7 +2512,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2712,7 +2718,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2918,7 +2924,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2999,7 +3005,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3330,7 +3336,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3820,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -3948,7 +3954,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4154,7 +4160,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4360,7 +4366,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4566,7 +4572,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5184,7 +5190,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5390,7 +5396,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5802,7 +5808,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5883,7 +5889,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.26</v>
@@ -6214,7 +6220,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6420,7 +6426,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6626,7 +6632,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6910,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7038,7 +7044,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7244,7 +7250,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7656,7 +7662,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7862,7 +7868,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8068,7 +8074,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8274,7 +8280,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8892,7 +8898,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9098,7 +9104,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9179,7 +9185,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9304,7 +9310,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9510,7 +9516,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9716,7 +9722,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10334,7 +10340,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10540,7 +10546,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10746,7 +10752,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10952,7 +10958,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11030,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11158,7 +11164,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11570,7 +11576,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11776,7 +11782,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11982,7 +11988,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12188,7 +12194,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12394,7 +12400,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12600,7 +12606,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12806,7 +12812,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13012,7 +13018,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13299,7 +13305,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13424,7 +13430,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13836,7 +13842,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14042,7 +14048,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14248,7 +14254,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14947,7 +14953,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15072,7 +15078,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15278,7 +15284,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15484,7 +15490,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15896,7 +15902,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15974,7 +15980,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16102,7 +16108,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16308,7 +16314,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16514,7 +16520,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16926,7 +16932,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17338,7 +17344,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17544,7 +17550,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17750,7 +17756,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17956,7 +17962,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18162,7 +18168,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18335,7 +18341,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45591.33333333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -18368,7 +18374,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18541,7 +18547,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45591.33333333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -18574,7 +18580,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18747,7 +18753,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45591.33333333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -18780,7 +18786,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18937,6 +18943,212 @@
       </c>
       <c r="BP87">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7491573</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45591.64583333334</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>80</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>7</v>
+      </c>
+      <c r="O88" t="s">
+        <v>153</v>
+      </c>
+      <c r="P88" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q88">
+        <v>2.25</v>
+      </c>
+      <c r="R88">
+        <v>2.35</v>
+      </c>
+      <c r="S88">
+        <v>4.2</v>
+      </c>
+      <c r="T88">
+        <v>1.29</v>
+      </c>
+      <c r="U88">
+        <v>3.35</v>
+      </c>
+      <c r="V88">
+        <v>2.39</v>
+      </c>
+      <c r="W88">
+        <v>1.52</v>
+      </c>
+      <c r="X88">
+        <v>5.45</v>
+      </c>
+      <c r="Y88">
+        <v>1.12</v>
+      </c>
+      <c r="Z88">
+        <v>1.7</v>
+      </c>
+      <c r="AA88">
+        <v>3.85</v>
+      </c>
+      <c r="AB88">
+        <v>4.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <v>1.2</v>
+      </c>
+      <c r="AF88">
+        <v>4.33</v>
+      </c>
+      <c r="AG88">
+        <v>1.63</v>
+      </c>
+      <c r="AH88">
+        <v>2.28</v>
+      </c>
+      <c r="AI88">
+        <v>1.62</v>
+      </c>
+      <c r="AJ88">
+        <v>2.2</v>
+      </c>
+      <c r="AK88">
+        <v>1.17</v>
+      </c>
+      <c r="AL88">
+        <v>1.18</v>
+      </c>
+      <c r="AM88">
+        <v>2.05</v>
+      </c>
+      <c r="AN88">
+        <v>1.25</v>
+      </c>
+      <c r="AO88">
+        <v>1.4</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
+        <v>1.59</v>
+      </c>
+      <c r="AS88">
+        <v>1.33</v>
+      </c>
+      <c r="AT88">
+        <v>2.92</v>
+      </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>17</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.64</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.64</v>
+      </c>
+      <c r="BG88">
+        <v>1.18</v>
+      </c>
+      <c r="BH88">
+        <v>4.45</v>
+      </c>
+      <c r="BI88">
+        <v>1.34</v>
+      </c>
+      <c r="BJ88">
+        <v>3.1</v>
+      </c>
+      <c r="BK88">
+        <v>1.58</v>
+      </c>
+      <c r="BL88">
+        <v>2.29</v>
+      </c>
+      <c r="BM88">
+        <v>2</v>
+      </c>
+      <c r="BN88">
+        <v>1.8</v>
+      </c>
+      <c r="BO88">
+        <v>2.47</v>
+      </c>
+      <c r="BP88">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,7 +463,7 @@
     <t>['5', '42', '45+1']</t>
   </si>
   <si>
-    <t>['17', '23', '45', '59', '74', '80', '83', '90+1']</t>
+    <t>['17', '23', '45+1', '59', '74', '80', '83', '90+1']</t>
   </si>
   <si>
     <t>['45+3']</t>
@@ -478,6 +478,12 @@
     <t>['35', '49', '90+4']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -656,6 +662,12 @@
   </si>
   <si>
     <t>['14', '57', '61', '67']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['13', '23', '75']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1288,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1482,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1894,7 +1906,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2178,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2306,7 +2318,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2512,7 +2524,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2718,7 +2730,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2799,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2924,7 +2936,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3336,7 +3348,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3954,7 +3966,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4160,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4366,7 +4378,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4572,7 +4584,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4650,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>2.4</v>
@@ -4859,7 +4871,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5190,7 +5202,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5396,7 +5408,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5808,7 +5820,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6220,7 +6232,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6298,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -6426,7 +6438,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6632,7 +6644,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6919,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7044,7 +7056,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7250,7 +7262,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7331,7 +7343,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7662,7 +7674,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7868,7 +7880,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8074,7 +8086,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8152,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8280,7 +8292,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8898,7 +8910,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9104,7 +9116,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9310,7 +9322,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9516,7 +9528,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9722,7 +9734,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10340,7 +10352,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10546,7 +10558,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10627,7 +10639,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10752,7 +10764,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10958,7 +10970,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11164,7 +11176,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11448,7 +11460,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11576,7 +11588,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11782,7 +11794,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11988,7 +12000,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12066,7 +12078,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>1.8</v>
@@ -12194,7 +12206,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12275,7 +12287,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12400,7 +12412,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12606,7 +12618,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12812,7 +12824,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13018,7 +13030,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13430,7 +13442,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13842,7 +13854,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14048,7 +14060,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14254,7 +14266,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -15078,7 +15090,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15159,7 +15171,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15284,7 +15296,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15490,7 +15502,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15568,7 +15580,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -15774,10 +15786,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15902,7 +15914,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16108,7 +16120,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16314,7 +16326,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16520,7 +16532,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16932,7 +16944,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17344,7 +17356,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17550,7 +17562,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17756,7 +17768,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17929,10 +17941,10 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45589.875</v>
+        <v>45590.5625</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
         <v>70</v>
@@ -17962,7 +17974,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18135,10 +18147,10 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45589.875</v>
+        <v>45590.5625</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>81</v>
@@ -18168,7 +18180,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18341,7 +18353,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45590.875</v>
+        <v>45591.33333333334</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -18374,7 +18386,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18547,7 +18559,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45590.875</v>
+        <v>45591.33333333334</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -18580,7 +18592,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18753,7 +18765,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45590.875</v>
+        <v>45591.33333333334</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -18786,7 +18798,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18962,7 +18974,7 @@
         <v>45591.64583333334</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>82</v>
@@ -18992,7 +19004,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19149,6 +19161,624 @@
       </c>
       <c r="BP88">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7491572</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q89">
+        <v>2.3</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>4.33</v>
+      </c>
+      <c r="T89">
+        <v>1.35</v>
+      </c>
+      <c r="U89">
+        <v>2.95</v>
+      </c>
+      <c r="V89">
+        <v>2.55</v>
+      </c>
+      <c r="W89">
+        <v>1.45</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.11</v>
+      </c>
+      <c r="Z89">
+        <v>1.83</v>
+      </c>
+      <c r="AA89">
+        <v>3.4</v>
+      </c>
+      <c r="AB89">
+        <v>3.9</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>9.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.85</v>
+      </c>
+      <c r="AG89">
+        <v>1.71</v>
+      </c>
+      <c r="AH89">
+        <v>2.15</v>
+      </c>
+      <c r="AI89">
+        <v>1.7</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.2</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>2</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.42</v>
+      </c>
+      <c r="AS89">
+        <v>1.05</v>
+      </c>
+      <c r="AT89">
+        <v>2.47</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
+        <v>1.51</v>
+      </c>
+      <c r="BE89">
+        <v>8.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.07</v>
+      </c>
+      <c r="BG89">
+        <v>1.26</v>
+      </c>
+      <c r="BH89">
+        <v>3.65</v>
+      </c>
+      <c r="BI89">
+        <v>1.46</v>
+      </c>
+      <c r="BJ89">
+        <v>2.6</v>
+      </c>
+      <c r="BK89">
+        <v>1.77</v>
+      </c>
+      <c r="BL89">
+        <v>1.98</v>
+      </c>
+      <c r="BM89">
+        <v>2.24</v>
+      </c>
+      <c r="BN89">
+        <v>1.61</v>
+      </c>
+      <c r="BO89">
+        <v>2.95</v>
+      </c>
+      <c r="BP89">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7491578</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P90" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>1.33</v>
+      </c>
+      <c r="U90">
+        <v>3.1</v>
+      </c>
+      <c r="V90">
+        <v>2.4</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
+      </c>
+      <c r="Y90">
+        <v>1.14</v>
+      </c>
+      <c r="Z90">
+        <v>2.5</v>
+      </c>
+      <c r="AA90">
+        <v>3.3</v>
+      </c>
+      <c r="AB90">
+        <v>2.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.65</v>
+      </c>
+      <c r="AH90">
+        <v>2.25</v>
+      </c>
+      <c r="AI90">
+        <v>1.5</v>
+      </c>
+      <c r="AJ90">
+        <v>2.38</v>
+      </c>
+      <c r="AK90">
+        <v>1.48</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.48</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>0.25</v>
+      </c>
+      <c r="AP90">
+        <v>0.8</v>
+      </c>
+      <c r="AQ90">
+        <v>0.8</v>
+      </c>
+      <c r="AR90">
+        <v>1.7</v>
+      </c>
+      <c r="AS90">
+        <v>1.5</v>
+      </c>
+      <c r="AT90">
+        <v>3.2</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>21</v>
+      </c>
+      <c r="AZ90">
+        <v>13</v>
+      </c>
+      <c r="BA90">
+        <v>10</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>13</v>
+      </c>
+      <c r="BD90">
+        <v>1.91</v>
+      </c>
+      <c r="BE90">
+        <v>8</v>
+      </c>
+      <c r="BF90">
+        <v>2.1</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>4.2</v>
+      </c>
+      <c r="BI90">
+        <v>1.37</v>
+      </c>
+      <c r="BJ90">
+        <v>2.93</v>
+      </c>
+      <c r="BK90">
+        <v>1.63</v>
+      </c>
+      <c r="BL90">
+        <v>2.19</v>
+      </c>
+      <c r="BM90">
+        <v>2.02</v>
+      </c>
+      <c r="BN90">
+        <v>1.74</v>
+      </c>
+      <c r="BO90">
+        <v>2.6</v>
+      </c>
+      <c r="BP90">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7491579</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q91">
+        <v>2.55</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>3.7</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.2</v>
+      </c>
+      <c r="V91">
+        <v>2.4</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>2.08</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
+        <v>3.1</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.63</v>
+      </c>
+      <c r="AH91">
+        <v>2.28</v>
+      </c>
+      <c r="AI91">
+        <v>1.53</v>
+      </c>
+      <c r="AJ91">
+        <v>2.3</v>
+      </c>
+      <c r="AK91">
+        <v>1.3</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.75</v>
+      </c>
+      <c r="AN91">
+        <v>1.5</v>
+      </c>
+      <c r="AO91">
+        <v>0.75</v>
+      </c>
+      <c r="AP91">
+        <v>1.4</v>
+      </c>
+      <c r="AQ91">
+        <v>0.8</v>
+      </c>
+      <c r="AR91">
+        <v>1.66</v>
+      </c>
+      <c r="AS91">
+        <v>1.52</v>
+      </c>
+      <c r="AT91">
+        <v>3.18</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>9</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>1.82</v>
+      </c>
+      <c r="BE91">
+        <v>8.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.32</v>
+      </c>
+      <c r="BG91">
+        <v>1.17</v>
+      </c>
+      <c r="BH91">
+        <v>4.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.32</v>
+      </c>
+      <c r="BJ91">
+        <v>3.2</v>
+      </c>
+      <c r="BK91">
+        <v>1.55</v>
+      </c>
+      <c r="BL91">
+        <v>2.36</v>
+      </c>
+      <c r="BM91">
+        <v>1.95</v>
+      </c>
+      <c r="BN91">
+        <v>1.85</v>
+      </c>
+      <c r="BO91">
+        <v>2.39</v>
+      </c>
+      <c r="BP91">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -19177,10 +19177,10 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45591.875</v>
+        <v>45592.39583333334</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
         <v>76</v>
@@ -19383,7 +19383,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45591.875</v>
+        <v>45592.39583333334</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -19589,7 +19589,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45591.875</v>
+        <v>45592.39583333334</v>
       </c>
       <c r="F91">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -1029,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1291,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1494,7 +1497,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1906,7 +1909,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2318,7 +2321,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2524,7 +2527,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2605,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2730,7 +2733,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2936,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3014,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -3348,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3635,7 +3638,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3966,7 +3969,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4172,7 +4175,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4378,7 +4381,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4584,7 +4587,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4868,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.8</v>
@@ -5202,7 +5205,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5408,7 +5411,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5820,7 +5823,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5898,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6232,7 +6235,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6313,7 +6316,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.96</v>
@@ -6438,7 +6441,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6516,10 +6519,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6644,7 +6647,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -7056,7 +7059,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7262,7 +7265,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7674,7 +7677,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7880,7 +7883,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8086,7 +8089,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8292,7 +8295,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8785,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8910,7 +8913,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8988,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9116,7 +9119,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9322,7 +9325,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9528,7 +9531,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9606,7 +9609,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>1.4</v>
@@ -9734,7 +9737,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10352,7 +10355,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10433,7 +10436,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>1.24</v>
@@ -10558,7 +10561,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10764,7 +10767,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10970,7 +10973,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11176,7 +11179,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11588,7 +11591,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11794,7 +11797,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12000,7 +12003,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12206,7 +12209,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12412,7 +12415,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12493,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
         <v>1.49</v>
@@ -12618,7 +12621,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12696,7 +12699,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57">
         <v>0.2</v>
@@ -12824,7 +12827,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13030,7 +13033,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13442,7 +13445,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13520,10 +13523,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -13854,7 +13857,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14060,7 +14063,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14266,7 +14269,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -15090,7 +15093,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15296,7 +15299,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15502,7 +15505,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15914,7 +15917,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16120,7 +16123,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16326,7 +16329,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16532,7 +16535,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16613,7 +16616,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR76">
         <v>1.26</v>
@@ -16819,7 +16822,7 @@
         <v>3</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.65</v>
@@ -16944,7 +16947,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17022,7 +17025,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>1.2</v>
@@ -17356,7 +17359,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17562,7 +17565,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17768,7 +17771,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17846,7 +17849,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
         <v>1.8</v>
@@ -17974,7 +17977,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18180,7 +18183,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18386,7 +18389,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18592,7 +18595,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18798,7 +18801,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19004,7 +19007,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19210,7 +19213,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19416,7 +19419,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19779,6 +19782,418 @@
       </c>
       <c r="BP91">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7491587</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45596.875</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>156</v>
+      </c>
+      <c r="P92" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q92">
+        <v>3.65</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>2.55</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.2</v>
+      </c>
+      <c r="V92">
+        <v>2.35</v>
+      </c>
+      <c r="W92">
+        <v>1.53</v>
+      </c>
+      <c r="X92">
+        <v>5.35</v>
+      </c>
+      <c r="Y92">
+        <v>1.12</v>
+      </c>
+      <c r="Z92">
+        <v>2.87</v>
+      </c>
+      <c r="AA92">
+        <v>3.4</v>
+      </c>
+      <c r="AB92">
+        <v>2.1</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>10</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.57</v>
+      </c>
+      <c r="AH92">
+        <v>2.15</v>
+      </c>
+      <c r="AI92">
+        <v>1.5</v>
+      </c>
+      <c r="AJ92">
+        <v>2.38</v>
+      </c>
+      <c r="AK92">
+        <v>1.77</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.3</v>
+      </c>
+      <c r="AN92">
+        <v>0.6</v>
+      </c>
+      <c r="AO92">
+        <v>3</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>2.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.28</v>
+      </c>
+      <c r="AS92">
+        <v>1.24</v>
+      </c>
+      <c r="AT92">
+        <v>2.52</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>11</v>
+      </c>
+      <c r="BC92">
+        <v>14</v>
+      </c>
+      <c r="BD92">
+        <v>2.25</v>
+      </c>
+      <c r="BE92">
+        <v>7.2</v>
+      </c>
+      <c r="BF92">
+        <v>1.82</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.6</v>
+      </c>
+      <c r="BI92">
+        <v>1.33</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.56</v>
+      </c>
+      <c r="BL92">
+        <v>2.34</v>
+      </c>
+      <c r="BM92">
+        <v>1.98</v>
+      </c>
+      <c r="BN92">
+        <v>1.82</v>
+      </c>
+      <c r="BO92">
+        <v>2.41</v>
+      </c>
+      <c r="BP92">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7491586</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45597.60416666666</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>92</v>
+      </c>
+      <c r="P93" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>2.15</v>
+      </c>
+      <c r="S93">
+        <v>3.2</v>
+      </c>
+      <c r="T93">
+        <v>1.37</v>
+      </c>
+      <c r="U93">
+        <v>2.85</v>
+      </c>
+      <c r="V93">
+        <v>2.65</v>
+      </c>
+      <c r="W93">
+        <v>1.42</v>
+      </c>
+      <c r="X93">
+        <v>6.45</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>2.45</v>
+      </c>
+      <c r="AA93">
+        <v>3.3</v>
+      </c>
+      <c r="AB93">
+        <v>2.45</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>9.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.25</v>
+      </c>
+      <c r="AF93">
+        <v>3.6</v>
+      </c>
+      <c r="AG93">
+        <v>1.7</v>
+      </c>
+      <c r="AH93">
+        <v>1.95</v>
+      </c>
+      <c r="AI93">
+        <v>1.65</v>
+      </c>
+      <c r="AJ93">
+        <v>2.15</v>
+      </c>
+      <c r="AK93">
+        <v>1.45</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.52</v>
+      </c>
+      <c r="AN93">
+        <v>0.6</v>
+      </c>
+      <c r="AO93">
+        <v>0.8</v>
+      </c>
+      <c r="AP93">
+        <v>0.67</v>
+      </c>
+      <c r="AQ93">
+        <v>0.83</v>
+      </c>
+      <c r="AR93">
+        <v>1.52</v>
+      </c>
+      <c r="AS93">
+        <v>1.21</v>
+      </c>
+      <c r="AT93">
+        <v>2.73</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>9</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>18</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>2</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>5</v>
+      </c>
+      <c r="BD93">
+        <v>1.8</v>
+      </c>
+      <c r="BE93">
+        <v>5.95</v>
+      </c>
+      <c r="BF93">
+        <v>2.48</v>
+      </c>
+      <c r="BG93">
+        <v>1.25</v>
+      </c>
+      <c r="BH93">
+        <v>3.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.45</v>
+      </c>
+      <c r="BJ93">
+        <v>2.63</v>
+      </c>
+      <c r="BK93">
+        <v>1.76</v>
+      </c>
+      <c r="BL93">
+        <v>2</v>
+      </c>
+      <c r="BM93">
+        <v>2.22</v>
+      </c>
+      <c r="BN93">
+        <v>1.62</v>
+      </c>
+      <c r="BO93">
+        <v>2.92</v>
+      </c>
+      <c r="BP93">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,15 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['66', '89']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['32', '68']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -671,6 +680,15 @@
   </si>
   <si>
     <t>['13', '23', '75']</t>
+  </si>
+  <si>
+    <t>['30', '40', '45+3', '51', '77']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['11', '13']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1309,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1497,7 +1515,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1578,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1909,7 +1927,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1987,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2196,7 +2214,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2321,7 +2339,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2402,7 +2420,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2545,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2733,7 +2751,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2811,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -2939,7 +2957,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3223,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3351,7 +3369,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3429,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>1.6</v>
@@ -3844,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3969,7 +3987,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4050,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4175,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4253,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2.2</v>
@@ -4381,7 +4399,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4459,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4587,7 +4605,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4668,7 +4686,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5205,7 +5223,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5286,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.6</v>
@@ -5411,7 +5429,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5489,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5695,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5823,7 +5841,7 @@
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6110,7 +6128,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6235,7 +6253,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6441,7 +6459,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6647,7 +6665,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6728,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -7059,7 +7077,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7137,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
         <v>1.6</v>
@@ -7265,7 +7283,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7343,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7552,7 +7570,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -7677,7 +7695,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7758,7 +7776,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -7883,7 +7901,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7961,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>2.2</v>
@@ -8089,7 +8107,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>3.91</v>
@@ -8170,7 +8188,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>2.14</v>
@@ -8295,7 +8313,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8376,7 +8394,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8579,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8913,7 +8931,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9119,7 +9137,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9325,7 +9343,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9406,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR41">
         <v>1.72</v>
@@ -9531,7 +9549,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9612,7 +9630,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9737,7 +9755,7 @@
         <v>103</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9818,7 +9836,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10021,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10227,10 +10245,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10355,7 +10373,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10433,7 +10451,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10561,7 +10579,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10639,7 +10657,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>0.8</v>
@@ -10767,7 +10785,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10848,7 +10866,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -10973,7 +10991,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11054,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11179,7 +11197,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11591,7 +11609,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11669,7 +11687,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11797,7 +11815,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12003,7 +12021,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12084,7 +12102,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12209,7 +12227,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12287,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12415,7 +12433,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12493,7 +12511,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56">
         <v>2.5</v>
@@ -12621,7 +12639,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.07</v>
@@ -12702,7 +12720,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>1.5</v>
@@ -12827,7 +12845,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12905,7 +12923,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13033,7 +13051,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.65</v>
@@ -13114,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.59</v>
@@ -13317,7 +13335,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13445,7 +13463,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13732,7 +13750,7 @@
         <v>3</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -13857,7 +13875,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13935,10 +13953,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14063,7 +14081,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14144,7 +14162,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -14269,7 +14287,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -14350,7 +14368,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.63</v>
@@ -14553,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
         <v>0</v>
@@ -15093,7 +15111,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15299,7 +15317,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15505,7 +15523,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15917,7 +15935,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16123,7 +16141,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16201,10 +16219,10 @@
         <v>0.25</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.4</v>
@@ -16329,7 +16347,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16410,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -16535,7 +16553,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>4.5</v>
@@ -16613,7 +16631,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
         <v>2.5</v>
@@ -16947,7 +16965,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17028,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.45</v>
@@ -17231,7 +17249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17359,7 +17377,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>2.1</v>
@@ -17437,10 +17455,10 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR80">
         <v>1.62</v>
@@ -17565,7 +17583,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17643,10 +17661,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17771,7 +17789,7 @@
         <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17852,7 +17870,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ82">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.52</v>
@@ -17977,7 +17995,7 @@
         <v>115</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18183,7 +18201,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18389,7 +18407,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18595,7 +18613,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18801,7 +18819,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19007,7 +19025,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19213,7 +19231,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19419,7 +19437,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19798,10 +19816,10 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45596.875</v>
+        <v>45597.60416666666</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
         <v>87</v>
@@ -20194,6 +20212,1448 @@
       </c>
       <c r="BP93">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7491588</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45598.375</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>2.35</v>
+      </c>
+      <c r="T94">
+        <v>1.3</v>
+      </c>
+      <c r="U94">
+        <v>3.2</v>
+      </c>
+      <c r="V94">
+        <v>2.3</v>
+      </c>
+      <c r="W94">
+        <v>1.55</v>
+      </c>
+      <c r="X94">
+        <v>5.2</v>
+      </c>
+      <c r="Y94">
+        <v>1.13</v>
+      </c>
+      <c r="Z94">
+        <v>3.5</v>
+      </c>
+      <c r="AA94">
+        <v>3.65</v>
+      </c>
+      <c r="AB94">
+        <v>1.85</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.2</v>
+      </c>
+      <c r="AF94">
+        <v>4.5</v>
+      </c>
+      <c r="AG94">
+        <v>1.59</v>
+      </c>
+      <c r="AH94">
+        <v>2.35</v>
+      </c>
+      <c r="AI94">
+        <v>1.5</v>
+      </c>
+      <c r="AJ94">
+        <v>2.35</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.25</v>
+      </c>
+      <c r="AN94">
+        <v>0.8</v>
+      </c>
+      <c r="AO94">
+        <v>1.2</v>
+      </c>
+      <c r="AP94">
+        <v>1.17</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.29</v>
+      </c>
+      <c r="AS94">
+        <v>1.34</v>
+      </c>
+      <c r="AT94">
+        <v>2.63</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>4</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>15</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>10</v>
+      </c>
+      <c r="BC94">
+        <v>16</v>
+      </c>
+      <c r="BD94">
+        <v>2.52</v>
+      </c>
+      <c r="BE94">
+        <v>6.1</v>
+      </c>
+      <c r="BF94">
+        <v>1.75</v>
+      </c>
+      <c r="BG94">
+        <v>1.18</v>
+      </c>
+      <c r="BH94">
+        <v>4.55</v>
+      </c>
+      <c r="BI94">
+        <v>1.33</v>
+      </c>
+      <c r="BJ94">
+        <v>3.15</v>
+      </c>
+      <c r="BK94">
+        <v>1.56</v>
+      </c>
+      <c r="BL94">
+        <v>2.33</v>
+      </c>
+      <c r="BM94">
+        <v>1.91</v>
+      </c>
+      <c r="BN94">
+        <v>1.83</v>
+      </c>
+      <c r="BO94">
+        <v>2.43</v>
+      </c>
+      <c r="BP94">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7491581</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45598.375</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>157</v>
+      </c>
+      <c r="P95" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q95">
+        <v>2.5</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>3.7</v>
+      </c>
+      <c r="T95">
+        <v>1.3</v>
+      </c>
+      <c r="U95">
+        <v>3.2</v>
+      </c>
+      <c r="V95">
+        <v>2.3</v>
+      </c>
+      <c r="W95">
+        <v>1.55</v>
+      </c>
+      <c r="X95">
+        <v>5.3</v>
+      </c>
+      <c r="Y95">
+        <v>1.12</v>
+      </c>
+      <c r="Z95">
+        <v>2.02</v>
+      </c>
+      <c r="AA95">
+        <v>3.7</v>
+      </c>
+      <c r="AB95">
+        <v>3.18</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>10</v>
+      </c>
+      <c r="AE95">
+        <v>1.2</v>
+      </c>
+      <c r="AF95">
+        <v>4.33</v>
+      </c>
+      <c r="AG95">
+        <v>1.57</v>
+      </c>
+      <c r="AH95">
+        <v>2.26</v>
+      </c>
+      <c r="AI95">
+        <v>1.48</v>
+      </c>
+      <c r="AJ95">
+        <v>2.4</v>
+      </c>
+      <c r="AK95">
+        <v>1.3</v>
+      </c>
+      <c r="AL95">
+        <v>1.22</v>
+      </c>
+      <c r="AM95">
+        <v>1.77</v>
+      </c>
+      <c r="AN95">
+        <v>3</v>
+      </c>
+      <c r="AO95">
+        <v>1.8</v>
+      </c>
+      <c r="AP95">
+        <v>3</v>
+      </c>
+      <c r="AQ95">
+        <v>1.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.59</v>
+      </c>
+      <c r="AS95">
+        <v>1.27</v>
+      </c>
+      <c r="AT95">
+        <v>2.86</v>
+      </c>
+      <c r="AU95">
+        <v>9</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>1.62</v>
+      </c>
+      <c r="BE95">
+        <v>7.4</v>
+      </c>
+      <c r="BF95">
+        <v>2.62</v>
+      </c>
+      <c r="BG95">
+        <v>1.17</v>
+      </c>
+      <c r="BH95">
+        <v>4.7</v>
+      </c>
+      <c r="BI95">
+        <v>1.31</v>
+      </c>
+      <c r="BJ95">
+        <v>3.25</v>
+      </c>
+      <c r="BK95">
+        <v>1.53</v>
+      </c>
+      <c r="BL95">
+        <v>2.39</v>
+      </c>
+      <c r="BM95">
+        <v>2</v>
+      </c>
+      <c r="BN95">
+        <v>1.8</v>
+      </c>
+      <c r="BO95">
+        <v>2.36</v>
+      </c>
+      <c r="BP95">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7491583</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45598.375</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q96">
+        <v>2.85</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
+        <v>3.2</v>
+      </c>
+      <c r="T96">
+        <v>1.3</v>
+      </c>
+      <c r="U96">
+        <v>3.2</v>
+      </c>
+      <c r="V96">
+        <v>2.3</v>
+      </c>
+      <c r="W96">
+        <v>1.55</v>
+      </c>
+      <c r="X96">
+        <v>5.2</v>
+      </c>
+      <c r="Y96">
+        <v>1.12</v>
+      </c>
+      <c r="Z96">
+        <v>2.34</v>
+      </c>
+      <c r="AA96">
+        <v>3.63</v>
+      </c>
+      <c r="AB96">
+        <v>2.64</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.2</v>
+      </c>
+      <c r="AF96">
+        <v>4.33</v>
+      </c>
+      <c r="AG96">
+        <v>1.58</v>
+      </c>
+      <c r="AH96">
+        <v>2.24</v>
+      </c>
+      <c r="AI96">
+        <v>1.48</v>
+      </c>
+      <c r="AJ96">
+        <v>2.4</v>
+      </c>
+      <c r="AK96">
+        <v>1.42</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>0.83</v>
+      </c>
+      <c r="AQ96">
+        <v>1.4</v>
+      </c>
+      <c r="AR96">
+        <v>1.41</v>
+      </c>
+      <c r="AS96">
+        <v>1.73</v>
+      </c>
+      <c r="AT96">
+        <v>3.14</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>9</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>20</v>
+      </c>
+      <c r="AZ96">
+        <v>19</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>3</v>
+      </c>
+      <c r="BD96">
+        <v>1.68</v>
+      </c>
+      <c r="BE96">
+        <v>7.2</v>
+      </c>
+      <c r="BF96">
+        <v>2.55</v>
+      </c>
+      <c r="BG96">
+        <v>1.22</v>
+      </c>
+      <c r="BH96">
+        <v>4.05</v>
+      </c>
+      <c r="BI96">
+        <v>1.39</v>
+      </c>
+      <c r="BJ96">
+        <v>2.83</v>
+      </c>
+      <c r="BK96">
+        <v>1.66</v>
+      </c>
+      <c r="BL96">
+        <v>2.13</v>
+      </c>
+      <c r="BM96">
+        <v>2.07</v>
+      </c>
+      <c r="BN96">
+        <v>1.7</v>
+      </c>
+      <c r="BO96">
+        <v>2.68</v>
+      </c>
+      <c r="BP96">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7491584</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45598.6875</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>92</v>
+      </c>
+      <c r="P97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.4</v>
+      </c>
+      <c r="S97">
+        <v>2.6</v>
+      </c>
+      <c r="T97">
+        <v>1.22</v>
+      </c>
+      <c r="U97">
+        <v>3.75</v>
+      </c>
+      <c r="V97">
+        <v>2.05</v>
+      </c>
+      <c r="W97">
+        <v>1.7</v>
+      </c>
+      <c r="X97">
+        <v>4.25</v>
+      </c>
+      <c r="Y97">
+        <v>1.18</v>
+      </c>
+      <c r="Z97">
+        <v>2.93</v>
+      </c>
+      <c r="AA97">
+        <v>4.01</v>
+      </c>
+      <c r="AB97">
+        <v>2.1</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>17</v>
+      </c>
+      <c r="AE97">
+        <v>1.13</v>
+      </c>
+      <c r="AF97">
+        <v>5.75</v>
+      </c>
+      <c r="AG97">
+        <v>1.4</v>
+      </c>
+      <c r="AH97">
+        <v>2.75</v>
+      </c>
+      <c r="AI97">
+        <v>1.36</v>
+      </c>
+      <c r="AJ97">
+        <v>2.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.67</v>
+      </c>
+      <c r="AL97">
+        <v>1.2</v>
+      </c>
+      <c r="AM97">
+        <v>1.4</v>
+      </c>
+      <c r="AN97">
+        <v>1.2</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>1.6</v>
+      </c>
+      <c r="AR97">
+        <v>1.4</v>
+      </c>
+      <c r="AS97">
+        <v>1.95</v>
+      </c>
+      <c r="AT97">
+        <v>3.35</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>12</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>6</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>9</v>
+      </c>
+      <c r="BD97">
+        <v>2.4</v>
+      </c>
+      <c r="BE97">
+        <v>6.2</v>
+      </c>
+      <c r="BF97">
+        <v>1.82</v>
+      </c>
+      <c r="BG97">
+        <v>1.14</v>
+      </c>
+      <c r="BH97">
+        <v>5.25</v>
+      </c>
+      <c r="BI97">
+        <v>1.26</v>
+      </c>
+      <c r="BJ97">
+        <v>3.6</v>
+      </c>
+      <c r="BK97">
+        <v>1.46</v>
+      </c>
+      <c r="BL97">
+        <v>2.6</v>
+      </c>
+      <c r="BM97">
+        <v>1.88</v>
+      </c>
+      <c r="BN97">
+        <v>1.92</v>
+      </c>
+      <c r="BO97">
+        <v>2.17</v>
+      </c>
+      <c r="BP97">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7491582</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45599.39583333334</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" t="s">
+        <v>86</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>92</v>
+      </c>
+      <c r="P98" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q98">
+        <v>2.15</v>
+      </c>
+      <c r="R98">
+        <v>2.4</v>
+      </c>
+      <c r="S98">
+        <v>4.33</v>
+      </c>
+      <c r="T98">
+        <v>1.28</v>
+      </c>
+      <c r="U98">
+        <v>3.4</v>
+      </c>
+      <c r="V98">
+        <v>2.26</v>
+      </c>
+      <c r="W98">
+        <v>1.58</v>
+      </c>
+      <c r="X98">
+        <v>5</v>
+      </c>
+      <c r="Y98">
+        <v>1.14</v>
+      </c>
+      <c r="Z98">
+        <v>1.71</v>
+      </c>
+      <c r="AA98">
+        <v>4.2</v>
+      </c>
+      <c r="AB98">
+        <v>4.33</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.16</v>
+      </c>
+      <c r="AF98">
+        <v>4.75</v>
+      </c>
+      <c r="AG98">
+        <v>1.54</v>
+      </c>
+      <c r="AH98">
+        <v>2.38</v>
+      </c>
+      <c r="AI98">
+        <v>1.55</v>
+      </c>
+      <c r="AJ98">
+        <v>2.35</v>
+      </c>
+      <c r="AK98">
+        <v>1.16</v>
+      </c>
+      <c r="AL98">
+        <v>1.18</v>
+      </c>
+      <c r="AM98">
+        <v>2.15</v>
+      </c>
+      <c r="AN98">
+        <v>2.5</v>
+      </c>
+      <c r="AO98">
+        <v>0.2</v>
+      </c>
+      <c r="AP98">
+        <v>2.2</v>
+      </c>
+      <c r="AQ98">
+        <v>0.33</v>
+      </c>
+      <c r="AR98">
+        <v>1.63</v>
+      </c>
+      <c r="AS98">
+        <v>1.03</v>
+      </c>
+      <c r="AT98">
+        <v>2.66</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
+        <v>18</v>
+      </c>
+      <c r="BA98">
+        <v>8</v>
+      </c>
+      <c r="BB98">
+        <v>6</v>
+      </c>
+      <c r="BC98">
+        <v>14</v>
+      </c>
+      <c r="BD98">
+        <v>1.34</v>
+      </c>
+      <c r="BE98">
+        <v>8.4</v>
+      </c>
+      <c r="BF98">
+        <v>3.85</v>
+      </c>
+      <c r="BG98">
+        <v>1.12</v>
+      </c>
+      <c r="BH98">
+        <v>4.45</v>
+      </c>
+      <c r="BI98">
+        <v>1.27</v>
+      </c>
+      <c r="BJ98">
+        <v>3.04</v>
+      </c>
+      <c r="BK98">
+        <v>1.52</v>
+      </c>
+      <c r="BL98">
+        <v>2.3</v>
+      </c>
+      <c r="BM98">
+        <v>1.91</v>
+      </c>
+      <c r="BN98">
+        <v>1.83</v>
+      </c>
+      <c r="BO98">
+        <v>2.42</v>
+      </c>
+      <c r="BP98">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7491580</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45599.39583333334</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>84</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>155</v>
+      </c>
+      <c r="P99" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>2.6</v>
+      </c>
+      <c r="S99">
+        <v>4.75</v>
+      </c>
+      <c r="T99">
+        <v>1.23</v>
+      </c>
+      <c r="U99">
+        <v>3.75</v>
+      </c>
+      <c r="V99">
+        <v>2.11</v>
+      </c>
+      <c r="W99">
+        <v>1.67</v>
+      </c>
+      <c r="X99">
+        <v>4.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.17</v>
+      </c>
+      <c r="Z99">
+        <v>1.52</v>
+      </c>
+      <c r="AA99">
+        <v>4.8</v>
+      </c>
+      <c r="AB99">
+        <v>5.25</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>17</v>
+      </c>
+      <c r="AE99">
+        <v>1.13</v>
+      </c>
+      <c r="AF99">
+        <v>5.75</v>
+      </c>
+      <c r="AG99">
+        <v>1.47</v>
+      </c>
+      <c r="AH99">
+        <v>2.57</v>
+      </c>
+      <c r="AI99">
+        <v>1.55</v>
+      </c>
+      <c r="AJ99">
+        <v>2.35</v>
+      </c>
+      <c r="AK99">
+        <v>1.11</v>
+      </c>
+      <c r="AL99">
+        <v>1.15</v>
+      </c>
+      <c r="AM99">
+        <v>2.5</v>
+      </c>
+      <c r="AN99">
+        <v>2.2</v>
+      </c>
+      <c r="AO99">
+        <v>1.4</v>
+      </c>
+      <c r="AP99">
+        <v>2</v>
+      </c>
+      <c r="AQ99">
+        <v>1.33</v>
+      </c>
+      <c r="AR99">
+        <v>1.62</v>
+      </c>
+      <c r="AS99">
+        <v>1.22</v>
+      </c>
+      <c r="AT99">
+        <v>2.84</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>12</v>
+      </c>
+      <c r="AW99">
+        <v>6</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>11</v>
+      </c>
+      <c r="BC99">
+        <v>16</v>
+      </c>
+      <c r="BD99">
+        <v>1.28</v>
+      </c>
+      <c r="BE99">
+        <v>7.6</v>
+      </c>
+      <c r="BF99">
+        <v>4.65</v>
+      </c>
+      <c r="BG99">
+        <v>1.13</v>
+      </c>
+      <c r="BH99">
+        <v>5.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.18</v>
+      </c>
+      <c r="BJ99">
+        <v>3.72</v>
+      </c>
+      <c r="BK99">
+        <v>1.35</v>
+      </c>
+      <c r="BL99">
+        <v>2.65</v>
+      </c>
+      <c r="BM99">
+        <v>1.65</v>
+      </c>
+      <c r="BN99">
+        <v>2.05</v>
+      </c>
+      <c r="BO99">
+        <v>2.09</v>
+      </c>
+      <c r="BP99">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7491585</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45599.39583333334</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q100">
+        <v>2.7</v>
+      </c>
+      <c r="R100">
+        <v>2.25</v>
+      </c>
+      <c r="S100">
+        <v>3.3</v>
+      </c>
+      <c r="T100">
+        <v>1.28</v>
+      </c>
+      <c r="U100">
+        <v>3.35</v>
+      </c>
+      <c r="V100">
+        <v>2.25</v>
+      </c>
+      <c r="W100">
+        <v>1.57</v>
+      </c>
+      <c r="X100">
+        <v>4.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.17</v>
+      </c>
+      <c r="Z100">
+        <v>2.15</v>
+      </c>
+      <c r="AA100">
+        <v>3.75</v>
+      </c>
+      <c r="AB100">
+        <v>3.1</v>
+      </c>
+      <c r="AC100">
+        <v>1.03</v>
+      </c>
+      <c r="AD100">
+        <v>11</v>
+      </c>
+      <c r="AE100">
+        <v>1.18</v>
+      </c>
+      <c r="AF100">
+        <v>4.75</v>
+      </c>
+      <c r="AG100">
+        <v>1.5</v>
+      </c>
+      <c r="AH100">
+        <v>2.48</v>
+      </c>
+      <c r="AI100">
+        <v>1.44</v>
+      </c>
+      <c r="AJ100">
+        <v>2.5</v>
+      </c>
+      <c r="AK100">
+        <v>1.38</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.65</v>
+      </c>
+      <c r="AN100">
+        <v>1.25</v>
+      </c>
+      <c r="AO100">
+        <v>2.4</v>
+      </c>
+      <c r="AP100">
+        <v>1.2</v>
+      </c>
+      <c r="AQ100">
+        <v>2.17</v>
+      </c>
+      <c r="AR100">
+        <v>1.68</v>
+      </c>
+      <c r="AS100">
+        <v>1.22</v>
+      </c>
+      <c r="AT100">
+        <v>2.9</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>10</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>23</v>
+      </c>
+      <c r="AZ100">
+        <v>9</v>
+      </c>
+      <c r="BA100">
+        <v>11</v>
+      </c>
+      <c r="BB100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
+        <v>12</v>
+      </c>
+      <c r="BD100">
+        <v>1.82</v>
+      </c>
+      <c r="BE100">
+        <v>7.3</v>
+      </c>
+      <c r="BF100">
+        <v>2.28</v>
+      </c>
+      <c r="BG100">
+        <v>1.1</v>
+      </c>
+      <c r="BH100">
+        <v>4.9</v>
+      </c>
+      <c r="BI100">
+        <v>1.23</v>
+      </c>
+      <c r="BJ100">
+        <v>3.28</v>
+      </c>
+      <c r="BK100">
+        <v>1.46</v>
+      </c>
+      <c r="BL100">
+        <v>2.45</v>
+      </c>
+      <c r="BM100">
+        <v>1.88</v>
+      </c>
+      <c r="BN100">
+        <v>1.92</v>
+      </c>
+      <c r="BO100">
+        <v>2.23</v>
+      </c>
+      <c r="BP100">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,15 @@
     <t>['35', '49', '65']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['45+2', '65', '80']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -652,9 +661,6 @@
     <t>['44', '81', '89']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['13', '18', '33', '88']</t>
   </si>
   <si>
@@ -695,6 +701,9 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1324,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1393,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1521,7 +1530,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1933,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2014,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2345,7 +2354,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2551,7 +2560,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2629,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -2757,7 +2766,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2963,7 +2972,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3375,7 +3384,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3456,7 +3465,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3787,7 +3796,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4199,7 +4208,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4280,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4405,7 +4414,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4611,7 +4620,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5023,7 +5032,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5435,7 +5444,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5641,7 +5650,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5722,7 +5731,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -6131,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6259,7 +6268,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6465,7 +6474,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6543,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6671,7 +6680,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6749,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -7083,7 +7092,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7164,7 +7173,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7289,7 +7298,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7701,7 +7710,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7907,7 +7916,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -7988,7 +7997,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8319,7 +8328,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8525,7 +8534,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8731,7 +8740,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8812,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -9143,7 +9152,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9349,7 +9358,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9555,7 +9564,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9633,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9761,7 +9770,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9839,7 +9848,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>2.17</v>
@@ -10173,7 +10182,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10585,7 +10594,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10791,7 +10800,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10997,7 +11006,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11203,7 +11212,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11284,7 +11293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11490,7 +11499,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11615,7 +11624,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11821,7 +11830,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12027,7 +12036,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12105,7 +12114,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12233,7 +12242,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12439,7 +12448,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12645,7 +12654,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12851,7 +12860,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12932,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13263,7 +13272,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13341,7 +13350,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>2.17</v>
@@ -13469,7 +13478,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13881,7 +13890,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14087,7 +14096,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14165,7 +14174,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14499,7 +14508,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14783,7 +14792,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15117,7 +15126,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15323,7 +15332,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15404,7 +15413,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -15529,7 +15538,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15607,10 +15616,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15941,7 +15950,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16147,7 +16156,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16225,7 +16234,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
         <v>1.6</v>
@@ -16353,7 +16362,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16559,7 +16568,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16765,7 +16774,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17258,7 +17267,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -17383,7 +17392,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17589,7 +17598,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17795,7 +17804,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18001,7 +18010,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18079,10 +18088,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -18207,7 +18216,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18413,7 +18422,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18494,7 +18503,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -18619,7 +18628,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18700,7 +18709,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -18825,7 +18834,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19031,7 +19040,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19237,7 +19246,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19315,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19443,7 +19452,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19521,7 +19530,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
         <v>0.8</v>
@@ -20473,7 +20482,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20885,7 +20894,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21091,7 +21100,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21503,7 +21512,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21676,7 +21685,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45604.60416666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -21709,7 +21718,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21882,7 +21891,7 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45604.60416666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F102">
         <v>12</v>
@@ -22072,6 +22081,830 @@
       </c>
       <c r="BP102">
         <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7491589</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45605.375</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>161</v>
+      </c>
+      <c r="P103" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q103">
+        <v>1.8</v>
+      </c>
+      <c r="R103">
+        <v>2.65</v>
+      </c>
+      <c r="S103">
+        <v>5.25</v>
+      </c>
+      <c r="T103">
+        <v>1.22</v>
+      </c>
+      <c r="U103">
+        <v>3.9</v>
+      </c>
+      <c r="V103">
+        <v>2.05</v>
+      </c>
+      <c r="W103">
+        <v>1.7</v>
+      </c>
+      <c r="X103">
+        <v>4</v>
+      </c>
+      <c r="Y103">
+        <v>1.22</v>
+      </c>
+      <c r="Z103">
+        <v>1.33</v>
+      </c>
+      <c r="AA103">
+        <v>5</v>
+      </c>
+      <c r="AB103">
+        <v>7.5</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>1.11</v>
+      </c>
+      <c r="AF103">
+        <v>6.25</v>
+      </c>
+      <c r="AG103">
+        <v>1.38</v>
+      </c>
+      <c r="AH103">
+        <v>2.9</v>
+      </c>
+      <c r="AI103">
+        <v>1.57</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.1</v>
+      </c>
+      <c r="AL103">
+        <v>1.11</v>
+      </c>
+      <c r="AM103">
+        <v>2.9</v>
+      </c>
+      <c r="AN103">
+        <v>1.17</v>
+      </c>
+      <c r="AO103">
+        <v>1.6</v>
+      </c>
+      <c r="AP103">
+        <v>1.43</v>
+      </c>
+      <c r="AQ103">
+        <v>1.33</v>
+      </c>
+      <c r="AR103">
+        <v>1.96</v>
+      </c>
+      <c r="AS103">
+        <v>1.53</v>
+      </c>
+      <c r="AT103">
+        <v>3.49</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>14</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>24</v>
+      </c>
+      <c r="AZ103">
+        <v>5</v>
+      </c>
+      <c r="BA103">
+        <v>10</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>14</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>1.98</v>
+      </c>
+      <c r="BN103">
+        <v>1.82</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7491590</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45605.375</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q104">
+        <v>2.7</v>
+      </c>
+      <c r="R104">
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <v>3.3</v>
+      </c>
+      <c r="T104">
+        <v>1.3</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.3</v>
+      </c>
+      <c r="W104">
+        <v>1.55</v>
+      </c>
+      <c r="X104">
+        <v>4.9</v>
+      </c>
+      <c r="Y104">
+        <v>1.14</v>
+      </c>
+      <c r="Z104">
+        <v>2.4</v>
+      </c>
+      <c r="AA104">
+        <v>3.5</v>
+      </c>
+      <c r="AB104">
+        <v>2.7</v>
+      </c>
+      <c r="AC104">
+        <v>1.04</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.2</v>
+      </c>
+      <c r="AF104">
+        <v>4.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.5</v>
+      </c>
+      <c r="AH104">
+        <v>2.48</v>
+      </c>
+      <c r="AI104">
+        <v>1.45</v>
+      </c>
+      <c r="AJ104">
+        <v>2.5</v>
+      </c>
+      <c r="AK104">
+        <v>1.4</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.62</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>2.2</v>
+      </c>
+      <c r="AP104">
+        <v>1.29</v>
+      </c>
+      <c r="AQ104">
+        <v>1.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.47</v>
+      </c>
+      <c r="AS104">
+        <v>1.6</v>
+      </c>
+      <c r="AT104">
+        <v>3.07</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>8</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>15</v>
+      </c>
+      <c r="AZ104">
+        <v>18</v>
+      </c>
+      <c r="BA104">
+        <v>1</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
+        <v>10</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>1.95</v>
+      </c>
+      <c r="BN104">
+        <v>1.85</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7491596</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45605.375</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P105" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q105">
+        <v>2.35</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>4.2</v>
+      </c>
+      <c r="T105">
+        <v>1.33</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.55</v>
+      </c>
+      <c r="W105">
+        <v>1.45</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.11</v>
+      </c>
+      <c r="Z105">
+        <v>1.7</v>
+      </c>
+      <c r="AA105">
+        <v>3.8</v>
+      </c>
+      <c r="AB105">
+        <v>4.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.25</v>
+      </c>
+      <c r="AF105">
+        <v>3.85</v>
+      </c>
+      <c r="AG105">
+        <v>1.72</v>
+      </c>
+      <c r="AH105">
+        <v>2.05</v>
+      </c>
+      <c r="AI105">
+        <v>1.65</v>
+      </c>
+      <c r="AJ105">
+        <v>2.05</v>
+      </c>
+      <c r="AK105">
+        <v>1.22</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>1.93</v>
+      </c>
+      <c r="AN105">
+        <v>0.8</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>0.83</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.68</v>
+      </c>
+      <c r="AS105">
+        <v>1.02</v>
+      </c>
+      <c r="AT105">
+        <v>2.7</v>
+      </c>
+      <c r="AU105">
+        <v>9</v>
+      </c>
+      <c r="AV105">
+        <v>2</v>
+      </c>
+      <c r="AW105">
+        <v>8</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>23</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>14</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>15</v>
+      </c>
+      <c r="BD105">
+        <v>1.64</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>2.66</v>
+      </c>
+      <c r="BG105">
+        <v>1.22</v>
+      </c>
+      <c r="BH105">
+        <v>3.95</v>
+      </c>
+      <c r="BI105">
+        <v>1.41</v>
+      </c>
+      <c r="BJ105">
+        <v>2.8</v>
+      </c>
+      <c r="BK105">
+        <v>1.68</v>
+      </c>
+      <c r="BL105">
+        <v>2.1</v>
+      </c>
+      <c r="BM105">
+        <v>2.1</v>
+      </c>
+      <c r="BN105">
+        <v>1.68</v>
+      </c>
+      <c r="BO105">
+        <v>2.73</v>
+      </c>
+      <c r="BP105">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7491591</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45605.6875</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>163</v>
+      </c>
+      <c r="P106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q106">
+        <v>2.62</v>
+      </c>
+      <c r="R106">
+        <v>2.2</v>
+      </c>
+      <c r="S106">
+        <v>3.5</v>
+      </c>
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="U106">
+        <v>3.2</v>
+      </c>
+      <c r="V106">
+        <v>2.35</v>
+      </c>
+      <c r="W106">
+        <v>1.53</v>
+      </c>
+      <c r="X106">
+        <v>5.2</v>
+      </c>
+      <c r="Y106">
+        <v>1.12</v>
+      </c>
+      <c r="Z106">
+        <v>2.15</v>
+      </c>
+      <c r="AA106">
+        <v>3.72</v>
+      </c>
+      <c r="AB106">
+        <v>3.14</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.2</v>
+      </c>
+      <c r="AF106">
+        <v>4.33</v>
+      </c>
+      <c r="AG106">
+        <v>1.62</v>
+      </c>
+      <c r="AH106">
+        <v>2.2</v>
+      </c>
+      <c r="AI106">
+        <v>1.5</v>
+      </c>
+      <c r="AJ106">
+        <v>2.38</v>
+      </c>
+      <c r="AK106">
+        <v>1.35</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.67</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>1.43</v>
+      </c>
+      <c r="AR106">
+        <v>1.62</v>
+      </c>
+      <c r="AS106">
+        <v>1.38</v>
+      </c>
+      <c r="AT106">
+        <v>3</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>12</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>1.7</v>
+      </c>
+      <c r="BE106">
+        <v>6.2</v>
+      </c>
+      <c r="BF106">
+        <v>2.62</v>
+      </c>
+      <c r="BG106">
+        <v>1.16</v>
+      </c>
+      <c r="BH106">
+        <v>5.16</v>
+      </c>
+      <c r="BI106">
+        <v>1.32</v>
+      </c>
+      <c r="BJ106">
+        <v>3.39</v>
+      </c>
+      <c r="BK106">
+        <v>1.54</v>
+      </c>
+      <c r="BL106">
+        <v>2.46</v>
+      </c>
+      <c r="BM106">
+        <v>2</v>
+      </c>
+      <c r="BN106">
+        <v>1.8</v>
+      </c>
+      <c r="BO106">
+        <v>2.36</v>
+      </c>
+      <c r="BP106">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,15 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['16', '53']</t>
+  </si>
+  <si>
+    <t>['10', '45+5', '48']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -704,6 +713,12 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1339,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1530,7 +1545,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1608,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1942,7 +1957,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2354,7 +2369,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2432,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>0.33</v>
@@ -2560,7 +2575,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2766,7 +2781,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2847,7 +2862,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2972,7 +2987,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3384,7 +3399,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3796,7 +3811,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3874,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4208,7 +4223,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4414,7 +4429,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4620,7 +4635,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4907,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5032,7 +5047,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5110,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5444,7 +5459,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5650,7 +5665,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6268,7 +6283,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6474,7 +6489,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6680,7 +6695,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6967,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7092,7 +7107,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7298,7 +7313,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7379,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7582,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>1.4</v>
@@ -7710,7 +7725,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7916,7 +7931,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8328,7 +8343,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8406,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>1.6</v>
@@ -8534,7 +8549,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8740,7 +8755,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9024,7 +9039,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9152,7 +9167,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9358,7 +9373,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9564,7 +9579,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9770,7 +9785,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10182,7 +10197,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10594,7 +10609,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10675,7 +10690,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10800,7 +10815,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10878,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -11006,7 +11021,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11212,7 +11227,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11624,7 +11639,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11830,7 +11845,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11908,7 +11923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12036,7 +12051,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12242,7 +12257,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12323,7 +12338,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12448,7 +12463,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12654,7 +12669,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12860,7 +12875,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13272,7 +13287,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13478,7 +13493,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13890,7 +13905,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14096,7 +14111,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14508,7 +14523,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14586,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -14998,7 +15013,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>1.57</v>
@@ -15126,7 +15141,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15207,7 +15222,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15332,7 +15347,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15410,7 +15425,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
         <v>1.83</v>
@@ -15538,7 +15553,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15825,7 +15840,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15950,7 +15965,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16156,7 +16171,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16362,7 +16377,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16568,7 +16583,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16774,7 +16789,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17598,7 +17613,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17804,7 +17819,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18010,7 +18025,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18216,7 +18231,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18422,7 +18437,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18500,7 +18515,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85">
         <v>1.83</v>
@@ -18628,7 +18643,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18706,7 +18721,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18834,7 +18849,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18912,7 +18927,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
         <v>1.17</v>
@@ -19040,7 +19055,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19246,7 +19261,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19452,7 +19467,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19533,7 +19548,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -19739,7 +19754,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>1.66</v>
@@ -20482,7 +20497,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20894,7 +20909,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21100,7 +21115,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21512,7 +21527,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21685,7 +21700,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45603.875</v>
+        <v>45604.60416666666</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -21718,7 +21733,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21891,10 +21906,10 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45603.875</v>
+        <v>45604.60416666666</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>81</v>
@@ -22336,7 +22351,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22512,7 +22527,7 @@
         <v>45605.375</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>74</v>
@@ -22718,7 +22733,7 @@
         <v>45605.6875</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>83</v>
@@ -22748,7 +22763,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22905,6 +22920,624 @@
       </c>
       <c r="BP106">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7491592</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>87</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>164</v>
+      </c>
+      <c r="P107" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q107">
+        <v>2.1</v>
+      </c>
+      <c r="R107">
+        <v>2.4</v>
+      </c>
+      <c r="S107">
+        <v>4.5</v>
+      </c>
+      <c r="T107">
+        <v>1.25</v>
+      </c>
+      <c r="U107">
+        <v>3.55</v>
+      </c>
+      <c r="V107">
+        <v>2.1</v>
+      </c>
+      <c r="W107">
+        <v>1.65</v>
+      </c>
+      <c r="X107">
+        <v>4.2</v>
+      </c>
+      <c r="Y107">
+        <v>1.18</v>
+      </c>
+      <c r="Z107">
+        <v>2.97</v>
+      </c>
+      <c r="AA107">
+        <v>2.47</v>
+      </c>
+      <c r="AB107">
+        <v>2.73</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>17</v>
+      </c>
+      <c r="AE107">
+        <v>1.17</v>
+      </c>
+      <c r="AF107">
+        <v>5</v>
+      </c>
+      <c r="AG107">
+        <v>1.45</v>
+      </c>
+      <c r="AH107">
+        <v>2.63</v>
+      </c>
+      <c r="AI107">
+        <v>1.48</v>
+      </c>
+      <c r="AJ107">
+        <v>2.4</v>
+      </c>
+      <c r="AK107">
+        <v>1.18</v>
+      </c>
+      <c r="AL107">
+        <v>1.18</v>
+      </c>
+      <c r="AM107">
+        <v>2.2</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>0.8</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
+        <v>0.83</v>
+      </c>
+      <c r="AR107">
+        <v>1.56</v>
+      </c>
+      <c r="AS107">
+        <v>1.4</v>
+      </c>
+      <c r="AT107">
+        <v>2.96</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>8</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>16</v>
+      </c>
+      <c r="AZ107">
+        <v>16</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>7</v>
+      </c>
+      <c r="BC107">
+        <v>15</v>
+      </c>
+      <c r="BD107">
+        <v>1.35</v>
+      </c>
+      <c r="BE107">
+        <v>7.2</v>
+      </c>
+      <c r="BF107">
+        <v>4.05</v>
+      </c>
+      <c r="BG107">
+        <v>1.17</v>
+      </c>
+      <c r="BH107">
+        <v>4.8</v>
+      </c>
+      <c r="BI107">
+        <v>1.3</v>
+      </c>
+      <c r="BJ107">
+        <v>3.25</v>
+      </c>
+      <c r="BK107">
+        <v>1.53</v>
+      </c>
+      <c r="BL107">
+        <v>2.4</v>
+      </c>
+      <c r="BM107">
+        <v>1.88</v>
+      </c>
+      <c r="BN107">
+        <v>1.92</v>
+      </c>
+      <c r="BO107">
+        <v>2.3</v>
+      </c>
+      <c r="BP107">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7491593</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>165</v>
+      </c>
+      <c r="P108" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>2.4</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>1.3</v>
+      </c>
+      <c r="U108">
+        <v>3.25</v>
+      </c>
+      <c r="V108">
+        <v>2.36</v>
+      </c>
+      <c r="W108">
+        <v>1.54</v>
+      </c>
+      <c r="X108">
+        <v>5.45</v>
+      </c>
+      <c r="Y108">
+        <v>1.12</v>
+      </c>
+      <c r="Z108">
+        <v>2.79</v>
+      </c>
+      <c r="AA108">
+        <v>2.31</v>
+      </c>
+      <c r="AB108">
+        <v>3.16</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>10</v>
+      </c>
+      <c r="AE108">
+        <v>1.18</v>
+      </c>
+      <c r="AF108">
+        <v>4.5</v>
+      </c>
+      <c r="AG108">
+        <v>1.62</v>
+      </c>
+      <c r="AH108">
+        <v>2.2</v>
+      </c>
+      <c r="AI108">
+        <v>1.68</v>
+      </c>
+      <c r="AJ108">
+        <v>2.1</v>
+      </c>
+      <c r="AK108">
+        <v>1.1</v>
+      </c>
+      <c r="AL108">
+        <v>1.17</v>
+      </c>
+      <c r="AM108">
+        <v>2.45</v>
+      </c>
+      <c r="AN108">
+        <v>0.8</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>1.17</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <v>1.53</v>
+      </c>
+      <c r="AS108">
+        <v>1.14</v>
+      </c>
+      <c r="AT108">
+        <v>2.67</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>14</v>
+      </c>
+      <c r="AZ108">
+        <v>9</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.4</v>
+      </c>
+      <c r="BE108">
+        <v>6.8</v>
+      </c>
+      <c r="BF108">
+        <v>3.75</v>
+      </c>
+      <c r="BG108">
+        <v>1.2</v>
+      </c>
+      <c r="BH108">
+        <v>4.4</v>
+      </c>
+      <c r="BI108">
+        <v>1.35</v>
+      </c>
+      <c r="BJ108">
+        <v>3</v>
+      </c>
+      <c r="BK108">
+        <v>1.57</v>
+      </c>
+      <c r="BL108">
+        <v>2.25</v>
+      </c>
+      <c r="BM108">
+        <v>2</v>
+      </c>
+      <c r="BN108">
+        <v>1.8</v>
+      </c>
+      <c r="BO108">
+        <v>2.45</v>
+      </c>
+      <c r="BP108">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7491594</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q109">
+        <v>3.1</v>
+      </c>
+      <c r="R109">
+        <v>2.15</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>2.45</v>
+      </c>
+      <c r="W109">
+        <v>1.48</v>
+      </c>
+      <c r="X109">
+        <v>5.1</v>
+      </c>
+      <c r="Y109">
+        <v>1.13</v>
+      </c>
+      <c r="Z109">
+        <v>5.51</v>
+      </c>
+      <c r="AA109">
+        <v>2.48</v>
+      </c>
+      <c r="AB109">
+        <v>1.9</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.22</v>
+      </c>
+      <c r="AF109">
+        <v>4.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.65</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.5</v>
+      </c>
+      <c r="AJ109">
+        <v>2.35</v>
+      </c>
+      <c r="AK109">
+        <v>1.5</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.45</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>0.8</v>
+      </c>
+      <c r="AP109">
+        <v>2.17</v>
+      </c>
+      <c r="AQ109">
+        <v>0.67</v>
+      </c>
+      <c r="AR109">
+        <v>1.49</v>
+      </c>
+      <c r="AS109">
+        <v>1.43</v>
+      </c>
+      <c r="AT109">
+        <v>2.92</v>
+      </c>
+      <c r="AU109">
+        <v>10</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>24</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>15</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>17</v>
+      </c>
+      <c r="BD109">
+        <v>2.02</v>
+      </c>
+      <c r="BE109">
+        <v>7.3</v>
+      </c>
+      <c r="BF109">
+        <v>2.02</v>
+      </c>
+      <c r="BG109">
+        <v>1.13</v>
+      </c>
+      <c r="BH109">
+        <v>5.35</v>
+      </c>
+      <c r="BI109">
+        <v>1.26</v>
+      </c>
+      <c r="BJ109">
+        <v>3.65</v>
+      </c>
+      <c r="BK109">
+        <v>1.45</v>
+      </c>
+      <c r="BL109">
+        <v>2.65</v>
+      </c>
+      <c r="BM109">
+        <v>1.9</v>
+      </c>
+      <c r="BN109">
+        <v>1.9</v>
+      </c>
+      <c r="BO109">
+        <v>2.15</v>
+      </c>
+      <c r="BP109">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -22936,7 +22936,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45605.875</v>
+        <v>45606.39583333334</v>
       </c>
       <c r="F107">
         <v>12</v>
@@ -23142,7 +23142,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45605.875</v>
+        <v>45606.39583333334</v>
       </c>
       <c r="F108">
         <v>12</v>
@@ -23348,7 +23348,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45605.875</v>
+        <v>45606.39583333334</v>
       </c>
       <c r="F109">
         <v>0</v>
